--- a/data/infected_pigs.xlsx
+++ b/data/infected_pigs.xlsx
@@ -26,7 +26,7 @@
     <t xml:space="preserve">activity</t>
   </si>
   <si>
-    <t xml:space="preserve">CRP</t>
+    <t xml:space="preserve">crp</t>
   </si>
   <si>
     <t xml:space="preserve">frailty</t>
@@ -434,7 +434,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>60.52</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -466,7 +466,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>52.79</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -498,7 +498,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>65.68</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -530,7 +530,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>59.18</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -562,7 +562,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>63.01</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -594,7 +594,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>54.6</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -626,7 +626,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>49.34</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -658,7 +658,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>53.31</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -690,7 +690,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>57.95</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
@@ -722,7 +722,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>56.61</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -754,7 +754,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>65.03</v>
+        <v>65</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -786,7 +786,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>56.33</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -818,7 +818,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>54.69</v>
+        <v>55</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
@@ -850,7 +850,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>61.79</v>
+        <v>62</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
@@ -882,7 +882,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>58.96</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
@@ -914,7 +914,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>58.89</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
@@ -946,7 +946,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>62.34</v>
+        <v>62</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
@@ -978,7 +978,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>58.71</v>
+        <v>59</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
@@ -1010,7 +1010,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>56.49</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
         <v>10</v>
@@ -1042,7 +1042,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>67.01</v>
+        <v>67</v>
       </c>
       <c r="B21" t="s">
         <v>10</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>56.65</v>
+        <v>57</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
@@ -1106,7 +1106,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>67.98</v>
+        <v>68</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
@@ -1138,7 +1138,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>57.11</v>
+        <v>57</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
@@ -1170,7 +1170,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>58.36</v>
+        <v>58</v>
       </c>
       <c r="B25" t="s">
         <v>10</v>
@@ -1202,7 +1202,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>58.95</v>
+        <v>59</v>
       </c>
       <c r="B26" t="s">
         <v>14</v>
@@ -1234,7 +1234,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>63.27</v>
+        <v>63</v>
       </c>
       <c r="B27" t="s">
         <v>14</v>
@@ -1266,7 +1266,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>51.1</v>
+        <v>51</v>
       </c>
       <c r="B28" t="s">
         <v>10</v>
@@ -1298,7 +1298,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>53.38</v>
+        <v>53</v>
       </c>
       <c r="B29" t="s">
         <v>10</v>
@@ -1330,7 +1330,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>67.89</v>
+        <v>68</v>
       </c>
       <c r="B30" t="s">
         <v>10</v>
@@ -1362,7 +1362,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>55.78</v>
+        <v>56</v>
       </c>
       <c r="B31" t="s">
         <v>10</v>
@@ -1394,7 +1394,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>49.62</v>
+        <v>50</v>
       </c>
       <c r="B32" t="s">
         <v>14</v>
@@ -1426,7 +1426,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>68.76</v>
+        <v>69</v>
       </c>
       <c r="B33" t="s">
         <v>14</v>
@@ -1458,7 +1458,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>56.29</v>
+        <v>56</v>
       </c>
       <c r="B34" t="s">
         <v>14</v>
@@ -1490,7 +1490,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>56.56</v>
+        <v>57</v>
       </c>
       <c r="B35" t="s">
         <v>14</v>
@@ -1522,7 +1522,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>61.36</v>
+        <v>61</v>
       </c>
       <c r="B36" t="s">
         <v>14</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>57.15</v>
+        <v>57</v>
       </c>
       <c r="B37" t="s">
         <v>10</v>
@@ -1586,7 +1586,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>57.76</v>
+        <v>58</v>
       </c>
       <c r="B38" t="s">
         <v>10</v>
@@ -1618,7 +1618,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>57.7</v>
+        <v>58</v>
       </c>
       <c r="B39" t="s">
         <v>10</v>
@@ -1650,7 +1650,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>65.42</v>
+        <v>65</v>
       </c>
       <c r="B40" t="s">
         <v>10</v>
@@ -1682,7 +1682,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>54.81</v>
+        <v>55</v>
       </c>
       <c r="B41" t="s">
         <v>10</v>
@@ -1714,7 +1714,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>63.02</v>
+        <v>63</v>
       </c>
       <c r="B42" t="s">
         <v>10</v>
@@ -1746,7 +1746,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>53.04</v>
+        <v>53</v>
       </c>
       <c r="B43" t="s">
         <v>14</v>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>54.36</v>
+        <v>54</v>
       </c>
       <c r="B44" t="s">
         <v>10</v>
@@ -1810,7 +1810,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>55.41</v>
+        <v>55</v>
       </c>
       <c r="B45" t="s">
         <v>10</v>
@@ -1842,7 +1842,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>58.98</v>
+        <v>59</v>
       </c>
       <c r="B46" t="s">
         <v>14</v>
@@ -1874,7 +1874,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>59.21</v>
+        <v>59</v>
       </c>
       <c r="B47" t="s">
         <v>10</v>
@@ -1906,7 +1906,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>63.7</v>
+        <v>64</v>
       </c>
       <c r="B48" t="s">
         <v>10</v>
@@ -1938,7 +1938,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>57.65</v>
+        <v>58</v>
       </c>
       <c r="B49" t="s">
         <v>10</v>
@@ -1970,7 +1970,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>63.48</v>
+        <v>63</v>
       </c>
       <c r="B50" t="s">
         <v>10</v>
@@ -2002,7 +2002,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>68.66</v>
+        <v>69</v>
       </c>
       <c r="B51" t="s">
         <v>10</v>
@@ -2034,7 +2034,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>66.08</v>
+        <v>66</v>
       </c>
       <c r="B52" t="s">
         <v>10</v>
@@ -2066,7 +2066,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>54.1</v>
+        <v>54</v>
       </c>
       <c r="B53" t="s">
         <v>10</v>
@@ -2098,7 +2098,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>64.76</v>
+        <v>65</v>
       </c>
       <c r="B54" t="s">
         <v>10</v>
@@ -2130,7 +2130,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>59.6</v>
+        <v>60</v>
       </c>
       <c r="B55" t="s">
         <v>14</v>
@@ -2162,7 +2162,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>50.22</v>
+        <v>50</v>
       </c>
       <c r="B56" t="s">
         <v>10</v>
@@ -2194,7 +2194,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>59.04</v>
+        <v>59</v>
       </c>
       <c r="B57" t="s">
         <v>10</v>
@@ -2226,7 +2226,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>59.42</v>
+        <v>59</v>
       </c>
       <c r="B58" t="s">
         <v>10</v>
@@ -2258,7 +2258,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>58.82</v>
+        <v>59</v>
       </c>
       <c r="B59" t="s">
         <v>10</v>
@@ -2290,7 +2290,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>53.51</v>
+        <v>54</v>
       </c>
       <c r="B60" t="s">
         <v>10</v>
@@ -2322,7 +2322,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>60.19</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>14</v>
@@ -2354,7 +2354,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>56.89</v>
+        <v>57</v>
       </c>
       <c r="B62" t="s">
         <v>10</v>
@@ -2386,7 +2386,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>63.46</v>
+        <v>63</v>
       </c>
       <c r="B63" t="s">
         <v>10</v>
@@ -2418,7 +2418,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>50.57</v>
+        <v>51</v>
       </c>
       <c r="B64" t="s">
         <v>10</v>
@@ -2450,7 +2450,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>54.19</v>
+        <v>54</v>
       </c>
       <c r="B65" t="s">
         <v>14</v>
@@ -2482,7 +2482,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>54.94</v>
+        <v>55</v>
       </c>
       <c r="B66" t="s">
         <v>10</v>
@@ -2514,7 +2514,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>52.14</v>
+        <v>52</v>
       </c>
       <c r="B67" t="s">
         <v>14</v>
@@ -2546,7 +2546,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>54.65</v>
+        <v>55</v>
       </c>
       <c r="B68" t="s">
         <v>10</v>
@@ -2578,7 +2578,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>59.32</v>
+        <v>59</v>
       </c>
       <c r="B69" t="s">
         <v>10</v>
@@ -2610,7 +2610,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>59.84</v>
+        <v>60</v>
       </c>
       <c r="B70" t="s">
         <v>10</v>
@@ -2642,7 +2642,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>58.11</v>
+        <v>58</v>
       </c>
       <c r="B71" t="s">
         <v>10</v>
@@ -2674,7 +2674,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>63.25</v>
+        <v>63</v>
       </c>
       <c r="B72" t="s">
         <v>14</v>
@@ -2706,7 +2706,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>60.05</v>
+        <v>60</v>
       </c>
       <c r="B73" t="s">
         <v>10</v>
@@ -2738,7 +2738,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>60.64</v>
+        <v>61</v>
       </c>
       <c r="B74" t="s">
         <v>10</v>
@@ -2770,7 +2770,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>54.13</v>
+        <v>54</v>
       </c>
       <c r="B75" t="s">
         <v>14</v>
@@ -2802,7 +2802,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>58.86</v>
+        <v>59</v>
       </c>
       <c r="B76" t="s">
         <v>14</v>
@@ -2834,7 +2834,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>69.41</v>
+        <v>69</v>
       </c>
       <c r="B77" t="s">
         <v>10</v>
@@ -2866,7 +2866,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>50.48</v>
+        <v>50</v>
       </c>
       <c r="B78" t="s">
         <v>14</v>
@@ -2898,7 +2898,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>59.06</v>
+        <v>59</v>
       </c>
       <c r="B79" t="s">
         <v>10</v>
@@ -2930,7 +2930,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>66.6</v>
+        <v>67</v>
       </c>
       <c r="B80" t="s">
         <v>14</v>
@@ -2962,7 +2962,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>64.02</v>
+        <v>64</v>
       </c>
       <c r="B81" t="s">
         <v>10</v>
@@ -2994,7 +2994,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>53.08</v>
+        <v>53</v>
       </c>
       <c r="B82" t="s">
         <v>14</v>
@@ -3026,7 +3026,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>57.16</v>
+        <v>57</v>
       </c>
       <c r="B83" t="s">
         <v>10</v>
@@ -3058,7 +3058,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>55.45</v>
+        <v>55</v>
       </c>
       <c r="B84" t="s">
         <v>10</v>
@@ -3090,7 +3090,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>63.71</v>
+        <v>64</v>
       </c>
       <c r="B85" t="s">
         <v>10</v>
@@ -3122,7 +3122,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>58.57</v>
+        <v>59</v>
       </c>
       <c r="B86" t="s">
         <v>14</v>
@@ -3154,7 +3154,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>56.77</v>
+        <v>57</v>
       </c>
       <c r="B87" t="s">
         <v>10</v>
@@ -3186,7 +3186,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>62.73</v>
+        <v>63</v>
       </c>
       <c r="B88" t="s">
         <v>14</v>
@@ -3218,7 +3218,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>54.34</v>
+        <v>54</v>
       </c>
       <c r="B89" t="s">
         <v>10</v>
@@ -3250,7 +3250,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>64.25</v>
+        <v>64</v>
       </c>
       <c r="B90" t="s">
         <v>14</v>
@@ -3282,7 +3282,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>60.08</v>
+        <v>60</v>
       </c>
       <c r="B91" t="s">
         <v>10</v>
@@ -3314,7 +3314,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>67.55</v>
+        <v>68</v>
       </c>
       <c r="B92" t="s">
         <v>14</v>
@@ -3346,7 +3346,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>60.94</v>
+        <v>61</v>
       </c>
       <c r="B93" t="s">
         <v>10</v>
@@ -3378,7 +3378,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>68.08</v>
+        <v>68</v>
       </c>
       <c r="B94" t="s">
         <v>10</v>
@@ -3410,7 +3410,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>58.22</v>
+        <v>58</v>
       </c>
       <c r="B95" t="s">
         <v>10</v>
@@ -3442,7 +3442,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>67.76</v>
+        <v>68</v>
       </c>
       <c r="B96" t="s">
         <v>14</v>
@@ -3474,7 +3474,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>63.07</v>
+        <v>63</v>
       </c>
       <c r="B97" t="s">
         <v>10</v>
@@ -3506,7 +3506,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>67.69</v>
+        <v>68</v>
       </c>
       <c r="B98" t="s">
         <v>14</v>
@@ -3538,7 +3538,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>61.5</v>
+        <v>62</v>
       </c>
       <c r="B99" t="s">
         <v>10</v>
@@ -3570,7 +3570,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>60.74</v>
+        <v>61</v>
       </c>
       <c r="B100" t="s">
         <v>14</v>
@@ -3602,7 +3602,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>58.02</v>
+        <v>58</v>
       </c>
       <c r="B101" t="s">
         <v>14</v>
@@ -3634,7 +3634,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>62.92</v>
+        <v>63</v>
       </c>
       <c r="B102" t="s">
         <v>14</v>
@@ -3666,7 +3666,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>55.18</v>
+        <v>55</v>
       </c>
       <c r="B103" t="s">
         <v>14</v>
@@ -3698,7 +3698,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>52.31</v>
+        <v>52</v>
       </c>
       <c r="B104" t="s">
         <v>10</v>
@@ -3730,7 +3730,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>58.64</v>
+        <v>59</v>
       </c>
       <c r="B105" t="s">
         <v>14</v>
@@ -3762,7 +3762,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>53.99</v>
+        <v>54</v>
       </c>
       <c r="B106" t="s">
         <v>14</v>
@@ -3794,7 +3794,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>59.97</v>
+        <v>60</v>
       </c>
       <c r="B107" t="s">
         <v>14</v>
@@ -3826,7 +3826,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>53.98</v>
+        <v>54</v>
       </c>
       <c r="B108" t="s">
         <v>14</v>
@@ -3858,7 +3858,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>54.93</v>
+        <v>55</v>
       </c>
       <c r="B109" t="s">
         <v>10</v>
@@ -3890,7 +3890,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>62.66</v>
+        <v>63</v>
       </c>
       <c r="B110" t="s">
         <v>10</v>
@@ -3922,7 +3922,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>57.88</v>
+        <v>58</v>
       </c>
       <c r="B111" t="s">
         <v>10</v>
@@ -3954,7 +3954,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>55.2</v>
+        <v>55</v>
       </c>
       <c r="B112" t="s">
         <v>14</v>
@@ -3986,7 +3986,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>60.11</v>
+        <v>60</v>
       </c>
       <c r="B113" t="s">
         <v>14</v>
@@ -4018,7 +4018,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>69.18</v>
+        <v>69</v>
       </c>
       <c r="B114" t="s">
         <v>14</v>
@@ -4050,7 +4050,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>58.14</v>
+        <v>58</v>
       </c>
       <c r="B115" t="s">
         <v>10</v>
@@ -4082,7 +4082,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>57.61</v>
+        <v>58</v>
       </c>
       <c r="B116" t="s">
         <v>10</v>
@@ -4114,7 +4114,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>56.54</v>
+        <v>57</v>
       </c>
       <c r="B117" t="s">
         <v>10</v>
@@ -4146,7 +4146,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>62.21</v>
+        <v>62</v>
       </c>
       <c r="B118" t="s">
         <v>14</v>
@@ -4178,7 +4178,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>62.71</v>
+        <v>63</v>
       </c>
       <c r="B119" t="s">
         <v>10</v>
@@ -4210,7 +4210,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>59.33</v>
+        <v>59</v>
       </c>
       <c r="B120" t="s">
         <v>10</v>
@@ -4242,7 +4242,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>64.27</v>
+        <v>64</v>
       </c>
       <c r="B121" t="s">
         <v>14</v>
@@ -4274,7 +4274,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>64.26</v>
+        <v>64</v>
       </c>
       <c r="B122" t="s">
         <v>10</v>
@@ -4306,7 +4306,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>56.62</v>
+        <v>57</v>
       </c>
       <c r="B123" t="s">
         <v>14</v>
@@ -4338,7 +4338,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>59.31</v>
+        <v>59</v>
       </c>
       <c r="B124" t="s">
         <v>14</v>
@@ -4370,7 +4370,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>67.26</v>
+        <v>67</v>
       </c>
       <c r="B125" t="s">
         <v>14</v>
@@ -4402,7 +4402,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>70.89</v>
+        <v>71</v>
       </c>
       <c r="B126" t="s">
         <v>10</v>
@@ -4434,7 +4434,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>63.35</v>
+        <v>63</v>
       </c>
       <c r="B127" t="s">
         <v>10</v>
@@ -4466,7 +4466,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>58.83</v>
+        <v>59</v>
       </c>
       <c r="B128" t="s">
         <v>14</v>
@@ -4498,7 +4498,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>52.62</v>
+        <v>53</v>
       </c>
       <c r="B129" t="s">
         <v>10</v>
@@ -4530,7 +4530,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>60.68</v>
+        <v>61</v>
       </c>
       <c r="B130" t="s">
         <v>14</v>
@@ -4562,7 +4562,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>54.77</v>
+        <v>55</v>
       </c>
       <c r="B131" t="s">
         <v>10</v>
@@ -4594,7 +4594,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>63.75</v>
+        <v>64</v>
       </c>
       <c r="B132" t="s">
         <v>10</v>
@@ -4626,7 +4626,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>62.84</v>
+        <v>63</v>
       </c>
       <c r="B133" t="s">
         <v>14</v>
@@ -4658,7 +4658,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>52.72</v>
+        <v>53</v>
       </c>
       <c r="B134" t="s">
         <v>10</v>
@@ -4722,7 +4722,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>56.7</v>
+        <v>57</v>
       </c>
       <c r="B136" t="s">
         <v>10</v>
@@ -4754,7 +4754,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>59.12</v>
+        <v>59</v>
       </c>
       <c r="B137" t="s">
         <v>10</v>
@@ -4786,7 +4786,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>63.21</v>
+        <v>63</v>
       </c>
       <c r="B138" t="s">
         <v>10</v>
@@ -4818,7 +4818,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>59.42</v>
+        <v>59</v>
       </c>
       <c r="B139" t="s">
         <v>10</v>
@@ -4850,7 +4850,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>52.86</v>
+        <v>53</v>
       </c>
       <c r="B140" t="s">
         <v>10</v>
@@ -4882,7 +4882,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>58.13</v>
+        <v>58</v>
       </c>
       <c r="B141" t="s">
         <v>14</v>
@@ -4914,7 +4914,7 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>58.31</v>
+        <v>58</v>
       </c>
       <c r="B142" t="s">
         <v>10</v>
@@ -4946,7 +4946,7 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>59.47</v>
+        <v>59</v>
       </c>
       <c r="B143" t="s">
         <v>14</v>
@@ -4978,7 +4978,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>59.97</v>
+        <v>60</v>
       </c>
       <c r="B144" t="s">
         <v>14</v>
@@ -5010,7 +5010,7 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>49.25</v>
+        <v>49</v>
       </c>
       <c r="B145" t="s">
         <v>10</v>
@@ -5042,7 +5042,7 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>56.81</v>
+        <v>57</v>
       </c>
       <c r="B146" t="s">
         <v>10</v>
@@ -5074,7 +5074,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>67.6</v>
+        <v>68</v>
       </c>
       <c r="B147" t="s">
         <v>14</v>
@@ -5106,7 +5106,7 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>52.91</v>
+        <v>53</v>
       </c>
       <c r="B148" t="s">
         <v>10</v>
@@ -5138,7 +5138,7 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>58.39</v>
+        <v>58</v>
       </c>
       <c r="B149" t="s">
         <v>10</v>
@@ -5170,7 +5170,7 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>56.6</v>
+        <v>57</v>
       </c>
       <c r="B150" t="s">
         <v>10</v>
@@ -5202,7 +5202,7 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>62.62</v>
+        <v>63</v>
       </c>
       <c r="B151" t="s">
         <v>10</v>
@@ -5234,7 +5234,7 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>55.26</v>
+        <v>55</v>
       </c>
       <c r="B152" t="s">
         <v>10</v>
@@ -5266,7 +5266,7 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>62.63</v>
+        <v>63</v>
       </c>
       <c r="B153" t="s">
         <v>10</v>
@@ -5298,7 +5298,7 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>65.15</v>
+        <v>65</v>
       </c>
       <c r="B154" t="s">
         <v>10</v>
@@ -5330,7 +5330,7 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>61.42</v>
+        <v>61</v>
       </c>
       <c r="B155" t="s">
         <v>14</v>
@@ -5362,7 +5362,7 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>60.75</v>
+        <v>61</v>
       </c>
       <c r="B156" t="s">
         <v>14</v>
@@ -5394,7 +5394,7 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>60.32</v>
+        <v>60</v>
       </c>
       <c r="B157" t="s">
         <v>10</v>
@@ -5426,7 +5426,7 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>58.45</v>
+        <v>58</v>
       </c>
       <c r="B158" t="s">
         <v>14</v>
@@ -5458,7 +5458,7 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>49.74</v>
+        <v>50</v>
       </c>
       <c r="B159" t="s">
         <v>10</v>
@@ -5490,7 +5490,7 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>61.43</v>
+        <v>61</v>
       </c>
       <c r="B160" t="s">
         <v>10</v>
@@ -5522,7 +5522,7 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>56.07</v>
+        <v>56</v>
       </c>
       <c r="B161" t="s">
         <v>10</v>
@@ -5554,7 +5554,7 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>59.95</v>
+        <v>60</v>
       </c>
       <c r="B162" t="s">
         <v>10</v>
@@ -5586,7 +5586,7 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>56.58</v>
+        <v>57</v>
       </c>
       <c r="B163" t="s">
         <v>10</v>
@@ -5618,7 +5618,7 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>62.32</v>
+        <v>62</v>
       </c>
       <c r="B164" t="s">
         <v>10</v>
@@ -5650,7 +5650,7 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>60.33</v>
+        <v>60</v>
       </c>
       <c r="B165" t="s">
         <v>10</v>
@@ -5682,7 +5682,7 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>56.3</v>
+        <v>56</v>
       </c>
       <c r="B166" t="s">
         <v>10</v>
@@ -5714,7 +5714,7 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>62.5</v>
+        <v>62</v>
       </c>
       <c r="B167" t="s">
         <v>14</v>
@@ -5746,7 +5746,7 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>56.62</v>
+        <v>57</v>
       </c>
       <c r="B168" t="s">
         <v>10</v>
@@ -5778,7 +5778,7 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>58.61</v>
+        <v>59</v>
       </c>
       <c r="B169" t="s">
         <v>10</v>
@@ -5810,7 +5810,7 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>60.32</v>
+        <v>60</v>
       </c>
       <c r="B170" t="s">
         <v>14</v>
@@ -5874,7 +5874,7 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>62.16</v>
+        <v>62</v>
       </c>
       <c r="B172" t="s">
         <v>10</v>
@@ -5906,7 +5906,7 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>59.56</v>
+        <v>60</v>
       </c>
       <c r="B173" t="s">
         <v>10</v>
@@ -5938,7 +5938,7 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>59.85</v>
+        <v>60</v>
       </c>
       <c r="B174" t="s">
         <v>14</v>
@@ -5970,7 +5970,7 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>60.93</v>
+        <v>61</v>
       </c>
       <c r="B175" t="s">
         <v>10</v>
@@ -6002,7 +6002,7 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>57.3</v>
+        <v>57</v>
       </c>
       <c r="B176" t="s">
         <v>10</v>
@@ -6034,7 +6034,7 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>66.14</v>
+        <v>66</v>
       </c>
       <c r="B177" t="s">
         <v>10</v>
@@ -6066,7 +6066,7 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>55.57</v>
+        <v>56</v>
       </c>
       <c r="B178" t="s">
         <v>14</v>
@@ -6098,7 +6098,7 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>53.31</v>
+        <v>53</v>
       </c>
       <c r="B179" t="s">
         <v>14</v>
@@ -6130,7 +6130,7 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>63.11</v>
+        <v>63</v>
       </c>
       <c r="B180" t="s">
         <v>10</v>
@@ -6162,7 +6162,7 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>57.78</v>
+        <v>58</v>
       </c>
       <c r="B181" t="s">
         <v>14</v>
@@ -6194,7 +6194,7 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>62.92</v>
+        <v>63</v>
       </c>
       <c r="B182" t="s">
         <v>10</v>
@@ -6226,7 +6226,7 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>51.04</v>
+        <v>51</v>
       </c>
       <c r="B183" t="s">
         <v>14</v>
@@ -6258,7 +6258,7 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>62.39</v>
+        <v>62</v>
       </c>
       <c r="B184" t="s">
         <v>10</v>
@@ -6290,7 +6290,7 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>60.82</v>
+        <v>61</v>
       </c>
       <c r="B185" t="s">
         <v>14</v>
@@ -6322,7 +6322,7 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>57.32</v>
+        <v>57</v>
       </c>
       <c r="B186" t="s">
         <v>14</v>
@@ -6354,7 +6354,7 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>64.58</v>
+        <v>65</v>
       </c>
       <c r="B187" t="s">
         <v>10</v>
@@ -6386,7 +6386,7 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>58.47</v>
+        <v>58</v>
       </c>
       <c r="B188" t="s">
         <v>10</v>
@@ -6418,7 +6418,7 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>58.2</v>
+        <v>58</v>
       </c>
       <c r="B189" t="s">
         <v>14</v>
@@ -6450,7 +6450,7 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>61.37</v>
+        <v>61</v>
       </c>
       <c r="B190" t="s">
         <v>14</v>
@@ -6482,7 +6482,7 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>55.8</v>
+        <v>56</v>
       </c>
       <c r="B191" t="s">
         <v>14</v>
@@ -6514,7 +6514,7 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>66.15</v>
+        <v>66</v>
       </c>
       <c r="B192" t="s">
         <v>14</v>
@@ -6546,7 +6546,7 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>57.42</v>
+        <v>57</v>
       </c>
       <c r="B193" t="s">
         <v>10</v>
@@ -6578,7 +6578,7 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>62.53</v>
+        <v>63</v>
       </c>
       <c r="B194" t="s">
         <v>10</v>
@@ -6610,7 +6610,7 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>67.13</v>
+        <v>67</v>
       </c>
       <c r="B195" t="s">
         <v>14</v>
@@ -6642,7 +6642,7 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>62.52</v>
+        <v>63</v>
       </c>
       <c r="B196" t="s">
         <v>14</v>
@@ -6674,7 +6674,7 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>56.87</v>
+        <v>57</v>
       </c>
       <c r="B197" t="s">
         <v>10</v>
@@ -6738,7 +6738,7 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>61.16</v>
+        <v>61</v>
       </c>
       <c r="B199" t="s">
         <v>10</v>
@@ -6770,7 +6770,7 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>56.34</v>
+        <v>56</v>
       </c>
       <c r="B200" t="s">
         <v>10</v>
@@ -6802,7 +6802,7 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>63.28</v>
+        <v>63</v>
       </c>
       <c r="B201" t="s">
         <v>14</v>
@@ -6834,7 +6834,7 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>65.93</v>
+        <v>66</v>
       </c>
       <c r="B202" t="s">
         <v>14</v>
@@ -6866,7 +6866,7 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>64.22</v>
+        <v>64</v>
       </c>
       <c r="B203" t="s">
         <v>14</v>
@@ -6898,7 +6898,7 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>69.39</v>
+        <v>69</v>
       </c>
       <c r="B204" t="s">
         <v>14</v>
@@ -6930,7 +6930,7 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>62.22</v>
+        <v>62</v>
       </c>
       <c r="B205" t="s">
         <v>14</v>
@@ -6962,7 +6962,7 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>61.9</v>
+        <v>62</v>
       </c>
       <c r="B206" t="s">
         <v>10</v>
@@ -6994,7 +6994,7 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>59.48</v>
+        <v>59</v>
       </c>
       <c r="B207" t="s">
         <v>10</v>
@@ -7026,7 +7026,7 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>59.71</v>
+        <v>60</v>
       </c>
       <c r="B208" t="s">
         <v>14</v>
@@ -7058,7 +7058,7 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>55.09</v>
+        <v>55</v>
       </c>
       <c r="B209" t="s">
         <v>14</v>
@@ -7090,7 +7090,7 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>63.15</v>
+        <v>63</v>
       </c>
       <c r="B210" t="s">
         <v>14</v>
@@ -7122,7 +7122,7 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>58.52</v>
+        <v>59</v>
       </c>
       <c r="B211" t="s">
         <v>10</v>
@@ -7154,7 +7154,7 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>57.71</v>
+        <v>58</v>
       </c>
       <c r="B212" t="s">
         <v>10</v>
@@ -7186,7 +7186,7 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>65.36</v>
+        <v>65</v>
       </c>
       <c r="B213" t="s">
         <v>10</v>
@@ -7218,7 +7218,7 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>62.36</v>
+        <v>62</v>
       </c>
       <c r="B214" t="s">
         <v>14</v>
@@ -7250,7 +7250,7 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>62.78</v>
+        <v>63</v>
       </c>
       <c r="B215" t="s">
         <v>10</v>
@@ -7282,7 +7282,7 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>61.39</v>
+        <v>61</v>
       </c>
       <c r="B216" t="s">
         <v>10</v>
@@ -7314,7 +7314,7 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>62.35</v>
+        <v>62</v>
       </c>
       <c r="B217" t="s">
         <v>10</v>
@@ -7346,7 +7346,7 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>67.28</v>
+        <v>67</v>
       </c>
       <c r="B218" t="s">
         <v>10</v>
@@ -7378,7 +7378,7 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>60.67</v>
+        <v>61</v>
       </c>
       <c r="B219" t="s">
         <v>10</v>
@@ -7410,7 +7410,7 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>52.62</v>
+        <v>53</v>
       </c>
       <c r="B220" t="s">
         <v>14</v>
@@ -7442,7 +7442,7 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>61.49</v>
+        <v>61</v>
       </c>
       <c r="B221" t="s">
         <v>10</v>
@@ -7474,7 +7474,7 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>63.49</v>
+        <v>63</v>
       </c>
       <c r="B222" t="s">
         <v>10</v>
@@ -7506,7 +7506,7 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>58.18</v>
+        <v>58</v>
       </c>
       <c r="B223" t="s">
         <v>10</v>
@@ -7538,7 +7538,7 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>62.34</v>
+        <v>62</v>
       </c>
       <c r="B224" t="s">
         <v>10</v>
@@ -7570,7 +7570,7 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>58.62</v>
+        <v>59</v>
       </c>
       <c r="B225" t="s">
         <v>10</v>
@@ -7602,7 +7602,7 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>69.95</v>
+        <v>70</v>
       </c>
       <c r="B226" t="s">
         <v>14</v>
@@ -7634,7 +7634,7 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>58.66</v>
+        <v>59</v>
       </c>
       <c r="B227" t="s">
         <v>10</v>
@@ -7666,7 +7666,7 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>66.24</v>
+        <v>66</v>
       </c>
       <c r="B228" t="s">
         <v>14</v>
@@ -7698,7 +7698,7 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>60.92</v>
+        <v>61</v>
       </c>
       <c r="B229" t="s">
         <v>14</v>
@@ -7730,7 +7730,7 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>62.19</v>
+        <v>62</v>
       </c>
       <c r="B230" t="s">
         <v>10</v>
@@ -7762,7 +7762,7 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>60.86</v>
+        <v>61</v>
       </c>
       <c r="B231" t="s">
         <v>14</v>
@@ -7794,7 +7794,7 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>60.12</v>
+        <v>60</v>
       </c>
       <c r="B232" t="s">
         <v>14</v>
@@ -7826,7 +7826,7 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>59.94</v>
+        <v>60</v>
       </c>
       <c r="B233" t="s">
         <v>10</v>
@@ -7858,7 +7858,7 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>61.02</v>
+        <v>61</v>
       </c>
       <c r="B234" t="s">
         <v>14</v>
@@ -7890,7 +7890,7 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>57.54</v>
+        <v>58</v>
       </c>
       <c r="B235" t="s">
         <v>14</v>
@@ -7922,7 +7922,7 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>60.94</v>
+        <v>61</v>
       </c>
       <c r="B236" t="s">
         <v>10</v>
@@ -7954,7 +7954,7 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>61.23</v>
+        <v>61</v>
       </c>
       <c r="B237" t="s">
         <v>14</v>
@@ -7986,7 +7986,7 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>58.98</v>
+        <v>59</v>
       </c>
       <c r="B238" t="s">
         <v>10</v>
@@ -8018,7 +8018,7 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>67.81</v>
+        <v>68</v>
       </c>
       <c r="B239" t="s">
         <v>14</v>
@@ -8050,7 +8050,7 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>67.84</v>
+        <v>68</v>
       </c>
       <c r="B240" t="s">
         <v>10</v>
@@ -8082,7 +8082,7 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>66.24</v>
+        <v>66</v>
       </c>
       <c r="B241" t="s">
         <v>10</v>
@@ -8114,7 +8114,7 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>55.16</v>
+        <v>55</v>
       </c>
       <c r="B242" t="s">
         <v>10</v>
@@ -8146,7 +8146,7 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>56.04</v>
+        <v>56</v>
       </c>
       <c r="B243" t="s">
         <v>10</v>
@@ -8178,7 +8178,7 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>62.68</v>
+        <v>63</v>
       </c>
       <c r="B244" t="s">
         <v>10</v>
@@ -8210,7 +8210,7 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>59.92</v>
+        <v>60</v>
       </c>
       <c r="B245" t="s">
         <v>10</v>
@@ -8242,7 +8242,7 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>61.01</v>
+        <v>61</v>
       </c>
       <c r="B246" t="s">
         <v>10</v>
@@ -8274,7 +8274,7 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>63.64</v>
+        <v>64</v>
       </c>
       <c r="B247" t="s">
         <v>10</v>
@@ -8306,7 +8306,7 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>58.71</v>
+        <v>59</v>
       </c>
       <c r="B248" t="s">
         <v>14</v>
@@ -8338,7 +8338,7 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>65.52</v>
+        <v>66</v>
       </c>
       <c r="B249" t="s">
         <v>10</v>
@@ -8370,7 +8370,7 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>65.51</v>
+        <v>66</v>
       </c>
       <c r="B250" t="s">
         <v>14</v>
@@ -8402,7 +8402,7 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>64.76</v>
+        <v>65</v>
       </c>
       <c r="B251" t="s">
         <v>10</v>
@@ -8434,7 +8434,7 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>60.51</v>
+        <v>61</v>
       </c>
       <c r="B252" t="s">
         <v>14</v>
@@ -8466,7 +8466,7 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>59.9</v>
+        <v>60</v>
       </c>
       <c r="B253" t="s">
         <v>14</v>
@@ -8498,7 +8498,7 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>63.71</v>
+        <v>64</v>
       </c>
       <c r="B254" t="s">
         <v>10</v>
@@ -8530,7 +8530,7 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>61.16</v>
+        <v>61</v>
       </c>
       <c r="B255" t="s">
         <v>10</v>
@@ -8562,7 +8562,7 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>63.81</v>
+        <v>64</v>
       </c>
       <c r="B256" t="s">
         <v>14</v>
@@ -8594,7 +8594,7 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>56.91</v>
+        <v>57</v>
       </c>
       <c r="B257" t="s">
         <v>14</v>
@@ -8626,7 +8626,7 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>57.36</v>
+        <v>57</v>
       </c>
       <c r="B258" t="s">
         <v>14</v>
@@ -8658,7 +8658,7 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>60.11</v>
+        <v>60</v>
       </c>
       <c r="B259" t="s">
         <v>14</v>
@@ -8690,7 +8690,7 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>68.16</v>
+        <v>68</v>
       </c>
       <c r="B260" t="s">
         <v>10</v>
@@ -8722,7 +8722,7 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>59.31</v>
+        <v>59</v>
       </c>
       <c r="B261" t="s">
         <v>10</v>
@@ -8786,7 +8786,7 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>57.3</v>
+        <v>57</v>
       </c>
       <c r="B263" t="s">
         <v>14</v>
@@ -8818,7 +8818,7 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>64.09</v>
+        <v>64</v>
       </c>
       <c r="B264" t="s">
         <v>10</v>
@@ -8850,7 +8850,7 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>57.65</v>
+        <v>58</v>
       </c>
       <c r="B265" t="s">
         <v>14</v>
@@ -8882,7 +8882,7 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>55.85</v>
+        <v>56</v>
       </c>
       <c r="B266" t="s">
         <v>14</v>
@@ -8914,7 +8914,7 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>62.65</v>
+        <v>63</v>
       </c>
       <c r="B267" t="s">
         <v>10</v>
@@ -8946,7 +8946,7 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>52.37</v>
+        <v>52</v>
       </c>
       <c r="B268" t="s">
         <v>10</v>
@@ -8978,7 +8978,7 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>67.63</v>
+        <v>68</v>
       </c>
       <c r="B269" t="s">
         <v>10</v>
@@ -9010,7 +9010,7 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>55.24</v>
+        <v>55</v>
       </c>
       <c r="B270" t="s">
         <v>10</v>
@@ -9042,7 +9042,7 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>58.75</v>
+        <v>59</v>
       </c>
       <c r="B271" t="s">
         <v>10</v>
@@ -9074,7 +9074,7 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>64.23</v>
+        <v>64</v>
       </c>
       <c r="B272" t="s">
         <v>10</v>
@@ -9106,7 +9106,7 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>65.25</v>
+        <v>65</v>
       </c>
       <c r="B273" t="s">
         <v>14</v>
@@ -9138,7 +9138,7 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>56.71</v>
+        <v>57</v>
       </c>
       <c r="B274" t="s">
         <v>14</v>
@@ -9170,7 +9170,7 @@
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>55.79</v>
+        <v>56</v>
       </c>
       <c r="B275" t="s">
         <v>10</v>
@@ -9202,7 +9202,7 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>55.8</v>
+        <v>56</v>
       </c>
       <c r="B276" t="s">
         <v>14</v>
@@ -9234,7 +9234,7 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>62.39</v>
+        <v>62</v>
       </c>
       <c r="B277" t="s">
         <v>10</v>
@@ -9266,7 +9266,7 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>64.96</v>
+        <v>65</v>
       </c>
       <c r="B278" t="s">
         <v>14</v>
@@ -9298,7 +9298,7 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>61.35</v>
+        <v>61</v>
       </c>
       <c r="B279" t="s">
         <v>10</v>
@@ -9330,7 +9330,7 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>60.65</v>
+        <v>61</v>
       </c>
       <c r="B280" t="s">
         <v>10</v>
@@ -9362,7 +9362,7 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>54.84</v>
+        <v>55</v>
       </c>
       <c r="B281" t="s">
         <v>14</v>
@@ -9394,7 +9394,7 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>64.78</v>
+        <v>65</v>
       </c>
       <c r="B282" t="s">
         <v>14</v>
@@ -9426,7 +9426,7 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>52.58</v>
+        <v>53</v>
       </c>
       <c r="B283" t="s">
         <v>10</v>
@@ -9458,7 +9458,7 @@
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>60.8</v>
+        <v>61</v>
       </c>
       <c r="B284" t="s">
         <v>10</v>
@@ -9490,7 +9490,7 @@
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>53.31</v>
+        <v>53</v>
       </c>
       <c r="B285" t="s">
         <v>10</v>
@@ -9522,7 +9522,7 @@
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>59.1</v>
+        <v>59</v>
       </c>
       <c r="B286" t="s">
         <v>10</v>
@@ -9554,7 +9554,7 @@
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>55.71</v>
+        <v>56</v>
       </c>
       <c r="B287" t="s">
         <v>14</v>
@@ -9586,7 +9586,7 @@
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>59.62</v>
+        <v>60</v>
       </c>
       <c r="B288" t="s">
         <v>14</v>
@@ -9618,7 +9618,7 @@
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>63.38</v>
+        <v>63</v>
       </c>
       <c r="B289" t="s">
         <v>10</v>
@@ -9650,7 +9650,7 @@
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>63.77</v>
+        <v>64</v>
       </c>
       <c r="B290" t="s">
         <v>10</v>
@@ -9682,7 +9682,7 @@
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>62.86</v>
+        <v>63</v>
       </c>
       <c r="B291" t="s">
         <v>14</v>
@@ -9714,7 +9714,7 @@
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>58.84</v>
+        <v>59</v>
       </c>
       <c r="B292" t="s">
         <v>10</v>
@@ -9778,7 +9778,7 @@
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>62.57</v>
+        <v>63</v>
       </c>
       <c r="B294" t="s">
         <v>14</v>
@@ -9810,7 +9810,7 @@
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>67.32</v>
+        <v>67</v>
       </c>
       <c r="B295" t="s">
         <v>10</v>
@@ -9842,7 +9842,7 @@
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>54.97</v>
+        <v>55</v>
       </c>
       <c r="B296" t="s">
         <v>10</v>
@@ -9874,7 +9874,7 @@
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>54.52</v>
+        <v>55</v>
       </c>
       <c r="B297" t="s">
         <v>14</v>
@@ -9906,7 +9906,7 @@
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>62.92</v>
+        <v>63</v>
       </c>
       <c r="B298" t="s">
         <v>14</v>
@@ -9938,7 +9938,7 @@
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>59.48</v>
+        <v>59</v>
       </c>
       <c r="B299" t="s">
         <v>14</v>
@@ -9970,7 +9970,7 @@
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>66.25</v>
+        <v>66</v>
       </c>
       <c r="B300" t="s">
         <v>10</v>
@@ -10002,7 +10002,7 @@
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>58.85</v>
+        <v>59</v>
       </c>
       <c r="B301" t="s">
         <v>14</v>
@@ -10034,7 +10034,7 @@
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>65.74</v>
+        <v>66</v>
       </c>
       <c r="B302" t="s">
         <v>14</v>
@@ -10066,7 +10066,7 @@
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>65.84</v>
+        <v>66</v>
       </c>
       <c r="B303" t="s">
         <v>10</v>
@@ -10098,7 +10098,7 @@
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>68.26</v>
+        <v>68</v>
       </c>
       <c r="B304" t="s">
         <v>10</v>
@@ -10130,7 +10130,7 @@
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>67.69</v>
+        <v>68</v>
       </c>
       <c r="B305" t="s">
         <v>14</v>
@@ -10162,7 +10162,7 @@
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>65.89</v>
+        <v>66</v>
       </c>
       <c r="B306" t="s">
         <v>14</v>
@@ -10194,7 +10194,7 @@
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>52.53</v>
+        <v>53</v>
       </c>
       <c r="B307" t="s">
         <v>14</v>
@@ -10226,7 +10226,7 @@
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>69.09</v>
+        <v>69</v>
       </c>
       <c r="B308" t="s">
         <v>14</v>
@@ -10258,7 +10258,7 @@
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>57.24</v>
+        <v>57</v>
       </c>
       <c r="B309" t="s">
         <v>14</v>
@@ -10290,7 +10290,7 @@
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>61.35</v>
+        <v>61</v>
       </c>
       <c r="B310" t="s">
         <v>10</v>
@@ -10322,7 +10322,7 @@
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>60.87</v>
+        <v>61</v>
       </c>
       <c r="B311" t="s">
         <v>10</v>
@@ -10354,7 +10354,7 @@
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>59.72</v>
+        <v>60</v>
       </c>
       <c r="B312" t="s">
         <v>10</v>
@@ -10386,7 +10386,7 @@
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>65.1</v>
+        <v>65</v>
       </c>
       <c r="B313" t="s">
         <v>10</v>
@@ -10418,7 +10418,7 @@
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>58.87</v>
+        <v>59</v>
       </c>
       <c r="B314" t="s">
         <v>10</v>
@@ -10450,7 +10450,7 @@
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>61.75</v>
+        <v>62</v>
       </c>
       <c r="B315" t="s">
         <v>14</v>
@@ -10482,7 +10482,7 @@
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>62.91</v>
+        <v>63</v>
       </c>
       <c r="B316" t="s">
         <v>10</v>
@@ -10514,7 +10514,7 @@
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>58.85</v>
+        <v>59</v>
       </c>
       <c r="B317" t="s">
         <v>10</v>
@@ -10546,7 +10546,7 @@
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>54.65</v>
+        <v>55</v>
       </c>
       <c r="B318" t="s">
         <v>14</v>
@@ -10578,7 +10578,7 @@
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>66.07</v>
+        <v>66</v>
       </c>
       <c r="B319" t="s">
         <v>14</v>
@@ -10610,7 +10610,7 @@
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>66.4</v>
+        <v>66</v>
       </c>
       <c r="B320" t="s">
         <v>10</v>
@@ -10642,7 +10642,7 @@
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>58.1</v>
+        <v>58</v>
       </c>
       <c r="B321" t="s">
         <v>10</v>
@@ -10674,7 +10674,7 @@
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>56.38</v>
+        <v>56</v>
       </c>
       <c r="B322" t="s">
         <v>14</v>
@@ -10706,7 +10706,7 @@
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>53.16</v>
+        <v>53</v>
       </c>
       <c r="B323" t="s">
         <v>10</v>
@@ -10738,7 +10738,7 @@
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>65.82</v>
+        <v>66</v>
       </c>
       <c r="B324" t="s">
         <v>10</v>
@@ -10770,7 +10770,7 @@
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>67.95</v>
+        <v>68</v>
       </c>
       <c r="B325" t="s">
         <v>10</v>
@@ -10802,7 +10802,7 @@
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>51.08</v>
+        <v>51</v>
       </c>
       <c r="B326" t="s">
         <v>10</v>
@@ -10834,7 +10834,7 @@
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>60.18</v>
+        <v>60</v>
       </c>
       <c r="B327" t="s">
         <v>10</v>
@@ -10866,7 +10866,7 @@
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>60.12</v>
+        <v>60</v>
       </c>
       <c r="B328" t="s">
         <v>14</v>
@@ -10898,7 +10898,7 @@
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>71.06</v>
+        <v>71</v>
       </c>
       <c r="B329" t="s">
         <v>10</v>
@@ -10930,7 +10930,7 @@
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>51.59</v>
+        <v>52</v>
       </c>
       <c r="B330" t="s">
         <v>10</v>
@@ -10962,7 +10962,7 @@
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>58.63</v>
+        <v>59</v>
       </c>
       <c r="B331" t="s">
         <v>10</v>
@@ -10994,7 +10994,7 @@
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>62.48</v>
+        <v>62</v>
       </c>
       <c r="B332" t="s">
         <v>10</v>
@@ -11026,7 +11026,7 @@
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>59.97</v>
+        <v>60</v>
       </c>
       <c r="B333" t="s">
         <v>10</v>
@@ -11058,7 +11058,7 @@
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>62.99</v>
+        <v>63</v>
       </c>
       <c r="B334" t="s">
         <v>10</v>
@@ -11090,7 +11090,7 @@
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>51.33</v>
+        <v>51</v>
       </c>
       <c r="B335" t="s">
         <v>14</v>
@@ -11122,7 +11122,7 @@
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>58.89</v>
+        <v>59</v>
       </c>
       <c r="B336" t="s">
         <v>14</v>
@@ -11154,7 +11154,7 @@
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>67.27</v>
+        <v>67</v>
       </c>
       <c r="B337" t="s">
         <v>10</v>
@@ -11186,7 +11186,7 @@
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>60.64</v>
+        <v>61</v>
       </c>
       <c r="B338" t="s">
         <v>10</v>
@@ -11218,7 +11218,7 @@
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>59.85</v>
+        <v>60</v>
       </c>
       <c r="B339" t="s">
         <v>14</v>
@@ -11250,7 +11250,7 @@
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>65.78</v>
+        <v>66</v>
       </c>
       <c r="B340" t="s">
         <v>10</v>
@@ -11282,7 +11282,7 @@
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>64.81</v>
+        <v>65</v>
       </c>
       <c r="B341" t="s">
         <v>10</v>
@@ -11314,7 +11314,7 @@
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>56.77</v>
+        <v>57</v>
       </c>
       <c r="B342" t="s">
         <v>10</v>
@@ -11346,7 +11346,7 @@
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>52.86</v>
+        <v>53</v>
       </c>
       <c r="B343" t="s">
         <v>10</v>
@@ -11378,7 +11378,7 @@
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>60.99</v>
+        <v>61</v>
       </c>
       <c r="B344" t="s">
         <v>14</v>
@@ -11410,7 +11410,7 @@
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>66.78</v>
+        <v>67</v>
       </c>
       <c r="B345" t="s">
         <v>10</v>
@@ -11442,7 +11442,7 @@
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>61.18</v>
+        <v>61</v>
       </c>
       <c r="B346" t="s">
         <v>10</v>
@@ -11474,7 +11474,7 @@
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>56.44</v>
+        <v>56</v>
       </c>
       <c r="B347" t="s">
         <v>10</v>
@@ -11506,7 +11506,7 @@
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>61.91</v>
+        <v>62</v>
       </c>
       <c r="B348" t="s">
         <v>10</v>
@@ -11538,7 +11538,7 @@
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>54.54</v>
+        <v>55</v>
       </c>
       <c r="B349" t="s">
         <v>10</v>
@@ -11570,7 +11570,7 @@
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>57.51</v>
+        <v>58</v>
       </c>
       <c r="B350" t="s">
         <v>10</v>
@@ -11602,7 +11602,7 @@
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>60.94</v>
+        <v>61</v>
       </c>
       <c r="B351" t="s">
         <v>10</v>
@@ -11634,7 +11634,7 @@
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>52.99</v>
+        <v>53</v>
       </c>
       <c r="B352" t="s">
         <v>14</v>
@@ -11666,7 +11666,7 @@
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>66.72</v>
+        <v>67</v>
       </c>
       <c r="B353" t="s">
         <v>14</v>
@@ -11698,7 +11698,7 @@
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>54.9</v>
+        <v>55</v>
       </c>
       <c r="B354" t="s">
         <v>14</v>
@@ -11730,7 +11730,7 @@
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>56.77</v>
+        <v>57</v>
       </c>
       <c r="B355" t="s">
         <v>10</v>
@@ -11762,7 +11762,7 @@
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>55.83</v>
+        <v>56</v>
       </c>
       <c r="B356" t="s">
         <v>14</v>
@@ -11794,7 +11794,7 @@
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>66.25</v>
+        <v>66</v>
       </c>
       <c r="B357" t="s">
         <v>10</v>
@@ -11826,7 +11826,7 @@
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>72.47</v>
+        <v>72</v>
       </c>
       <c r="B358" t="s">
         <v>10</v>
@@ -11858,7 +11858,7 @@
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>59.71</v>
+        <v>60</v>
       </c>
       <c r="B359" t="s">
         <v>10</v>
@@ -11890,7 +11890,7 @@
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>61.72</v>
+        <v>62</v>
       </c>
       <c r="B360" t="s">
         <v>14</v>
@@ -11922,7 +11922,7 @@
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>64.79</v>
+        <v>65</v>
       </c>
       <c r="B361" t="s">
         <v>14</v>
@@ -11954,7 +11954,7 @@
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>61.09</v>
+        <v>61</v>
       </c>
       <c r="B362" t="s">
         <v>10</v>
@@ -11986,7 +11986,7 @@
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>57.73</v>
+        <v>58</v>
       </c>
       <c r="B363" t="s">
         <v>10</v>
@@ -12018,7 +12018,7 @@
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>54.93</v>
+        <v>55</v>
       </c>
       <c r="B364" t="s">
         <v>10</v>
@@ -12050,7 +12050,7 @@
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>52.67</v>
+        <v>53</v>
       </c>
       <c r="B365" t="s">
         <v>10</v>
@@ -12082,7 +12082,7 @@
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>62.48</v>
+        <v>62</v>
       </c>
       <c r="B366" t="s">
         <v>14</v>
@@ -12114,7 +12114,7 @@
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>54.85</v>
+        <v>55</v>
       </c>
       <c r="B367" t="s">
         <v>14</v>
@@ -12146,7 +12146,7 @@
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>55.2</v>
+        <v>55</v>
       </c>
       <c r="B368" t="s">
         <v>10</v>
@@ -12178,7 +12178,7 @@
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>65.49</v>
+        <v>65</v>
       </c>
       <c r="B369" t="s">
         <v>14</v>
@@ -12210,7 +12210,7 @@
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>65.85</v>
+        <v>66</v>
       </c>
       <c r="B370" t="s">
         <v>10</v>
@@ -12242,7 +12242,7 @@
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>65.47</v>
+        <v>65</v>
       </c>
       <c r="B371" t="s">
         <v>14</v>
@@ -12274,7 +12274,7 @@
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>54.49</v>
+        <v>54</v>
       </c>
       <c r="B372" t="s">
         <v>10</v>
@@ -12306,7 +12306,7 @@
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>64.61</v>
+        <v>65</v>
       </c>
       <c r="B373" t="s">
         <v>14</v>
@@ -12338,7 +12338,7 @@
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>58.05</v>
+        <v>58</v>
       </c>
       <c r="B374" t="s">
         <v>10</v>
@@ -12370,7 +12370,7 @@
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>56.67</v>
+        <v>57</v>
       </c>
       <c r="B375" t="s">
         <v>10</v>
@@ -12402,7 +12402,7 @@
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>56.45</v>
+        <v>56</v>
       </c>
       <c r="B376" t="s">
         <v>14</v>
@@ -12434,7 +12434,7 @@
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>61.6</v>
+        <v>62</v>
       </c>
       <c r="B377" t="s">
         <v>14</v>
@@ -12466,7 +12466,7 @@
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>57.32</v>
+        <v>57</v>
       </c>
       <c r="B378" t="s">
         <v>10</v>
@@ -12498,7 +12498,7 @@
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>62.96</v>
+        <v>63</v>
       </c>
       <c r="B379" t="s">
         <v>10</v>
@@ -12530,7 +12530,7 @@
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>59.96</v>
+        <v>60</v>
       </c>
       <c r="B380" t="s">
         <v>14</v>
@@ -12562,7 +12562,7 @@
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>57.08</v>
+        <v>57</v>
       </c>
       <c r="B381" t="s">
         <v>10</v>
@@ -12594,7 +12594,7 @@
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>62.14</v>
+        <v>62</v>
       </c>
       <c r="B382" t="s">
         <v>14</v>
@@ -12626,7 +12626,7 @@
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>61.05</v>
+        <v>61</v>
       </c>
       <c r="B383" t="s">
         <v>14</v>
@@ -12658,7 +12658,7 @@
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>63.86</v>
+        <v>64</v>
       </c>
       <c r="B384" t="s">
         <v>14</v>
@@ -12690,7 +12690,7 @@
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>55.41</v>
+        <v>55</v>
       </c>
       <c r="B385" t="s">
         <v>10</v>
@@ -12722,7 +12722,7 @@
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>62.71</v>
+        <v>63</v>
       </c>
       <c r="B386" t="s">
         <v>10</v>
@@ -12754,7 +12754,7 @@
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>51.02</v>
+        <v>51</v>
       </c>
       <c r="B387" t="s">
         <v>10</v>
@@ -12786,7 +12786,7 @@
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>59.68</v>
+        <v>60</v>
       </c>
       <c r="B388" t="s">
         <v>10</v>
@@ -12818,7 +12818,7 @@
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>61.36</v>
+        <v>61</v>
       </c>
       <c r="B389" t="s">
         <v>10</v>
@@ -12850,7 +12850,7 @@
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>56.92</v>
+        <v>57</v>
       </c>
       <c r="B390" t="s">
         <v>10</v>
@@ -12882,7 +12882,7 @@
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>59.85</v>
+        <v>60</v>
       </c>
       <c r="B391" t="s">
         <v>10</v>
@@ -12914,7 +12914,7 @@
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>61.58</v>
+        <v>62</v>
       </c>
       <c r="B392" t="s">
         <v>14</v>
@@ -12946,7 +12946,7 @@
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>60.95</v>
+        <v>61</v>
       </c>
       <c r="B393" t="s">
         <v>10</v>
@@ -12978,7 +12978,7 @@
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>55.72</v>
+        <v>56</v>
       </c>
       <c r="B394" t="s">
         <v>10</v>
@@ -13010,7 +13010,7 @@
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>58.72</v>
+        <v>59</v>
       </c>
       <c r="B395" t="s">
         <v>14</v>
@@ -13042,7 +13042,7 @@
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>60.8</v>
+        <v>61</v>
       </c>
       <c r="B396" t="s">
         <v>10</v>
@@ -13074,7 +13074,7 @@
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>60.49</v>
+        <v>60</v>
       </c>
       <c r="B397" t="s">
         <v>14</v>
@@ -13106,7 +13106,7 @@
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>62.41</v>
+        <v>62</v>
       </c>
       <c r="B398" t="s">
         <v>14</v>
@@ -13138,7 +13138,7 @@
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>57.86</v>
+        <v>58</v>
       </c>
       <c r="B399" t="s">
         <v>14</v>
@@ -13170,7 +13170,7 @@
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>69.3</v>
+        <v>69</v>
       </c>
       <c r="B400" t="s">
         <v>14</v>
@@ -13202,7 +13202,7 @@
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>55.4</v>
+        <v>55</v>
       </c>
       <c r="B401" t="s">
         <v>10</v>
@@ -13234,7 +13234,7 @@
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>53.01</v>
+        <v>53</v>
       </c>
       <c r="B402" t="s">
         <v>10</v>
@@ -13266,7 +13266,7 @@
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>65.86</v>
+        <v>66</v>
       </c>
       <c r="B403" t="s">
         <v>10</v>
@@ -13298,7 +13298,7 @@
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>58.69</v>
+        <v>59</v>
       </c>
       <c r="B404" t="s">
         <v>14</v>
@@ -13330,7 +13330,7 @@
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>67.01</v>
+        <v>67</v>
       </c>
       <c r="B405" t="s">
         <v>14</v>
@@ -13362,7 +13362,7 @@
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>59.46</v>
+        <v>59</v>
       </c>
       <c r="B406" t="s">
         <v>10</v>
@@ -13394,7 +13394,7 @@
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>57.54</v>
+        <v>58</v>
       </c>
       <c r="B407" t="s">
         <v>14</v>
@@ -13426,7 +13426,7 @@
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>54.35</v>
+        <v>54</v>
       </c>
       <c r="B408" t="s">
         <v>14</v>
@@ -13458,7 +13458,7 @@
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>56.5</v>
+        <v>56</v>
       </c>
       <c r="B409" t="s">
         <v>10</v>
@@ -13490,7 +13490,7 @@
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>56.71</v>
+        <v>57</v>
       </c>
       <c r="B410" t="s">
         <v>10</v>
@@ -13522,7 +13522,7 @@
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>60.82</v>
+        <v>61</v>
       </c>
       <c r="B411" t="s">
         <v>10</v>
@@ -13554,7 +13554,7 @@
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>59.43</v>
+        <v>59</v>
       </c>
       <c r="B412" t="s">
         <v>14</v>
@@ -13586,7 +13586,7 @@
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>62.95</v>
+        <v>63</v>
       </c>
       <c r="B413" t="s">
         <v>14</v>

--- a/data/infected_pigs.xlsx
+++ b/data/infected_pigs.xlsx
@@ -452,13 +452,13 @@
         <v>12</v>
       </c>
       <c r="G2" t="n">
-        <v>49.88</v>
+        <v>62.24</v>
       </c>
       <c r="H2" t="n">
-        <v>16.94</v>
+        <v>19.05</v>
       </c>
       <c r="I2" t="n">
-        <v>3.07</v>
+        <v>4.44</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
@@ -484,16 +484,16 @@
         <v>12</v>
       </c>
       <c r="G3" t="n">
-        <v>58.2</v>
+        <v>54.21</v>
       </c>
       <c r="H3" t="n">
-        <v>17.95</v>
+        <v>17.68</v>
       </c>
       <c r="I3" t="n">
-        <v>4.88</v>
+        <v>3.87</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +516,13 @@
         <v>12</v>
       </c>
       <c r="G4" t="n">
-        <v>56.8</v>
+        <v>57.94</v>
       </c>
       <c r="H4" t="n">
-        <v>19.02</v>
+        <v>16.76</v>
       </c>
       <c r="I4" t="n">
-        <v>3.98</v>
+        <v>3.01</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -548,16 +548,16 @@
         <v>12</v>
       </c>
       <c r="G5" t="n">
-        <v>56.47</v>
+        <v>56.15</v>
       </c>
       <c r="H5" t="n">
-        <v>18.98</v>
+        <v>19.05</v>
       </c>
       <c r="I5" t="n">
-        <v>5.18</v>
+        <v>4.35</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -580,13 +580,13 @@
         <v>12</v>
       </c>
       <c r="G6" t="n">
-        <v>59.85</v>
+        <v>55.38</v>
       </c>
       <c r="H6" t="n">
-        <v>16.57</v>
+        <v>18.44</v>
       </c>
       <c r="I6" t="n">
-        <v>6.71</v>
+        <v>5.27</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
@@ -612,13 +612,13 @@
         <v>12</v>
       </c>
       <c r="G7" t="n">
-        <v>58.1</v>
+        <v>60.29</v>
       </c>
       <c r="H7" t="n">
-        <v>18.22</v>
+        <v>18.42</v>
       </c>
       <c r="I7" t="n">
-        <v>5.43</v>
+        <v>4.78</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
@@ -644,16 +644,16 @@
         <v>17</v>
       </c>
       <c r="G8" t="n">
-        <v>52.23</v>
+        <v>54.68</v>
       </c>
       <c r="H8" t="n">
-        <v>17.16</v>
+        <v>18.4</v>
       </c>
       <c r="I8" t="n">
-        <v>6.1</v>
+        <v>5.24</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -676,13 +676,13 @@
         <v>12</v>
       </c>
       <c r="G9" t="n">
-        <v>61</v>
+        <v>55.47</v>
       </c>
       <c r="H9" t="n">
-        <v>14.44</v>
+        <v>17.72</v>
       </c>
       <c r="I9" t="n">
-        <v>7.05</v>
+        <v>4.43</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -708,13 +708,13 @@
         <v>12</v>
       </c>
       <c r="G10" t="n">
-        <v>56.68</v>
+        <v>59.13</v>
       </c>
       <c r="H10" t="n">
-        <v>17.78</v>
+        <v>20.03</v>
       </c>
       <c r="I10" t="n">
-        <v>5.22</v>
+        <v>4.79</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
@@ -740,13 +740,13 @@
         <v>12</v>
       </c>
       <c r="G11" t="n">
-        <v>56.5</v>
+        <v>55.73</v>
       </c>
       <c r="H11" t="n">
-        <v>16.43</v>
+        <v>16.81</v>
       </c>
       <c r="I11" t="n">
-        <v>5.12</v>
+        <v>6.55</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
@@ -772,13 +772,13 @@
         <v>18</v>
       </c>
       <c r="G12" t="n">
-        <v>63.23</v>
+        <v>54.82</v>
       </c>
       <c r="H12" t="n">
-        <v>19.8</v>
+        <v>16.66</v>
       </c>
       <c r="I12" t="n">
-        <v>5.59</v>
+        <v>5.73</v>
       </c>
       <c r="J12" t="n">
         <v>1</v>
@@ -804,13 +804,13 @@
         <v>12</v>
       </c>
       <c r="G13" t="n">
-        <v>52.39</v>
+        <v>51.94</v>
       </c>
       <c r="H13" t="n">
-        <v>16.16</v>
+        <v>19.77</v>
       </c>
       <c r="I13" t="n">
-        <v>5.66</v>
+        <v>7.4</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
@@ -836,16 +836,16 @@
         <v>12</v>
       </c>
       <c r="G14" t="n">
-        <v>50.61</v>
+        <v>52.76</v>
       </c>
       <c r="H14" t="n">
-        <v>20.77</v>
+        <v>19.05</v>
       </c>
       <c r="I14" t="n">
-        <v>6.19</v>
+        <v>4.7</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -868,13 +868,13 @@
         <v>12</v>
       </c>
       <c r="G15" t="n">
-        <v>58.42</v>
+        <v>58.45</v>
       </c>
       <c r="H15" t="n">
-        <v>18.52</v>
+        <v>15.97</v>
       </c>
       <c r="I15" t="n">
-        <v>6.43</v>
+        <v>3.58</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -897,16 +897,16 @@
         <v>20.04</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G16" t="n">
-        <v>54.91</v>
+        <v>57.27</v>
       </c>
       <c r="H16" t="n">
-        <v>18.48</v>
+        <v>21.05</v>
       </c>
       <c r="I16" t="n">
-        <v>5.27</v>
+        <v>5.62</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
@@ -929,16 +929,16 @@
         <v>20.6</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G17" t="n">
-        <v>56.87</v>
+        <v>56.42</v>
       </c>
       <c r="H17" t="n">
-        <v>16.35</v>
+        <v>20.16</v>
       </c>
       <c r="I17" t="n">
-        <v>2.06</v>
+        <v>3.32</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
@@ -961,19 +961,19 @@
         <v>20.09</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G18" t="n">
-        <v>52.3</v>
+        <v>59.25</v>
       </c>
       <c r="H18" t="n">
-        <v>15.96</v>
+        <v>19.59</v>
       </c>
       <c r="I18" t="n">
-        <v>5.05</v>
+        <v>7.87</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -993,16 +993,16 @@
         <v>18.18</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G19" t="n">
-        <v>53.6</v>
+        <v>59.56</v>
       </c>
       <c r="H19" t="n">
-        <v>19.19</v>
+        <v>20.87</v>
       </c>
       <c r="I19" t="n">
-        <v>6.25</v>
+        <v>3.56</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1025,16 +1025,16 @@
         <v>20.1</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G20" t="n">
-        <v>55.92</v>
+        <v>55.98</v>
       </c>
       <c r="H20" t="n">
-        <v>19.52</v>
+        <v>17.5</v>
       </c>
       <c r="I20" t="n">
-        <v>3.65</v>
+        <v>2.99</v>
       </c>
       <c r="J20" t="n">
         <v>1</v>
@@ -1057,19 +1057,19 @@
         <v>18.28</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G21" t="n">
-        <v>55.84</v>
+        <v>54.13</v>
       </c>
       <c r="H21" t="n">
-        <v>17.73</v>
+        <v>19.36</v>
       </c>
       <c r="I21" t="n">
-        <v>7.59</v>
+        <v>4.26</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1089,16 +1089,16 @@
         <v>22.35</v>
       </c>
       <c r="F22" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G22" t="n">
-        <v>60.69</v>
+        <v>54.73</v>
       </c>
       <c r="H22" t="n">
-        <v>17.66</v>
+        <v>17.95</v>
       </c>
       <c r="I22" t="n">
-        <v>5.77</v>
+        <v>4.99</v>
       </c>
       <c r="J22" t="n">
         <v>1</v>
@@ -1124,16 +1124,16 @@
         <v>12</v>
       </c>
       <c r="G23" t="n">
-        <v>57.55</v>
+        <v>56.2</v>
       </c>
       <c r="H23" t="n">
-        <v>15.05</v>
+        <v>15.72</v>
       </c>
       <c r="I23" t="n">
-        <v>6.04</v>
+        <v>3.51</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1156,16 +1156,16 @@
         <v>12</v>
       </c>
       <c r="G24" t="n">
-        <v>55.56</v>
+        <v>52.77</v>
       </c>
       <c r="H24" t="n">
-        <v>18.01</v>
+        <v>17.42</v>
       </c>
       <c r="I24" t="n">
-        <v>6.19</v>
+        <v>3.49</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1185,16 +1185,16 @@
         <v>19.94</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G25" t="n">
-        <v>58.21</v>
+        <v>55.8</v>
       </c>
       <c r="H25" t="n">
-        <v>15.23</v>
+        <v>16.84</v>
       </c>
       <c r="I25" t="n">
-        <v>5.06</v>
+        <v>4.2</v>
       </c>
       <c r="J25" t="n">
         <v>1</v>
@@ -1217,16 +1217,16 @@
         <v>21</v>
       </c>
       <c r="F26" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G26" t="n">
-        <v>56.23</v>
+        <v>61.76</v>
       </c>
       <c r="H26" t="n">
-        <v>19.91</v>
+        <v>16.49</v>
       </c>
       <c r="I26" t="n">
-        <v>6.08</v>
+        <v>7.08</v>
       </c>
       <c r="J26" t="n">
         <v>1</v>
@@ -1249,16 +1249,16 @@
         <v>21.08</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G27" t="n">
-        <v>60.72</v>
+        <v>60.29</v>
       </c>
       <c r="H27" t="n">
-        <v>19.88</v>
+        <v>17.13</v>
       </c>
       <c r="I27" t="n">
-        <v>7</v>
+        <v>4.67</v>
       </c>
       <c r="J27" t="n">
         <v>1</v>
@@ -1281,16 +1281,16 @@
         <v>22.75</v>
       </c>
       <c r="F28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G28" t="n">
-        <v>54.67</v>
+        <v>57.64</v>
       </c>
       <c r="H28" t="n">
-        <v>18.34</v>
+        <v>20.12</v>
       </c>
       <c r="I28" t="n">
-        <v>4.86</v>
+        <v>3.74</v>
       </c>
       <c r="J28" t="n">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>16.63</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G29" t="n">
-        <v>49.84</v>
+        <v>55.36</v>
       </c>
       <c r="H29" t="n">
-        <v>16.6</v>
+        <v>19.59</v>
       </c>
       <c r="I29" t="n">
-        <v>5.8</v>
+        <v>5.36</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -1345,19 +1345,19 @@
         <v>18.71</v>
       </c>
       <c r="F30" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G30" t="n">
-        <v>55.86</v>
+        <v>54.99</v>
       </c>
       <c r="H30" t="n">
-        <v>17.26</v>
+        <v>18.72</v>
       </c>
       <c r="I30" t="n">
-        <v>4.84</v>
+        <v>3.13</v>
       </c>
       <c r="J30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1377,16 +1377,16 @@
         <v>22.35</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G31" t="n">
-        <v>51.95</v>
+        <v>53.36</v>
       </c>
       <c r="H31" t="n">
-        <v>17.31</v>
+        <v>16.73</v>
       </c>
       <c r="I31" t="n">
-        <v>4.15</v>
+        <v>5.91</v>
       </c>
       <c r="J31" t="n">
         <v>1</v>
@@ -1409,16 +1409,16 @@
         <v>23.59</v>
       </c>
       <c r="F32" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G32" t="n">
-        <v>60.93</v>
+        <v>55.97</v>
       </c>
       <c r="H32" t="n">
-        <v>20.88</v>
+        <v>21.24</v>
       </c>
       <c r="I32" t="n">
-        <v>5.16</v>
+        <v>3.64</v>
       </c>
       <c r="J32" t="n">
         <v>1</v>
@@ -1441,19 +1441,19 @@
         <v>20.57</v>
       </c>
       <c r="F33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G33" t="n">
-        <v>57.88</v>
+        <v>61.73</v>
       </c>
       <c r="H33" t="n">
-        <v>17.73</v>
+        <v>20.22</v>
       </c>
       <c r="I33" t="n">
-        <v>7.47</v>
+        <v>6.41</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1476,13 +1476,13 @@
         <v>12</v>
       </c>
       <c r="G34" t="n">
-        <v>58.35</v>
+        <v>61.36</v>
       </c>
       <c r="H34" t="n">
-        <v>20.69</v>
+        <v>21.89</v>
       </c>
       <c r="I34" t="n">
-        <v>6.7</v>
+        <v>3.35</v>
       </c>
       <c r="J34" t="n">
         <v>1</v>
@@ -1505,16 +1505,16 @@
         <v>22.18</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G35" t="n">
-        <v>58.19</v>
+        <v>60.5</v>
       </c>
       <c r="H35" t="n">
-        <v>20.1</v>
+        <v>20.5</v>
       </c>
       <c r="I35" t="n">
-        <v>5.69</v>
+        <v>6.44</v>
       </c>
       <c r="J35" t="n">
         <v>1</v>
@@ -1537,16 +1537,16 @@
         <v>21.96</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G36" t="n">
-        <v>60.82</v>
+        <v>59.13</v>
       </c>
       <c r="H36" t="n">
-        <v>19.16</v>
+        <v>16.29</v>
       </c>
       <c r="I36" t="n">
-        <v>4.99</v>
+        <v>5.27</v>
       </c>
       <c r="J36" t="n">
         <v>1</v>
@@ -1572,13 +1572,13 @@
         <v>12</v>
       </c>
       <c r="G37" t="n">
-        <v>63.09</v>
+        <v>56.37</v>
       </c>
       <c r="H37" t="n">
         <v>18.03</v>
       </c>
       <c r="I37" t="n">
-        <v>6.32</v>
+        <v>5.12</v>
       </c>
       <c r="J37" t="n">
         <v>1</v>
@@ -1604,13 +1604,13 @@
         <v>12</v>
       </c>
       <c r="G38" t="n">
-        <v>52.3</v>
+        <v>58.69</v>
       </c>
       <c r="H38" t="n">
-        <v>18.32</v>
+        <v>19.62</v>
       </c>
       <c r="I38" t="n">
-        <v>3.65</v>
+        <v>4.2</v>
       </c>
       <c r="J38" t="n">
         <v>1</v>
@@ -1633,16 +1633,16 @@
         <v>22.55</v>
       </c>
       <c r="F39" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G39" t="n">
-        <v>57.57</v>
+        <v>56.16</v>
       </c>
       <c r="H39" t="n">
-        <v>18.48</v>
+        <v>15.45</v>
       </c>
       <c r="I39" t="n">
-        <v>1.61</v>
+        <v>6.89</v>
       </c>
       <c r="J39" t="n">
         <v>1</v>
@@ -1665,16 +1665,16 @@
         <v>21.24</v>
       </c>
       <c r="F40" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G40" t="n">
-        <v>61.27</v>
+        <v>53.74</v>
       </c>
       <c r="H40" t="n">
-        <v>17.52</v>
+        <v>16.11</v>
       </c>
       <c r="I40" t="n">
-        <v>3.98</v>
+        <v>7.73</v>
       </c>
       <c r="J40" t="n">
         <v>1</v>
@@ -1700,16 +1700,16 @@
         <v>12</v>
       </c>
       <c r="G41" t="n">
-        <v>52.13</v>
+        <v>62.46</v>
       </c>
       <c r="H41" t="n">
-        <v>15.63</v>
+        <v>15.18</v>
       </c>
       <c r="I41" t="n">
-        <v>3.94</v>
+        <v>2.95</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1732,13 +1732,13 @@
         <v>12</v>
       </c>
       <c r="G42" t="n">
-        <v>61.64</v>
+        <v>56.63</v>
       </c>
       <c r="H42" t="n">
-        <v>19.25</v>
+        <v>20.27</v>
       </c>
       <c r="I42" t="n">
-        <v>4.63</v>
+        <v>5.49</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -1764,13 +1764,13 @@
         <v>12</v>
       </c>
       <c r="G43" t="n">
-        <v>58.92</v>
+        <v>55.59</v>
       </c>
       <c r="H43" t="n">
-        <v>20.98</v>
+        <v>19.5</v>
       </c>
       <c r="I43" t="n">
-        <v>5.25</v>
+        <v>5.81</v>
       </c>
       <c r="J43" t="n">
         <v>1</v>
@@ -1793,19 +1793,19 @@
         <v>20.79</v>
       </c>
       <c r="F44" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G44" t="n">
-        <v>55.97</v>
+        <v>57.06</v>
       </c>
       <c r="H44" t="n">
-        <v>18.27</v>
+        <v>18.47</v>
       </c>
       <c r="I44" t="n">
-        <v>3.26</v>
+        <v>4.82</v>
       </c>
       <c r="J44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1825,16 +1825,16 @@
         <v>21.07</v>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G45" t="n">
-        <v>57.16</v>
+        <v>53.73</v>
       </c>
       <c r="H45" t="n">
-        <v>19.6</v>
+        <v>15.66</v>
       </c>
       <c r="I45" t="n">
-        <v>4.56</v>
+        <v>4.87</v>
       </c>
       <c r="J45" t="n">
         <v>1</v>
@@ -1860,13 +1860,13 @@
         <v>12</v>
       </c>
       <c r="G46" t="n">
-        <v>53.02</v>
+        <v>58.3</v>
       </c>
       <c r="H46" t="n">
-        <v>19.6</v>
+        <v>19.58</v>
       </c>
       <c r="I46" t="n">
-        <v>4.96</v>
+        <v>3.86</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>12</v>
       </c>
       <c r="G47" t="n">
-        <v>57.77</v>
+        <v>53.15</v>
       </c>
       <c r="H47" t="n">
-        <v>19.34</v>
+        <v>17.59</v>
       </c>
       <c r="I47" t="n">
-        <v>4.71</v>
+        <v>3.71</v>
       </c>
       <c r="J47" t="n">
         <v>0</v>
@@ -1921,16 +1921,16 @@
         <v>19.29</v>
       </c>
       <c r="F48" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G48" t="n">
-        <v>59.22</v>
+        <v>54.79</v>
       </c>
       <c r="H48" t="n">
-        <v>16.22</v>
+        <v>16.29</v>
       </c>
       <c r="I48" t="n">
-        <v>3.28</v>
+        <v>6.11</v>
       </c>
       <c r="J48" t="n">
         <v>0</v>
@@ -1953,16 +1953,16 @@
         <v>19.49</v>
       </c>
       <c r="F49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G49" t="n">
-        <v>54.66</v>
+        <v>56.66</v>
       </c>
       <c r="H49" t="n">
-        <v>19.2</v>
+        <v>17.73</v>
       </c>
       <c r="I49" t="n">
-        <v>3.67</v>
+        <v>3.53</v>
       </c>
       <c r="J49" t="n">
         <v>0</v>
@@ -1985,16 +1985,16 @@
         <v>18.56</v>
       </c>
       <c r="F50" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G50" t="n">
-        <v>56.75</v>
+        <v>50.97</v>
       </c>
       <c r="H50" t="n">
-        <v>18.68</v>
+        <v>18.41</v>
       </c>
       <c r="I50" t="n">
-        <v>10.13</v>
+        <v>2.14</v>
       </c>
       <c r="J50" t="n">
         <v>0</v>
@@ -2017,16 +2017,16 @@
         <v>17.81</v>
       </c>
       <c r="F51" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G51" t="n">
-        <v>57.1</v>
+        <v>56.06</v>
       </c>
       <c r="H51" t="n">
-        <v>16.14</v>
+        <v>15.46</v>
       </c>
       <c r="I51" t="n">
-        <v>5.75</v>
+        <v>5.33</v>
       </c>
       <c r="J51" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>18.11</v>
       </c>
       <c r="F52" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G52" t="n">
-        <v>56.16</v>
+        <v>54.91</v>
       </c>
       <c r="H52" t="n">
-        <v>18.19</v>
+        <v>18.69</v>
       </c>
       <c r="I52" t="n">
-        <v>5.67</v>
+        <v>4.41</v>
       </c>
       <c r="J52" t="n">
         <v>0</v>
@@ -2084,16 +2084,16 @@
         <v>17</v>
       </c>
       <c r="G53" t="n">
-        <v>53.25</v>
+        <v>56.54</v>
       </c>
       <c r="H53" t="n">
-        <v>16.61</v>
+        <v>16.51</v>
       </c>
       <c r="I53" t="n">
-        <v>4.2</v>
+        <v>5.4</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2113,16 +2113,16 @@
         <v>17.44</v>
       </c>
       <c r="F54" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G54" t="n">
-        <v>57.2</v>
+        <v>50.73</v>
       </c>
       <c r="H54" t="n">
-        <v>17.26</v>
+        <v>19.01</v>
       </c>
       <c r="I54" t="n">
-        <v>6.04</v>
+        <v>3.48</v>
       </c>
       <c r="J54" t="n">
         <v>0</v>
@@ -2148,16 +2148,16 @@
         <v>17</v>
       </c>
       <c r="G55" t="n">
-        <v>55.97</v>
+        <v>59.56</v>
       </c>
       <c r="H55" t="n">
-        <v>17.58</v>
+        <v>19.22</v>
       </c>
       <c r="I55" t="n">
-        <v>4.92</v>
+        <v>4.87</v>
       </c>
       <c r="J55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2177,19 +2177,19 @@
         <v>19.42</v>
       </c>
       <c r="F56" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G56" t="n">
-        <v>59.58</v>
+        <v>53.79</v>
       </c>
       <c r="H56" t="n">
-        <v>17.57</v>
+        <v>20.24</v>
       </c>
       <c r="I56" t="n">
-        <v>6.25</v>
+        <v>3.72</v>
       </c>
       <c r="J56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2212,16 +2212,16 @@
         <v>12</v>
       </c>
       <c r="G57" t="n">
-        <v>55.68</v>
+        <v>57.12</v>
       </c>
       <c r="H57" t="n">
-        <v>19.31</v>
+        <v>16.02</v>
       </c>
       <c r="I57" t="n">
-        <v>4.58</v>
+        <v>5.95</v>
       </c>
       <c r="J57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2241,16 +2241,16 @@
         <v>18.35</v>
       </c>
       <c r="F58" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G58" t="n">
-        <v>58.39</v>
+        <v>62.45</v>
       </c>
       <c r="H58" t="n">
-        <v>17.52</v>
+        <v>20.68</v>
       </c>
       <c r="I58" t="n">
-        <v>4.75</v>
+        <v>6.16</v>
       </c>
       <c r="J58" t="n">
         <v>1</v>
@@ -2273,16 +2273,16 @@
         <v>21.73</v>
       </c>
       <c r="F59" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G59" t="n">
-        <v>55.69</v>
+        <v>59.6</v>
       </c>
       <c r="H59" t="n">
-        <v>14.8</v>
+        <v>18.68</v>
       </c>
       <c r="I59" t="n">
-        <v>4.91</v>
+        <v>4.46</v>
       </c>
       <c r="J59" t="n">
         <v>1</v>
@@ -2305,16 +2305,16 @@
         <v>20.19</v>
       </c>
       <c r="F60" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G60" t="n">
-        <v>54.1</v>
+        <v>55.17</v>
       </c>
       <c r="H60" t="n">
-        <v>18.91</v>
+        <v>19.32</v>
       </c>
       <c r="I60" t="n">
-        <v>3.85</v>
+        <v>5.3</v>
       </c>
       <c r="J60" t="n">
         <v>1</v>
@@ -2340,13 +2340,13 @@
         <v>12</v>
       </c>
       <c r="G61" t="n">
-        <v>58.65</v>
+        <v>57.77</v>
       </c>
       <c r="H61" t="n">
-        <v>21.69</v>
+        <v>18.12</v>
       </c>
       <c r="I61" t="n">
-        <v>6.77</v>
+        <v>5.33</v>
       </c>
       <c r="J61" t="n">
         <v>1</v>
@@ -2372,13 +2372,13 @@
         <v>12</v>
       </c>
       <c r="G62" t="n">
-        <v>56.47</v>
+        <v>57.52</v>
       </c>
       <c r="H62" t="n">
-        <v>18.71</v>
+        <v>17.89</v>
       </c>
       <c r="I62" t="n">
-        <v>5.03</v>
+        <v>7.41</v>
       </c>
       <c r="J62" t="n">
         <v>1</v>
@@ -2404,13 +2404,13 @@
         <v>12</v>
       </c>
       <c r="G63" t="n">
-        <v>54.93</v>
+        <v>57.75</v>
       </c>
       <c r="H63" t="n">
-        <v>16.95</v>
+        <v>20.9</v>
       </c>
       <c r="I63" t="n">
-        <v>4.65</v>
+        <v>6.77</v>
       </c>
       <c r="J63" t="n">
         <v>1</v>
@@ -2433,16 +2433,16 @@
         <v>20.56</v>
       </c>
       <c r="F64" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G64" t="n">
-        <v>55.24</v>
+        <v>51.91</v>
       </c>
       <c r="H64" t="n">
-        <v>18.69</v>
+        <v>20.03</v>
       </c>
       <c r="I64" t="n">
-        <v>3.82</v>
+        <v>4.47</v>
       </c>
       <c r="J64" t="n">
         <v>1</v>
@@ -2468,16 +2468,16 @@
         <v>12</v>
       </c>
       <c r="G65" t="n">
-        <v>58.21</v>
+        <v>61.43</v>
       </c>
       <c r="H65" t="n">
-        <v>18.78</v>
+        <v>17.1</v>
       </c>
       <c r="I65" t="n">
-        <v>2.8</v>
+        <v>2.67</v>
       </c>
       <c r="J65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2500,16 +2500,16 @@
         <v>12</v>
       </c>
       <c r="G66" t="n">
-        <v>52.78</v>
+        <v>52.15</v>
       </c>
       <c r="H66" t="n">
-        <v>20.25</v>
+        <v>18.86</v>
       </c>
       <c r="I66" t="n">
-        <v>6.3</v>
+        <v>2.32</v>
       </c>
       <c r="J66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2529,19 +2529,19 @@
         <v>19.37</v>
       </c>
       <c r="F67" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G67" t="n">
-        <v>63.69</v>
+        <v>55.94</v>
       </c>
       <c r="H67" t="n">
-        <v>19.39</v>
+        <v>15.93</v>
       </c>
       <c r="I67" t="n">
-        <v>5.04</v>
+        <v>4.3</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2564,13 +2564,13 @@
         <v>12</v>
       </c>
       <c r="G68" t="n">
-        <v>50.72</v>
+        <v>51.89</v>
       </c>
       <c r="H68" t="n">
-        <v>17.99</v>
+        <v>18.43</v>
       </c>
       <c r="I68" t="n">
-        <v>6.29</v>
+        <v>6.44</v>
       </c>
       <c r="J68" t="n">
         <v>1</v>
@@ -2593,16 +2593,16 @@
         <v>20.44</v>
       </c>
       <c r="F69" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G69" t="n">
-        <v>56.08</v>
+        <v>55.67</v>
       </c>
       <c r="H69" t="n">
-        <v>18.96</v>
+        <v>17.13</v>
       </c>
       <c r="I69" t="n">
-        <v>5.07</v>
+        <v>5.52</v>
       </c>
       <c r="J69" t="n">
         <v>1</v>
@@ -2625,16 +2625,16 @@
         <v>20.51</v>
       </c>
       <c r="F70" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G70" t="n">
-        <v>59.59</v>
+        <v>57.13</v>
       </c>
       <c r="H70" t="n">
-        <v>17.18</v>
+        <v>17.19</v>
       </c>
       <c r="I70" t="n">
-        <v>3.63</v>
+        <v>3.24</v>
       </c>
       <c r="J70" t="n">
         <v>1</v>
@@ -2660,16 +2660,16 @@
         <v>12</v>
       </c>
       <c r="G71" t="n">
-        <v>55.54</v>
+        <v>57.34</v>
       </c>
       <c r="H71" t="n">
-        <v>15.95</v>
+        <v>17.31</v>
       </c>
       <c r="I71" t="n">
-        <v>5.71</v>
+        <v>4.86</v>
       </c>
       <c r="J71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2692,13 +2692,13 @@
         <v>17</v>
       </c>
       <c r="G72" t="n">
-        <v>52.31</v>
+        <v>53.18</v>
       </c>
       <c r="H72" t="n">
-        <v>18.76</v>
+        <v>20.57</v>
       </c>
       <c r="I72" t="n">
-        <v>6.77</v>
+        <v>5.25</v>
       </c>
       <c r="J72" t="n">
         <v>1</v>
@@ -2724,13 +2724,13 @@
         <v>12</v>
       </c>
       <c r="G73" t="n">
-        <v>48.51</v>
+        <v>51.31</v>
       </c>
       <c r="H73" t="n">
-        <v>18.56</v>
+        <v>17.52</v>
       </c>
       <c r="I73" t="n">
-        <v>5.55</v>
+        <v>6.39</v>
       </c>
       <c r="J73" t="n">
         <v>1</v>
@@ -2753,19 +2753,19 @@
         <v>21.78</v>
       </c>
       <c r="F74" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G74" t="n">
-        <v>50.89</v>
+        <v>56.91</v>
       </c>
       <c r="H74" t="n">
-        <v>17.49</v>
+        <v>18.97</v>
       </c>
       <c r="I74" t="n">
-        <v>7.63</v>
+        <v>5.31</v>
       </c>
       <c r="J74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2785,19 +2785,19 @@
         <v>20.93</v>
       </c>
       <c r="F75" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G75" t="n">
-        <v>57.21</v>
+        <v>63.71</v>
       </c>
       <c r="H75" t="n">
-        <v>16.31</v>
+        <v>18.09</v>
       </c>
       <c r="I75" t="n">
-        <v>4.36</v>
+        <v>4.18</v>
       </c>
       <c r="J75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -2817,19 +2817,19 @@
         <v>19.43</v>
       </c>
       <c r="F76" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G76" t="n">
-        <v>60.79</v>
+        <v>56.06</v>
       </c>
       <c r="H76" t="n">
-        <v>19.26</v>
+        <v>18.09</v>
       </c>
       <c r="I76" t="n">
-        <v>7.24</v>
+        <v>5.31</v>
       </c>
       <c r="J76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -2852,13 +2852,13 @@
         <v>17</v>
       </c>
       <c r="G77" t="n">
-        <v>57.57</v>
+        <v>50.72</v>
       </c>
       <c r="H77" t="n">
-        <v>16.9</v>
+        <v>18.11</v>
       </c>
       <c r="I77" t="n">
-        <v>3.68</v>
+        <v>6.99</v>
       </c>
       <c r="J77" t="n">
         <v>1</v>
@@ -2884,13 +2884,13 @@
         <v>12</v>
       </c>
       <c r="G78" t="n">
-        <v>57.86</v>
+        <v>60.77</v>
       </c>
       <c r="H78" t="n">
-        <v>18.03</v>
+        <v>17.91</v>
       </c>
       <c r="I78" t="n">
-        <v>6.58</v>
+        <v>5.99</v>
       </c>
       <c r="J78" t="n">
         <v>0</v>
@@ -2913,16 +2913,16 @@
         <v>17.71</v>
       </c>
       <c r="F79" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G79" t="n">
-        <v>58.59</v>
+        <v>51.54</v>
       </c>
       <c r="H79" t="n">
-        <v>17.58</v>
+        <v>19.44</v>
       </c>
       <c r="I79" t="n">
-        <v>4.43</v>
+        <v>7.02</v>
       </c>
       <c r="J79" t="n">
         <v>0</v>
@@ -2948,13 +2948,13 @@
         <v>12</v>
       </c>
       <c r="G80" t="n">
-        <v>61.24</v>
+        <v>53.39</v>
       </c>
       <c r="H80" t="n">
-        <v>17.82</v>
+        <v>18.89</v>
       </c>
       <c r="I80" t="n">
-        <v>4.36</v>
+        <v>6.02</v>
       </c>
       <c r="J80" t="n">
         <v>0</v>
@@ -2977,19 +2977,19 @@
         <v>19.08</v>
       </c>
       <c r="F81" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G81" t="n">
-        <v>62.41</v>
+        <v>54.64</v>
       </c>
       <c r="H81" t="n">
-        <v>19.67</v>
+        <v>18.11</v>
       </c>
       <c r="I81" t="n">
-        <v>6.2</v>
+        <v>3.33</v>
       </c>
       <c r="J81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3009,19 +3009,19 @@
         <v>21.55</v>
       </c>
       <c r="F82" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G82" t="n">
-        <v>59.39</v>
+        <v>55.32</v>
       </c>
       <c r="H82" t="n">
-        <v>18.44</v>
+        <v>21.98</v>
       </c>
       <c r="I82" t="n">
-        <v>2.89</v>
+        <v>5.84</v>
       </c>
       <c r="J82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -3041,16 +3041,16 @@
         <v>21.57</v>
       </c>
       <c r="F83" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G83" t="n">
-        <v>55.43</v>
+        <v>54.77</v>
       </c>
       <c r="H83" t="n">
-        <v>18.57</v>
+        <v>18.92</v>
       </c>
       <c r="I83" t="n">
-        <v>5.34</v>
+        <v>5.21</v>
       </c>
       <c r="J83" t="n">
         <v>1</v>
@@ -3076,16 +3076,16 @@
         <v>12</v>
       </c>
       <c r="G84" t="n">
-        <v>59.07</v>
+        <v>53.79</v>
       </c>
       <c r="H84" t="n">
-        <v>17.45</v>
+        <v>17.2</v>
       </c>
       <c r="I84" t="n">
-        <v>5.31</v>
+        <v>5.71</v>
       </c>
       <c r="J84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -3105,16 +3105,16 @@
         <v>20.01</v>
       </c>
       <c r="F85" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G85" t="n">
-        <v>57.31</v>
+        <v>52.34</v>
       </c>
       <c r="H85" t="n">
-        <v>18.16</v>
+        <v>20.94</v>
       </c>
       <c r="I85" t="n">
-        <v>8.23</v>
+        <v>3.58</v>
       </c>
       <c r="J85" t="n">
         <v>1</v>
@@ -3140,13 +3140,13 @@
         <v>12</v>
       </c>
       <c r="G86" t="n">
-        <v>59.84</v>
+        <v>60.02</v>
       </c>
       <c r="H86" t="n">
-        <v>21.58</v>
+        <v>18.42</v>
       </c>
       <c r="I86" t="n">
-        <v>6.73</v>
+        <v>5.55</v>
       </c>
       <c r="J86" t="n">
         <v>1</v>
@@ -3169,16 +3169,16 @@
         <v>18.34</v>
       </c>
       <c r="F87" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G87" t="n">
-        <v>55.28</v>
+        <v>56.64</v>
       </c>
       <c r="H87" t="n">
-        <v>17.59</v>
+        <v>17.79</v>
       </c>
       <c r="I87" t="n">
-        <v>2.68</v>
+        <v>4.8</v>
       </c>
       <c r="J87" t="n">
         <v>0</v>
@@ -3201,19 +3201,19 @@
         <v>21.59</v>
       </c>
       <c r="F88" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G88" t="n">
-        <v>52.9</v>
+        <v>60.76</v>
       </c>
       <c r="H88" t="n">
-        <v>18.86</v>
+        <v>16.91</v>
       </c>
       <c r="I88" t="n">
-        <v>5.06</v>
+        <v>7.59</v>
       </c>
       <c r="J88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -3233,19 +3233,19 @@
         <v>18.72</v>
       </c>
       <c r="F89" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G89" t="n">
-        <v>53.75</v>
+        <v>58.39</v>
       </c>
       <c r="H89" t="n">
-        <v>18.68</v>
+        <v>17.21</v>
       </c>
       <c r="I89" t="n">
-        <v>4.97</v>
+        <v>6.23</v>
       </c>
       <c r="J89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3268,13 +3268,13 @@
         <v>17</v>
       </c>
       <c r="G90" t="n">
-        <v>59.38</v>
+        <v>59.7</v>
       </c>
       <c r="H90" t="n">
-        <v>19.9</v>
+        <v>16.74</v>
       </c>
       <c r="I90" t="n">
-        <v>3.72</v>
+        <v>8.2</v>
       </c>
       <c r="J90" t="n">
         <v>1</v>
@@ -3297,19 +3297,19 @@
         <v>19.08</v>
       </c>
       <c r="F91" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G91" t="n">
-        <v>52.59</v>
+        <v>57.75</v>
       </c>
       <c r="H91" t="n">
-        <v>19.63</v>
+        <v>18.42</v>
       </c>
       <c r="I91" t="n">
-        <v>6.58</v>
+        <v>6.39</v>
       </c>
       <c r="J91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3329,16 +3329,16 @@
         <v>16.99</v>
       </c>
       <c r="F92" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G92" t="n">
-        <v>59.72</v>
+        <v>58.76</v>
       </c>
       <c r="H92" t="n">
-        <v>17.25</v>
+        <v>19.56</v>
       </c>
       <c r="I92" t="n">
-        <v>4.16</v>
+        <v>5.08</v>
       </c>
       <c r="J92" t="n">
         <v>0</v>
@@ -3364,16 +3364,16 @@
         <v>12</v>
       </c>
       <c r="G93" t="n">
-        <v>61.19</v>
+        <v>53.28</v>
       </c>
       <c r="H93" t="n">
-        <v>16.37</v>
+        <v>17.56</v>
       </c>
       <c r="I93" t="n">
-        <v>4.79</v>
+        <v>3.53</v>
       </c>
       <c r="J93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3393,19 +3393,19 @@
         <v>20.46</v>
       </c>
       <c r="F94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G94" t="n">
-        <v>56.39</v>
+        <v>51.88</v>
       </c>
       <c r="H94" t="n">
-        <v>20.92</v>
+        <v>18.11</v>
       </c>
       <c r="I94" t="n">
-        <v>4.17</v>
+        <v>4.56</v>
       </c>
       <c r="J94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3428,16 +3428,16 @@
         <v>12</v>
       </c>
       <c r="G95" t="n">
-        <v>54.17</v>
+        <v>57.56</v>
       </c>
       <c r="H95" t="n">
-        <v>21.42</v>
+        <v>17.09</v>
       </c>
       <c r="I95" t="n">
-        <v>4.82</v>
+        <v>4.36</v>
       </c>
       <c r="J95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3457,16 +3457,16 @@
         <v>20.75</v>
       </c>
       <c r="F96" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G96" t="n">
-        <v>58.54</v>
+        <v>62.58</v>
       </c>
       <c r="H96" t="n">
-        <v>20.39</v>
+        <v>18.51</v>
       </c>
       <c r="I96" t="n">
-        <v>4.16</v>
+        <v>4.05</v>
       </c>
       <c r="J96" t="n">
         <v>1</v>
@@ -3492,13 +3492,13 @@
         <v>12</v>
       </c>
       <c r="G97" t="n">
-        <v>57.02</v>
+        <v>58.23</v>
       </c>
       <c r="H97" t="n">
-        <v>20.9</v>
+        <v>19.22</v>
       </c>
       <c r="I97" t="n">
-        <v>5.9</v>
+        <v>6.78</v>
       </c>
       <c r="J97" t="n">
         <v>0</v>
@@ -3521,16 +3521,16 @@
         <v>20.18</v>
       </c>
       <c r="F98" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G98" t="n">
-        <v>57.47</v>
+        <v>52.24</v>
       </c>
       <c r="H98" t="n">
-        <v>19.61</v>
+        <v>19.4</v>
       </c>
       <c r="I98" t="n">
-        <v>6.98</v>
+        <v>5.17</v>
       </c>
       <c r="J98" t="n">
         <v>1</v>
@@ -3556,16 +3556,16 @@
         <v>12</v>
       </c>
       <c r="G99" t="n">
-        <v>54.61</v>
+        <v>53.04</v>
       </c>
       <c r="H99" t="n">
-        <v>17.54</v>
+        <v>17.01</v>
       </c>
       <c r="I99" t="n">
-        <v>6.36</v>
+        <v>4.78</v>
       </c>
       <c r="J99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3585,16 +3585,16 @@
         <v>18.39</v>
       </c>
       <c r="F100" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G100" t="n">
-        <v>57.51</v>
+        <v>55.58</v>
       </c>
       <c r="H100" t="n">
-        <v>17.87</v>
+        <v>17.37</v>
       </c>
       <c r="I100" t="n">
-        <v>3.5</v>
+        <v>7.21</v>
       </c>
       <c r="J100" t="n">
         <v>0</v>
@@ -3617,16 +3617,16 @@
         <v>18.04</v>
       </c>
       <c r="F101" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G101" t="n">
-        <v>55.41</v>
+        <v>59.76</v>
       </c>
       <c r="H101" t="n">
-        <v>18.63</v>
+        <v>21.36</v>
       </c>
       <c r="I101" t="n">
-        <v>3.48</v>
+        <v>3.68</v>
       </c>
       <c r="J101" t="n">
         <v>0</v>
@@ -3649,16 +3649,16 @@
         <v>20.3</v>
       </c>
       <c r="F102" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G102" t="n">
-        <v>60.79</v>
+        <v>63.36</v>
       </c>
       <c r="H102" t="n">
-        <v>19.28</v>
+        <v>18.49</v>
       </c>
       <c r="I102" t="n">
-        <v>7.16</v>
+        <v>5.76</v>
       </c>
       <c r="J102" t="n">
         <v>1</v>
@@ -3681,19 +3681,19 @@
         <v>20.55</v>
       </c>
       <c r="F103" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G103" t="n">
-        <v>57.58</v>
+        <v>57.23</v>
       </c>
       <c r="H103" t="n">
-        <v>21.17</v>
+        <v>19.28</v>
       </c>
       <c r="I103" t="n">
-        <v>2.94</v>
+        <v>4.33</v>
       </c>
       <c r="J103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -3713,16 +3713,16 @@
         <v>21.96</v>
       </c>
       <c r="F104" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G104" t="n">
-        <v>59</v>
+        <v>54.35</v>
       </c>
       <c r="H104" t="n">
-        <v>16.63</v>
+        <v>19.55</v>
       </c>
       <c r="I104" t="n">
-        <v>7.21</v>
+        <v>4.53</v>
       </c>
       <c r="J104" t="n">
         <v>1</v>
@@ -3745,16 +3745,16 @@
         <v>22.76</v>
       </c>
       <c r="F105" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G105" t="n">
-        <v>60.9</v>
+        <v>60.11</v>
       </c>
       <c r="H105" t="n">
-        <v>17.54</v>
+        <v>17.93</v>
       </c>
       <c r="I105" t="n">
-        <v>1.8</v>
+        <v>7</v>
       </c>
       <c r="J105" t="n">
         <v>1</v>
@@ -3777,19 +3777,19 @@
         <v>18.32</v>
       </c>
       <c r="F106" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G106" t="n">
-        <v>58.75</v>
+        <v>62.76</v>
       </c>
       <c r="H106" t="n">
-        <v>19.71</v>
+        <v>18.27</v>
       </c>
       <c r="I106" t="n">
-        <v>4.05</v>
+        <v>5.07</v>
       </c>
       <c r="J106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -3812,13 +3812,13 @@
         <v>12</v>
       </c>
       <c r="G107" t="n">
-        <v>56.26</v>
+        <v>59.6</v>
       </c>
       <c r="H107" t="n">
-        <v>19.02</v>
+        <v>17.07</v>
       </c>
       <c r="I107" t="n">
-        <v>5.87</v>
+        <v>2.99</v>
       </c>
       <c r="J107" t="n">
         <v>1</v>
@@ -3841,16 +3841,16 @@
         <v>19.35</v>
       </c>
       <c r="F108" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G108" t="n">
-        <v>59.41</v>
+        <v>56.68</v>
       </c>
       <c r="H108" t="n">
-        <v>21.2</v>
+        <v>17.32</v>
       </c>
       <c r="I108" t="n">
-        <v>6.22</v>
+        <v>6.27</v>
       </c>
       <c r="J108" t="n">
         <v>0</v>
@@ -3876,16 +3876,16 @@
         <v>12</v>
       </c>
       <c r="G109" t="n">
-        <v>47.67</v>
+        <v>58.64</v>
       </c>
       <c r="H109" t="n">
-        <v>18.87</v>
+        <v>16.79</v>
       </c>
       <c r="I109" t="n">
-        <v>6.44</v>
+        <v>2.77</v>
       </c>
       <c r="J109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -3908,13 +3908,13 @@
         <v>12</v>
       </c>
       <c r="G110" t="n">
-        <v>57.99</v>
+        <v>54.89</v>
       </c>
       <c r="H110" t="n">
-        <v>17.74</v>
+        <v>17.15</v>
       </c>
       <c r="I110" t="n">
-        <v>4.03</v>
+        <v>5.64</v>
       </c>
       <c r="J110" t="n">
         <v>1</v>
@@ -3940,16 +3940,16 @@
         <v>12</v>
       </c>
       <c r="G111" t="n">
-        <v>51.01</v>
+        <v>58.81</v>
       </c>
       <c r="H111" t="n">
-        <v>19.95</v>
+        <v>19.01</v>
       </c>
       <c r="I111" t="n">
-        <v>6.58</v>
+        <v>6.65</v>
       </c>
       <c r="J111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -3969,19 +3969,19 @@
         <v>19.73</v>
       </c>
       <c r="F112" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G112" t="n">
-        <v>56.81</v>
+        <v>58.98</v>
       </c>
       <c r="H112" t="n">
-        <v>16.75</v>
+        <v>19.06</v>
       </c>
       <c r="I112" t="n">
-        <v>4.06</v>
+        <v>6.94</v>
       </c>
       <c r="J112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -4001,16 +4001,16 @@
         <v>17.69</v>
       </c>
       <c r="F113" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G113" t="n">
-        <v>54.65</v>
+        <v>55.6</v>
       </c>
       <c r="H113" t="n">
-        <v>17.91</v>
+        <v>21.33</v>
       </c>
       <c r="I113" t="n">
-        <v>3.35</v>
+        <v>6.95</v>
       </c>
       <c r="J113" t="n">
         <v>0</v>
@@ -4033,16 +4033,16 @@
         <v>20.79</v>
       </c>
       <c r="F114" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G114" t="n">
-        <v>53.02</v>
+        <v>57.59</v>
       </c>
       <c r="H114" t="n">
-        <v>18.81</v>
+        <v>16.23</v>
       </c>
       <c r="I114" t="n">
-        <v>4.16</v>
+        <v>4.82</v>
       </c>
       <c r="J114" t="n">
         <v>1</v>
@@ -4068,13 +4068,13 @@
         <v>17</v>
       </c>
       <c r="G115" t="n">
-        <v>57.3</v>
+        <v>57.81</v>
       </c>
       <c r="H115" t="n">
-        <v>17.17</v>
+        <v>20.68</v>
       </c>
       <c r="I115" t="n">
-        <v>3.94</v>
+        <v>4.08</v>
       </c>
       <c r="J115" t="n">
         <v>0</v>
@@ -4097,16 +4097,16 @@
         <v>19.24</v>
       </c>
       <c r="F116" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G116" t="n">
-        <v>51.2</v>
+        <v>59.39</v>
       </c>
       <c r="H116" t="n">
-        <v>18.99</v>
+        <v>16.52</v>
       </c>
       <c r="I116" t="n">
-        <v>4.22</v>
+        <v>4.83</v>
       </c>
       <c r="J116" t="n">
         <v>0</v>
@@ -4132,13 +4132,13 @@
         <v>18</v>
       </c>
       <c r="G117" t="n">
-        <v>55.08</v>
+        <v>50.77</v>
       </c>
       <c r="H117" t="n">
-        <v>17.98</v>
+        <v>18.43</v>
       </c>
       <c r="I117" t="n">
-        <v>7.36</v>
+        <v>5.54</v>
       </c>
       <c r="J117" t="n">
         <v>0</v>
@@ -4161,16 +4161,16 @@
         <v>19.64</v>
       </c>
       <c r="F118" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G118" t="n">
-        <v>62.6</v>
+        <v>54.22</v>
       </c>
       <c r="H118" t="n">
-        <v>18.28</v>
+        <v>20.9</v>
       </c>
       <c r="I118" t="n">
-        <v>3.33</v>
+        <v>5.32</v>
       </c>
       <c r="J118" t="n">
         <v>1</v>
@@ -4193,19 +4193,19 @@
         <v>20.8</v>
       </c>
       <c r="F119" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G119" t="n">
-        <v>53.87</v>
+        <v>55.12</v>
       </c>
       <c r="H119" t="n">
-        <v>17.96</v>
+        <v>16.89</v>
       </c>
       <c r="I119" t="n">
-        <v>4.17</v>
+        <v>3.41</v>
       </c>
       <c r="J119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -4225,16 +4225,16 @@
         <v>20.43</v>
       </c>
       <c r="F120" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G120" t="n">
-        <v>58.84</v>
+        <v>51.26</v>
       </c>
       <c r="H120" t="n">
         <v>18.79</v>
       </c>
       <c r="I120" t="n">
-        <v>3.53</v>
+        <v>4.34</v>
       </c>
       <c r="J120" t="n">
         <v>1</v>
@@ -4260,16 +4260,16 @@
         <v>12</v>
       </c>
       <c r="G121" t="n">
-        <v>63.5</v>
+        <v>58.36</v>
       </c>
       <c r="H121" t="n">
-        <v>22.8</v>
+        <v>17.12</v>
       </c>
       <c r="I121" t="n">
-        <v>4.63</v>
+        <v>4.57</v>
       </c>
       <c r="J121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -4292,13 +4292,13 @@
         <v>12</v>
       </c>
       <c r="G122" t="n">
-        <v>56.9</v>
+        <v>57.69</v>
       </c>
       <c r="H122" t="n">
-        <v>17.47</v>
+        <v>16.82</v>
       </c>
       <c r="I122" t="n">
-        <v>6.13</v>
+        <v>4.2</v>
       </c>
       <c r="J122" t="n">
         <v>0</v>
@@ -4324,13 +4324,13 @@
         <v>12</v>
       </c>
       <c r="G123" t="n">
-        <v>54.58</v>
+        <v>59.14</v>
       </c>
       <c r="H123" t="n">
-        <v>17.57</v>
+        <v>20.45</v>
       </c>
       <c r="I123" t="n">
-        <v>6.72</v>
+        <v>4.43</v>
       </c>
       <c r="J123" t="n">
         <v>0</v>
@@ -4353,16 +4353,16 @@
         <v>20.66</v>
       </c>
       <c r="F124" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G124" t="n">
-        <v>58.59</v>
+        <v>59.9</v>
       </c>
       <c r="H124" t="n">
-        <v>17.28</v>
+        <v>20.5</v>
       </c>
       <c r="I124" t="n">
-        <v>3.05</v>
+        <v>2.84</v>
       </c>
       <c r="J124" t="n">
         <v>1</v>
@@ -4388,16 +4388,16 @@
         <v>12</v>
       </c>
       <c r="G125" t="n">
-        <v>59.83</v>
+        <v>57.22</v>
       </c>
       <c r="H125" t="n">
-        <v>16.68</v>
+        <v>19.32</v>
       </c>
       <c r="I125" t="n">
-        <v>7.66</v>
+        <v>4.83</v>
       </c>
       <c r="J125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -4420,13 +4420,13 @@
         <v>17</v>
       </c>
       <c r="G126" t="n">
-        <v>56.48</v>
+        <v>59.71</v>
       </c>
       <c r="H126" t="n">
-        <v>18.07</v>
+        <v>18.98</v>
       </c>
       <c r="I126" t="n">
-        <v>5.6</v>
+        <v>5.51</v>
       </c>
       <c r="J126" t="n">
         <v>1</v>
@@ -4452,16 +4452,16 @@
         <v>17</v>
       </c>
       <c r="G127" t="n">
-        <v>57.38</v>
+        <v>58.6</v>
       </c>
       <c r="H127" t="n">
-        <v>16.54</v>
+        <v>17</v>
       </c>
       <c r="I127" t="n">
-        <v>4.54</v>
+        <v>4.76</v>
       </c>
       <c r="J127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -4481,19 +4481,19 @@
         <v>17.44</v>
       </c>
       <c r="F128" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G128" t="n">
-        <v>58.56</v>
+        <v>58.72</v>
       </c>
       <c r="H128" t="n">
-        <v>17.55</v>
+        <v>19.43</v>
       </c>
       <c r="I128" t="n">
-        <v>5.04</v>
+        <v>3.94</v>
       </c>
       <c r="J128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -4516,13 +4516,13 @@
         <v>18</v>
       </c>
       <c r="G129" t="n">
-        <v>54.52</v>
+        <v>54.98</v>
       </c>
       <c r="H129" t="n">
-        <v>18.88</v>
+        <v>19.81</v>
       </c>
       <c r="I129" t="n">
-        <v>6.7</v>
+        <v>3.23</v>
       </c>
       <c r="J129" t="n">
         <v>1</v>
@@ -4545,19 +4545,19 @@
         <v>19.2</v>
       </c>
       <c r="F130" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G130" t="n">
-        <v>55.17</v>
+        <v>56.66</v>
       </c>
       <c r="H130" t="n">
-        <v>19.86</v>
+        <v>18.37</v>
       </c>
       <c r="I130" t="n">
-        <v>4.73</v>
+        <v>4.33</v>
       </c>
       <c r="J130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -4577,19 +4577,19 @@
         <v>19.41</v>
       </c>
       <c r="F131" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G131" t="n">
-        <v>60.02</v>
+        <v>53.06</v>
       </c>
       <c r="H131" t="n">
-        <v>15.79</v>
+        <v>17.99</v>
       </c>
       <c r="I131" t="n">
-        <v>3.93</v>
+        <v>4.81</v>
       </c>
       <c r="J131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -4609,16 +4609,16 @@
         <v>18.43</v>
       </c>
       <c r="F132" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G132" t="n">
-        <v>58.22</v>
+        <v>54.7</v>
       </c>
       <c r="H132" t="n">
-        <v>18.65</v>
+        <v>17.67</v>
       </c>
       <c r="I132" t="n">
-        <v>5.56</v>
+        <v>6.22</v>
       </c>
       <c r="J132" t="n">
         <v>0</v>
@@ -4641,16 +4641,16 @@
         <v>19.32</v>
       </c>
       <c r="F133" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G133" t="n">
-        <v>57.27</v>
+        <v>54.27</v>
       </c>
       <c r="H133" t="n">
-        <v>17.19</v>
+        <v>22.42</v>
       </c>
       <c r="I133" t="n">
-        <v>4.26</v>
+        <v>4.66</v>
       </c>
       <c r="J133" t="n">
         <v>0</v>
@@ -4676,16 +4676,16 @@
         <v>12</v>
       </c>
       <c r="G134" t="n">
-        <v>51.65</v>
+        <v>55.97</v>
       </c>
       <c r="H134" t="n">
-        <v>16.67</v>
+        <v>18.62</v>
       </c>
       <c r="I134" t="n">
-        <v>4.99</v>
+        <v>6.71</v>
       </c>
       <c r="J134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -4708,13 +4708,13 @@
         <v>12</v>
       </c>
       <c r="G135" t="n">
-        <v>59.96</v>
+        <v>56.65</v>
       </c>
       <c r="H135" t="n">
-        <v>20.89</v>
+        <v>19.66</v>
       </c>
       <c r="I135" t="n">
-        <v>5.26</v>
+        <v>5.64</v>
       </c>
       <c r="J135" t="n">
         <v>0</v>
@@ -4740,13 +4740,13 @@
         <v>12</v>
       </c>
       <c r="G136" t="n">
-        <v>59.91</v>
+        <v>57.91</v>
       </c>
       <c r="H136" t="n">
-        <v>15.63</v>
+        <v>17.34</v>
       </c>
       <c r="I136" t="n">
-        <v>5.73</v>
+        <v>2.22</v>
       </c>
       <c r="J136" t="n">
         <v>1</v>
@@ -4769,16 +4769,16 @@
         <v>19.15</v>
       </c>
       <c r="F137" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G137" t="n">
-        <v>55.8</v>
+        <v>55.67</v>
       </c>
       <c r="H137" t="n">
-        <v>17.64</v>
+        <v>18.99</v>
       </c>
       <c r="I137" t="n">
-        <v>3.43</v>
+        <v>4.47</v>
       </c>
       <c r="J137" t="n">
         <v>1</v>
@@ -4801,16 +4801,16 @@
         <v>23.1</v>
       </c>
       <c r="F138" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G138" t="n">
-        <v>52.02</v>
+        <v>51.61</v>
       </c>
       <c r="H138" t="n">
-        <v>17.02</v>
+        <v>18.96</v>
       </c>
       <c r="I138" t="n">
-        <v>5.72</v>
+        <v>5.55</v>
       </c>
       <c r="J138" t="n">
         <v>1</v>
@@ -4833,16 +4833,16 @@
         <v>19.24</v>
       </c>
       <c r="F139" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G139" t="n">
-        <v>52.52</v>
+        <v>54.43</v>
       </c>
       <c r="H139" t="n">
-        <v>18.91</v>
+        <v>19.08</v>
       </c>
       <c r="I139" t="n">
-        <v>4.28</v>
+        <v>2.97</v>
       </c>
       <c r="J139" t="n">
         <v>0</v>
@@ -4865,16 +4865,16 @@
         <v>19.84</v>
       </c>
       <c r="F140" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G140" t="n">
-        <v>57.13</v>
+        <v>55.18</v>
       </c>
       <c r="H140" t="n">
-        <v>17.14</v>
+        <v>15.8</v>
       </c>
       <c r="I140" t="n">
-        <v>4.81</v>
+        <v>6.26</v>
       </c>
       <c r="J140" t="n">
         <v>1</v>
@@ -4897,19 +4897,19 @@
         <v>20.52</v>
       </c>
       <c r="F141" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G141" t="n">
-        <v>54.59</v>
+        <v>50.76</v>
       </c>
       <c r="H141" t="n">
-        <v>22.04</v>
+        <v>17.72</v>
       </c>
       <c r="I141" t="n">
-        <v>3.94</v>
+        <v>4.09</v>
       </c>
       <c r="J141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -4929,16 +4929,16 @@
         <v>18.21</v>
       </c>
       <c r="F142" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G142" t="n">
-        <v>56.68</v>
+        <v>56.04</v>
       </c>
       <c r="H142" t="n">
-        <v>21.75</v>
+        <v>17.65</v>
       </c>
       <c r="I142" t="n">
-        <v>4.39</v>
+        <v>4.7</v>
       </c>
       <c r="J142" t="n">
         <v>1</v>
@@ -4964,13 +4964,13 @@
         <v>12</v>
       </c>
       <c r="G143" t="n">
-        <v>53.52</v>
+        <v>57.23</v>
       </c>
       <c r="H143" t="n">
-        <v>20.89</v>
+        <v>19.49</v>
       </c>
       <c r="I143" t="n">
-        <v>4.78</v>
+        <v>4.82</v>
       </c>
       <c r="J143" t="n">
         <v>1</v>
@@ -4996,13 +4996,13 @@
         <v>17</v>
       </c>
       <c r="G144" t="n">
-        <v>60.06</v>
+        <v>55.79</v>
       </c>
       <c r="H144" t="n">
-        <v>19.99</v>
+        <v>18.76</v>
       </c>
       <c r="I144" t="n">
-        <v>6.37</v>
+        <v>7.02</v>
       </c>
       <c r="J144" t="n">
         <v>0</v>
@@ -5025,16 +5025,16 @@
         <v>21.24</v>
       </c>
       <c r="F145" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G145" t="n">
-        <v>58.43</v>
+        <v>51.18</v>
       </c>
       <c r="H145" t="n">
-        <v>18.44</v>
+        <v>18.12</v>
       </c>
       <c r="I145" t="n">
-        <v>5.4</v>
+        <v>3.97</v>
       </c>
       <c r="J145" t="n">
         <v>1</v>
@@ -5057,16 +5057,16 @@
         <v>20.61</v>
       </c>
       <c r="F146" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G146" t="n">
-        <v>53.16</v>
+        <v>56.29</v>
       </c>
       <c r="H146" t="n">
-        <v>16.42</v>
+        <v>17.45</v>
       </c>
       <c r="I146" t="n">
-        <v>8.03</v>
+        <v>5.86</v>
       </c>
       <c r="J146" t="n">
         <v>1</v>
@@ -5089,16 +5089,16 @@
         <v>20.59</v>
       </c>
       <c r="F147" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G147" t="n">
-        <v>57.57</v>
+        <v>57.4</v>
       </c>
       <c r="H147" t="n">
-        <v>19.15</v>
+        <v>17.36</v>
       </c>
       <c r="I147" t="n">
-        <v>2.54</v>
+        <v>6.22</v>
       </c>
       <c r="J147" t="n">
         <v>1</v>
@@ -5121,16 +5121,16 @@
         <v>17.83</v>
       </c>
       <c r="F148" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G148" t="n">
-        <v>55.06</v>
+        <v>59.69</v>
       </c>
       <c r="H148" t="n">
-        <v>17.5</v>
+        <v>18.13</v>
       </c>
       <c r="I148" t="n">
-        <v>5.38</v>
+        <v>4.62</v>
       </c>
       <c r="J148" t="n">
         <v>1</v>
@@ -5156,13 +5156,13 @@
         <v>12</v>
       </c>
       <c r="G149" t="n">
-        <v>57.18</v>
+        <v>58.14</v>
       </c>
       <c r="H149" t="n">
-        <v>18.48</v>
+        <v>17.1</v>
       </c>
       <c r="I149" t="n">
-        <v>5.38</v>
+        <v>5.13</v>
       </c>
       <c r="J149" t="n">
         <v>0</v>
@@ -5188,13 +5188,13 @@
         <v>12</v>
       </c>
       <c r="G150" t="n">
-        <v>56.65</v>
+        <v>61.19</v>
       </c>
       <c r="H150" t="n">
-        <v>17.96</v>
+        <v>17.25</v>
       </c>
       <c r="I150" t="n">
-        <v>5.35</v>
+        <v>3.77</v>
       </c>
       <c r="J150" t="n">
         <v>1</v>
@@ -5217,16 +5217,16 @@
         <v>19.04</v>
       </c>
       <c r="F151" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G151" t="n">
-        <v>56.98</v>
+        <v>57.13</v>
       </c>
       <c r="H151" t="n">
-        <v>19.45</v>
+        <v>16.03</v>
       </c>
       <c r="I151" t="n">
-        <v>6.32</v>
+        <v>3.74</v>
       </c>
       <c r="J151" t="n">
         <v>1</v>
@@ -5249,16 +5249,16 @@
         <v>19.92</v>
       </c>
       <c r="F152" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G152" t="n">
-        <v>58.6</v>
+        <v>54.76</v>
       </c>
       <c r="H152" t="n">
-        <v>16.57</v>
+        <v>17.95</v>
       </c>
       <c r="I152" t="n">
-        <v>5.99</v>
+        <v>3.49</v>
       </c>
       <c r="J152" t="n">
         <v>1</v>
@@ -5284,13 +5284,13 @@
         <v>12</v>
       </c>
       <c r="G153" t="n">
-        <v>55.04</v>
+        <v>60.67</v>
       </c>
       <c r="H153" t="n">
-        <v>18.09</v>
+        <v>16.78</v>
       </c>
       <c r="I153" t="n">
-        <v>5.55</v>
+        <v>5.54</v>
       </c>
       <c r="J153" t="n">
         <v>1</v>
@@ -5313,16 +5313,16 @@
         <v>23.28</v>
       </c>
       <c r="F154" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G154" t="n">
-        <v>60.19</v>
+        <v>53.14</v>
       </c>
       <c r="H154" t="n">
-        <v>19.36</v>
+        <v>17.72</v>
       </c>
       <c r="I154" t="n">
-        <v>4.97</v>
+        <v>7.36</v>
       </c>
       <c r="J154" t="n">
         <v>1</v>
@@ -5345,16 +5345,16 @@
         <v>20.44</v>
       </c>
       <c r="F155" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G155" t="n">
-        <v>61.75</v>
+        <v>57.26</v>
       </c>
       <c r="H155" t="n">
-        <v>17.66</v>
+        <v>16.47</v>
       </c>
       <c r="I155" t="n">
-        <v>2.91</v>
+        <v>3.21</v>
       </c>
       <c r="J155" t="n">
         <v>1</v>
@@ -5377,16 +5377,16 @@
         <v>21.84</v>
       </c>
       <c r="F156" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G156" t="n">
-        <v>51</v>
+        <v>60.47</v>
       </c>
       <c r="H156" t="n">
-        <v>18.08</v>
+        <v>20.82</v>
       </c>
       <c r="I156" t="n">
-        <v>7.47</v>
+        <v>3.75</v>
       </c>
       <c r="J156" t="n">
         <v>1</v>
@@ -5409,16 +5409,16 @@
         <v>20.05</v>
       </c>
       <c r="F157" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G157" t="n">
-        <v>55.12</v>
+        <v>57.42</v>
       </c>
       <c r="H157" t="n">
-        <v>17.04</v>
+        <v>18.39</v>
       </c>
       <c r="I157" t="n">
-        <v>2.5</v>
+        <v>5.25</v>
       </c>
       <c r="J157" t="n">
         <v>1</v>
@@ -5444,16 +5444,16 @@
         <v>17</v>
       </c>
       <c r="G158" t="n">
-        <v>63.52</v>
+        <v>56.67</v>
       </c>
       <c r="H158" t="n">
-        <v>17.9</v>
+        <v>19.97</v>
       </c>
       <c r="I158" t="n">
-        <v>2.64</v>
+        <v>2.81</v>
       </c>
       <c r="J158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -5476,13 +5476,13 @@
         <v>12</v>
       </c>
       <c r="G159" t="n">
-        <v>53.75</v>
+        <v>54.62</v>
       </c>
       <c r="H159" t="n">
-        <v>17.58</v>
+        <v>19.3</v>
       </c>
       <c r="I159" t="n">
-        <v>3.57</v>
+        <v>5.31</v>
       </c>
       <c r="J159" t="n">
         <v>0</v>
@@ -5508,13 +5508,13 @@
         <v>12</v>
       </c>
       <c r="G160" t="n">
-        <v>56.24</v>
+        <v>58.88</v>
       </c>
       <c r="H160" t="n">
-        <v>17.85</v>
+        <v>19.68</v>
       </c>
       <c r="I160" t="n">
-        <v>4.86</v>
+        <v>5.33</v>
       </c>
       <c r="J160" t="n">
         <v>1</v>
@@ -5537,16 +5537,16 @@
         <v>20.92</v>
       </c>
       <c r="F161" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G161" t="n">
-        <v>54.9</v>
+        <v>62.52</v>
       </c>
       <c r="H161" t="n">
-        <v>18.62</v>
+        <v>16.26</v>
       </c>
       <c r="I161" t="n">
-        <v>7.63</v>
+        <v>6.23</v>
       </c>
       <c r="J161" t="n">
         <v>1</v>
@@ -5569,16 +5569,16 @@
         <v>19.91</v>
       </c>
       <c r="F162" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G162" t="n">
-        <v>62.21</v>
+        <v>51.68</v>
       </c>
       <c r="H162" t="n">
-        <v>18.69</v>
+        <v>17.89</v>
       </c>
       <c r="I162" t="n">
-        <v>6.32</v>
+        <v>2.83</v>
       </c>
       <c r="J162" t="n">
         <v>1</v>
@@ -5601,16 +5601,16 @@
         <v>18.1</v>
       </c>
       <c r="F163" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G163" t="n">
-        <v>54.72</v>
+        <v>55.48</v>
       </c>
       <c r="H163" t="n">
-        <v>18.25</v>
+        <v>18.56</v>
       </c>
       <c r="I163" t="n">
-        <v>5.6</v>
+        <v>3.79</v>
       </c>
       <c r="J163" t="n">
         <v>0</v>
@@ -5633,16 +5633,16 @@
         <v>16.76</v>
       </c>
       <c r="F164" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G164" t="n">
-        <v>55.82</v>
+        <v>58.39</v>
       </c>
       <c r="H164" t="n">
-        <v>17.04</v>
+        <v>16.68</v>
       </c>
       <c r="I164" t="n">
-        <v>3.88</v>
+        <v>5.62</v>
       </c>
       <c r="J164" t="n">
         <v>0</v>
@@ -5668,13 +5668,13 @@
         <v>12</v>
       </c>
       <c r="G165" t="n">
-        <v>54.8</v>
+        <v>59.78</v>
       </c>
       <c r="H165" t="n">
-        <v>20.44</v>
+        <v>19.47</v>
       </c>
       <c r="I165" t="n">
-        <v>3.41</v>
+        <v>5.44</v>
       </c>
       <c r="J165" t="n">
         <v>1</v>
@@ -5697,19 +5697,19 @@
         <v>19.57</v>
       </c>
       <c r="F166" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G166" t="n">
-        <v>51.7</v>
+        <v>55.8</v>
       </c>
       <c r="H166" t="n">
-        <v>17.68</v>
+        <v>17.22</v>
       </c>
       <c r="I166" t="n">
-        <v>4.13</v>
+        <v>5.13</v>
       </c>
       <c r="J166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
@@ -5729,16 +5729,16 @@
         <v>20.08</v>
       </c>
       <c r="F167" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G167" t="n">
-        <v>54.49</v>
+        <v>54.8</v>
       </c>
       <c r="H167" t="n">
-        <v>16.13</v>
+        <v>17.53</v>
       </c>
       <c r="I167" t="n">
-        <v>4.84</v>
+        <v>6.69</v>
       </c>
       <c r="J167" t="n">
         <v>1</v>
@@ -5761,16 +5761,16 @@
         <v>20.88</v>
       </c>
       <c r="F168" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G168" t="n">
-        <v>53.07</v>
+        <v>55.31</v>
       </c>
       <c r="H168" t="n">
-        <v>15.06</v>
+        <v>16.39</v>
       </c>
       <c r="I168" t="n">
-        <v>2.9</v>
+        <v>5.21</v>
       </c>
       <c r="J168" t="n">
         <v>1</v>
@@ -5793,16 +5793,16 @@
         <v>21.15</v>
       </c>
       <c r="F169" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G169" t="n">
-        <v>55.51</v>
+        <v>57.47</v>
       </c>
       <c r="H169" t="n">
-        <v>17.93</v>
+        <v>19.83</v>
       </c>
       <c r="I169" t="n">
-        <v>4.87</v>
+        <v>3.41</v>
       </c>
       <c r="J169" t="n">
         <v>1</v>
@@ -5825,16 +5825,16 @@
         <v>17.94</v>
       </c>
       <c r="F170" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G170" t="n">
-        <v>61.17</v>
+        <v>56.52</v>
       </c>
       <c r="H170" t="n">
-        <v>19.75</v>
+        <v>19.58</v>
       </c>
       <c r="I170" t="n">
-        <v>4.31</v>
+        <v>3.4</v>
       </c>
       <c r="J170" t="n">
         <v>0</v>
@@ -5857,16 +5857,16 @@
         <v>21.58</v>
       </c>
       <c r="F171" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G171" t="n">
-        <v>59.94</v>
+        <v>54.22</v>
       </c>
       <c r="H171" t="n">
-        <v>14.75</v>
+        <v>16.96</v>
       </c>
       <c r="I171" t="n">
-        <v>5.59</v>
+        <v>5.62</v>
       </c>
       <c r="J171" t="n">
         <v>1</v>
@@ -5889,19 +5889,19 @@
         <v>19.01</v>
       </c>
       <c r="F172" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G172" t="n">
-        <v>53.29</v>
+        <v>55.77</v>
       </c>
       <c r="H172" t="n">
-        <v>18.26</v>
+        <v>18.08</v>
       </c>
       <c r="I172" t="n">
-        <v>2.34</v>
+        <v>4.66</v>
       </c>
       <c r="J172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -5921,16 +5921,16 @@
         <v>21.25</v>
       </c>
       <c r="F173" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G173" t="n">
-        <v>53.5</v>
+        <v>58.1</v>
       </c>
       <c r="H173" t="n">
-        <v>16.78</v>
+        <v>16.49</v>
       </c>
       <c r="I173" t="n">
-        <v>4.55</v>
+        <v>6.1</v>
       </c>
       <c r="J173" t="n">
         <v>1</v>
@@ -5956,16 +5956,16 @@
         <v>17</v>
       </c>
       <c r="G174" t="n">
-        <v>54.76</v>
+        <v>61.87</v>
       </c>
       <c r="H174" t="n">
-        <v>19.61</v>
+        <v>14.77</v>
       </c>
       <c r="I174" t="n">
-        <v>5.65</v>
+        <v>1.88</v>
       </c>
       <c r="J174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -5985,19 +5985,19 @@
         <v>19.99</v>
       </c>
       <c r="F175" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G175" t="n">
-        <v>50.81</v>
+        <v>51.75</v>
       </c>
       <c r="H175" t="n">
-        <v>19.28</v>
+        <v>19.49</v>
       </c>
       <c r="I175" t="n">
-        <v>6.21</v>
+        <v>7.34</v>
       </c>
       <c r="J175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -6020,13 +6020,13 @@
         <v>17</v>
       </c>
       <c r="G176" t="n">
-        <v>58.77</v>
+        <v>55.54</v>
       </c>
       <c r="H176" t="n">
-        <v>18.02</v>
+        <v>17.89</v>
       </c>
       <c r="I176" t="n">
-        <v>4.19</v>
+        <v>7.46</v>
       </c>
       <c r="J176" t="n">
         <v>1</v>
@@ -6052,13 +6052,13 @@
         <v>17</v>
       </c>
       <c r="G177" t="n">
-        <v>63.91</v>
+        <v>49.72</v>
       </c>
       <c r="H177" t="n">
-        <v>17.94</v>
+        <v>17.36</v>
       </c>
       <c r="I177" t="n">
-        <v>3.79</v>
+        <v>7.45</v>
       </c>
       <c r="J177" t="n">
         <v>1</v>
@@ -6084,16 +6084,16 @@
         <v>12</v>
       </c>
       <c r="G178" t="n">
-        <v>53.17</v>
+        <v>61.91</v>
       </c>
       <c r="H178" t="n">
-        <v>18.78</v>
+        <v>19.38</v>
       </c>
       <c r="I178" t="n">
-        <v>5.55</v>
+        <v>2.28</v>
       </c>
       <c r="J178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
@@ -6116,16 +6116,16 @@
         <v>12</v>
       </c>
       <c r="G179" t="n">
-        <v>57.78</v>
+        <v>52.2</v>
       </c>
       <c r="H179" t="n">
-        <v>19.42</v>
+        <v>17.19</v>
       </c>
       <c r="I179" t="n">
-        <v>5.13</v>
+        <v>5.72</v>
       </c>
       <c r="J179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -6145,16 +6145,16 @@
         <v>20.99</v>
       </c>
       <c r="F180" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G180" t="n">
-        <v>63.83</v>
+        <v>57.89</v>
       </c>
       <c r="H180" t="n">
-        <v>17.93</v>
+        <v>18.26</v>
       </c>
       <c r="I180" t="n">
-        <v>4.99</v>
+        <v>5.77</v>
       </c>
       <c r="J180" t="n">
         <v>1</v>
@@ -6180,16 +6180,16 @@
         <v>17</v>
       </c>
       <c r="G181" t="n">
-        <v>58.68</v>
+        <v>55.01</v>
       </c>
       <c r="H181" t="n">
-        <v>18.83</v>
+        <v>17.99</v>
       </c>
       <c r="I181" t="n">
-        <v>8.42</v>
+        <v>3.74</v>
       </c>
       <c r="J181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
@@ -6212,13 +6212,13 @@
         <v>12</v>
       </c>
       <c r="G182" t="n">
-        <v>50.5</v>
+        <v>52.11</v>
       </c>
       <c r="H182" t="n">
-        <v>18.37</v>
+        <v>16.4</v>
       </c>
       <c r="I182" t="n">
-        <v>4.37</v>
+        <v>2.15</v>
       </c>
       <c r="J182" t="n">
         <v>0</v>
@@ -6241,19 +6241,19 @@
         <v>19.46</v>
       </c>
       <c r="F183" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G183" t="n">
-        <v>59.62</v>
+        <v>55.72</v>
       </c>
       <c r="H183" t="n">
-        <v>19.66</v>
+        <v>20.02</v>
       </c>
       <c r="I183" t="n">
-        <v>4.54</v>
+        <v>3.12</v>
       </c>
       <c r="J183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -6276,13 +6276,13 @@
         <v>17</v>
       </c>
       <c r="G184" t="n">
-        <v>47.7</v>
+        <v>60.58</v>
       </c>
       <c r="H184" t="n">
-        <v>16.62</v>
+        <v>18.96</v>
       </c>
       <c r="I184" t="n">
-        <v>4.47</v>
+        <v>4.88</v>
       </c>
       <c r="J184" t="n">
         <v>0</v>
@@ -6305,16 +6305,16 @@
         <v>21.53</v>
       </c>
       <c r="F185" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G185" t="n">
-        <v>57.95</v>
+        <v>59.48</v>
       </c>
       <c r="H185" t="n">
-        <v>18.64</v>
+        <v>17.93</v>
       </c>
       <c r="I185" t="n">
-        <v>3.97</v>
+        <v>6.53</v>
       </c>
       <c r="J185" t="n">
         <v>1</v>
@@ -6337,19 +6337,19 @@
         <v>19.46</v>
       </c>
       <c r="F186" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G186" t="n">
-        <v>57.17</v>
+        <v>60.02</v>
       </c>
       <c r="H186" t="n">
-        <v>18.79</v>
+        <v>17.99</v>
       </c>
       <c r="I186" t="n">
-        <v>5.75</v>
+        <v>4.57</v>
       </c>
       <c r="J186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
@@ -6369,16 +6369,16 @@
         <v>20.72</v>
       </c>
       <c r="F187" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G187" t="n">
-        <v>51.24</v>
+        <v>55.84</v>
       </c>
       <c r="H187" t="n">
-        <v>15.86</v>
+        <v>17.88</v>
       </c>
       <c r="I187" t="n">
-        <v>4.9</v>
+        <v>4.77</v>
       </c>
       <c r="J187" t="n">
         <v>1</v>
@@ -6404,16 +6404,16 @@
         <v>12</v>
       </c>
       <c r="G188" t="n">
-        <v>49.71</v>
+        <v>55.22</v>
       </c>
       <c r="H188" t="n">
-        <v>17.77</v>
+        <v>16.7</v>
       </c>
       <c r="I188" t="n">
-        <v>5.73</v>
+        <v>2.3</v>
       </c>
       <c r="J188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
@@ -6436,13 +6436,13 @@
         <v>17</v>
       </c>
       <c r="G189" t="n">
-        <v>61.25</v>
+        <v>53.02</v>
       </c>
       <c r="H189" t="n">
-        <v>19.69</v>
+        <v>19.32</v>
       </c>
       <c r="I189" t="n">
-        <v>5.44</v>
+        <v>2.09</v>
       </c>
       <c r="J189" t="n">
         <v>1</v>
@@ -6468,13 +6468,13 @@
         <v>17</v>
       </c>
       <c r="G190" t="n">
-        <v>55.16</v>
+        <v>63.03</v>
       </c>
       <c r="H190" t="n">
-        <v>21.82</v>
+        <v>22.13</v>
       </c>
       <c r="I190" t="n">
-        <v>5.16</v>
+        <v>4.06</v>
       </c>
       <c r="J190" t="n">
         <v>1</v>
@@ -6500,16 +6500,16 @@
         <v>12</v>
       </c>
       <c r="G191" t="n">
-        <v>54.52</v>
+        <v>60.36</v>
       </c>
       <c r="H191" t="n">
-        <v>18.68</v>
+        <v>18.89</v>
       </c>
       <c r="I191" t="n">
-        <v>3.84</v>
+        <v>5.26</v>
       </c>
       <c r="J191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
@@ -6532,16 +6532,16 @@
         <v>17</v>
       </c>
       <c r="G192" t="n">
-        <v>62.09</v>
+        <v>62.71</v>
       </c>
       <c r="H192" t="n">
-        <v>21.49</v>
+        <v>18.99</v>
       </c>
       <c r="I192" t="n">
-        <v>4.26</v>
+        <v>4.38</v>
       </c>
       <c r="J192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
@@ -6561,16 +6561,16 @@
         <v>17.79</v>
       </c>
       <c r="F193" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G193" t="n">
-        <v>52.6</v>
+        <v>51.28</v>
       </c>
       <c r="H193" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I193" t="n">
-        <v>3.79</v>
+        <v>4.94</v>
       </c>
       <c r="J193" t="n">
         <v>0</v>
@@ -6593,16 +6593,16 @@
         <v>22.24</v>
       </c>
       <c r="F194" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G194" t="n">
-        <v>57.09</v>
+        <v>55.42</v>
       </c>
       <c r="H194" t="n">
-        <v>20.66</v>
+        <v>16.38</v>
       </c>
       <c r="I194" t="n">
-        <v>5.41</v>
+        <v>4.53</v>
       </c>
       <c r="J194" t="n">
         <v>1</v>
@@ -6625,16 +6625,16 @@
         <v>22.16</v>
       </c>
       <c r="F195" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G195" t="n">
-        <v>60.15</v>
+        <v>60.4</v>
       </c>
       <c r="H195" t="n">
-        <v>18.84</v>
+        <v>21.57</v>
       </c>
       <c r="I195" t="n">
-        <v>6.94</v>
+        <v>4.02</v>
       </c>
       <c r="J195" t="n">
         <v>1</v>
@@ -6657,19 +6657,19 @@
         <v>22.57</v>
       </c>
       <c r="F196" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G196" t="n">
-        <v>56.44</v>
+        <v>56.9</v>
       </c>
       <c r="H196" t="n">
-        <v>19.31</v>
+        <v>16.01</v>
       </c>
       <c r="I196" t="n">
-        <v>5.97</v>
+        <v>0.99</v>
       </c>
       <c r="J196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
@@ -6689,16 +6689,16 @@
         <v>17.77</v>
       </c>
       <c r="F197" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G197" t="n">
-        <v>55.9</v>
+        <v>58.78</v>
       </c>
       <c r="H197" t="n">
-        <v>15.88</v>
+        <v>16.79</v>
       </c>
       <c r="I197" t="n">
-        <v>6.46</v>
+        <v>3.04</v>
       </c>
       <c r="J197" t="n">
         <v>0</v>
@@ -6721,16 +6721,16 @@
         <v>20.95</v>
       </c>
       <c r="F198" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G198" t="n">
-        <v>59.23</v>
+        <v>56.78</v>
       </c>
       <c r="H198" t="n">
-        <v>19.2</v>
+        <v>16.36</v>
       </c>
       <c r="I198" t="n">
-        <v>3.87</v>
+        <v>5.1</v>
       </c>
       <c r="J198" t="n">
         <v>1</v>
@@ -6756,16 +6756,16 @@
         <v>12</v>
       </c>
       <c r="G199" t="n">
-        <v>60.17</v>
+        <v>54.83</v>
       </c>
       <c r="H199" t="n">
-        <v>17.56</v>
+        <v>17.93</v>
       </c>
       <c r="I199" t="n">
-        <v>4.95</v>
+        <v>7.14</v>
       </c>
       <c r="J199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
@@ -6785,16 +6785,16 @@
         <v>22.26</v>
       </c>
       <c r="F200" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G200" t="n">
-        <v>55.25</v>
+        <v>57.66</v>
       </c>
       <c r="H200" t="n">
-        <v>20.08</v>
+        <v>19.65</v>
       </c>
       <c r="I200" t="n">
-        <v>3.99</v>
+        <v>6.59</v>
       </c>
       <c r="J200" t="n">
         <v>1</v>
@@ -6817,16 +6817,16 @@
         <v>18.86</v>
       </c>
       <c r="F201" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G201" t="n">
-        <v>60.36</v>
+        <v>61.2</v>
       </c>
       <c r="H201" t="n">
-        <v>20.04</v>
+        <v>18.74</v>
       </c>
       <c r="I201" t="n">
-        <v>4.06</v>
+        <v>3.22</v>
       </c>
       <c r="J201" t="n">
         <v>0</v>
@@ -6852,13 +6852,13 @@
         <v>17</v>
       </c>
       <c r="G202" t="n">
-        <v>55.93</v>
+        <v>59.35</v>
       </c>
       <c r="H202" t="n">
-        <v>20.66</v>
+        <v>21.29</v>
       </c>
       <c r="I202" t="n">
-        <v>6.85</v>
+        <v>4.44</v>
       </c>
       <c r="J202" t="n">
         <v>1</v>
@@ -6881,19 +6881,19 @@
         <v>18.04</v>
       </c>
       <c r="F203" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G203" t="n">
-        <v>57.75</v>
+        <v>60.61</v>
       </c>
       <c r="H203" t="n">
-        <v>19.1</v>
+        <v>22.35</v>
       </c>
       <c r="I203" t="n">
-        <v>3.75</v>
+        <v>4.42</v>
       </c>
       <c r="J203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
@@ -6913,19 +6913,19 @@
         <v>20.03</v>
       </c>
       <c r="F204" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G204" t="n">
-        <v>58.19</v>
+        <v>59.6</v>
       </c>
       <c r="H204" t="n">
-        <v>19.76</v>
+        <v>17.59</v>
       </c>
       <c r="I204" t="n">
-        <v>4.82</v>
+        <v>5.01</v>
       </c>
       <c r="J204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
@@ -6945,16 +6945,16 @@
         <v>22.44</v>
       </c>
       <c r="F205" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G205" t="n">
-        <v>58.59</v>
+        <v>55.23</v>
       </c>
       <c r="H205" t="n">
-        <v>19.93</v>
+        <v>20.6</v>
       </c>
       <c r="I205" t="n">
-        <v>5.67</v>
+        <v>5.16</v>
       </c>
       <c r="J205" t="n">
         <v>1</v>
@@ -6980,13 +6980,13 @@
         <v>12</v>
       </c>
       <c r="G206" t="n">
-        <v>53.2</v>
+        <v>57.71</v>
       </c>
       <c r="H206" t="n">
-        <v>20.37</v>
+        <v>16.24</v>
       </c>
       <c r="I206" t="n">
-        <v>6.43</v>
+        <v>3.67</v>
       </c>
       <c r="J206" t="n">
         <v>1</v>
@@ -7012,13 +7012,13 @@
         <v>17</v>
       </c>
       <c r="G207" t="n">
-        <v>56.52</v>
+        <v>55.36</v>
       </c>
       <c r="H207" t="n">
-        <v>17.88</v>
+        <v>16.92</v>
       </c>
       <c r="I207" t="n">
-        <v>5.4</v>
+        <v>6.34</v>
       </c>
       <c r="J207" t="n">
         <v>1</v>
@@ -7041,19 +7041,19 @@
         <v>19.83</v>
       </c>
       <c r="F208" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G208" t="n">
-        <v>56.67</v>
+        <v>60.16</v>
       </c>
       <c r="H208" t="n">
-        <v>20.3</v>
+        <v>16.01</v>
       </c>
       <c r="I208" t="n">
-        <v>5.88</v>
+        <v>5.28</v>
       </c>
       <c r="J208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
@@ -7073,16 +7073,16 @@
         <v>22.18</v>
       </c>
       <c r="F209" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G209" t="n">
-        <v>60.39</v>
+        <v>64.43</v>
       </c>
       <c r="H209" t="n">
-        <v>17.36</v>
+        <v>16.12</v>
       </c>
       <c r="I209" t="n">
-        <v>3.01</v>
+        <v>3.75</v>
       </c>
       <c r="J209" t="n">
         <v>1</v>
@@ -7108,16 +7108,16 @@
         <v>12</v>
       </c>
       <c r="G210" t="n">
-        <v>59.29</v>
+        <v>58.38</v>
       </c>
       <c r="H210" t="n">
-        <v>16.35</v>
+        <v>18.62</v>
       </c>
       <c r="I210" t="n">
-        <v>4.61</v>
+        <v>2.53</v>
       </c>
       <c r="J210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
@@ -7137,16 +7137,16 @@
         <v>19.3</v>
       </c>
       <c r="F211" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G211" t="n">
-        <v>54.65</v>
+        <v>54.28</v>
       </c>
       <c r="H211" t="n">
-        <v>16.93</v>
+        <v>17.39</v>
       </c>
       <c r="I211" t="n">
-        <v>5.32</v>
+        <v>2.67</v>
       </c>
       <c r="J211" t="n">
         <v>0</v>
@@ -7169,16 +7169,16 @@
         <v>21.56</v>
       </c>
       <c r="F212" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G212" t="n">
-        <v>56.16</v>
+        <v>57.31</v>
       </c>
       <c r="H212" t="n">
-        <v>22.29</v>
+        <v>18.32</v>
       </c>
       <c r="I212" t="n">
-        <v>3.67</v>
+        <v>7.29</v>
       </c>
       <c r="J212" t="n">
         <v>1</v>
@@ -7204,13 +7204,13 @@
         <v>12</v>
       </c>
       <c r="G213" t="n">
-        <v>56.83</v>
+        <v>51.16</v>
       </c>
       <c r="H213" t="n">
-        <v>17.7</v>
+        <v>19.39</v>
       </c>
       <c r="I213" t="n">
-        <v>4.41</v>
+        <v>6.5</v>
       </c>
       <c r="J213" t="n">
         <v>0</v>
@@ -7236,13 +7236,13 @@
         <v>17</v>
       </c>
       <c r="G214" t="n">
-        <v>58.7</v>
+        <v>57.39</v>
       </c>
       <c r="H214" t="n">
-        <v>18.58</v>
+        <v>19.04</v>
       </c>
       <c r="I214" t="n">
-        <v>6.75</v>
+        <v>5.73</v>
       </c>
       <c r="J214" t="n">
         <v>1</v>
@@ -7265,16 +7265,16 @@
         <v>20.57</v>
       </c>
       <c r="F215" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G215" t="n">
-        <v>54.93</v>
+        <v>58.31</v>
       </c>
       <c r="H215" t="n">
-        <v>17.63</v>
+        <v>16.41</v>
       </c>
       <c r="I215" t="n">
-        <v>5.45</v>
+        <v>3.88</v>
       </c>
       <c r="J215" t="n">
         <v>1</v>
@@ -7300,13 +7300,13 @@
         <v>17</v>
       </c>
       <c r="G216" t="n">
-        <v>61.42</v>
+        <v>55.68</v>
       </c>
       <c r="H216" t="n">
-        <v>18.22</v>
+        <v>17.88</v>
       </c>
       <c r="I216" t="n">
-        <v>3.82</v>
+        <v>4.32</v>
       </c>
       <c r="J216" t="n">
         <v>1</v>
@@ -7329,16 +7329,16 @@
         <v>19.48</v>
       </c>
       <c r="F217" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G217" t="n">
-        <v>51.34</v>
+        <v>56.21</v>
       </c>
       <c r="H217" t="n">
-        <v>19.75</v>
+        <v>20.22</v>
       </c>
       <c r="I217" t="n">
-        <v>4.13</v>
+        <v>6</v>
       </c>
       <c r="J217" t="n">
         <v>0</v>
@@ -7361,19 +7361,19 @@
         <v>21.6</v>
       </c>
       <c r="F218" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G218" t="n">
-        <v>52.24</v>
+        <v>52.93</v>
       </c>
       <c r="H218" t="n">
-        <v>17.34</v>
+        <v>17.7</v>
       </c>
       <c r="I218" t="n">
-        <v>2.8</v>
+        <v>4.87</v>
       </c>
       <c r="J218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
@@ -7393,16 +7393,16 @@
         <v>20.67</v>
       </c>
       <c r="F219" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G219" t="n">
-        <v>56.09</v>
+        <v>55.06</v>
       </c>
       <c r="H219" t="n">
-        <v>18.09</v>
+        <v>18.75</v>
       </c>
       <c r="I219" t="n">
-        <v>5.4</v>
+        <v>3.57</v>
       </c>
       <c r="J219" t="n">
         <v>1</v>
@@ -7428,13 +7428,13 @@
         <v>12</v>
       </c>
       <c r="G220" t="n">
-        <v>58.54</v>
+        <v>59.9</v>
       </c>
       <c r="H220" t="n">
-        <v>20.88</v>
+        <v>18.2</v>
       </c>
       <c r="I220" t="n">
-        <v>4.84</v>
+        <v>5.65</v>
       </c>
       <c r="J220" t="n">
         <v>1</v>
@@ -7457,19 +7457,19 @@
         <v>21.25</v>
       </c>
       <c r="F221" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G221" t="n">
-        <v>51.75</v>
+        <v>56.76</v>
       </c>
       <c r="H221" t="n">
-        <v>19.17</v>
+        <v>19.67</v>
       </c>
       <c r="I221" t="n">
-        <v>5.12</v>
+        <v>5.64</v>
       </c>
       <c r="J221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">
@@ -7489,16 +7489,16 @@
         <v>20.49</v>
       </c>
       <c r="F222" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G222" t="n">
-        <v>55.84</v>
+        <v>56.37</v>
       </c>
       <c r="H222" t="n">
-        <v>16.33</v>
+        <v>17.68</v>
       </c>
       <c r="I222" t="n">
-        <v>5.25</v>
+        <v>4.56</v>
       </c>
       <c r="J222" t="n">
         <v>1</v>
@@ -7521,16 +7521,16 @@
         <v>20.38</v>
       </c>
       <c r="F223" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G223" t="n">
-        <v>51.97</v>
+        <v>58.71</v>
       </c>
       <c r="H223" t="n">
-        <v>18.01</v>
+        <v>19.53</v>
       </c>
       <c r="I223" t="n">
-        <v>5.29</v>
+        <v>5.19</v>
       </c>
       <c r="J223" t="n">
         <v>0</v>
@@ -7553,19 +7553,19 @@
         <v>19.46</v>
       </c>
       <c r="F224" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G224" t="n">
-        <v>49.68</v>
+        <v>54.09</v>
       </c>
       <c r="H224" t="n">
-        <v>18.36</v>
+        <v>19.67</v>
       </c>
       <c r="I224" t="n">
-        <v>3.97</v>
+        <v>7.74</v>
       </c>
       <c r="J224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225">
@@ -7588,16 +7588,16 @@
         <v>17</v>
       </c>
       <c r="G225" t="n">
-        <v>55.62</v>
+        <v>61.41</v>
       </c>
       <c r="H225" t="n">
-        <v>17.72</v>
+        <v>19.42</v>
       </c>
       <c r="I225" t="n">
-        <v>6.09</v>
+        <v>3.47</v>
       </c>
       <c r="J225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
@@ -7617,19 +7617,19 @@
         <v>19.78</v>
       </c>
       <c r="F226" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G226" t="n">
-        <v>60.63</v>
+        <v>62.16</v>
       </c>
       <c r="H226" t="n">
-        <v>17.44</v>
+        <v>19.59</v>
       </c>
       <c r="I226" t="n">
-        <v>4.33</v>
+        <v>6.12</v>
       </c>
       <c r="J226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
@@ -7649,16 +7649,16 @@
         <v>20.23</v>
       </c>
       <c r="F227" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G227" t="n">
-        <v>58.02</v>
+        <v>59.52</v>
       </c>
       <c r="H227" t="n">
-        <v>18.01</v>
+        <v>18.38</v>
       </c>
       <c r="I227" t="n">
-        <v>4.74</v>
+        <v>6.28</v>
       </c>
       <c r="J227" t="n">
         <v>0</v>
@@ -7684,16 +7684,16 @@
         <v>12</v>
       </c>
       <c r="G228" t="n">
-        <v>59.31</v>
+        <v>58.64</v>
       </c>
       <c r="H228" t="n">
-        <v>20.79</v>
+        <v>18.81</v>
       </c>
       <c r="I228" t="n">
-        <v>6.77</v>
+        <v>6.21</v>
       </c>
       <c r="J228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229">
@@ -7713,19 +7713,19 @@
         <v>17.76</v>
       </c>
       <c r="F229" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G229" t="n">
-        <v>62.31</v>
+        <v>60.17</v>
       </c>
       <c r="H229" t="n">
-        <v>22.65</v>
+        <v>21.25</v>
       </c>
       <c r="I229" t="n">
-        <v>5.91</v>
+        <v>5.73</v>
       </c>
       <c r="J229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230">
@@ -7748,13 +7748,13 @@
         <v>17</v>
       </c>
       <c r="G230" t="n">
-        <v>51.78</v>
+        <v>60.87</v>
       </c>
       <c r="H230" t="n">
-        <v>20.23</v>
+        <v>17.06</v>
       </c>
       <c r="I230" t="n">
-        <v>6.83</v>
+        <v>3.18</v>
       </c>
       <c r="J230" t="n">
         <v>1</v>
@@ -7780,13 +7780,13 @@
         <v>12</v>
       </c>
       <c r="G231" t="n">
-        <v>54.84</v>
+        <v>51.96</v>
       </c>
       <c r="H231" t="n">
-        <v>18.83</v>
+        <v>20.1</v>
       </c>
       <c r="I231" t="n">
-        <v>4.6</v>
+        <v>4.35</v>
       </c>
       <c r="J231" t="n">
         <v>1</v>
@@ -7812,13 +7812,13 @@
         <v>17</v>
       </c>
       <c r="G232" t="n">
-        <v>54.69</v>
+        <v>60.82</v>
       </c>
       <c r="H232" t="n">
-        <v>19.54</v>
+        <v>19.72</v>
       </c>
       <c r="I232" t="n">
-        <v>5.18</v>
+        <v>2.89</v>
       </c>
       <c r="J232" t="n">
         <v>1</v>
@@ -7841,19 +7841,19 @@
         <v>19.77</v>
       </c>
       <c r="F233" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G233" t="n">
-        <v>51.42</v>
+        <v>56.22</v>
       </c>
       <c r="H233" t="n">
-        <v>18.34</v>
+        <v>19.42</v>
       </c>
       <c r="I233" t="n">
-        <v>3.84</v>
+        <v>7.37</v>
       </c>
       <c r="J233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
@@ -7876,13 +7876,13 @@
         <v>12</v>
       </c>
       <c r="G234" t="n">
-        <v>60.12</v>
+        <v>53.59</v>
       </c>
       <c r="H234" t="n">
-        <v>19.46</v>
+        <v>19.13</v>
       </c>
       <c r="I234" t="n">
-        <v>1.25</v>
+        <v>4.06</v>
       </c>
       <c r="J234" t="n">
         <v>1</v>
@@ -7905,16 +7905,16 @@
         <v>18.71</v>
       </c>
       <c r="F235" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G235" t="n">
-        <v>52.61</v>
+        <v>56.88</v>
       </c>
       <c r="H235" t="n">
-        <v>18.15</v>
+        <v>20.45</v>
       </c>
       <c r="I235" t="n">
-        <v>5.96</v>
+        <v>0.77</v>
       </c>
       <c r="J235" t="n">
         <v>0</v>
@@ -7940,13 +7940,13 @@
         <v>12</v>
       </c>
       <c r="G236" t="n">
-        <v>56.93</v>
+        <v>53.32</v>
       </c>
       <c r="H236" t="n">
-        <v>17.85</v>
+        <v>19.46</v>
       </c>
       <c r="I236" t="n">
-        <v>5.44</v>
+        <v>4.57</v>
       </c>
       <c r="J236" t="n">
         <v>1</v>
@@ -7969,19 +7969,19 @@
         <v>17.98</v>
       </c>
       <c r="F237" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G237" t="n">
-        <v>55.07</v>
+        <v>62.15</v>
       </c>
       <c r="H237" t="n">
-        <v>19.39</v>
+        <v>20.24</v>
       </c>
       <c r="I237" t="n">
-        <v>4.83</v>
+        <v>2.81</v>
       </c>
       <c r="J237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
@@ -8004,13 +8004,13 @@
         <v>17</v>
       </c>
       <c r="G238" t="n">
-        <v>56.9</v>
+        <v>52.85</v>
       </c>
       <c r="H238" t="n">
-        <v>14.99</v>
+        <v>18.11</v>
       </c>
       <c r="I238" t="n">
-        <v>6.05</v>
+        <v>6.82</v>
       </c>
       <c r="J238" t="n">
         <v>1</v>
@@ -8033,19 +8033,19 @@
         <v>20.73</v>
       </c>
       <c r="F239" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G239" t="n">
-        <v>59.74</v>
+        <v>58.32</v>
       </c>
       <c r="H239" t="n">
-        <v>18.14</v>
+        <v>19.03</v>
       </c>
       <c r="I239" t="n">
-        <v>3.26</v>
+        <v>2.99</v>
       </c>
       <c r="J239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
@@ -8068,16 +8068,16 @@
         <v>12</v>
       </c>
       <c r="G240" t="n">
-        <v>59.8</v>
+        <v>50.35</v>
       </c>
       <c r="H240" t="n">
-        <v>16.33</v>
+        <v>15.92</v>
       </c>
       <c r="I240" t="n">
-        <v>8.08</v>
+        <v>9.7</v>
       </c>
       <c r="J240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
@@ -8100,16 +8100,16 @@
         <v>17</v>
       </c>
       <c r="G241" t="n">
-        <v>56.6</v>
+        <v>47.62</v>
       </c>
       <c r="H241" t="n">
-        <v>17.75</v>
+        <v>16.59</v>
       </c>
       <c r="I241" t="n">
-        <v>4.24</v>
+        <v>2.5</v>
       </c>
       <c r="J241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242">
@@ -8129,19 +8129,19 @@
         <v>18.04</v>
       </c>
       <c r="F242" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G242" t="n">
-        <v>52.04</v>
+        <v>61.78</v>
       </c>
       <c r="H242" t="n">
-        <v>16.9</v>
+        <v>20.74</v>
       </c>
       <c r="I242" t="n">
-        <v>5.66</v>
+        <v>4.5</v>
       </c>
       <c r="J242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243">
@@ -8164,13 +8164,13 @@
         <v>12</v>
       </c>
       <c r="G243" t="n">
-        <v>59.91</v>
+        <v>53.88</v>
       </c>
       <c r="H243" t="n">
-        <v>18.94</v>
+        <v>16.91</v>
       </c>
       <c r="I243" t="n">
-        <v>5.02</v>
+        <v>5.45</v>
       </c>
       <c r="J243" t="n">
         <v>1</v>
@@ -8193,16 +8193,16 @@
         <v>18.19</v>
       </c>
       <c r="F244" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G244" t="n">
-        <v>53.33</v>
+        <v>53.77</v>
       </c>
       <c r="H244" t="n">
-        <v>18.47</v>
+        <v>19.72</v>
       </c>
       <c r="I244" t="n">
-        <v>4.52</v>
+        <v>5.91</v>
       </c>
       <c r="J244" t="n">
         <v>0</v>
@@ -8225,19 +8225,19 @@
         <v>17.4</v>
       </c>
       <c r="F245" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G245" t="n">
-        <v>60.47</v>
+        <v>61.27</v>
       </c>
       <c r="H245" t="n">
-        <v>16.26</v>
+        <v>20.33</v>
       </c>
       <c r="I245" t="n">
-        <v>8.23</v>
+        <v>2.96</v>
       </c>
       <c r="J245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246">
@@ -8257,19 +8257,19 @@
         <v>18.09</v>
       </c>
       <c r="F246" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G246" t="n">
-        <v>53.55</v>
+        <v>51.95</v>
       </c>
       <c r="H246" t="n">
-        <v>17.12</v>
+        <v>17.32</v>
       </c>
       <c r="I246" t="n">
-        <v>3.86</v>
+        <v>3.15</v>
       </c>
       <c r="J246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
@@ -8292,16 +8292,16 @@
         <v>12</v>
       </c>
       <c r="G247" t="n">
-        <v>57.45</v>
+        <v>56.93</v>
       </c>
       <c r="H247" t="n">
-        <v>17.79</v>
+        <v>17.65</v>
       </c>
       <c r="I247" t="n">
-        <v>4.58</v>
+        <v>4.69</v>
       </c>
       <c r="J247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248">
@@ -8324,13 +8324,13 @@
         <v>12</v>
       </c>
       <c r="G248" t="n">
-        <v>61.78</v>
+        <v>55.93</v>
       </c>
       <c r="H248" t="n">
-        <v>19.2</v>
+        <v>19.91</v>
       </c>
       <c r="I248" t="n">
-        <v>5.1</v>
+        <v>5.36</v>
       </c>
       <c r="J248" t="n">
         <v>0</v>
@@ -8353,16 +8353,16 @@
         <v>21.12</v>
       </c>
       <c r="F249" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G249" t="n">
-        <v>53.68</v>
+        <v>54.22</v>
       </c>
       <c r="H249" t="n">
-        <v>20.35</v>
+        <v>17.86</v>
       </c>
       <c r="I249" t="n">
-        <v>3.92</v>
+        <v>7.58</v>
       </c>
       <c r="J249" t="n">
         <v>1</v>
@@ -8385,16 +8385,16 @@
         <v>20.69</v>
       </c>
       <c r="F250" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G250" t="n">
-        <v>53.41</v>
+        <v>50.25</v>
       </c>
       <c r="H250" t="n">
-        <v>19.29</v>
+        <v>19.18</v>
       </c>
       <c r="I250" t="n">
-        <v>4.45</v>
+        <v>4.21</v>
       </c>
       <c r="J250" t="n">
         <v>1</v>
@@ -8420,13 +8420,13 @@
         <v>12</v>
       </c>
       <c r="G251" t="n">
-        <v>53.86</v>
+        <v>58.63</v>
       </c>
       <c r="H251" t="n">
-        <v>19.4</v>
+        <v>20.21</v>
       </c>
       <c r="I251" t="n">
-        <v>3.65</v>
+        <v>0.99</v>
       </c>
       <c r="J251" t="n">
         <v>1</v>
@@ -8449,19 +8449,19 @@
         <v>19.9</v>
       </c>
       <c r="F252" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G252" t="n">
-        <v>56.24</v>
+        <v>64.98</v>
       </c>
       <c r="H252" t="n">
-        <v>19.42</v>
+        <v>19.35</v>
       </c>
       <c r="I252" t="n">
-        <v>2.64</v>
+        <v>4.73</v>
       </c>
       <c r="J252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253">
@@ -8481,16 +8481,16 @@
         <v>21.76</v>
       </c>
       <c r="F253" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G253" t="n">
-        <v>57.48</v>
+        <v>59.04</v>
       </c>
       <c r="H253" t="n">
-        <v>20.25</v>
+        <v>18.01</v>
       </c>
       <c r="I253" t="n">
-        <v>3.51</v>
+        <v>4.85</v>
       </c>
       <c r="J253" t="n">
         <v>1</v>
@@ -8516,13 +8516,13 @@
         <v>17</v>
       </c>
       <c r="G254" t="n">
-        <v>58.22</v>
+        <v>48.45</v>
       </c>
       <c r="H254" t="n">
-        <v>17.51</v>
+        <v>16.1</v>
       </c>
       <c r="I254" t="n">
-        <v>6.26</v>
+        <v>3.76</v>
       </c>
       <c r="J254" t="n">
         <v>0</v>
@@ -8548,13 +8548,13 @@
         <v>12</v>
       </c>
       <c r="G255" t="n">
-        <v>60.29</v>
+        <v>61.05</v>
       </c>
       <c r="H255" t="n">
-        <v>18.1</v>
+        <v>19.53</v>
       </c>
       <c r="I255" t="n">
-        <v>4.77</v>
+        <v>5.49</v>
       </c>
       <c r="J255" t="n">
         <v>1</v>
@@ -8580,13 +8580,13 @@
         <v>17</v>
       </c>
       <c r="G256" t="n">
-        <v>63.86</v>
+        <v>57.37</v>
       </c>
       <c r="H256" t="n">
-        <v>20.99</v>
+        <v>20.02</v>
       </c>
       <c r="I256" t="n">
-        <v>5.81</v>
+        <v>7.75</v>
       </c>
       <c r="J256" t="n">
         <v>1</v>
@@ -8609,16 +8609,16 @@
         <v>20.98</v>
       </c>
       <c r="F257" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G257" t="n">
-        <v>60.46</v>
+        <v>53.29</v>
       </c>
       <c r="H257" t="n">
-        <v>19.08</v>
+        <v>20.55</v>
       </c>
       <c r="I257" t="n">
-        <v>4.19</v>
+        <v>4.18</v>
       </c>
       <c r="J257" t="n">
         <v>1</v>
@@ -8644,13 +8644,13 @@
         <v>12</v>
       </c>
       <c r="G258" t="n">
-        <v>61.76</v>
+        <v>59.82</v>
       </c>
       <c r="H258" t="n">
-        <v>19.83</v>
+        <v>19.86</v>
       </c>
       <c r="I258" t="n">
-        <v>3.36</v>
+        <v>3.65</v>
       </c>
       <c r="J258" t="n">
         <v>0</v>
@@ -8676,16 +8676,16 @@
         <v>17</v>
       </c>
       <c r="G259" t="n">
-        <v>55.87</v>
+        <v>57.45</v>
       </c>
       <c r="H259" t="n">
-        <v>18.44</v>
+        <v>17.12</v>
       </c>
       <c r="I259" t="n">
-        <v>6.25</v>
+        <v>4.93</v>
       </c>
       <c r="J259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260">
@@ -8708,16 +8708,16 @@
         <v>12</v>
       </c>
       <c r="G260" t="n">
-        <v>57.64</v>
+        <v>56.26</v>
       </c>
       <c r="H260" t="n">
-        <v>19.12</v>
+        <v>19.17</v>
       </c>
       <c r="I260" t="n">
-        <v>5.47</v>
+        <v>4.73</v>
       </c>
       <c r="J260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261">
@@ -8740,13 +8740,13 @@
         <v>12</v>
       </c>
       <c r="G261" t="n">
-        <v>58.44</v>
+        <v>55.29</v>
       </c>
       <c r="H261" t="n">
-        <v>15.91</v>
+        <v>15.27</v>
       </c>
       <c r="I261" t="n">
-        <v>4.99</v>
+        <v>6.01</v>
       </c>
       <c r="J261" t="n">
         <v>1</v>
@@ -8769,19 +8769,19 @@
         <v>20.45</v>
       </c>
       <c r="F262" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G262" t="n">
-        <v>58.17</v>
+        <v>53.85</v>
       </c>
       <c r="H262" t="n">
-        <v>17.71</v>
+        <v>16.91</v>
       </c>
       <c r="I262" t="n">
-        <v>4.71</v>
+        <v>6.5</v>
       </c>
       <c r="J262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263">
@@ -8804,13 +8804,13 @@
         <v>12</v>
       </c>
       <c r="G263" t="n">
-        <v>63.71</v>
+        <v>63.83</v>
       </c>
       <c r="H263" t="n">
-        <v>20.23</v>
+        <v>18.07</v>
       </c>
       <c r="I263" t="n">
-        <v>4.34</v>
+        <v>4.11</v>
       </c>
       <c r="J263" t="n">
         <v>0</v>
@@ -8833,16 +8833,16 @@
         <v>20.48</v>
       </c>
       <c r="F264" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G264" t="n">
-        <v>60.18</v>
+        <v>53.75</v>
       </c>
       <c r="H264" t="n">
-        <v>17.13</v>
+        <v>19.83</v>
       </c>
       <c r="I264" t="n">
-        <v>3.65</v>
+        <v>4.5</v>
       </c>
       <c r="J264" t="n">
         <v>1</v>
@@ -8865,16 +8865,16 @@
         <v>20.15</v>
       </c>
       <c r="F265" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G265" t="n">
-        <v>57.01</v>
+        <v>55.23</v>
       </c>
       <c r="H265" t="n">
-        <v>19.25</v>
+        <v>19.37</v>
       </c>
       <c r="I265" t="n">
-        <v>3.9</v>
+        <v>7.01</v>
       </c>
       <c r="J265" t="n">
         <v>1</v>
@@ -8897,16 +8897,16 @@
         <v>20.64</v>
       </c>
       <c r="F266" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G266" t="n">
-        <v>56.3</v>
+        <v>57.18</v>
       </c>
       <c r="H266" t="n">
-        <v>19.35</v>
+        <v>17.63</v>
       </c>
       <c r="I266" t="n">
-        <v>1.41</v>
+        <v>3.24</v>
       </c>
       <c r="J266" t="n">
         <v>1</v>
@@ -8932,16 +8932,16 @@
         <v>12</v>
       </c>
       <c r="G267" t="n">
-        <v>65.61</v>
+        <v>54.94</v>
       </c>
       <c r="H267" t="n">
-        <v>17.94</v>
+        <v>17.1</v>
       </c>
       <c r="I267" t="n">
-        <v>5.87</v>
+        <v>6.23</v>
       </c>
       <c r="J267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268">
@@ -8961,19 +8961,19 @@
         <v>19.55</v>
       </c>
       <c r="F268" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G268" t="n">
-        <v>53.97</v>
+        <v>46.26</v>
       </c>
       <c r="H268" t="n">
-        <v>18.33</v>
+        <v>19.98</v>
       </c>
       <c r="I268" t="n">
-        <v>4.74</v>
+        <v>3.9</v>
       </c>
       <c r="J268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269">
@@ -8993,16 +8993,16 @@
         <v>18.13</v>
       </c>
       <c r="F269" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G269" t="n">
-        <v>54.97</v>
+        <v>49.88</v>
       </c>
       <c r="H269" t="n">
-        <v>16.41</v>
+        <v>18.02</v>
       </c>
       <c r="I269" t="n">
-        <v>2.76</v>
+        <v>3.65</v>
       </c>
       <c r="J269" t="n">
         <v>0</v>
@@ -9025,19 +9025,19 @@
         <v>19.39</v>
       </c>
       <c r="F270" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G270" t="n">
-        <v>57.45</v>
+        <v>57.3</v>
       </c>
       <c r="H270" t="n">
-        <v>18.57</v>
+        <v>16.92</v>
       </c>
       <c r="I270" t="n">
-        <v>3.66</v>
+        <v>6.73</v>
       </c>
       <c r="J270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271">
@@ -9057,16 +9057,16 @@
         <v>21.28</v>
       </c>
       <c r="F271" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G271" t="n">
-        <v>60.43</v>
+        <v>55.6</v>
       </c>
       <c r="H271" t="n">
-        <v>16.83</v>
+        <v>16.25</v>
       </c>
       <c r="I271" t="n">
-        <v>4.51</v>
+        <v>3.05</v>
       </c>
       <c r="J271" t="n">
         <v>1</v>
@@ -9092,16 +9092,16 @@
         <v>12</v>
       </c>
       <c r="G272" t="n">
-        <v>57.59</v>
+        <v>55.49</v>
       </c>
       <c r="H272" t="n">
-        <v>21.07</v>
+        <v>17.54</v>
       </c>
       <c r="I272" t="n">
-        <v>4.8</v>
+        <v>4.65</v>
       </c>
       <c r="J272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273">
@@ -9124,13 +9124,13 @@
         <v>12</v>
       </c>
       <c r="G273" t="n">
-        <v>57.55</v>
+        <v>56.89</v>
       </c>
       <c r="H273" t="n">
-        <v>21.87</v>
+        <v>18.12</v>
       </c>
       <c r="I273" t="n">
-        <v>2.28</v>
+        <v>5.53</v>
       </c>
       <c r="J273" t="n">
         <v>1</v>
@@ -9156,16 +9156,16 @@
         <v>12</v>
       </c>
       <c r="G274" t="n">
-        <v>65.31</v>
+        <v>60.06</v>
       </c>
       <c r="H274" t="n">
-        <v>16.73</v>
+        <v>18.71</v>
       </c>
       <c r="I274" t="n">
-        <v>5.91</v>
+        <v>5.14</v>
       </c>
       <c r="J274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275">
@@ -9185,16 +9185,16 @@
         <v>17.44</v>
       </c>
       <c r="F275" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G275" t="n">
-        <v>57</v>
+        <v>53.03</v>
       </c>
       <c r="H275" t="n">
-        <v>17.04</v>
+        <v>18.92</v>
       </c>
       <c r="I275" t="n">
-        <v>6.22</v>
+        <v>7.1</v>
       </c>
       <c r="J275" t="n">
         <v>0</v>
@@ -9217,16 +9217,16 @@
         <v>20.4</v>
       </c>
       <c r="F276" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G276" t="n">
-        <v>60.45</v>
+        <v>61.11</v>
       </c>
       <c r="H276" t="n">
-        <v>21.8</v>
+        <v>18.83</v>
       </c>
       <c r="I276" t="n">
-        <v>6.13</v>
+        <v>4.17</v>
       </c>
       <c r="J276" t="n">
         <v>1</v>
@@ -9249,16 +9249,16 @@
         <v>20.39</v>
       </c>
       <c r="F277" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G277" t="n">
-        <v>55.81</v>
+        <v>57.7</v>
       </c>
       <c r="H277" t="n">
-        <v>18.41</v>
+        <v>20.18</v>
       </c>
       <c r="I277" t="n">
-        <v>4.86</v>
+        <v>2.71</v>
       </c>
       <c r="J277" t="n">
         <v>1</v>
@@ -9284,13 +9284,13 @@
         <v>17</v>
       </c>
       <c r="G278" t="n">
-        <v>55.59</v>
+        <v>54.64</v>
       </c>
       <c r="H278" t="n">
-        <v>21.49</v>
+        <v>20.59</v>
       </c>
       <c r="I278" t="n">
-        <v>3.24</v>
+        <v>5.73</v>
       </c>
       <c r="J278" t="n">
         <v>1</v>
@@ -9313,19 +9313,19 @@
         <v>19.83</v>
       </c>
       <c r="F279" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G279" t="n">
-        <v>56.17</v>
+        <v>60.16</v>
       </c>
       <c r="H279" t="n">
-        <v>19.13</v>
+        <v>17.99</v>
       </c>
       <c r="I279" t="n">
-        <v>3.29</v>
+        <v>3.98</v>
       </c>
       <c r="J279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280">
@@ -9345,19 +9345,19 @@
         <v>20.71</v>
       </c>
       <c r="F280" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G280" t="n">
-        <v>56.42</v>
+        <v>49.34</v>
       </c>
       <c r="H280" t="n">
-        <v>17.07</v>
+        <v>16.32</v>
       </c>
       <c r="I280" t="n">
-        <v>5.65</v>
+        <v>6.11</v>
       </c>
       <c r="J280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281">
@@ -9377,19 +9377,19 @@
         <v>19.61</v>
       </c>
       <c r="F281" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G281" t="n">
-        <v>57.26</v>
+        <v>60.58</v>
       </c>
       <c r="H281" t="n">
-        <v>19.54</v>
+        <v>21.09</v>
       </c>
       <c r="I281" t="n">
-        <v>4.47</v>
+        <v>4.54</v>
       </c>
       <c r="J281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282">
@@ -9409,19 +9409,19 @@
         <v>17.06</v>
       </c>
       <c r="F282" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G282" t="n">
-        <v>58.12</v>
+        <v>56.86</v>
       </c>
       <c r="H282" t="n">
-        <v>18.4</v>
+        <v>19.96</v>
       </c>
       <c r="I282" t="n">
-        <v>4.31</v>
+        <v>7.22</v>
       </c>
       <c r="J282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283">
@@ -9441,16 +9441,16 @@
         <v>19.12</v>
       </c>
       <c r="F283" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G283" t="n">
-        <v>56.81</v>
+        <v>59.92</v>
       </c>
       <c r="H283" t="n">
-        <v>21.13</v>
+        <v>21.17</v>
       </c>
       <c r="I283" t="n">
-        <v>4.25</v>
+        <v>2.55</v>
       </c>
       <c r="J283" t="n">
         <v>0</v>
@@ -9473,16 +9473,16 @@
         <v>17.75</v>
       </c>
       <c r="F284" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G284" t="n">
-        <v>55.88</v>
+        <v>55.82</v>
       </c>
       <c r="H284" t="n">
-        <v>18.43</v>
+        <v>19.12</v>
       </c>
       <c r="I284" t="n">
-        <v>5.62</v>
+        <v>6.15</v>
       </c>
       <c r="J284" t="n">
         <v>0</v>
@@ -9505,16 +9505,16 @@
         <v>21.88</v>
       </c>
       <c r="F285" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G285" t="n">
-        <v>57.67</v>
+        <v>49.81</v>
       </c>
       <c r="H285" t="n">
-        <v>19.51</v>
+        <v>19.36</v>
       </c>
       <c r="I285" t="n">
-        <v>3.35</v>
+        <v>2.75</v>
       </c>
       <c r="J285" t="n">
         <v>1</v>
@@ -9537,19 +9537,19 @@
         <v>19.68</v>
       </c>
       <c r="F286" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G286" t="n">
-        <v>53.89</v>
+        <v>55.32</v>
       </c>
       <c r="H286" t="n">
-        <v>17.1</v>
+        <v>19.13</v>
       </c>
       <c r="I286" t="n">
-        <v>4.5</v>
+        <v>5.77</v>
       </c>
       <c r="J286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287">
@@ -9572,13 +9572,13 @@
         <v>12</v>
       </c>
       <c r="G287" t="n">
-        <v>54.84</v>
+        <v>56.26</v>
       </c>
       <c r="H287" t="n">
-        <v>19.18</v>
+        <v>19.45</v>
       </c>
       <c r="I287" t="n">
-        <v>4.72</v>
+        <v>3.89</v>
       </c>
       <c r="J287" t="n">
         <v>0</v>
@@ -9604,13 +9604,13 @@
         <v>12</v>
       </c>
       <c r="G288" t="n">
-        <v>57.77</v>
+        <v>55.22</v>
       </c>
       <c r="H288" t="n">
-        <v>17.15</v>
+        <v>18.39</v>
       </c>
       <c r="I288" t="n">
-        <v>5.98</v>
+        <v>4.57</v>
       </c>
       <c r="J288" t="n">
         <v>1</v>
@@ -9633,16 +9633,16 @@
         <v>19.71</v>
       </c>
       <c r="F289" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G289" t="n">
-        <v>54.34</v>
+        <v>55.59</v>
       </c>
       <c r="H289" t="n">
-        <v>15.55</v>
+        <v>20.13</v>
       </c>
       <c r="I289" t="n">
-        <v>4.52</v>
+        <v>4.42</v>
       </c>
       <c r="J289" t="n">
         <v>1</v>
@@ -9668,13 +9668,13 @@
         <v>12</v>
       </c>
       <c r="G290" t="n">
-        <v>59.93</v>
+        <v>60.93</v>
       </c>
       <c r="H290" t="n">
-        <v>16.44</v>
+        <v>17.23</v>
       </c>
       <c r="I290" t="n">
-        <v>5.35</v>
+        <v>3.95</v>
       </c>
       <c r="J290" t="n">
         <v>1</v>
@@ -9697,16 +9697,16 @@
         <v>20.03</v>
       </c>
       <c r="F291" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G291" t="n">
-        <v>56.38</v>
+        <v>58.02</v>
       </c>
       <c r="H291" t="n">
-        <v>19.14</v>
+        <v>18.52</v>
       </c>
       <c r="I291" t="n">
-        <v>3.63</v>
+        <v>5.83</v>
       </c>
       <c r="J291" t="n">
         <v>1</v>
@@ -9732,13 +9732,13 @@
         <v>12</v>
       </c>
       <c r="G292" t="n">
-        <v>57.34</v>
+        <v>56.67</v>
       </c>
       <c r="H292" t="n">
-        <v>17.63</v>
+        <v>20.58</v>
       </c>
       <c r="I292" t="n">
-        <v>4.08</v>
+        <v>6.4</v>
       </c>
       <c r="J292" t="n">
         <v>1</v>
@@ -9764,13 +9764,13 @@
         <v>17</v>
       </c>
       <c r="G293" t="n">
-        <v>55.9</v>
+        <v>54.96</v>
       </c>
       <c r="H293" t="n">
-        <v>16.74</v>
+        <v>18.15</v>
       </c>
       <c r="I293" t="n">
-        <v>4.73</v>
+        <v>4.64</v>
       </c>
       <c r="J293" t="n">
         <v>1</v>
@@ -9796,13 +9796,13 @@
         <v>12</v>
       </c>
       <c r="G294" t="n">
-        <v>61.46</v>
+        <v>66.14</v>
       </c>
       <c r="H294" t="n">
-        <v>19.44</v>
+        <v>18.17</v>
       </c>
       <c r="I294" t="n">
-        <v>2.85</v>
+        <v>5.01</v>
       </c>
       <c r="J294" t="n">
         <v>1</v>
@@ -9825,16 +9825,16 @@
         <v>20.84</v>
       </c>
       <c r="F295" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G295" t="n">
-        <v>57.51</v>
+        <v>53.71</v>
       </c>
       <c r="H295" t="n">
-        <v>19.5</v>
+        <v>17.09</v>
       </c>
       <c r="I295" t="n">
-        <v>6.07</v>
+        <v>3.84</v>
       </c>
       <c r="J295" t="n">
         <v>1</v>
@@ -9857,19 +9857,19 @@
         <v>19.4</v>
       </c>
       <c r="F296" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G296" t="n">
-        <v>64.12</v>
+        <v>58.6</v>
       </c>
       <c r="H296" t="n">
-        <v>16.84</v>
+        <v>17.67</v>
       </c>
       <c r="I296" t="n">
-        <v>6.82</v>
+        <v>4.97</v>
       </c>
       <c r="J296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297">
@@ -9889,16 +9889,16 @@
         <v>21.33</v>
       </c>
       <c r="F297" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G297" t="n">
-        <v>60.84</v>
+        <v>64.86</v>
       </c>
       <c r="H297" t="n">
-        <v>18.68</v>
+        <v>17.38</v>
       </c>
       <c r="I297" t="n">
-        <v>4.94</v>
+        <v>6.99</v>
       </c>
       <c r="J297" t="n">
         <v>1</v>
@@ -9921,16 +9921,16 @@
         <v>18.66</v>
       </c>
       <c r="F298" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G298" t="n">
-        <v>55.31</v>
+        <v>60.19</v>
       </c>
       <c r="H298" t="n">
-        <v>18.41</v>
+        <v>19.29</v>
       </c>
       <c r="I298" t="n">
-        <v>5.14</v>
+        <v>6.48</v>
       </c>
       <c r="J298" t="n">
         <v>0</v>
@@ -9953,16 +9953,16 @@
         <v>19.11</v>
       </c>
       <c r="F299" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G299" t="n">
-        <v>56.59</v>
+        <v>49.74</v>
       </c>
       <c r="H299" t="n">
-        <v>17.42</v>
+        <v>18.17</v>
       </c>
       <c r="I299" t="n">
-        <v>3.96</v>
+        <v>4.03</v>
       </c>
       <c r="J299" t="n">
         <v>0</v>
@@ -9985,19 +9985,19 @@
         <v>20.24</v>
       </c>
       <c r="F300" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G300" t="n">
-        <v>58.04</v>
+        <v>54.4</v>
       </c>
       <c r="H300" t="n">
-        <v>17.09</v>
+        <v>17.42</v>
       </c>
       <c r="I300" t="n">
-        <v>5.68</v>
+        <v>4.41</v>
       </c>
       <c r="J300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301">
@@ -10020,16 +10020,16 @@
         <v>12</v>
       </c>
       <c r="G301" t="n">
-        <v>57.35</v>
+        <v>55.91</v>
       </c>
       <c r="H301" t="n">
-        <v>20.97</v>
+        <v>20.19</v>
       </c>
       <c r="I301" t="n">
-        <v>6.32</v>
+        <v>5.83</v>
       </c>
       <c r="J301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302">
@@ -10052,13 +10052,13 @@
         <v>12</v>
       </c>
       <c r="G302" t="n">
-        <v>63.63</v>
+        <v>57.28</v>
       </c>
       <c r="H302" t="n">
-        <v>16.93</v>
+        <v>20.04</v>
       </c>
       <c r="I302" t="n">
-        <v>4.64</v>
+        <v>5.6</v>
       </c>
       <c r="J302" t="n">
         <v>1</v>
@@ -10084,16 +10084,16 @@
         <v>12</v>
       </c>
       <c r="G303" t="n">
-        <v>51.86</v>
+        <v>51.54</v>
       </c>
       <c r="H303" t="n">
-        <v>17.56</v>
+        <v>19.01</v>
       </c>
       <c r="I303" t="n">
-        <v>5.1</v>
+        <v>7.79</v>
       </c>
       <c r="J303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304">
@@ -10113,16 +10113,16 @@
         <v>20.54</v>
       </c>
       <c r="F304" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G304" t="n">
-        <v>53.19</v>
+        <v>56.49</v>
       </c>
       <c r="H304" t="n">
-        <v>15.42</v>
+        <v>13.96</v>
       </c>
       <c r="I304" t="n">
-        <v>1.89</v>
+        <v>4.14</v>
       </c>
       <c r="J304" t="n">
         <v>1</v>
@@ -10148,16 +10148,16 @@
         <v>17</v>
       </c>
       <c r="G305" t="n">
-        <v>57.66</v>
+        <v>55.27</v>
       </c>
       <c r="H305" t="n">
-        <v>20.16</v>
+        <v>17.5</v>
       </c>
       <c r="I305" t="n">
-        <v>4.4</v>
+        <v>4.38</v>
       </c>
       <c r="J305" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306">
@@ -10177,16 +10177,16 @@
         <v>21.04</v>
       </c>
       <c r="F306" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G306" t="n">
-        <v>66.87</v>
+        <v>53.86</v>
       </c>
       <c r="H306" t="n">
-        <v>18.96</v>
+        <v>18.58</v>
       </c>
       <c r="I306" t="n">
-        <v>5.37</v>
+        <v>4.06</v>
       </c>
       <c r="J306" t="n">
         <v>1</v>
@@ -10209,16 +10209,16 @@
         <v>20.76</v>
       </c>
       <c r="F307" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G307" t="n">
-        <v>56.09</v>
+        <v>61.27</v>
       </c>
       <c r="H307" t="n">
-        <v>21.05</v>
+        <v>17.29</v>
       </c>
       <c r="I307" t="n">
-        <v>4.25</v>
+        <v>5.45</v>
       </c>
       <c r="J307" t="n">
         <v>1</v>
@@ -10241,16 +10241,16 @@
         <v>21.84</v>
       </c>
       <c r="F308" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G308" t="n">
-        <v>59.87</v>
+        <v>56.06</v>
       </c>
       <c r="H308" t="n">
-        <v>20.31</v>
+        <v>18.14</v>
       </c>
       <c r="I308" t="n">
-        <v>3.45</v>
+        <v>4.5</v>
       </c>
       <c r="J308" t="n">
         <v>1</v>
@@ -10276,13 +10276,13 @@
         <v>12</v>
       </c>
       <c r="G309" t="n">
-        <v>58.04</v>
+        <v>58.76</v>
       </c>
       <c r="H309" t="n">
-        <v>20.82</v>
+        <v>20.17</v>
       </c>
       <c r="I309" t="n">
-        <v>4.07</v>
+        <v>4.68</v>
       </c>
       <c r="J309" t="n">
         <v>1</v>
@@ -10305,16 +10305,16 @@
         <v>18.39</v>
       </c>
       <c r="F310" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G310" t="n">
-        <v>57.03</v>
+        <v>54.33</v>
       </c>
       <c r="H310" t="n">
-        <v>16.91</v>
+        <v>16.78</v>
       </c>
       <c r="I310" t="n">
-        <v>6.58</v>
+        <v>3.98</v>
       </c>
       <c r="J310" t="n">
         <v>1</v>
@@ -10337,16 +10337,16 @@
         <v>20.35</v>
       </c>
       <c r="F311" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G311" t="n">
-        <v>51.28</v>
+        <v>59.53</v>
       </c>
       <c r="H311" t="n">
-        <v>17.12</v>
+        <v>20.09</v>
       </c>
       <c r="I311" t="n">
-        <v>4.47</v>
+        <v>6.17</v>
       </c>
       <c r="J311" t="n">
         <v>1</v>
@@ -10372,16 +10372,16 @@
         <v>12</v>
       </c>
       <c r="G312" t="n">
-        <v>59.91</v>
+        <v>57.41</v>
       </c>
       <c r="H312" t="n">
-        <v>15.75</v>
+        <v>16.36</v>
       </c>
       <c r="I312" t="n">
-        <v>4.75</v>
+        <v>5.67</v>
       </c>
       <c r="J312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313">
@@ -10404,16 +10404,16 @@
         <v>12</v>
       </c>
       <c r="G313" t="n">
-        <v>59.3</v>
+        <v>57.5</v>
       </c>
       <c r="H313" t="n">
-        <v>16.17</v>
+        <v>17.5</v>
       </c>
       <c r="I313" t="n">
-        <v>6.09</v>
+        <v>6.97</v>
       </c>
       <c r="J313" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314">
@@ -10436,16 +10436,16 @@
         <v>12</v>
       </c>
       <c r="G314" t="n">
-        <v>55.24</v>
+        <v>57.76</v>
       </c>
       <c r="H314" t="n">
-        <v>15.47</v>
+        <v>17.89</v>
       </c>
       <c r="I314" t="n">
-        <v>4.96</v>
+        <v>4.11</v>
       </c>
       <c r="J314" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315">
@@ -10468,13 +10468,13 @@
         <v>12</v>
       </c>
       <c r="G315" t="n">
-        <v>60.27</v>
+        <v>57.87</v>
       </c>
       <c r="H315" t="n">
-        <v>15.86</v>
+        <v>16.33</v>
       </c>
       <c r="I315" t="n">
-        <v>7.43</v>
+        <v>3.78</v>
       </c>
       <c r="J315" t="n">
         <v>1</v>
@@ -10497,16 +10497,16 @@
         <v>20.4</v>
       </c>
       <c r="F316" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G316" t="n">
-        <v>54.06</v>
+        <v>55.99</v>
       </c>
       <c r="H316" t="n">
-        <v>17.77</v>
+        <v>19.91</v>
       </c>
       <c r="I316" t="n">
-        <v>5.11</v>
+        <v>6.27</v>
       </c>
       <c r="J316" t="n">
         <v>1</v>
@@ -10529,16 +10529,16 @@
         <v>20</v>
       </c>
       <c r="F317" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G317" t="n">
-        <v>54.45</v>
+        <v>59.22</v>
       </c>
       <c r="H317" t="n">
-        <v>16.81</v>
+        <v>16.73</v>
       </c>
       <c r="I317" t="n">
-        <v>4.79</v>
+        <v>1.68</v>
       </c>
       <c r="J317" t="n">
         <v>0</v>
@@ -10564,16 +10564,16 @@
         <v>12</v>
       </c>
       <c r="G318" t="n">
-        <v>58.58</v>
+        <v>66.08</v>
       </c>
       <c r="H318" t="n">
-        <v>19.14</v>
+        <v>17.92</v>
       </c>
       <c r="I318" t="n">
-        <v>3.86</v>
+        <v>5.21</v>
       </c>
       <c r="J318" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319">
@@ -10593,16 +10593,16 @@
         <v>22.05</v>
       </c>
       <c r="F319" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G319" t="n">
-        <v>55.35</v>
+        <v>55</v>
       </c>
       <c r="H319" t="n">
-        <v>20.42</v>
+        <v>19.29</v>
       </c>
       <c r="I319" t="n">
-        <v>3.26</v>
+        <v>5.26</v>
       </c>
       <c r="J319" t="n">
         <v>1</v>
@@ -10625,16 +10625,16 @@
         <v>20.99</v>
       </c>
       <c r="F320" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G320" t="n">
-        <v>56.47</v>
+        <v>57.83</v>
       </c>
       <c r="H320" t="n">
-        <v>15.08</v>
+        <v>18.26</v>
       </c>
       <c r="I320" t="n">
-        <v>3.57</v>
+        <v>5.31</v>
       </c>
       <c r="J320" t="n">
         <v>1</v>
@@ -10660,13 +10660,13 @@
         <v>12</v>
       </c>
       <c r="G321" t="n">
-        <v>50.3</v>
+        <v>58.91</v>
       </c>
       <c r="H321" t="n">
-        <v>18.91</v>
+        <v>16.63</v>
       </c>
       <c r="I321" t="n">
-        <v>2.14</v>
+        <v>4.72</v>
       </c>
       <c r="J321" t="n">
         <v>0</v>
@@ -10689,16 +10689,16 @@
         <v>22.18</v>
       </c>
       <c r="F322" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G322" t="n">
-        <v>61.22</v>
+        <v>56.96</v>
       </c>
       <c r="H322" t="n">
-        <v>20.99</v>
+        <v>20.45</v>
       </c>
       <c r="I322" t="n">
-        <v>4.44</v>
+        <v>4.38</v>
       </c>
       <c r="J322" t="n">
         <v>1</v>
@@ -10724,13 +10724,13 @@
         <v>17</v>
       </c>
       <c r="G323" t="n">
-        <v>51.07</v>
+        <v>55.01</v>
       </c>
       <c r="H323" t="n">
-        <v>20.22</v>
+        <v>20.61</v>
       </c>
       <c r="I323" t="n">
-        <v>5.83</v>
+        <v>3.99</v>
       </c>
       <c r="J323" t="n">
         <v>1</v>
@@ -10753,16 +10753,16 @@
         <v>19.32</v>
       </c>
       <c r="F324" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G324" t="n">
-        <v>57.82</v>
+        <v>62.94</v>
       </c>
       <c r="H324" t="n">
-        <v>17.35</v>
+        <v>19.31</v>
       </c>
       <c r="I324" t="n">
-        <v>5.15</v>
+        <v>5.8</v>
       </c>
       <c r="J324" t="n">
         <v>1</v>
@@ -10785,19 +10785,19 @@
         <v>21.21</v>
       </c>
       <c r="F325" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G325" t="n">
-        <v>54.98</v>
+        <v>54.4</v>
       </c>
       <c r="H325" t="n">
-        <v>18.45</v>
+        <v>17.09</v>
       </c>
       <c r="I325" t="n">
-        <v>4.61</v>
+        <v>1.51</v>
       </c>
       <c r="J325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326">
@@ -10820,16 +10820,16 @@
         <v>12</v>
       </c>
       <c r="G326" t="n">
-        <v>52.39</v>
+        <v>60.76</v>
       </c>
       <c r="H326" t="n">
-        <v>17.13</v>
+        <v>18.99</v>
       </c>
       <c r="I326" t="n">
-        <v>4.45</v>
+        <v>3.02</v>
       </c>
       <c r="J326" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327">
@@ -10849,16 +10849,16 @@
         <v>17.57</v>
       </c>
       <c r="F327" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G327" t="n">
-        <v>51.18</v>
+        <v>58.86</v>
       </c>
       <c r="H327" t="n">
-        <v>17.87</v>
+        <v>15.04</v>
       </c>
       <c r="I327" t="n">
-        <v>3.28</v>
+        <v>3.42</v>
       </c>
       <c r="J327" t="n">
         <v>0</v>
@@ -10884,13 +10884,13 @@
         <v>17</v>
       </c>
       <c r="G328" t="n">
-        <v>63.5</v>
+        <v>64.13</v>
       </c>
       <c r="H328" t="n">
-        <v>20.36</v>
+        <v>20</v>
       </c>
       <c r="I328" t="n">
-        <v>6.23</v>
+        <v>6.12</v>
       </c>
       <c r="J328" t="n">
         <v>1</v>
@@ -10916,13 +10916,13 @@
         <v>18</v>
       </c>
       <c r="G329" t="n">
-        <v>58.08</v>
+        <v>56.83</v>
       </c>
       <c r="H329" t="n">
-        <v>18.43</v>
+        <v>20.7</v>
       </c>
       <c r="I329" t="n">
-        <v>6.36</v>
+        <v>7.55</v>
       </c>
       <c r="J329" t="n">
         <v>1</v>
@@ -10945,16 +10945,16 @@
         <v>16</v>
       </c>
       <c r="F330" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G330" t="n">
-        <v>54.1</v>
+        <v>57.13</v>
       </c>
       <c r="H330" t="n">
-        <v>20.96</v>
+        <v>18.82</v>
       </c>
       <c r="I330" t="n">
-        <v>8.33</v>
+        <v>5.36</v>
       </c>
       <c r="J330" t="n">
         <v>0</v>
@@ -10980,13 +10980,13 @@
         <v>12</v>
       </c>
       <c r="G331" t="n">
-        <v>53.53</v>
+        <v>55.78</v>
       </c>
       <c r="H331" t="n">
-        <v>17.18</v>
+        <v>19.08</v>
       </c>
       <c r="I331" t="n">
-        <v>7.15</v>
+        <v>3.97</v>
       </c>
       <c r="J331" t="n">
         <v>1</v>
@@ -11012,13 +11012,13 @@
         <v>12</v>
       </c>
       <c r="G332" t="n">
-        <v>53.99</v>
+        <v>59.21</v>
       </c>
       <c r="H332" t="n">
-        <v>17</v>
+        <v>17.36</v>
       </c>
       <c r="I332" t="n">
-        <v>3.88</v>
+        <v>5.86</v>
       </c>
       <c r="J332" t="n">
         <v>1</v>
@@ -11041,19 +11041,19 @@
         <v>20.12</v>
       </c>
       <c r="F333" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G333" t="n">
-        <v>56.76</v>
+        <v>57.9</v>
       </c>
       <c r="H333" t="n">
-        <v>19.18</v>
+        <v>18.32</v>
       </c>
       <c r="I333" t="n">
-        <v>7</v>
+        <v>2.27</v>
       </c>
       <c r="J333" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334">
@@ -11073,16 +11073,16 @@
         <v>20.36</v>
       </c>
       <c r="F334" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G334" t="n">
-        <v>56.97</v>
+        <v>51.57</v>
       </c>
       <c r="H334" t="n">
-        <v>18.89</v>
+        <v>18.31</v>
       </c>
       <c r="I334" t="n">
-        <v>7.63</v>
+        <v>4.73</v>
       </c>
       <c r="J334" t="n">
         <v>1</v>
@@ -11105,19 +11105,19 @@
         <v>19.98</v>
       </c>
       <c r="F335" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G335" t="n">
-        <v>61.85</v>
+        <v>54.34</v>
       </c>
       <c r="H335" t="n">
-        <v>19.73</v>
+        <v>18.51</v>
       </c>
       <c r="I335" t="n">
-        <v>4.85</v>
+        <v>6.45</v>
       </c>
       <c r="J335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336">
@@ -11140,13 +11140,13 @@
         <v>12</v>
       </c>
       <c r="G336" t="n">
-        <v>55.08</v>
+        <v>57.14</v>
       </c>
       <c r="H336" t="n">
-        <v>21.04</v>
+        <v>15.11</v>
       </c>
       <c r="I336" t="n">
-        <v>7.6</v>
+        <v>5.09</v>
       </c>
       <c r="J336" t="n">
         <v>1</v>
@@ -11172,16 +11172,16 @@
         <v>17</v>
       </c>
       <c r="G337" t="n">
-        <v>53.29</v>
+        <v>61.25</v>
       </c>
       <c r="H337" t="n">
-        <v>17.14</v>
+        <v>17.05</v>
       </c>
       <c r="I337" t="n">
-        <v>5.63</v>
+        <v>5.52</v>
       </c>
       <c r="J337" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338">
@@ -11201,16 +11201,16 @@
         <v>20.72</v>
       </c>
       <c r="F338" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G338" t="n">
-        <v>53.38</v>
+        <v>56.73</v>
       </c>
       <c r="H338" t="n">
-        <v>15.38</v>
+        <v>18.96</v>
       </c>
       <c r="I338" t="n">
-        <v>4.65</v>
+        <v>4.78</v>
       </c>
       <c r="J338" t="n">
         <v>1</v>
@@ -11233,19 +11233,19 @@
         <v>21.79</v>
       </c>
       <c r="F339" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G339" t="n">
-        <v>59.59</v>
+        <v>58.7</v>
       </c>
       <c r="H339" t="n">
-        <v>18.51</v>
+        <v>18.65</v>
       </c>
       <c r="I339" t="n">
-        <v>4.36</v>
+        <v>5.52</v>
       </c>
       <c r="J339" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340">
@@ -11265,16 +11265,16 @@
         <v>21.18</v>
       </c>
       <c r="F340" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G340" t="n">
-        <v>57.4</v>
+        <v>60.25</v>
       </c>
       <c r="H340" t="n">
-        <v>17.67</v>
+        <v>16.35</v>
       </c>
       <c r="I340" t="n">
-        <v>4.23</v>
+        <v>6.3</v>
       </c>
       <c r="J340" t="n">
         <v>1</v>
@@ -11297,16 +11297,16 @@
         <v>20.59</v>
       </c>
       <c r="F341" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G341" t="n">
-        <v>57.08</v>
+        <v>57.78</v>
       </c>
       <c r="H341" t="n">
-        <v>16.96</v>
+        <v>18.24</v>
       </c>
       <c r="I341" t="n">
-        <v>5.13</v>
+        <v>5.94</v>
       </c>
       <c r="J341" t="n">
         <v>1</v>
@@ -11332,13 +11332,13 @@
         <v>12</v>
       </c>
       <c r="G342" t="n">
-        <v>52.34</v>
+        <v>56.96</v>
       </c>
       <c r="H342" t="n">
-        <v>17.89</v>
+        <v>18.28</v>
       </c>
       <c r="I342" t="n">
-        <v>5.69</v>
+        <v>3.86</v>
       </c>
       <c r="J342" t="n">
         <v>1</v>
@@ -11364,13 +11364,13 @@
         <v>18</v>
       </c>
       <c r="G343" t="n">
-        <v>58.97</v>
+        <v>60.28</v>
       </c>
       <c r="H343" t="n">
-        <v>16.76</v>
+        <v>19.1</v>
       </c>
       <c r="I343" t="n">
-        <v>4.73</v>
+        <v>4.19</v>
       </c>
       <c r="J343" t="n">
         <v>1</v>
@@ -11396,13 +11396,13 @@
         <v>12</v>
       </c>
       <c r="G344" t="n">
-        <v>63.31</v>
+        <v>62.7</v>
       </c>
       <c r="H344" t="n">
-        <v>18.76</v>
+        <v>17.52</v>
       </c>
       <c r="I344" t="n">
-        <v>4.91</v>
+        <v>5.59</v>
       </c>
       <c r="J344" t="n">
         <v>1</v>
@@ -11425,16 +11425,16 @@
         <v>20.95</v>
       </c>
       <c r="F345" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G345" t="n">
-        <v>56.02</v>
+        <v>59.55</v>
       </c>
       <c r="H345" t="n">
-        <v>17.43</v>
+        <v>16.54</v>
       </c>
       <c r="I345" t="n">
-        <v>6.37</v>
+        <v>4.47</v>
       </c>
       <c r="J345" t="n">
         <v>1</v>
@@ -11460,13 +11460,13 @@
         <v>12</v>
       </c>
       <c r="G346" t="n">
-        <v>57.16</v>
+        <v>52.98</v>
       </c>
       <c r="H346" t="n">
-        <v>18.19</v>
+        <v>18.32</v>
       </c>
       <c r="I346" t="n">
-        <v>5.82</v>
+        <v>5.31</v>
       </c>
       <c r="J346" t="n">
         <v>1</v>
@@ -11492,13 +11492,13 @@
         <v>12</v>
       </c>
       <c r="G347" t="n">
-        <v>57.55</v>
+        <v>59.96</v>
       </c>
       <c r="H347" t="n">
-        <v>18.6</v>
+        <v>19.46</v>
       </c>
       <c r="I347" t="n">
-        <v>6.85</v>
+        <v>3.38</v>
       </c>
       <c r="J347" t="n">
         <v>1</v>
@@ -11524,16 +11524,16 @@
         <v>12</v>
       </c>
       <c r="G348" t="n">
-        <v>54.13</v>
+        <v>57.88</v>
       </c>
       <c r="H348" t="n">
-        <v>18.83</v>
+        <v>19.24</v>
       </c>
       <c r="I348" t="n">
-        <v>5.42</v>
+        <v>5.3</v>
       </c>
       <c r="J348" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349">
@@ -11553,16 +11553,16 @@
         <v>23.74</v>
       </c>
       <c r="F349" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G349" t="n">
-        <v>54.08</v>
+        <v>57.74</v>
       </c>
       <c r="H349" t="n">
-        <v>18.63</v>
+        <v>16.07</v>
       </c>
       <c r="I349" t="n">
-        <v>3.85</v>
+        <v>6.98</v>
       </c>
       <c r="J349" t="n">
         <v>1</v>
@@ -11585,19 +11585,19 @@
         <v>18.43</v>
       </c>
       <c r="F350" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G350" t="n">
-        <v>55.6</v>
+        <v>51.8</v>
       </c>
       <c r="H350" t="n">
-        <v>16.85</v>
+        <v>19.07</v>
       </c>
       <c r="I350" t="n">
-        <v>5.29</v>
+        <v>2.39</v>
       </c>
       <c r="J350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351">
@@ -11617,19 +11617,19 @@
         <v>19.09</v>
       </c>
       <c r="F351" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G351" t="n">
-        <v>53.67</v>
+        <v>58.5</v>
       </c>
       <c r="H351" t="n">
-        <v>18.6</v>
+        <v>17.34</v>
       </c>
       <c r="I351" t="n">
-        <v>5.16</v>
+        <v>6.04</v>
       </c>
       <c r="J351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352">
@@ -11649,16 +11649,16 @@
         <v>20.38</v>
       </c>
       <c r="F352" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G352" t="n">
-        <v>56.4</v>
+        <v>57.35</v>
       </c>
       <c r="H352" t="n">
-        <v>20.51</v>
+        <v>16.76</v>
       </c>
       <c r="I352" t="n">
-        <v>2.81</v>
+        <v>6.71</v>
       </c>
       <c r="J352" t="n">
         <v>1</v>
@@ -11681,19 +11681,19 @@
         <v>19.84</v>
       </c>
       <c r="F353" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G353" t="n">
-        <v>57.12</v>
+        <v>53.26</v>
       </c>
       <c r="H353" t="n">
-        <v>20.43</v>
+        <v>17.91</v>
       </c>
       <c r="I353" t="n">
-        <v>7.63</v>
+        <v>6.92</v>
       </c>
       <c r="J353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354">
@@ -11713,19 +11713,19 @@
         <v>18.84</v>
       </c>
       <c r="F354" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G354" t="n">
-        <v>58.29</v>
+        <v>49.97</v>
       </c>
       <c r="H354" t="n">
-        <v>19.44</v>
+        <v>19.49</v>
       </c>
       <c r="I354" t="n">
-        <v>3.42</v>
+        <v>5.6</v>
       </c>
       <c r="J354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355">
@@ -11748,16 +11748,16 @@
         <v>12</v>
       </c>
       <c r="G355" t="n">
-        <v>54.21</v>
+        <v>59.78</v>
       </c>
       <c r="H355" t="n">
-        <v>17.75</v>
+        <v>19.03</v>
       </c>
       <c r="I355" t="n">
-        <v>5</v>
+        <v>4.35</v>
       </c>
       <c r="J355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356">
@@ -11780,13 +11780,13 @@
         <v>12</v>
       </c>
       <c r="G356" t="n">
-        <v>57.01</v>
+        <v>60.39</v>
       </c>
       <c r="H356" t="n">
-        <v>18.89</v>
+        <v>19.59</v>
       </c>
       <c r="I356" t="n">
-        <v>6.93</v>
+        <v>5.05</v>
       </c>
       <c r="J356" t="n">
         <v>1</v>
@@ -11809,16 +11809,16 @@
         <v>18.58</v>
       </c>
       <c r="F357" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G357" t="n">
-        <v>53.6</v>
+        <v>54.73</v>
       </c>
       <c r="H357" t="n">
-        <v>15.92</v>
+        <v>19.04</v>
       </c>
       <c r="I357" t="n">
-        <v>4.01</v>
+        <v>5.08</v>
       </c>
       <c r="J357" t="n">
         <v>1</v>
@@ -11844,13 +11844,13 @@
         <v>17</v>
       </c>
       <c r="G358" t="n">
-        <v>54.88</v>
+        <v>57.67</v>
       </c>
       <c r="H358" t="n">
-        <v>17.69</v>
+        <v>18.57</v>
       </c>
       <c r="I358" t="n">
-        <v>4.5</v>
+        <v>5.67</v>
       </c>
       <c r="J358" t="n">
         <v>0</v>
@@ -11876,16 +11876,16 @@
         <v>17</v>
       </c>
       <c r="G359" t="n">
-        <v>52.9</v>
+        <v>58.62</v>
       </c>
       <c r="H359" t="n">
-        <v>17.93</v>
+        <v>16.99</v>
       </c>
       <c r="I359" t="n">
-        <v>4.95</v>
+        <v>5.31</v>
       </c>
       <c r="J359" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360">
@@ -11905,16 +11905,16 @@
         <v>21.62</v>
       </c>
       <c r="F360" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G360" t="n">
-        <v>57.96</v>
+        <v>57.84</v>
       </c>
       <c r="H360" t="n">
-        <v>18.69</v>
+        <v>16.91</v>
       </c>
       <c r="I360" t="n">
-        <v>5.24</v>
+        <v>4.97</v>
       </c>
       <c r="J360" t="n">
         <v>1</v>
@@ -11940,13 +11940,13 @@
         <v>12</v>
       </c>
       <c r="G361" t="n">
-        <v>47.41</v>
+        <v>64.06</v>
       </c>
       <c r="H361" t="n">
-        <v>19.93</v>
+        <v>17.37</v>
       </c>
       <c r="I361" t="n">
-        <v>3.05</v>
+        <v>3.78</v>
       </c>
       <c r="J361" t="n">
         <v>0</v>
@@ -11969,19 +11969,19 @@
         <v>19.46</v>
       </c>
       <c r="F362" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G362" t="n">
-        <v>59.72</v>
+        <v>54.24</v>
       </c>
       <c r="H362" t="n">
-        <v>18.1</v>
+        <v>19.29</v>
       </c>
       <c r="I362" t="n">
-        <v>3.68</v>
+        <v>5.07</v>
       </c>
       <c r="J362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363">
@@ -12001,19 +12001,19 @@
         <v>20.43</v>
       </c>
       <c r="F363" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G363" t="n">
-        <v>53.67</v>
+        <v>57.43</v>
       </c>
       <c r="H363" t="n">
-        <v>19.42</v>
+        <v>18.72</v>
       </c>
       <c r="I363" t="n">
-        <v>3.22</v>
+        <v>6.11</v>
       </c>
       <c r="J363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364">
@@ -12033,16 +12033,16 @@
         <v>21.82</v>
       </c>
       <c r="F364" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G364" t="n">
-        <v>56.01</v>
+        <v>61.42</v>
       </c>
       <c r="H364" t="n">
-        <v>17.59</v>
+        <v>18.11</v>
       </c>
       <c r="I364" t="n">
-        <v>7.05</v>
+        <v>5.88</v>
       </c>
       <c r="J364" t="n">
         <v>1</v>
@@ -12065,16 +12065,16 @@
         <v>21.79</v>
       </c>
       <c r="F365" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G365" t="n">
-        <v>55.74</v>
+        <v>55.87</v>
       </c>
       <c r="H365" t="n">
-        <v>14.78</v>
+        <v>19.96</v>
       </c>
       <c r="I365" t="n">
-        <v>2.02</v>
+        <v>3.2</v>
       </c>
       <c r="J365" t="n">
         <v>1</v>
@@ -12100,13 +12100,13 @@
         <v>12</v>
       </c>
       <c r="G366" t="n">
-        <v>58.08</v>
+        <v>55.23</v>
       </c>
       <c r="H366" t="n">
-        <v>19.62</v>
+        <v>20.02</v>
       </c>
       <c r="I366" t="n">
-        <v>6.07</v>
+        <v>5.89</v>
       </c>
       <c r="J366" t="n">
         <v>0</v>
@@ -12132,13 +12132,13 @@
         <v>12</v>
       </c>
       <c r="G367" t="n">
-        <v>57.82</v>
+        <v>59.29</v>
       </c>
       <c r="H367" t="n">
-        <v>19.61</v>
+        <v>20.11</v>
       </c>
       <c r="I367" t="n">
-        <v>6.37</v>
+        <v>6.03</v>
       </c>
       <c r="J367" t="n">
         <v>1</v>
@@ -12164,16 +12164,16 @@
         <v>12</v>
       </c>
       <c r="G368" t="n">
-        <v>55.22</v>
+        <v>55.89</v>
       </c>
       <c r="H368" t="n">
-        <v>16.69</v>
+        <v>17.2</v>
       </c>
       <c r="I368" t="n">
-        <v>2.26</v>
+        <v>4.5</v>
       </c>
       <c r="J368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369">
@@ -12193,19 +12193,19 @@
         <v>21.86</v>
       </c>
       <c r="F369" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G369" t="n">
-        <v>61.67</v>
+        <v>60.99</v>
       </c>
       <c r="H369" t="n">
-        <v>17.72</v>
+        <v>19.3</v>
       </c>
       <c r="I369" t="n">
-        <v>3.58</v>
+        <v>4.67</v>
       </c>
       <c r="J369" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370">
@@ -12228,16 +12228,16 @@
         <v>12</v>
       </c>
       <c r="G370" t="n">
-        <v>49.14</v>
+        <v>58.94</v>
       </c>
       <c r="H370" t="n">
-        <v>17.53</v>
+        <v>17.74</v>
       </c>
       <c r="I370" t="n">
-        <v>5.38</v>
+        <v>5.91</v>
       </c>
       <c r="J370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371">
@@ -12257,16 +12257,16 @@
         <v>20.53</v>
       </c>
       <c r="F371" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G371" t="n">
-        <v>58.96</v>
+        <v>60.65</v>
       </c>
       <c r="H371" t="n">
-        <v>18.59</v>
+        <v>20.22</v>
       </c>
       <c r="I371" t="n">
-        <v>5.81</v>
+        <v>7.79</v>
       </c>
       <c r="J371" t="n">
         <v>1</v>
@@ -12292,13 +12292,13 @@
         <v>17</v>
       </c>
       <c r="G372" t="n">
-        <v>60.59</v>
+        <v>55.43</v>
       </c>
       <c r="H372" t="n">
-        <v>17.82</v>
+        <v>20.48</v>
       </c>
       <c r="I372" t="n">
-        <v>3.51</v>
+        <v>4.25</v>
       </c>
       <c r="J372" t="n">
         <v>0</v>
@@ -12324,16 +12324,16 @@
         <v>12</v>
       </c>
       <c r="G373" t="n">
-        <v>63.21</v>
+        <v>58.68</v>
       </c>
       <c r="H373" t="n">
-        <v>19.35</v>
+        <v>21.21</v>
       </c>
       <c r="I373" t="n">
-        <v>5.4</v>
+        <v>4.6</v>
       </c>
       <c r="J373" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374">
@@ -12356,13 +12356,13 @@
         <v>17</v>
       </c>
       <c r="G374" t="n">
-        <v>52.75</v>
+        <v>58.2</v>
       </c>
       <c r="H374" t="n">
-        <v>17.38</v>
+        <v>16.21</v>
       </c>
       <c r="I374" t="n">
-        <v>5.27</v>
+        <v>5.06</v>
       </c>
       <c r="J374" t="n">
         <v>0</v>
@@ -12388,13 +12388,13 @@
         <v>12</v>
       </c>
       <c r="G375" t="n">
-        <v>56.75</v>
+        <v>62.6</v>
       </c>
       <c r="H375" t="n">
-        <v>17.68</v>
+        <v>19.84</v>
       </c>
       <c r="I375" t="n">
-        <v>6.64</v>
+        <v>6.62</v>
       </c>
       <c r="J375" t="n">
         <v>1</v>
@@ -12417,16 +12417,16 @@
         <v>20.6</v>
       </c>
       <c r="F376" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G376" t="n">
-        <v>65.44</v>
+        <v>64.4</v>
       </c>
       <c r="H376" t="n">
-        <v>19.03</v>
+        <v>20.31</v>
       </c>
       <c r="I376" t="n">
-        <v>2.67</v>
+        <v>5.41</v>
       </c>
       <c r="J376" t="n">
         <v>1</v>
@@ -12452,13 +12452,13 @@
         <v>17</v>
       </c>
       <c r="G377" t="n">
-        <v>55.8</v>
+        <v>59.85</v>
       </c>
       <c r="H377" t="n">
-        <v>20.49</v>
+        <v>19.26</v>
       </c>
       <c r="I377" t="n">
-        <v>4.06</v>
+        <v>5.45</v>
       </c>
       <c r="J377" t="n">
         <v>0</v>
@@ -12481,19 +12481,19 @@
         <v>20.32</v>
       </c>
       <c r="F378" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G378" t="n">
-        <v>49.05</v>
+        <v>52.84</v>
       </c>
       <c r="H378" t="n">
-        <v>18.05</v>
+        <v>16.56</v>
       </c>
       <c r="I378" t="n">
-        <v>4.53</v>
+        <v>4.38</v>
       </c>
       <c r="J378" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379">
@@ -12513,19 +12513,19 @@
         <v>19.96</v>
       </c>
       <c r="F379" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G379" t="n">
-        <v>58.64</v>
+        <v>52.04</v>
       </c>
       <c r="H379" t="n">
-        <v>19.5</v>
+        <v>19.41</v>
       </c>
       <c r="I379" t="n">
-        <v>3.21</v>
+        <v>6.22</v>
       </c>
       <c r="J379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380">
@@ -12545,16 +12545,16 @@
         <v>21.59</v>
       </c>
       <c r="F380" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G380" t="n">
-        <v>62.19</v>
+        <v>56.13</v>
       </c>
       <c r="H380" t="n">
-        <v>18.86</v>
+        <v>19.89</v>
       </c>
       <c r="I380" t="n">
-        <v>4.64</v>
+        <v>4.23</v>
       </c>
       <c r="J380" t="n">
         <v>1</v>
@@ -12580,16 +12580,16 @@
         <v>18</v>
       </c>
       <c r="G381" t="n">
-        <v>58.58</v>
+        <v>53.84</v>
       </c>
       <c r="H381" t="n">
-        <v>17.52</v>
+        <v>17.38</v>
       </c>
       <c r="I381" t="n">
-        <v>4.12</v>
+        <v>2.9</v>
       </c>
       <c r="J381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382">
@@ -12609,16 +12609,16 @@
         <v>21.08</v>
       </c>
       <c r="F382" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G382" t="n">
-        <v>54.77</v>
+        <v>61.07</v>
       </c>
       <c r="H382" t="n">
-        <v>22.12</v>
+        <v>19.48</v>
       </c>
       <c r="I382" t="n">
-        <v>3.78</v>
+        <v>6.5</v>
       </c>
       <c r="J382" t="n">
         <v>1</v>
@@ -12641,19 +12641,19 @@
         <v>20.82</v>
       </c>
       <c r="F383" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G383" t="n">
-        <v>61.37</v>
+        <v>50.09</v>
       </c>
       <c r="H383" t="n">
-        <v>19.46</v>
+        <v>15.85</v>
       </c>
       <c r="I383" t="n">
-        <v>4.58</v>
+        <v>1.93</v>
       </c>
       <c r="J383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384">
@@ -12676,13 +12676,13 @@
         <v>12</v>
       </c>
       <c r="G384" t="n">
-        <v>59.25</v>
+        <v>55.28</v>
       </c>
       <c r="H384" t="n">
-        <v>17.37</v>
+        <v>19.05</v>
       </c>
       <c r="I384" t="n">
-        <v>5.43</v>
+        <v>6.53</v>
       </c>
       <c r="J384" t="n">
         <v>0</v>
@@ -12708,13 +12708,13 @@
         <v>12</v>
       </c>
       <c r="G385" t="n">
-        <v>51.13</v>
+        <v>57.51</v>
       </c>
       <c r="H385" t="n">
-        <v>16.95</v>
+        <v>18.81</v>
       </c>
       <c r="I385" t="n">
-        <v>5.91</v>
+        <v>7.17</v>
       </c>
       <c r="J385" t="n">
         <v>1</v>
@@ -12740,13 +12740,13 @@
         <v>12</v>
       </c>
       <c r="G386" t="n">
-        <v>60.46</v>
+        <v>55.1</v>
       </c>
       <c r="H386" t="n">
-        <v>17.43</v>
+        <v>17.35</v>
       </c>
       <c r="I386" t="n">
-        <v>3.88</v>
+        <v>5.64</v>
       </c>
       <c r="J386" t="n">
         <v>1</v>
@@ -12769,16 +12769,16 @@
         <v>19.13</v>
       </c>
       <c r="F387" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G387" t="n">
-        <v>51.65</v>
+        <v>53.76</v>
       </c>
       <c r="H387" t="n">
-        <v>15.98</v>
+        <v>17.39</v>
       </c>
       <c r="I387" t="n">
-        <v>7.53</v>
+        <v>3.76</v>
       </c>
       <c r="J387" t="n">
         <v>0</v>
@@ -12804,16 +12804,16 @@
         <v>17</v>
       </c>
       <c r="G388" t="n">
-        <v>57.07</v>
+        <v>58.73</v>
       </c>
       <c r="H388" t="n">
-        <v>17.51</v>
+        <v>21.66</v>
       </c>
       <c r="I388" t="n">
-        <v>4.32</v>
+        <v>6.89</v>
       </c>
       <c r="J388" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389">
@@ -12836,13 +12836,13 @@
         <v>12</v>
       </c>
       <c r="G389" t="n">
-        <v>52.18</v>
+        <v>56.53</v>
       </c>
       <c r="H389" t="n">
-        <v>18.7</v>
+        <v>16.97</v>
       </c>
       <c r="I389" t="n">
-        <v>3.91</v>
+        <v>5.12</v>
       </c>
       <c r="J389" t="n">
         <v>1</v>
@@ -12868,16 +12868,16 @@
         <v>17</v>
       </c>
       <c r="G390" t="n">
-        <v>54.85</v>
+        <v>59.28</v>
       </c>
       <c r="H390" t="n">
-        <v>18.6</v>
+        <v>15.7</v>
       </c>
       <c r="I390" t="n">
-        <v>3.28</v>
+        <v>1.91</v>
       </c>
       <c r="J390" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391">
@@ -12897,16 +12897,16 @@
         <v>21.6</v>
       </c>
       <c r="F391" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G391" t="n">
-        <v>54.63</v>
+        <v>51.62</v>
       </c>
       <c r="H391" t="n">
-        <v>15.95</v>
+        <v>18.18</v>
       </c>
       <c r="I391" t="n">
-        <v>2.03</v>
+        <v>4.58</v>
       </c>
       <c r="J391" t="n">
         <v>1</v>
@@ -12929,19 +12929,19 @@
         <v>18.01</v>
       </c>
       <c r="F392" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G392" t="n">
-        <v>61.34</v>
+        <v>62.38</v>
       </c>
       <c r="H392" t="n">
-        <v>18.78</v>
+        <v>20.86</v>
       </c>
       <c r="I392" t="n">
-        <v>5.62</v>
+        <v>6.15</v>
       </c>
       <c r="J392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393">
@@ -12961,16 +12961,16 @@
         <v>19.83</v>
       </c>
       <c r="F393" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G393" t="n">
-        <v>58.84</v>
+        <v>58.4</v>
       </c>
       <c r="H393" t="n">
-        <v>20.37</v>
+        <v>19.26</v>
       </c>
       <c r="I393" t="n">
-        <v>5.9</v>
+        <v>6.15</v>
       </c>
       <c r="J393" t="n">
         <v>0</v>
@@ -12993,16 +12993,16 @@
         <v>21.03</v>
       </c>
       <c r="F394" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G394" t="n">
-        <v>56.34</v>
+        <v>55.16</v>
       </c>
       <c r="H394" t="n">
-        <v>17.05</v>
+        <v>16.2</v>
       </c>
       <c r="I394" t="n">
-        <v>3.14</v>
+        <v>5.97</v>
       </c>
       <c r="J394" t="n">
         <v>1</v>
@@ -13025,19 +13025,19 @@
         <v>19.46</v>
       </c>
       <c r="F395" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G395" t="n">
-        <v>61.68</v>
+        <v>56.08</v>
       </c>
       <c r="H395" t="n">
-        <v>19.62</v>
+        <v>18.36</v>
       </c>
       <c r="I395" t="n">
-        <v>4.99</v>
+        <v>5.33</v>
       </c>
       <c r="J395" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396">
@@ -13057,16 +13057,16 @@
         <v>20.04</v>
       </c>
       <c r="F396" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G396" t="n">
-        <v>58.81</v>
+        <v>48.78</v>
       </c>
       <c r="H396" t="n">
-        <v>19.56</v>
+        <v>17.41</v>
       </c>
       <c r="I396" t="n">
-        <v>6.05</v>
+        <v>3.63</v>
       </c>
       <c r="J396" t="n">
         <v>1</v>
@@ -13092,13 +13092,13 @@
         <v>12</v>
       </c>
       <c r="G397" t="n">
-        <v>61.19</v>
+        <v>59.87</v>
       </c>
       <c r="H397" t="n">
-        <v>19.48</v>
+        <v>19.64</v>
       </c>
       <c r="I397" t="n">
-        <v>5.53</v>
+        <v>6.35</v>
       </c>
       <c r="J397" t="n">
         <v>1</v>
@@ -13124,13 +13124,13 @@
         <v>17</v>
       </c>
       <c r="G398" t="n">
-        <v>62.95</v>
+        <v>58.03</v>
       </c>
       <c r="H398" t="n">
-        <v>18.02</v>
+        <v>21.54</v>
       </c>
       <c r="I398" t="n">
-        <v>5.44</v>
+        <v>4.73</v>
       </c>
       <c r="J398" t="n">
         <v>0</v>
@@ -13153,19 +13153,19 @@
         <v>19.93</v>
       </c>
       <c r="F399" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G399" t="n">
-        <v>54.55</v>
+        <v>54.19</v>
       </c>
       <c r="H399" t="n">
-        <v>20.59</v>
+        <v>19.08</v>
       </c>
       <c r="I399" t="n">
-        <v>4.99</v>
+        <v>3.95</v>
       </c>
       <c r="J399" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400">
@@ -13188,13 +13188,13 @@
         <v>17</v>
       </c>
       <c r="G400" t="n">
-        <v>57.92</v>
+        <v>57.7</v>
       </c>
       <c r="H400" t="n">
-        <v>20.23</v>
+        <v>20.95</v>
       </c>
       <c r="I400" t="n">
-        <v>4.17</v>
+        <v>4.14</v>
       </c>
       <c r="J400" t="n">
         <v>1</v>
@@ -13220,13 +13220,13 @@
         <v>12</v>
       </c>
       <c r="G401" t="n">
-        <v>52.19</v>
+        <v>51.42</v>
       </c>
       <c r="H401" t="n">
-        <v>21</v>
+        <v>20.14</v>
       </c>
       <c r="I401" t="n">
-        <v>6.01</v>
+        <v>2.93</v>
       </c>
       <c r="J401" t="n">
         <v>1</v>
@@ -13252,13 +13252,13 @@
         <v>17</v>
       </c>
       <c r="G402" t="n">
-        <v>51.78</v>
+        <v>56.4</v>
       </c>
       <c r="H402" t="n">
-        <v>16.76</v>
+        <v>21.39</v>
       </c>
       <c r="I402" t="n">
-        <v>1.46</v>
+        <v>4.71</v>
       </c>
       <c r="J402" t="n">
         <v>1</v>
@@ -13281,16 +13281,16 @@
         <v>21.54</v>
       </c>
       <c r="F403" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G403" t="n">
-        <v>56.73</v>
+        <v>56.68</v>
       </c>
       <c r="H403" t="n">
-        <v>18.53</v>
+        <v>19.68</v>
       </c>
       <c r="I403" t="n">
-        <v>6.95</v>
+        <v>5.58</v>
       </c>
       <c r="J403" t="n">
         <v>1</v>
@@ -13316,13 +13316,13 @@
         <v>12</v>
       </c>
       <c r="G404" t="n">
-        <v>58.46</v>
+        <v>60.72</v>
       </c>
       <c r="H404" t="n">
-        <v>19.08</v>
+        <v>19.17</v>
       </c>
       <c r="I404" t="n">
-        <v>3.59</v>
+        <v>6.75</v>
       </c>
       <c r="J404" t="n">
         <v>0</v>
@@ -13345,19 +13345,19 @@
         <v>18.31</v>
       </c>
       <c r="F405" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G405" t="n">
-        <v>62.93</v>
+        <v>56</v>
       </c>
       <c r="H405" t="n">
-        <v>19.43</v>
+        <v>15.7</v>
       </c>
       <c r="I405" t="n">
-        <v>5.57</v>
+        <v>7.28</v>
       </c>
       <c r="J405" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406">
@@ -13380,13 +13380,13 @@
         <v>12</v>
       </c>
       <c r="G406" t="n">
-        <v>55.95</v>
+        <v>57.36</v>
       </c>
       <c r="H406" t="n">
-        <v>17.3</v>
+        <v>17.98</v>
       </c>
       <c r="I406" t="n">
-        <v>8.44</v>
+        <v>4</v>
       </c>
       <c r="J406" t="n">
         <v>1</v>
@@ -13409,19 +13409,19 @@
         <v>19.05</v>
       </c>
       <c r="F407" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G407" t="n">
-        <v>59.24</v>
+        <v>60.05</v>
       </c>
       <c r="H407" t="n">
-        <v>16.99</v>
+        <v>20.48</v>
       </c>
       <c r="I407" t="n">
-        <v>7.09</v>
+        <v>4.71</v>
       </c>
       <c r="J407" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408">
@@ -13441,16 +13441,16 @@
         <v>21.5</v>
       </c>
       <c r="F408" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G408" t="n">
-        <v>57.05</v>
+        <v>55.32</v>
       </c>
       <c r="H408" t="n">
-        <v>17.95</v>
+        <v>19.75</v>
       </c>
       <c r="I408" t="n">
-        <v>6.16</v>
+        <v>3.92</v>
       </c>
       <c r="J408" t="n">
         <v>1</v>
@@ -13473,19 +13473,19 @@
         <v>20.8</v>
       </c>
       <c r="F409" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G409" t="n">
-        <v>50.84</v>
+        <v>58.37</v>
       </c>
       <c r="H409" t="n">
-        <v>18.02</v>
+        <v>17.28</v>
       </c>
       <c r="I409" t="n">
-        <v>6.52</v>
+        <v>7.44</v>
       </c>
       <c r="J409" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410">
@@ -13505,16 +13505,16 @@
         <v>21.95</v>
       </c>
       <c r="F410" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G410" t="n">
-        <v>55.51</v>
+        <v>56.66</v>
       </c>
       <c r="H410" t="n">
-        <v>17.73</v>
+        <v>16.86</v>
       </c>
       <c r="I410" t="n">
-        <v>3.94</v>
+        <v>2.44</v>
       </c>
       <c r="J410" t="n">
         <v>1</v>
@@ -13540,13 +13540,13 @@
         <v>12</v>
       </c>
       <c r="G411" t="n">
-        <v>58.5</v>
+        <v>57.18</v>
       </c>
       <c r="H411" t="n">
-        <v>18.23</v>
+        <v>15.55</v>
       </c>
       <c r="I411" t="n">
-        <v>2.73</v>
+        <v>3.08</v>
       </c>
       <c r="J411" t="n">
         <v>1</v>
@@ -13569,19 +13569,19 @@
         <v>20.23</v>
       </c>
       <c r="F412" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G412" t="n">
-        <v>57.33</v>
+        <v>56.64</v>
       </c>
       <c r="H412" t="n">
-        <v>17.21</v>
+        <v>18.6</v>
       </c>
       <c r="I412" t="n">
-        <v>5.42</v>
+        <v>3.41</v>
       </c>
       <c r="J412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413">
@@ -13604,13 +13604,13 @@
         <v>12</v>
       </c>
       <c r="G413" t="n">
-        <v>55.85</v>
+        <v>57.46</v>
       </c>
       <c r="H413" t="n">
-        <v>17.76</v>
+        <v>18.6</v>
       </c>
       <c r="I413" t="n">
-        <v>6.18</v>
+        <v>4.2</v>
       </c>
       <c r="J413" t="n">
         <v>1</v>

--- a/data/infected_pigs.xlsx
+++ b/data/infected_pigs.xlsx
@@ -452,13 +452,13 @@
         <v>12</v>
       </c>
       <c r="G2" t="n">
-        <v>62.24</v>
+        <v>49.88</v>
       </c>
       <c r="H2" t="n">
-        <v>19.05</v>
+        <v>16.94</v>
       </c>
       <c r="I2" t="n">
-        <v>4.44</v>
+        <v>3.07</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
@@ -484,16 +484,16 @@
         <v>12</v>
       </c>
       <c r="G3" t="n">
-        <v>54.21</v>
+        <v>58.2</v>
       </c>
       <c r="H3" t="n">
-        <v>17.68</v>
+        <v>17.95</v>
       </c>
       <c r="I3" t="n">
-        <v>3.87</v>
+        <v>4.88</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +516,13 @@
         <v>12</v>
       </c>
       <c r="G4" t="n">
-        <v>57.94</v>
+        <v>56.8</v>
       </c>
       <c r="H4" t="n">
-        <v>16.76</v>
+        <v>19.02</v>
       </c>
       <c r="I4" t="n">
-        <v>3.01</v>
+        <v>3.98</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -548,16 +548,16 @@
         <v>12</v>
       </c>
       <c r="G5" t="n">
-        <v>56.15</v>
+        <v>56.47</v>
       </c>
       <c r="H5" t="n">
-        <v>19.05</v>
+        <v>18.98</v>
       </c>
       <c r="I5" t="n">
-        <v>4.35</v>
+        <v>5.18</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -580,13 +580,13 @@
         <v>12</v>
       </c>
       <c r="G6" t="n">
-        <v>55.38</v>
+        <v>59.85</v>
       </c>
       <c r="H6" t="n">
-        <v>18.44</v>
+        <v>16.57</v>
       </c>
       <c r="I6" t="n">
-        <v>5.27</v>
+        <v>6.71</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
@@ -612,13 +612,13 @@
         <v>12</v>
       </c>
       <c r="G7" t="n">
-        <v>60.29</v>
+        <v>58.1</v>
       </c>
       <c r="H7" t="n">
-        <v>18.42</v>
+        <v>18.22</v>
       </c>
       <c r="I7" t="n">
-        <v>4.78</v>
+        <v>5.43</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
@@ -644,16 +644,16 @@
         <v>17</v>
       </c>
       <c r="G8" t="n">
-        <v>54.68</v>
+        <v>52.23</v>
       </c>
       <c r="H8" t="n">
-        <v>18.4</v>
+        <v>17.16</v>
       </c>
       <c r="I8" t="n">
-        <v>5.24</v>
+        <v>6.1</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -676,13 +676,13 @@
         <v>12</v>
       </c>
       <c r="G9" t="n">
-        <v>55.47</v>
+        <v>61</v>
       </c>
       <c r="H9" t="n">
-        <v>17.72</v>
+        <v>14.44</v>
       </c>
       <c r="I9" t="n">
-        <v>4.43</v>
+        <v>7.05</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -708,13 +708,13 @@
         <v>12</v>
       </c>
       <c r="G10" t="n">
-        <v>59.13</v>
+        <v>56.68</v>
       </c>
       <c r="H10" t="n">
-        <v>20.03</v>
+        <v>17.78</v>
       </c>
       <c r="I10" t="n">
-        <v>4.79</v>
+        <v>5.22</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
@@ -740,13 +740,13 @@
         <v>12</v>
       </c>
       <c r="G11" t="n">
-        <v>55.73</v>
+        <v>56.5</v>
       </c>
       <c r="H11" t="n">
-        <v>16.81</v>
+        <v>16.43</v>
       </c>
       <c r="I11" t="n">
-        <v>6.55</v>
+        <v>5.12</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
@@ -772,13 +772,13 @@
         <v>18</v>
       </c>
       <c r="G12" t="n">
-        <v>54.82</v>
+        <v>63.23</v>
       </c>
       <c r="H12" t="n">
-        <v>16.66</v>
+        <v>19.8</v>
       </c>
       <c r="I12" t="n">
-        <v>5.73</v>
+        <v>5.59</v>
       </c>
       <c r="J12" t="n">
         <v>1</v>
@@ -804,13 +804,13 @@
         <v>12</v>
       </c>
       <c r="G13" t="n">
-        <v>51.94</v>
+        <v>52.39</v>
       </c>
       <c r="H13" t="n">
-        <v>19.77</v>
+        <v>16.16</v>
       </c>
       <c r="I13" t="n">
-        <v>7.4</v>
+        <v>5.66</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
@@ -836,16 +836,16 @@
         <v>12</v>
       </c>
       <c r="G14" t="n">
-        <v>52.76</v>
+        <v>50.61</v>
       </c>
       <c r="H14" t="n">
-        <v>19.05</v>
+        <v>20.77</v>
       </c>
       <c r="I14" t="n">
-        <v>4.7</v>
+        <v>6.19</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -868,13 +868,13 @@
         <v>12</v>
       </c>
       <c r="G15" t="n">
-        <v>58.45</v>
+        <v>58.42</v>
       </c>
       <c r="H15" t="n">
-        <v>15.97</v>
+        <v>18.52</v>
       </c>
       <c r="I15" t="n">
-        <v>3.58</v>
+        <v>6.43</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -897,16 +897,16 @@
         <v>20.04</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G16" t="n">
-        <v>57.27</v>
+        <v>54.91</v>
       </c>
       <c r="H16" t="n">
-        <v>21.05</v>
+        <v>18.48</v>
       </c>
       <c r="I16" t="n">
-        <v>5.62</v>
+        <v>5.27</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
@@ -929,16 +929,16 @@
         <v>20.6</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G17" t="n">
-        <v>56.42</v>
+        <v>56.87</v>
       </c>
       <c r="H17" t="n">
-        <v>20.16</v>
+        <v>16.35</v>
       </c>
       <c r="I17" t="n">
-        <v>3.32</v>
+        <v>2.06</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
@@ -961,19 +961,19 @@
         <v>20.09</v>
       </c>
       <c r="F18" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G18" t="n">
-        <v>59.25</v>
+        <v>52.3</v>
       </c>
       <c r="H18" t="n">
-        <v>19.59</v>
+        <v>15.96</v>
       </c>
       <c r="I18" t="n">
-        <v>7.87</v>
+        <v>5.05</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -993,16 +993,16 @@
         <v>18.18</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G19" t="n">
-        <v>59.56</v>
+        <v>53.6</v>
       </c>
       <c r="H19" t="n">
-        <v>20.87</v>
+        <v>19.19</v>
       </c>
       <c r="I19" t="n">
-        <v>3.56</v>
+        <v>6.25</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1025,16 +1025,16 @@
         <v>20.1</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G20" t="n">
-        <v>55.98</v>
+        <v>55.92</v>
       </c>
       <c r="H20" t="n">
-        <v>17.5</v>
+        <v>19.52</v>
       </c>
       <c r="I20" t="n">
-        <v>2.99</v>
+        <v>3.65</v>
       </c>
       <c r="J20" t="n">
         <v>1</v>
@@ -1057,19 +1057,19 @@
         <v>18.28</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G21" t="n">
-        <v>54.13</v>
+        <v>55.84</v>
       </c>
       <c r="H21" t="n">
-        <v>19.36</v>
+        <v>17.73</v>
       </c>
       <c r="I21" t="n">
-        <v>4.26</v>
+        <v>7.59</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1089,16 +1089,16 @@
         <v>22.35</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G22" t="n">
-        <v>54.73</v>
+        <v>60.69</v>
       </c>
       <c r="H22" t="n">
-        <v>17.95</v>
+        <v>17.66</v>
       </c>
       <c r="I22" t="n">
-        <v>4.99</v>
+        <v>5.77</v>
       </c>
       <c r="J22" t="n">
         <v>1</v>
@@ -1124,16 +1124,16 @@
         <v>12</v>
       </c>
       <c r="G23" t="n">
-        <v>56.2</v>
+        <v>57.55</v>
       </c>
       <c r="H23" t="n">
-        <v>15.72</v>
+        <v>15.05</v>
       </c>
       <c r="I23" t="n">
-        <v>3.51</v>
+        <v>6.04</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1156,16 +1156,16 @@
         <v>12</v>
       </c>
       <c r="G24" t="n">
-        <v>52.77</v>
+        <v>55.56</v>
       </c>
       <c r="H24" t="n">
-        <v>17.42</v>
+        <v>18.01</v>
       </c>
       <c r="I24" t="n">
-        <v>3.49</v>
+        <v>6.19</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1185,16 +1185,16 @@
         <v>19.94</v>
       </c>
       <c r="F25" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G25" t="n">
-        <v>55.8</v>
+        <v>58.21</v>
       </c>
       <c r="H25" t="n">
-        <v>16.84</v>
+        <v>15.23</v>
       </c>
       <c r="I25" t="n">
-        <v>4.2</v>
+        <v>5.06</v>
       </c>
       <c r="J25" t="n">
         <v>1</v>
@@ -1217,16 +1217,16 @@
         <v>21</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G26" t="n">
-        <v>61.76</v>
+        <v>56.23</v>
       </c>
       <c r="H26" t="n">
-        <v>16.49</v>
+        <v>19.91</v>
       </c>
       <c r="I26" t="n">
-        <v>7.08</v>
+        <v>6.08</v>
       </c>
       <c r="J26" t="n">
         <v>1</v>
@@ -1249,16 +1249,16 @@
         <v>21.08</v>
       </c>
       <c r="F27" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G27" t="n">
-        <v>60.29</v>
+        <v>60.72</v>
       </c>
       <c r="H27" t="n">
-        <v>17.13</v>
+        <v>19.88</v>
       </c>
       <c r="I27" t="n">
-        <v>4.67</v>
+        <v>7</v>
       </c>
       <c r="J27" t="n">
         <v>1</v>
@@ -1281,16 +1281,16 @@
         <v>22.75</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G28" t="n">
-        <v>57.64</v>
+        <v>54.67</v>
       </c>
       <c r="H28" t="n">
-        <v>20.12</v>
+        <v>18.34</v>
       </c>
       <c r="I28" t="n">
-        <v>3.74</v>
+        <v>4.86</v>
       </c>
       <c r="J28" t="n">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>16.63</v>
       </c>
       <c r="F29" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G29" t="n">
-        <v>55.36</v>
+        <v>49.84</v>
       </c>
       <c r="H29" t="n">
-        <v>19.59</v>
+        <v>16.6</v>
       </c>
       <c r="I29" t="n">
-        <v>5.36</v>
+        <v>5.8</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -1345,19 +1345,19 @@
         <v>18.71</v>
       </c>
       <c r="F30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G30" t="n">
-        <v>54.99</v>
+        <v>55.86</v>
       </c>
       <c r="H30" t="n">
-        <v>18.72</v>
+        <v>17.26</v>
       </c>
       <c r="I30" t="n">
-        <v>3.13</v>
+        <v>4.84</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1377,16 +1377,16 @@
         <v>22.35</v>
       </c>
       <c r="F31" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G31" t="n">
-        <v>53.36</v>
+        <v>51.95</v>
       </c>
       <c r="H31" t="n">
-        <v>16.73</v>
+        <v>17.31</v>
       </c>
       <c r="I31" t="n">
-        <v>5.91</v>
+        <v>4.15</v>
       </c>
       <c r="J31" t="n">
         <v>1</v>
@@ -1409,16 +1409,16 @@
         <v>23.59</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G32" t="n">
-        <v>55.97</v>
+        <v>60.93</v>
       </c>
       <c r="H32" t="n">
-        <v>21.24</v>
+        <v>20.88</v>
       </c>
       <c r="I32" t="n">
-        <v>3.64</v>
+        <v>5.16</v>
       </c>
       <c r="J32" t="n">
         <v>1</v>
@@ -1441,19 +1441,19 @@
         <v>20.57</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G33" t="n">
-        <v>61.73</v>
+        <v>57.88</v>
       </c>
       <c r="H33" t="n">
-        <v>20.22</v>
+        <v>17.73</v>
       </c>
       <c r="I33" t="n">
-        <v>6.41</v>
+        <v>7.47</v>
       </c>
       <c r="J33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1476,13 +1476,13 @@
         <v>12</v>
       </c>
       <c r="G34" t="n">
-        <v>61.36</v>
+        <v>58.35</v>
       </c>
       <c r="H34" t="n">
-        <v>21.89</v>
+        <v>20.69</v>
       </c>
       <c r="I34" t="n">
-        <v>3.35</v>
+        <v>6.7</v>
       </c>
       <c r="J34" t="n">
         <v>1</v>
@@ -1505,16 +1505,16 @@
         <v>22.18</v>
       </c>
       <c r="F35" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G35" t="n">
-        <v>60.5</v>
+        <v>58.19</v>
       </c>
       <c r="H35" t="n">
-        <v>20.5</v>
+        <v>20.1</v>
       </c>
       <c r="I35" t="n">
-        <v>6.44</v>
+        <v>5.69</v>
       </c>
       <c r="J35" t="n">
         <v>1</v>
@@ -1537,16 +1537,16 @@
         <v>21.96</v>
       </c>
       <c r="F36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G36" t="n">
-        <v>59.13</v>
+        <v>60.82</v>
       </c>
       <c r="H36" t="n">
-        <v>16.29</v>
+        <v>19.16</v>
       </c>
       <c r="I36" t="n">
-        <v>5.27</v>
+        <v>4.99</v>
       </c>
       <c r="J36" t="n">
         <v>1</v>
@@ -1572,13 +1572,13 @@
         <v>12</v>
       </c>
       <c r="G37" t="n">
-        <v>56.37</v>
+        <v>63.09</v>
       </c>
       <c r="H37" t="n">
         <v>18.03</v>
       </c>
       <c r="I37" t="n">
-        <v>5.12</v>
+        <v>6.32</v>
       </c>
       <c r="J37" t="n">
         <v>1</v>
@@ -1604,13 +1604,13 @@
         <v>12</v>
       </c>
       <c r="G38" t="n">
-        <v>58.69</v>
+        <v>52.3</v>
       </c>
       <c r="H38" t="n">
-        <v>19.62</v>
+        <v>18.32</v>
       </c>
       <c r="I38" t="n">
-        <v>4.2</v>
+        <v>3.65</v>
       </c>
       <c r="J38" t="n">
         <v>1</v>
@@ -1633,16 +1633,16 @@
         <v>22.55</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G39" t="n">
-        <v>56.16</v>
+        <v>57.57</v>
       </c>
       <c r="H39" t="n">
-        <v>15.45</v>
+        <v>18.48</v>
       </c>
       <c r="I39" t="n">
-        <v>6.89</v>
+        <v>1.61</v>
       </c>
       <c r="J39" t="n">
         <v>1</v>
@@ -1665,16 +1665,16 @@
         <v>21.24</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G40" t="n">
-        <v>53.74</v>
+        <v>61.27</v>
       </c>
       <c r="H40" t="n">
-        <v>16.11</v>
+        <v>17.52</v>
       </c>
       <c r="I40" t="n">
-        <v>7.73</v>
+        <v>3.98</v>
       </c>
       <c r="J40" t="n">
         <v>1</v>
@@ -1700,16 +1700,16 @@
         <v>12</v>
       </c>
       <c r="G41" t="n">
-        <v>62.46</v>
+        <v>52.13</v>
       </c>
       <c r="H41" t="n">
-        <v>15.18</v>
+        <v>15.63</v>
       </c>
       <c r="I41" t="n">
-        <v>2.95</v>
+        <v>3.94</v>
       </c>
       <c r="J41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1732,13 +1732,13 @@
         <v>12</v>
       </c>
       <c r="G42" t="n">
-        <v>56.63</v>
+        <v>61.64</v>
       </c>
       <c r="H42" t="n">
-        <v>20.27</v>
+        <v>19.25</v>
       </c>
       <c r="I42" t="n">
-        <v>5.49</v>
+        <v>4.63</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -1764,13 +1764,13 @@
         <v>12</v>
       </c>
       <c r="G43" t="n">
-        <v>55.59</v>
+        <v>58.92</v>
       </c>
       <c r="H43" t="n">
-        <v>19.5</v>
+        <v>20.98</v>
       </c>
       <c r="I43" t="n">
-        <v>5.81</v>
+        <v>5.25</v>
       </c>
       <c r="J43" t="n">
         <v>1</v>
@@ -1793,19 +1793,19 @@
         <v>20.79</v>
       </c>
       <c r="F44" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G44" t="n">
-        <v>57.06</v>
+        <v>55.97</v>
       </c>
       <c r="H44" t="n">
-        <v>18.47</v>
+        <v>18.27</v>
       </c>
       <c r="I44" t="n">
-        <v>4.82</v>
+        <v>3.26</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1825,16 +1825,16 @@
         <v>21.07</v>
       </c>
       <c r="F45" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G45" t="n">
-        <v>53.73</v>
+        <v>57.16</v>
       </c>
       <c r="H45" t="n">
-        <v>15.66</v>
+        <v>19.6</v>
       </c>
       <c r="I45" t="n">
-        <v>4.87</v>
+        <v>4.56</v>
       </c>
       <c r="J45" t="n">
         <v>1</v>
@@ -1860,13 +1860,13 @@
         <v>12</v>
       </c>
       <c r="G46" t="n">
-        <v>58.3</v>
+        <v>53.02</v>
       </c>
       <c r="H46" t="n">
-        <v>19.58</v>
+        <v>19.6</v>
       </c>
       <c r="I46" t="n">
-        <v>3.86</v>
+        <v>4.96</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>12</v>
       </c>
       <c r="G47" t="n">
-        <v>53.15</v>
+        <v>57.77</v>
       </c>
       <c r="H47" t="n">
-        <v>17.59</v>
+        <v>19.34</v>
       </c>
       <c r="I47" t="n">
-        <v>3.71</v>
+        <v>4.71</v>
       </c>
       <c r="J47" t="n">
         <v>0</v>
@@ -1921,16 +1921,16 @@
         <v>19.29</v>
       </c>
       <c r="F48" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G48" t="n">
-        <v>54.79</v>
+        <v>59.22</v>
       </c>
       <c r="H48" t="n">
-        <v>16.29</v>
+        <v>16.22</v>
       </c>
       <c r="I48" t="n">
-        <v>6.11</v>
+        <v>3.28</v>
       </c>
       <c r="J48" t="n">
         <v>0</v>
@@ -1953,16 +1953,16 @@
         <v>19.49</v>
       </c>
       <c r="F49" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G49" t="n">
-        <v>56.66</v>
+        <v>54.66</v>
       </c>
       <c r="H49" t="n">
-        <v>17.73</v>
+        <v>19.2</v>
       </c>
       <c r="I49" t="n">
-        <v>3.53</v>
+        <v>3.67</v>
       </c>
       <c r="J49" t="n">
         <v>0</v>
@@ -1985,16 +1985,16 @@
         <v>18.56</v>
       </c>
       <c r="F50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G50" t="n">
-        <v>50.97</v>
+        <v>56.75</v>
       </c>
       <c r="H50" t="n">
-        <v>18.41</v>
+        <v>18.68</v>
       </c>
       <c r="I50" t="n">
-        <v>2.14</v>
+        <v>10.13</v>
       </c>
       <c r="J50" t="n">
         <v>0</v>
@@ -2017,16 +2017,16 @@
         <v>17.81</v>
       </c>
       <c r="F51" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G51" t="n">
-        <v>56.06</v>
+        <v>57.1</v>
       </c>
       <c r="H51" t="n">
-        <v>15.46</v>
+        <v>16.14</v>
       </c>
       <c r="I51" t="n">
-        <v>5.33</v>
+        <v>5.75</v>
       </c>
       <c r="J51" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>18.11</v>
       </c>
       <c r="F52" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G52" t="n">
-        <v>54.91</v>
+        <v>56.16</v>
       </c>
       <c r="H52" t="n">
-        <v>18.69</v>
+        <v>18.19</v>
       </c>
       <c r="I52" t="n">
-        <v>4.41</v>
+        <v>5.67</v>
       </c>
       <c r="J52" t="n">
         <v>0</v>
@@ -2084,16 +2084,16 @@
         <v>17</v>
       </c>
       <c r="G53" t="n">
-        <v>56.54</v>
+        <v>53.25</v>
       </c>
       <c r="H53" t="n">
-        <v>16.51</v>
+        <v>16.61</v>
       </c>
       <c r="I53" t="n">
-        <v>5.4</v>
+        <v>4.2</v>
       </c>
       <c r="J53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2113,16 +2113,16 @@
         <v>17.44</v>
       </c>
       <c r="F54" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G54" t="n">
-        <v>50.73</v>
+        <v>57.2</v>
       </c>
       <c r="H54" t="n">
-        <v>19.01</v>
+        <v>17.26</v>
       </c>
       <c r="I54" t="n">
-        <v>3.48</v>
+        <v>6.04</v>
       </c>
       <c r="J54" t="n">
         <v>0</v>
@@ -2148,16 +2148,16 @@
         <v>17</v>
       </c>
       <c r="G55" t="n">
-        <v>59.56</v>
+        <v>55.97</v>
       </c>
       <c r="H55" t="n">
-        <v>19.22</v>
+        <v>17.58</v>
       </c>
       <c r="I55" t="n">
-        <v>4.87</v>
+        <v>4.92</v>
       </c>
       <c r="J55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2177,19 +2177,19 @@
         <v>19.42</v>
       </c>
       <c r="F56" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G56" t="n">
-        <v>53.79</v>
+        <v>59.58</v>
       </c>
       <c r="H56" t="n">
-        <v>20.24</v>
+        <v>17.57</v>
       </c>
       <c r="I56" t="n">
-        <v>3.72</v>
+        <v>6.25</v>
       </c>
       <c r="J56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2212,16 +2212,16 @@
         <v>12</v>
       </c>
       <c r="G57" t="n">
-        <v>57.12</v>
+        <v>55.68</v>
       </c>
       <c r="H57" t="n">
-        <v>16.02</v>
+        <v>19.31</v>
       </c>
       <c r="I57" t="n">
-        <v>5.95</v>
+        <v>4.58</v>
       </c>
       <c r="J57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2241,16 +2241,16 @@
         <v>18.35</v>
       </c>
       <c r="F58" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G58" t="n">
-        <v>62.45</v>
+        <v>58.39</v>
       </c>
       <c r="H58" t="n">
-        <v>20.68</v>
+        <v>17.52</v>
       </c>
       <c r="I58" t="n">
-        <v>6.16</v>
+        <v>4.75</v>
       </c>
       <c r="J58" t="n">
         <v>1</v>
@@ -2273,16 +2273,16 @@
         <v>21.73</v>
       </c>
       <c r="F59" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G59" t="n">
-        <v>59.6</v>
+        <v>55.69</v>
       </c>
       <c r="H59" t="n">
-        <v>18.68</v>
+        <v>14.8</v>
       </c>
       <c r="I59" t="n">
-        <v>4.46</v>
+        <v>4.91</v>
       </c>
       <c r="J59" t="n">
         <v>1</v>
@@ -2305,16 +2305,16 @@
         <v>20.19</v>
       </c>
       <c r="F60" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G60" t="n">
-        <v>55.17</v>
+        <v>54.1</v>
       </c>
       <c r="H60" t="n">
-        <v>19.32</v>
+        <v>18.91</v>
       </c>
       <c r="I60" t="n">
-        <v>5.3</v>
+        <v>3.85</v>
       </c>
       <c r="J60" t="n">
         <v>1</v>
@@ -2340,13 +2340,13 @@
         <v>12</v>
       </c>
       <c r="G61" t="n">
-        <v>57.77</v>
+        <v>58.65</v>
       </c>
       <c r="H61" t="n">
-        <v>18.12</v>
+        <v>21.69</v>
       </c>
       <c r="I61" t="n">
-        <v>5.33</v>
+        <v>6.77</v>
       </c>
       <c r="J61" t="n">
         <v>1</v>
@@ -2372,13 +2372,13 @@
         <v>12</v>
       </c>
       <c r="G62" t="n">
-        <v>57.52</v>
+        <v>56.47</v>
       </c>
       <c r="H62" t="n">
-        <v>17.89</v>
+        <v>18.71</v>
       </c>
       <c r="I62" t="n">
-        <v>7.41</v>
+        <v>5.03</v>
       </c>
       <c r="J62" t="n">
         <v>1</v>
@@ -2404,13 +2404,13 @@
         <v>12</v>
       </c>
       <c r="G63" t="n">
-        <v>57.75</v>
+        <v>54.93</v>
       </c>
       <c r="H63" t="n">
-        <v>20.9</v>
+        <v>16.95</v>
       </c>
       <c r="I63" t="n">
-        <v>6.77</v>
+        <v>4.65</v>
       </c>
       <c r="J63" t="n">
         <v>1</v>
@@ -2433,16 +2433,16 @@
         <v>20.56</v>
       </c>
       <c r="F64" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G64" t="n">
-        <v>51.91</v>
+        <v>55.24</v>
       </c>
       <c r="H64" t="n">
-        <v>20.03</v>
+        <v>18.69</v>
       </c>
       <c r="I64" t="n">
-        <v>4.47</v>
+        <v>3.82</v>
       </c>
       <c r="J64" t="n">
         <v>1</v>
@@ -2468,16 +2468,16 @@
         <v>12</v>
       </c>
       <c r="G65" t="n">
-        <v>61.43</v>
+        <v>58.21</v>
       </c>
       <c r="H65" t="n">
-        <v>17.1</v>
+        <v>18.78</v>
       </c>
       <c r="I65" t="n">
-        <v>2.67</v>
+        <v>2.8</v>
       </c>
       <c r="J65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2500,16 +2500,16 @@
         <v>12</v>
       </c>
       <c r="G66" t="n">
-        <v>52.15</v>
+        <v>52.78</v>
       </c>
       <c r="H66" t="n">
-        <v>18.86</v>
+        <v>20.25</v>
       </c>
       <c r="I66" t="n">
-        <v>2.32</v>
+        <v>6.3</v>
       </c>
       <c r="J66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2529,19 +2529,19 @@
         <v>19.37</v>
       </c>
       <c r="F67" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G67" t="n">
-        <v>55.94</v>
+        <v>63.69</v>
       </c>
       <c r="H67" t="n">
-        <v>15.93</v>
+        <v>19.39</v>
       </c>
       <c r="I67" t="n">
-        <v>4.3</v>
+        <v>5.04</v>
       </c>
       <c r="J67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2564,13 +2564,13 @@
         <v>12</v>
       </c>
       <c r="G68" t="n">
-        <v>51.89</v>
+        <v>50.72</v>
       </c>
       <c r="H68" t="n">
-        <v>18.43</v>
+        <v>17.99</v>
       </c>
       <c r="I68" t="n">
-        <v>6.44</v>
+        <v>6.29</v>
       </c>
       <c r="J68" t="n">
         <v>1</v>
@@ -2593,16 +2593,16 @@
         <v>20.44</v>
       </c>
       <c r="F69" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G69" t="n">
-        <v>55.67</v>
+        <v>56.08</v>
       </c>
       <c r="H69" t="n">
-        <v>17.13</v>
+        <v>18.96</v>
       </c>
       <c r="I69" t="n">
-        <v>5.52</v>
+        <v>5.07</v>
       </c>
       <c r="J69" t="n">
         <v>1</v>
@@ -2625,16 +2625,16 @@
         <v>20.51</v>
       </c>
       <c r="F70" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G70" t="n">
-        <v>57.13</v>
+        <v>59.59</v>
       </c>
       <c r="H70" t="n">
-        <v>17.19</v>
+        <v>17.18</v>
       </c>
       <c r="I70" t="n">
-        <v>3.24</v>
+        <v>3.63</v>
       </c>
       <c r="J70" t="n">
         <v>1</v>
@@ -2660,16 +2660,16 @@
         <v>12</v>
       </c>
       <c r="G71" t="n">
-        <v>57.34</v>
+        <v>55.54</v>
       </c>
       <c r="H71" t="n">
-        <v>17.31</v>
+        <v>15.95</v>
       </c>
       <c r="I71" t="n">
-        <v>4.86</v>
+        <v>5.71</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2692,13 +2692,13 @@
         <v>17</v>
       </c>
       <c r="G72" t="n">
-        <v>53.18</v>
+        <v>52.31</v>
       </c>
       <c r="H72" t="n">
-        <v>20.57</v>
+        <v>18.76</v>
       </c>
       <c r="I72" t="n">
-        <v>5.25</v>
+        <v>6.77</v>
       </c>
       <c r="J72" t="n">
         <v>1</v>
@@ -2724,13 +2724,13 @@
         <v>12</v>
       </c>
       <c r="G73" t="n">
-        <v>51.31</v>
+        <v>48.51</v>
       </c>
       <c r="H73" t="n">
-        <v>17.52</v>
+        <v>18.56</v>
       </c>
       <c r="I73" t="n">
-        <v>6.39</v>
+        <v>5.55</v>
       </c>
       <c r="J73" t="n">
         <v>1</v>
@@ -2753,19 +2753,19 @@
         <v>21.78</v>
       </c>
       <c r="F74" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G74" t="n">
-        <v>56.91</v>
+        <v>50.89</v>
       </c>
       <c r="H74" t="n">
-        <v>18.97</v>
+        <v>17.49</v>
       </c>
       <c r="I74" t="n">
-        <v>5.31</v>
+        <v>7.63</v>
       </c>
       <c r="J74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2785,19 +2785,19 @@
         <v>20.93</v>
       </c>
       <c r="F75" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G75" t="n">
-        <v>63.71</v>
+        <v>57.21</v>
       </c>
       <c r="H75" t="n">
-        <v>18.09</v>
+        <v>16.31</v>
       </c>
       <c r="I75" t="n">
-        <v>4.18</v>
+        <v>4.36</v>
       </c>
       <c r="J75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2817,19 +2817,19 @@
         <v>19.43</v>
       </c>
       <c r="F76" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G76" t="n">
-        <v>56.06</v>
+        <v>60.79</v>
       </c>
       <c r="H76" t="n">
-        <v>18.09</v>
+        <v>19.26</v>
       </c>
       <c r="I76" t="n">
-        <v>5.31</v>
+        <v>7.24</v>
       </c>
       <c r="J76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2852,13 +2852,13 @@
         <v>17</v>
       </c>
       <c r="G77" t="n">
-        <v>50.72</v>
+        <v>57.57</v>
       </c>
       <c r="H77" t="n">
-        <v>18.11</v>
+        <v>16.9</v>
       </c>
       <c r="I77" t="n">
-        <v>6.99</v>
+        <v>3.68</v>
       </c>
       <c r="J77" t="n">
         <v>1</v>
@@ -2884,13 +2884,13 @@
         <v>12</v>
       </c>
       <c r="G78" t="n">
-        <v>60.77</v>
+        <v>57.86</v>
       </c>
       <c r="H78" t="n">
-        <v>17.91</v>
+        <v>18.03</v>
       </c>
       <c r="I78" t="n">
-        <v>5.99</v>
+        <v>6.58</v>
       </c>
       <c r="J78" t="n">
         <v>0</v>
@@ -2913,16 +2913,16 @@
         <v>17.71</v>
       </c>
       <c r="F79" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G79" t="n">
-        <v>51.54</v>
+        <v>58.59</v>
       </c>
       <c r="H79" t="n">
-        <v>19.44</v>
+        <v>17.58</v>
       </c>
       <c r="I79" t="n">
-        <v>7.02</v>
+        <v>4.43</v>
       </c>
       <c r="J79" t="n">
         <v>0</v>
@@ -2948,13 +2948,13 @@
         <v>12</v>
       </c>
       <c r="G80" t="n">
-        <v>53.39</v>
+        <v>61.24</v>
       </c>
       <c r="H80" t="n">
-        <v>18.89</v>
+        <v>17.82</v>
       </c>
       <c r="I80" t="n">
-        <v>6.02</v>
+        <v>4.36</v>
       </c>
       <c r="J80" t="n">
         <v>0</v>
@@ -2977,19 +2977,19 @@
         <v>19.08</v>
       </c>
       <c r="F81" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G81" t="n">
-        <v>54.64</v>
+        <v>62.41</v>
       </c>
       <c r="H81" t="n">
-        <v>18.11</v>
+        <v>19.67</v>
       </c>
       <c r="I81" t="n">
-        <v>3.33</v>
+        <v>6.2</v>
       </c>
       <c r="J81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -3009,19 +3009,19 @@
         <v>21.55</v>
       </c>
       <c r="F82" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G82" t="n">
-        <v>55.32</v>
+        <v>59.39</v>
       </c>
       <c r="H82" t="n">
-        <v>21.98</v>
+        <v>18.44</v>
       </c>
       <c r="I82" t="n">
-        <v>5.84</v>
+        <v>2.89</v>
       </c>
       <c r="J82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3041,16 +3041,16 @@
         <v>21.57</v>
       </c>
       <c r="F83" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G83" t="n">
-        <v>54.77</v>
+        <v>55.43</v>
       </c>
       <c r="H83" t="n">
-        <v>18.92</v>
+        <v>18.57</v>
       </c>
       <c r="I83" t="n">
-        <v>5.21</v>
+        <v>5.34</v>
       </c>
       <c r="J83" t="n">
         <v>1</v>
@@ -3076,16 +3076,16 @@
         <v>12</v>
       </c>
       <c r="G84" t="n">
-        <v>53.79</v>
+        <v>59.07</v>
       </c>
       <c r="H84" t="n">
-        <v>17.2</v>
+        <v>17.45</v>
       </c>
       <c r="I84" t="n">
-        <v>5.71</v>
+        <v>5.31</v>
       </c>
       <c r="J84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3105,16 +3105,16 @@
         <v>20.01</v>
       </c>
       <c r="F85" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G85" t="n">
-        <v>52.34</v>
+        <v>57.31</v>
       </c>
       <c r="H85" t="n">
-        <v>20.94</v>
+        <v>18.16</v>
       </c>
       <c r="I85" t="n">
-        <v>3.58</v>
+        <v>8.23</v>
       </c>
       <c r="J85" t="n">
         <v>1</v>
@@ -3140,13 +3140,13 @@
         <v>12</v>
       </c>
       <c r="G86" t="n">
-        <v>60.02</v>
+        <v>59.84</v>
       </c>
       <c r="H86" t="n">
-        <v>18.42</v>
+        <v>21.58</v>
       </c>
       <c r="I86" t="n">
-        <v>5.55</v>
+        <v>6.73</v>
       </c>
       <c r="J86" t="n">
         <v>1</v>
@@ -3169,16 +3169,16 @@
         <v>18.34</v>
       </c>
       <c r="F87" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G87" t="n">
-        <v>56.64</v>
+        <v>55.28</v>
       </c>
       <c r="H87" t="n">
-        <v>17.79</v>
+        <v>17.59</v>
       </c>
       <c r="I87" t="n">
-        <v>4.8</v>
+        <v>2.68</v>
       </c>
       <c r="J87" t="n">
         <v>0</v>
@@ -3201,19 +3201,19 @@
         <v>21.59</v>
       </c>
       <c r="F88" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G88" t="n">
-        <v>60.76</v>
+        <v>52.9</v>
       </c>
       <c r="H88" t="n">
-        <v>16.91</v>
+        <v>18.86</v>
       </c>
       <c r="I88" t="n">
-        <v>7.59</v>
+        <v>5.06</v>
       </c>
       <c r="J88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3233,19 +3233,19 @@
         <v>18.72</v>
       </c>
       <c r="F89" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G89" t="n">
-        <v>58.39</v>
+        <v>53.75</v>
       </c>
       <c r="H89" t="n">
-        <v>17.21</v>
+        <v>18.68</v>
       </c>
       <c r="I89" t="n">
-        <v>6.23</v>
+        <v>4.97</v>
       </c>
       <c r="J89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -3268,13 +3268,13 @@
         <v>17</v>
       </c>
       <c r="G90" t="n">
-        <v>59.7</v>
+        <v>59.38</v>
       </c>
       <c r="H90" t="n">
-        <v>16.74</v>
+        <v>19.9</v>
       </c>
       <c r="I90" t="n">
-        <v>8.2</v>
+        <v>3.72</v>
       </c>
       <c r="J90" t="n">
         <v>1</v>
@@ -3297,19 +3297,19 @@
         <v>19.08</v>
       </c>
       <c r="F91" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G91" t="n">
-        <v>57.75</v>
+        <v>52.59</v>
       </c>
       <c r="H91" t="n">
-        <v>18.42</v>
+        <v>19.63</v>
       </c>
       <c r="I91" t="n">
-        <v>6.39</v>
+        <v>6.58</v>
       </c>
       <c r="J91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3329,16 +3329,16 @@
         <v>16.99</v>
       </c>
       <c r="F92" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G92" t="n">
-        <v>58.76</v>
+        <v>59.72</v>
       </c>
       <c r="H92" t="n">
-        <v>19.56</v>
+        <v>17.25</v>
       </c>
       <c r="I92" t="n">
-        <v>5.08</v>
+        <v>4.16</v>
       </c>
       <c r="J92" t="n">
         <v>0</v>
@@ -3364,16 +3364,16 @@
         <v>12</v>
       </c>
       <c r="G93" t="n">
-        <v>53.28</v>
+        <v>61.19</v>
       </c>
       <c r="H93" t="n">
-        <v>17.56</v>
+        <v>16.37</v>
       </c>
       <c r="I93" t="n">
-        <v>3.53</v>
+        <v>4.79</v>
       </c>
       <c r="J93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3393,19 +3393,19 @@
         <v>20.46</v>
       </c>
       <c r="F94" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G94" t="n">
-        <v>51.88</v>
+        <v>56.39</v>
       </c>
       <c r="H94" t="n">
-        <v>18.11</v>
+        <v>20.92</v>
       </c>
       <c r="I94" t="n">
-        <v>4.56</v>
+        <v>4.17</v>
       </c>
       <c r="J94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3428,16 +3428,16 @@
         <v>12</v>
       </c>
       <c r="G95" t="n">
-        <v>57.56</v>
+        <v>54.17</v>
       </c>
       <c r="H95" t="n">
-        <v>17.09</v>
+        <v>21.42</v>
       </c>
       <c r="I95" t="n">
-        <v>4.36</v>
+        <v>4.82</v>
       </c>
       <c r="J95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3457,16 +3457,16 @@
         <v>20.75</v>
       </c>
       <c r="F96" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G96" t="n">
-        <v>62.58</v>
+        <v>58.54</v>
       </c>
       <c r="H96" t="n">
-        <v>18.51</v>
+        <v>20.39</v>
       </c>
       <c r="I96" t="n">
-        <v>4.05</v>
+        <v>4.16</v>
       </c>
       <c r="J96" t="n">
         <v>1</v>
@@ -3492,13 +3492,13 @@
         <v>12</v>
       </c>
       <c r="G97" t="n">
-        <v>58.23</v>
+        <v>57.02</v>
       </c>
       <c r="H97" t="n">
-        <v>19.22</v>
+        <v>20.9</v>
       </c>
       <c r="I97" t="n">
-        <v>6.78</v>
+        <v>5.9</v>
       </c>
       <c r="J97" t="n">
         <v>0</v>
@@ -3521,16 +3521,16 @@
         <v>20.18</v>
       </c>
       <c r="F98" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G98" t="n">
-        <v>52.24</v>
+        <v>57.47</v>
       </c>
       <c r="H98" t="n">
-        <v>19.4</v>
+        <v>19.61</v>
       </c>
       <c r="I98" t="n">
-        <v>5.17</v>
+        <v>6.98</v>
       </c>
       <c r="J98" t="n">
         <v>1</v>
@@ -3556,16 +3556,16 @@
         <v>12</v>
       </c>
       <c r="G99" t="n">
-        <v>53.04</v>
+        <v>54.61</v>
       </c>
       <c r="H99" t="n">
-        <v>17.01</v>
+        <v>17.54</v>
       </c>
       <c r="I99" t="n">
-        <v>4.78</v>
+        <v>6.36</v>
       </c>
       <c r="J99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3585,16 +3585,16 @@
         <v>18.39</v>
       </c>
       <c r="F100" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G100" t="n">
-        <v>55.58</v>
+        <v>57.51</v>
       </c>
       <c r="H100" t="n">
-        <v>17.37</v>
+        <v>17.87</v>
       </c>
       <c r="I100" t="n">
-        <v>7.21</v>
+        <v>3.5</v>
       </c>
       <c r="J100" t="n">
         <v>0</v>
@@ -3617,16 +3617,16 @@
         <v>18.04</v>
       </c>
       <c r="F101" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G101" t="n">
-        <v>59.76</v>
+        <v>55.41</v>
       </c>
       <c r="H101" t="n">
-        <v>21.36</v>
+        <v>18.63</v>
       </c>
       <c r="I101" t="n">
-        <v>3.68</v>
+        <v>3.48</v>
       </c>
       <c r="J101" t="n">
         <v>0</v>
@@ -3649,16 +3649,16 @@
         <v>20.3</v>
       </c>
       <c r="F102" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G102" t="n">
-        <v>63.36</v>
+        <v>60.79</v>
       </c>
       <c r="H102" t="n">
-        <v>18.49</v>
+        <v>19.28</v>
       </c>
       <c r="I102" t="n">
-        <v>5.76</v>
+        <v>7.16</v>
       </c>
       <c r="J102" t="n">
         <v>1</v>
@@ -3681,19 +3681,19 @@
         <v>20.55</v>
       </c>
       <c r="F103" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G103" t="n">
-        <v>57.23</v>
+        <v>57.58</v>
       </c>
       <c r="H103" t="n">
-        <v>19.28</v>
+        <v>21.17</v>
       </c>
       <c r="I103" t="n">
-        <v>4.33</v>
+        <v>2.94</v>
       </c>
       <c r="J103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -3713,16 +3713,16 @@
         <v>21.96</v>
       </c>
       <c r="F104" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G104" t="n">
-        <v>54.35</v>
+        <v>59</v>
       </c>
       <c r="H104" t="n">
-        <v>19.55</v>
+        <v>16.63</v>
       </c>
       <c r="I104" t="n">
-        <v>4.53</v>
+        <v>7.21</v>
       </c>
       <c r="J104" t="n">
         <v>1</v>
@@ -3745,16 +3745,16 @@
         <v>22.76</v>
       </c>
       <c r="F105" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G105" t="n">
-        <v>60.11</v>
+        <v>60.9</v>
       </c>
       <c r="H105" t="n">
-        <v>17.93</v>
+        <v>17.54</v>
       </c>
       <c r="I105" t="n">
-        <v>7</v>
+        <v>1.8</v>
       </c>
       <c r="J105" t="n">
         <v>1</v>
@@ -3777,19 +3777,19 @@
         <v>18.32</v>
       </c>
       <c r="F106" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G106" t="n">
-        <v>62.76</v>
+        <v>58.75</v>
       </c>
       <c r="H106" t="n">
-        <v>18.27</v>
+        <v>19.71</v>
       </c>
       <c r="I106" t="n">
-        <v>5.07</v>
+        <v>4.05</v>
       </c>
       <c r="J106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -3812,13 +3812,13 @@
         <v>12</v>
       </c>
       <c r="G107" t="n">
-        <v>59.6</v>
+        <v>56.26</v>
       </c>
       <c r="H107" t="n">
-        <v>17.07</v>
+        <v>19.02</v>
       </c>
       <c r="I107" t="n">
-        <v>2.99</v>
+        <v>5.87</v>
       </c>
       <c r="J107" t="n">
         <v>1</v>
@@ -3841,16 +3841,16 @@
         <v>19.35</v>
       </c>
       <c r="F108" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G108" t="n">
-        <v>56.68</v>
+        <v>59.41</v>
       </c>
       <c r="H108" t="n">
-        <v>17.32</v>
+        <v>21.2</v>
       </c>
       <c r="I108" t="n">
-        <v>6.27</v>
+        <v>6.22</v>
       </c>
       <c r="J108" t="n">
         <v>0</v>
@@ -3876,16 +3876,16 @@
         <v>12</v>
       </c>
       <c r="G109" t="n">
-        <v>58.64</v>
+        <v>47.67</v>
       </c>
       <c r="H109" t="n">
-        <v>16.79</v>
+        <v>18.87</v>
       </c>
       <c r="I109" t="n">
-        <v>2.77</v>
+        <v>6.44</v>
       </c>
       <c r="J109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -3908,13 +3908,13 @@
         <v>12</v>
       </c>
       <c r="G110" t="n">
-        <v>54.89</v>
+        <v>57.99</v>
       </c>
       <c r="H110" t="n">
-        <v>17.15</v>
+        <v>17.74</v>
       </c>
       <c r="I110" t="n">
-        <v>5.64</v>
+        <v>4.03</v>
       </c>
       <c r="J110" t="n">
         <v>1</v>
@@ -3940,16 +3940,16 @@
         <v>12</v>
       </c>
       <c r="G111" t="n">
-        <v>58.81</v>
+        <v>51.01</v>
       </c>
       <c r="H111" t="n">
-        <v>19.01</v>
+        <v>19.95</v>
       </c>
       <c r="I111" t="n">
-        <v>6.65</v>
+        <v>6.58</v>
       </c>
       <c r="J111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -3969,19 +3969,19 @@
         <v>19.73</v>
       </c>
       <c r="F112" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G112" t="n">
-        <v>58.98</v>
+        <v>56.81</v>
       </c>
       <c r="H112" t="n">
-        <v>19.06</v>
+        <v>16.75</v>
       </c>
       <c r="I112" t="n">
-        <v>6.94</v>
+        <v>4.06</v>
       </c>
       <c r="J112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -4001,16 +4001,16 @@
         <v>17.69</v>
       </c>
       <c r="F113" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G113" t="n">
-        <v>55.6</v>
+        <v>54.65</v>
       </c>
       <c r="H113" t="n">
-        <v>21.33</v>
+        <v>17.91</v>
       </c>
       <c r="I113" t="n">
-        <v>6.95</v>
+        <v>3.35</v>
       </c>
       <c r="J113" t="n">
         <v>0</v>
@@ -4033,16 +4033,16 @@
         <v>20.79</v>
       </c>
       <c r="F114" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G114" t="n">
-        <v>57.59</v>
+        <v>53.02</v>
       </c>
       <c r="H114" t="n">
-        <v>16.23</v>
+        <v>18.81</v>
       </c>
       <c r="I114" t="n">
-        <v>4.82</v>
+        <v>4.16</v>
       </c>
       <c r="J114" t="n">
         <v>1</v>
@@ -4068,13 +4068,13 @@
         <v>17</v>
       </c>
       <c r="G115" t="n">
-        <v>57.81</v>
+        <v>57.3</v>
       </c>
       <c r="H115" t="n">
-        <v>20.68</v>
+        <v>17.17</v>
       </c>
       <c r="I115" t="n">
-        <v>4.08</v>
+        <v>3.94</v>
       </c>
       <c r="J115" t="n">
         <v>0</v>
@@ -4097,16 +4097,16 @@
         <v>19.24</v>
       </c>
       <c r="F116" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G116" t="n">
-        <v>59.39</v>
+        <v>51.2</v>
       </c>
       <c r="H116" t="n">
-        <v>16.52</v>
+        <v>18.99</v>
       </c>
       <c r="I116" t="n">
-        <v>4.83</v>
+        <v>4.22</v>
       </c>
       <c r="J116" t="n">
         <v>0</v>
@@ -4132,13 +4132,13 @@
         <v>18</v>
       </c>
       <c r="G117" t="n">
-        <v>50.77</v>
+        <v>55.08</v>
       </c>
       <c r="H117" t="n">
-        <v>18.43</v>
+        <v>17.98</v>
       </c>
       <c r="I117" t="n">
-        <v>5.54</v>
+        <v>7.36</v>
       </c>
       <c r="J117" t="n">
         <v>0</v>
@@ -4161,16 +4161,16 @@
         <v>19.64</v>
       </c>
       <c r="F118" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G118" t="n">
-        <v>54.22</v>
+        <v>62.6</v>
       </c>
       <c r="H118" t="n">
-        <v>20.9</v>
+        <v>18.28</v>
       </c>
       <c r="I118" t="n">
-        <v>5.32</v>
+        <v>3.33</v>
       </c>
       <c r="J118" t="n">
         <v>1</v>
@@ -4193,19 +4193,19 @@
         <v>20.8</v>
       </c>
       <c r="F119" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G119" t="n">
-        <v>55.12</v>
+        <v>53.87</v>
       </c>
       <c r="H119" t="n">
-        <v>16.89</v>
+        <v>17.96</v>
       </c>
       <c r="I119" t="n">
-        <v>3.41</v>
+        <v>4.17</v>
       </c>
       <c r="J119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -4225,16 +4225,16 @@
         <v>20.43</v>
       </c>
       <c r="F120" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G120" t="n">
-        <v>51.26</v>
+        <v>58.84</v>
       </c>
       <c r="H120" t="n">
         <v>18.79</v>
       </c>
       <c r="I120" t="n">
-        <v>4.34</v>
+        <v>3.53</v>
       </c>
       <c r="J120" t="n">
         <v>1</v>
@@ -4260,16 +4260,16 @@
         <v>12</v>
       </c>
       <c r="G121" t="n">
-        <v>58.36</v>
+        <v>63.5</v>
       </c>
       <c r="H121" t="n">
-        <v>17.12</v>
+        <v>22.8</v>
       </c>
       <c r="I121" t="n">
-        <v>4.57</v>
+        <v>4.63</v>
       </c>
       <c r="J121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -4292,13 +4292,13 @@
         <v>12</v>
       </c>
       <c r="G122" t="n">
-        <v>57.69</v>
+        <v>56.9</v>
       </c>
       <c r="H122" t="n">
-        <v>16.82</v>
+        <v>17.47</v>
       </c>
       <c r="I122" t="n">
-        <v>4.2</v>
+        <v>6.13</v>
       </c>
       <c r="J122" t="n">
         <v>0</v>
@@ -4324,13 +4324,13 @@
         <v>12</v>
       </c>
       <c r="G123" t="n">
-        <v>59.14</v>
+        <v>54.58</v>
       </c>
       <c r="H123" t="n">
-        <v>20.45</v>
+        <v>17.57</v>
       </c>
       <c r="I123" t="n">
-        <v>4.43</v>
+        <v>6.72</v>
       </c>
       <c r="J123" t="n">
         <v>0</v>
@@ -4353,16 +4353,16 @@
         <v>20.66</v>
       </c>
       <c r="F124" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G124" t="n">
-        <v>59.9</v>
+        <v>58.59</v>
       </c>
       <c r="H124" t="n">
-        <v>20.5</v>
+        <v>17.28</v>
       </c>
       <c r="I124" t="n">
-        <v>2.84</v>
+        <v>3.05</v>
       </c>
       <c r="J124" t="n">
         <v>1</v>
@@ -4388,16 +4388,16 @@
         <v>12</v>
       </c>
       <c r="G125" t="n">
-        <v>57.22</v>
+        <v>59.83</v>
       </c>
       <c r="H125" t="n">
-        <v>19.32</v>
+        <v>16.68</v>
       </c>
       <c r="I125" t="n">
-        <v>4.83</v>
+        <v>7.66</v>
       </c>
       <c r="J125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -4420,13 +4420,13 @@
         <v>17</v>
       </c>
       <c r="G126" t="n">
-        <v>59.71</v>
+        <v>56.48</v>
       </c>
       <c r="H126" t="n">
-        <v>18.98</v>
+        <v>18.07</v>
       </c>
       <c r="I126" t="n">
-        <v>5.51</v>
+        <v>5.6</v>
       </c>
       <c r="J126" t="n">
         <v>1</v>
@@ -4452,16 +4452,16 @@
         <v>17</v>
       </c>
       <c r="G127" t="n">
-        <v>58.6</v>
+        <v>57.38</v>
       </c>
       <c r="H127" t="n">
-        <v>17</v>
+        <v>16.54</v>
       </c>
       <c r="I127" t="n">
-        <v>4.76</v>
+        <v>4.54</v>
       </c>
       <c r="J127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -4481,19 +4481,19 @@
         <v>17.44</v>
       </c>
       <c r="F128" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G128" t="n">
-        <v>58.72</v>
+        <v>58.56</v>
       </c>
       <c r="H128" t="n">
-        <v>19.43</v>
+        <v>17.55</v>
       </c>
       <c r="I128" t="n">
-        <v>3.94</v>
+        <v>5.04</v>
       </c>
       <c r="J128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -4516,13 +4516,13 @@
         <v>18</v>
       </c>
       <c r="G129" t="n">
-        <v>54.98</v>
+        <v>54.52</v>
       </c>
       <c r="H129" t="n">
-        <v>19.81</v>
+        <v>18.88</v>
       </c>
       <c r="I129" t="n">
-        <v>3.23</v>
+        <v>6.7</v>
       </c>
       <c r="J129" t="n">
         <v>1</v>
@@ -4545,19 +4545,19 @@
         <v>19.2</v>
       </c>
       <c r="F130" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G130" t="n">
-        <v>56.66</v>
+        <v>55.17</v>
       </c>
       <c r="H130" t="n">
-        <v>18.37</v>
+        <v>19.86</v>
       </c>
       <c r="I130" t="n">
-        <v>4.33</v>
+        <v>4.73</v>
       </c>
       <c r="J130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -4577,19 +4577,19 @@
         <v>19.41</v>
       </c>
       <c r="F131" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G131" t="n">
-        <v>53.06</v>
+        <v>60.02</v>
       </c>
       <c r="H131" t="n">
-        <v>17.99</v>
+        <v>15.79</v>
       </c>
       <c r="I131" t="n">
-        <v>4.81</v>
+        <v>3.93</v>
       </c>
       <c r="J131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -4609,16 +4609,16 @@
         <v>18.43</v>
       </c>
       <c r="F132" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G132" t="n">
-        <v>54.7</v>
+        <v>58.22</v>
       </c>
       <c r="H132" t="n">
-        <v>17.67</v>
+        <v>18.65</v>
       </c>
       <c r="I132" t="n">
-        <v>6.22</v>
+        <v>5.56</v>
       </c>
       <c r="J132" t="n">
         <v>0</v>
@@ -4641,16 +4641,16 @@
         <v>19.32</v>
       </c>
       <c r="F133" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G133" t="n">
-        <v>54.27</v>
+        <v>57.27</v>
       </c>
       <c r="H133" t="n">
-        <v>22.42</v>
+        <v>17.19</v>
       </c>
       <c r="I133" t="n">
-        <v>4.66</v>
+        <v>4.26</v>
       </c>
       <c r="J133" t="n">
         <v>0</v>
@@ -4676,16 +4676,16 @@
         <v>12</v>
       </c>
       <c r="G134" t="n">
-        <v>55.97</v>
+        <v>51.65</v>
       </c>
       <c r="H134" t="n">
-        <v>18.62</v>
+        <v>16.67</v>
       </c>
       <c r="I134" t="n">
-        <v>6.71</v>
+        <v>4.99</v>
       </c>
       <c r="J134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -4708,13 +4708,13 @@
         <v>12</v>
       </c>
       <c r="G135" t="n">
-        <v>56.65</v>
+        <v>59.96</v>
       </c>
       <c r="H135" t="n">
-        <v>19.66</v>
+        <v>20.89</v>
       </c>
       <c r="I135" t="n">
-        <v>5.64</v>
+        <v>5.26</v>
       </c>
       <c r="J135" t="n">
         <v>0</v>
@@ -4740,13 +4740,13 @@
         <v>12</v>
       </c>
       <c r="G136" t="n">
-        <v>57.91</v>
+        <v>59.91</v>
       </c>
       <c r="H136" t="n">
-        <v>17.34</v>
+        <v>15.63</v>
       </c>
       <c r="I136" t="n">
-        <v>2.22</v>
+        <v>5.73</v>
       </c>
       <c r="J136" t="n">
         <v>1</v>
@@ -4769,16 +4769,16 @@
         <v>19.15</v>
       </c>
       <c r="F137" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G137" t="n">
-        <v>55.67</v>
+        <v>55.8</v>
       </c>
       <c r="H137" t="n">
-        <v>18.99</v>
+        <v>17.64</v>
       </c>
       <c r="I137" t="n">
-        <v>4.47</v>
+        <v>3.43</v>
       </c>
       <c r="J137" t="n">
         <v>1</v>
@@ -4801,16 +4801,16 @@
         <v>23.1</v>
       </c>
       <c r="F138" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G138" t="n">
-        <v>51.61</v>
+        <v>52.02</v>
       </c>
       <c r="H138" t="n">
-        <v>18.96</v>
+        <v>17.02</v>
       </c>
       <c r="I138" t="n">
-        <v>5.55</v>
+        <v>5.72</v>
       </c>
       <c r="J138" t="n">
         <v>1</v>
@@ -4833,16 +4833,16 @@
         <v>19.24</v>
       </c>
       <c r="F139" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G139" t="n">
-        <v>54.43</v>
+        <v>52.52</v>
       </c>
       <c r="H139" t="n">
-        <v>19.08</v>
+        <v>18.91</v>
       </c>
       <c r="I139" t="n">
-        <v>2.97</v>
+        <v>4.28</v>
       </c>
       <c r="J139" t="n">
         <v>0</v>
@@ -4865,16 +4865,16 @@
         <v>19.84</v>
       </c>
       <c r="F140" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G140" t="n">
-        <v>55.18</v>
+        <v>57.13</v>
       </c>
       <c r="H140" t="n">
-        <v>15.8</v>
+        <v>17.14</v>
       </c>
       <c r="I140" t="n">
-        <v>6.26</v>
+        <v>4.81</v>
       </c>
       <c r="J140" t="n">
         <v>1</v>
@@ -4897,19 +4897,19 @@
         <v>20.52</v>
       </c>
       <c r="F141" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G141" t="n">
-        <v>50.76</v>
+        <v>54.59</v>
       </c>
       <c r="H141" t="n">
-        <v>17.72</v>
+        <v>22.04</v>
       </c>
       <c r="I141" t="n">
-        <v>4.09</v>
+        <v>3.94</v>
       </c>
       <c r="J141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -4929,16 +4929,16 @@
         <v>18.21</v>
       </c>
       <c r="F142" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G142" t="n">
-        <v>56.04</v>
+        <v>56.68</v>
       </c>
       <c r="H142" t="n">
-        <v>17.65</v>
+        <v>21.75</v>
       </c>
       <c r="I142" t="n">
-        <v>4.7</v>
+        <v>4.39</v>
       </c>
       <c r="J142" t="n">
         <v>1</v>
@@ -4964,13 +4964,13 @@
         <v>12</v>
       </c>
       <c r="G143" t="n">
-        <v>57.23</v>
+        <v>53.52</v>
       </c>
       <c r="H143" t="n">
-        <v>19.49</v>
+        <v>20.89</v>
       </c>
       <c r="I143" t="n">
-        <v>4.82</v>
+        <v>4.78</v>
       </c>
       <c r="J143" t="n">
         <v>1</v>
@@ -4996,13 +4996,13 @@
         <v>17</v>
       </c>
       <c r="G144" t="n">
-        <v>55.79</v>
+        <v>60.06</v>
       </c>
       <c r="H144" t="n">
-        <v>18.76</v>
+        <v>19.99</v>
       </c>
       <c r="I144" t="n">
-        <v>7.02</v>
+        <v>6.37</v>
       </c>
       <c r="J144" t="n">
         <v>0</v>
@@ -5025,16 +5025,16 @@
         <v>21.24</v>
       </c>
       <c r="F145" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G145" t="n">
-        <v>51.18</v>
+        <v>58.43</v>
       </c>
       <c r="H145" t="n">
-        <v>18.12</v>
+        <v>18.44</v>
       </c>
       <c r="I145" t="n">
-        <v>3.97</v>
+        <v>5.4</v>
       </c>
       <c r="J145" t="n">
         <v>1</v>
@@ -5057,16 +5057,16 @@
         <v>20.61</v>
       </c>
       <c r="F146" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G146" t="n">
-        <v>56.29</v>
+        <v>53.16</v>
       </c>
       <c r="H146" t="n">
-        <v>17.45</v>
+        <v>16.42</v>
       </c>
       <c r="I146" t="n">
-        <v>5.86</v>
+        <v>8.03</v>
       </c>
       <c r="J146" t="n">
         <v>1</v>
@@ -5089,16 +5089,16 @@
         <v>20.59</v>
       </c>
       <c r="F147" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G147" t="n">
-        <v>57.4</v>
+        <v>57.57</v>
       </c>
       <c r="H147" t="n">
-        <v>17.36</v>
+        <v>19.15</v>
       </c>
       <c r="I147" t="n">
-        <v>6.22</v>
+        <v>2.54</v>
       </c>
       <c r="J147" t="n">
         <v>1</v>
@@ -5121,16 +5121,16 @@
         <v>17.83</v>
       </c>
       <c r="F148" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G148" t="n">
-        <v>59.69</v>
+        <v>55.06</v>
       </c>
       <c r="H148" t="n">
-        <v>18.13</v>
+        <v>17.5</v>
       </c>
       <c r="I148" t="n">
-        <v>4.62</v>
+        <v>5.38</v>
       </c>
       <c r="J148" t="n">
         <v>1</v>
@@ -5156,13 +5156,13 @@
         <v>12</v>
       </c>
       <c r="G149" t="n">
-        <v>58.14</v>
+        <v>57.18</v>
       </c>
       <c r="H149" t="n">
-        <v>17.1</v>
+        <v>18.48</v>
       </c>
       <c r="I149" t="n">
-        <v>5.13</v>
+        <v>5.38</v>
       </c>
       <c r="J149" t="n">
         <v>0</v>
@@ -5188,13 +5188,13 @@
         <v>12</v>
       </c>
       <c r="G150" t="n">
-        <v>61.19</v>
+        <v>56.65</v>
       </c>
       <c r="H150" t="n">
-        <v>17.25</v>
+        <v>17.96</v>
       </c>
       <c r="I150" t="n">
-        <v>3.77</v>
+        <v>5.35</v>
       </c>
       <c r="J150" t="n">
         <v>1</v>
@@ -5217,16 +5217,16 @@
         <v>19.04</v>
       </c>
       <c r="F151" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G151" t="n">
-        <v>57.13</v>
+        <v>56.98</v>
       </c>
       <c r="H151" t="n">
-        <v>16.03</v>
+        <v>19.45</v>
       </c>
       <c r="I151" t="n">
-        <v>3.74</v>
+        <v>6.32</v>
       </c>
       <c r="J151" t="n">
         <v>1</v>
@@ -5249,16 +5249,16 @@
         <v>19.92</v>
       </c>
       <c r="F152" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G152" t="n">
-        <v>54.76</v>
+        <v>58.6</v>
       </c>
       <c r="H152" t="n">
-        <v>17.95</v>
+        <v>16.57</v>
       </c>
       <c r="I152" t="n">
-        <v>3.49</v>
+        <v>5.99</v>
       </c>
       <c r="J152" t="n">
         <v>1</v>
@@ -5284,13 +5284,13 @@
         <v>12</v>
       </c>
       <c r="G153" t="n">
-        <v>60.67</v>
+        <v>55.04</v>
       </c>
       <c r="H153" t="n">
-        <v>16.78</v>
+        <v>18.09</v>
       </c>
       <c r="I153" t="n">
-        <v>5.54</v>
+        <v>5.55</v>
       </c>
       <c r="J153" t="n">
         <v>1</v>
@@ -5313,16 +5313,16 @@
         <v>23.28</v>
       </c>
       <c r="F154" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G154" t="n">
-        <v>53.14</v>
+        <v>60.19</v>
       </c>
       <c r="H154" t="n">
-        <v>17.72</v>
+        <v>19.36</v>
       </c>
       <c r="I154" t="n">
-        <v>7.36</v>
+        <v>4.97</v>
       </c>
       <c r="J154" t="n">
         <v>1</v>
@@ -5345,16 +5345,16 @@
         <v>20.44</v>
       </c>
       <c r="F155" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G155" t="n">
-        <v>57.26</v>
+        <v>61.75</v>
       </c>
       <c r="H155" t="n">
-        <v>16.47</v>
+        <v>17.66</v>
       </c>
       <c r="I155" t="n">
-        <v>3.21</v>
+        <v>2.91</v>
       </c>
       <c r="J155" t="n">
         <v>1</v>
@@ -5377,16 +5377,16 @@
         <v>21.84</v>
       </c>
       <c r="F156" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G156" t="n">
-        <v>60.47</v>
+        <v>51</v>
       </c>
       <c r="H156" t="n">
-        <v>20.82</v>
+        <v>18.08</v>
       </c>
       <c r="I156" t="n">
-        <v>3.75</v>
+        <v>7.47</v>
       </c>
       <c r="J156" t="n">
         <v>1</v>
@@ -5409,16 +5409,16 @@
         <v>20.05</v>
       </c>
       <c r="F157" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G157" t="n">
-        <v>57.42</v>
+        <v>55.12</v>
       </c>
       <c r="H157" t="n">
-        <v>18.39</v>
+        <v>17.04</v>
       </c>
       <c r="I157" t="n">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="J157" t="n">
         <v>1</v>
@@ -5444,16 +5444,16 @@
         <v>17</v>
       </c>
       <c r="G158" t="n">
-        <v>56.67</v>
+        <v>63.52</v>
       </c>
       <c r="H158" t="n">
-        <v>19.97</v>
+        <v>17.9</v>
       </c>
       <c r="I158" t="n">
-        <v>2.81</v>
+        <v>2.64</v>
       </c>
       <c r="J158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
@@ -5476,13 +5476,13 @@
         <v>12</v>
       </c>
       <c r="G159" t="n">
-        <v>54.62</v>
+        <v>53.75</v>
       </c>
       <c r="H159" t="n">
-        <v>19.3</v>
+        <v>17.58</v>
       </c>
       <c r="I159" t="n">
-        <v>5.31</v>
+        <v>3.57</v>
       </c>
       <c r="J159" t="n">
         <v>0</v>
@@ -5508,13 +5508,13 @@
         <v>12</v>
       </c>
       <c r="G160" t="n">
-        <v>58.88</v>
+        <v>56.24</v>
       </c>
       <c r="H160" t="n">
-        <v>19.68</v>
+        <v>17.85</v>
       </c>
       <c r="I160" t="n">
-        <v>5.33</v>
+        <v>4.86</v>
       </c>
       <c r="J160" t="n">
         <v>1</v>
@@ -5537,16 +5537,16 @@
         <v>20.92</v>
       </c>
       <c r="F161" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G161" t="n">
-        <v>62.52</v>
+        <v>54.9</v>
       </c>
       <c r="H161" t="n">
-        <v>16.26</v>
+        <v>18.62</v>
       </c>
       <c r="I161" t="n">
-        <v>6.23</v>
+        <v>7.63</v>
       </c>
       <c r="J161" t="n">
         <v>1</v>
@@ -5569,16 +5569,16 @@
         <v>19.91</v>
       </c>
       <c r="F162" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G162" t="n">
-        <v>51.68</v>
+        <v>62.21</v>
       </c>
       <c r="H162" t="n">
-        <v>17.89</v>
+        <v>18.69</v>
       </c>
       <c r="I162" t="n">
-        <v>2.83</v>
+        <v>6.32</v>
       </c>
       <c r="J162" t="n">
         <v>1</v>
@@ -5601,16 +5601,16 @@
         <v>18.1</v>
       </c>
       <c r="F163" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G163" t="n">
-        <v>55.48</v>
+        <v>54.72</v>
       </c>
       <c r="H163" t="n">
-        <v>18.56</v>
+        <v>18.25</v>
       </c>
       <c r="I163" t="n">
-        <v>3.79</v>
+        <v>5.6</v>
       </c>
       <c r="J163" t="n">
         <v>0</v>
@@ -5633,16 +5633,16 @@
         <v>16.76</v>
       </c>
       <c r="F164" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G164" t="n">
-        <v>58.39</v>
+        <v>55.82</v>
       </c>
       <c r="H164" t="n">
-        <v>16.68</v>
+        <v>17.04</v>
       </c>
       <c r="I164" t="n">
-        <v>5.62</v>
+        <v>3.88</v>
       </c>
       <c r="J164" t="n">
         <v>0</v>
@@ -5668,13 +5668,13 @@
         <v>12</v>
       </c>
       <c r="G165" t="n">
-        <v>59.78</v>
+        <v>54.8</v>
       </c>
       <c r="H165" t="n">
-        <v>19.47</v>
+        <v>20.44</v>
       </c>
       <c r="I165" t="n">
-        <v>5.44</v>
+        <v>3.41</v>
       </c>
       <c r="J165" t="n">
         <v>1</v>
@@ -5697,19 +5697,19 @@
         <v>19.57</v>
       </c>
       <c r="F166" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G166" t="n">
-        <v>55.8</v>
+        <v>51.7</v>
       </c>
       <c r="H166" t="n">
-        <v>17.22</v>
+        <v>17.68</v>
       </c>
       <c r="I166" t="n">
-        <v>5.13</v>
+        <v>4.13</v>
       </c>
       <c r="J166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -5729,16 +5729,16 @@
         <v>20.08</v>
       </c>
       <c r="F167" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G167" t="n">
-        <v>54.8</v>
+        <v>54.49</v>
       </c>
       <c r="H167" t="n">
-        <v>17.53</v>
+        <v>16.13</v>
       </c>
       <c r="I167" t="n">
-        <v>6.69</v>
+        <v>4.84</v>
       </c>
       <c r="J167" t="n">
         <v>1</v>
@@ -5761,16 +5761,16 @@
         <v>20.88</v>
       </c>
       <c r="F168" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G168" t="n">
-        <v>55.31</v>
+        <v>53.07</v>
       </c>
       <c r="H168" t="n">
-        <v>16.39</v>
+        <v>15.06</v>
       </c>
       <c r="I168" t="n">
-        <v>5.21</v>
+        <v>2.9</v>
       </c>
       <c r="J168" t="n">
         <v>1</v>
@@ -5793,16 +5793,16 @@
         <v>21.15</v>
       </c>
       <c r="F169" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G169" t="n">
-        <v>57.47</v>
+        <v>55.51</v>
       </c>
       <c r="H169" t="n">
-        <v>19.83</v>
+        <v>17.93</v>
       </c>
       <c r="I169" t="n">
-        <v>3.41</v>
+        <v>4.87</v>
       </c>
       <c r="J169" t="n">
         <v>1</v>
@@ -5825,16 +5825,16 @@
         <v>17.94</v>
       </c>
       <c r="F170" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G170" t="n">
-        <v>56.52</v>
+        <v>61.17</v>
       </c>
       <c r="H170" t="n">
-        <v>19.58</v>
+        <v>19.75</v>
       </c>
       <c r="I170" t="n">
-        <v>3.4</v>
+        <v>4.31</v>
       </c>
       <c r="J170" t="n">
         <v>0</v>
@@ -5857,16 +5857,16 @@
         <v>21.58</v>
       </c>
       <c r="F171" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G171" t="n">
-        <v>54.22</v>
+        <v>59.94</v>
       </c>
       <c r="H171" t="n">
-        <v>16.96</v>
+        <v>14.75</v>
       </c>
       <c r="I171" t="n">
-        <v>5.62</v>
+        <v>5.59</v>
       </c>
       <c r="J171" t="n">
         <v>1</v>
@@ -5889,19 +5889,19 @@
         <v>19.01</v>
       </c>
       <c r="F172" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G172" t="n">
-        <v>55.77</v>
+        <v>53.29</v>
       </c>
       <c r="H172" t="n">
-        <v>18.08</v>
+        <v>18.26</v>
       </c>
       <c r="I172" t="n">
-        <v>4.66</v>
+        <v>2.34</v>
       </c>
       <c r="J172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
@@ -5921,16 +5921,16 @@
         <v>21.25</v>
       </c>
       <c r="F173" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G173" t="n">
-        <v>58.1</v>
+        <v>53.5</v>
       </c>
       <c r="H173" t="n">
-        <v>16.49</v>
+        <v>16.78</v>
       </c>
       <c r="I173" t="n">
-        <v>6.1</v>
+        <v>4.55</v>
       </c>
       <c r="J173" t="n">
         <v>1</v>
@@ -5956,16 +5956,16 @@
         <v>17</v>
       </c>
       <c r="G174" t="n">
-        <v>61.87</v>
+        <v>54.76</v>
       </c>
       <c r="H174" t="n">
-        <v>14.77</v>
+        <v>19.61</v>
       </c>
       <c r="I174" t="n">
-        <v>1.88</v>
+        <v>5.65</v>
       </c>
       <c r="J174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
@@ -5985,19 +5985,19 @@
         <v>19.99</v>
       </c>
       <c r="F175" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G175" t="n">
-        <v>51.75</v>
+        <v>50.81</v>
       </c>
       <c r="H175" t="n">
-        <v>19.49</v>
+        <v>19.28</v>
       </c>
       <c r="I175" t="n">
-        <v>7.34</v>
+        <v>6.21</v>
       </c>
       <c r="J175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
@@ -6020,13 +6020,13 @@
         <v>17</v>
       </c>
       <c r="G176" t="n">
-        <v>55.54</v>
+        <v>58.77</v>
       </c>
       <c r="H176" t="n">
-        <v>17.89</v>
+        <v>18.02</v>
       </c>
       <c r="I176" t="n">
-        <v>7.46</v>
+        <v>4.19</v>
       </c>
       <c r="J176" t="n">
         <v>1</v>
@@ -6052,13 +6052,13 @@
         <v>17</v>
       </c>
       <c r="G177" t="n">
-        <v>49.72</v>
+        <v>63.91</v>
       </c>
       <c r="H177" t="n">
-        <v>17.36</v>
+        <v>17.94</v>
       </c>
       <c r="I177" t="n">
-        <v>7.45</v>
+        <v>3.79</v>
       </c>
       <c r="J177" t="n">
         <v>1</v>
@@ -6084,16 +6084,16 @@
         <v>12</v>
       </c>
       <c r="G178" t="n">
-        <v>61.91</v>
+        <v>53.17</v>
       </c>
       <c r="H178" t="n">
-        <v>19.38</v>
+        <v>18.78</v>
       </c>
       <c r="I178" t="n">
-        <v>2.28</v>
+        <v>5.55</v>
       </c>
       <c r="J178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -6116,16 +6116,16 @@
         <v>12</v>
       </c>
       <c r="G179" t="n">
-        <v>52.2</v>
+        <v>57.78</v>
       </c>
       <c r="H179" t="n">
-        <v>17.19</v>
+        <v>19.42</v>
       </c>
       <c r="I179" t="n">
-        <v>5.72</v>
+        <v>5.13</v>
       </c>
       <c r="J179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
@@ -6145,16 +6145,16 @@
         <v>20.99</v>
       </c>
       <c r="F180" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G180" t="n">
-        <v>57.89</v>
+        <v>63.83</v>
       </c>
       <c r="H180" t="n">
-        <v>18.26</v>
+        <v>17.93</v>
       </c>
       <c r="I180" t="n">
-        <v>5.77</v>
+        <v>4.99</v>
       </c>
       <c r="J180" t="n">
         <v>1</v>
@@ -6180,16 +6180,16 @@
         <v>17</v>
       </c>
       <c r="G181" t="n">
-        <v>55.01</v>
+        <v>58.68</v>
       </c>
       <c r="H181" t="n">
-        <v>17.99</v>
+        <v>18.83</v>
       </c>
       <c r="I181" t="n">
-        <v>3.74</v>
+        <v>8.42</v>
       </c>
       <c r="J181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -6212,13 +6212,13 @@
         <v>12</v>
       </c>
       <c r="G182" t="n">
-        <v>52.11</v>
+        <v>50.5</v>
       </c>
       <c r="H182" t="n">
-        <v>16.4</v>
+        <v>18.37</v>
       </c>
       <c r="I182" t="n">
-        <v>2.15</v>
+        <v>4.37</v>
       </c>
       <c r="J182" t="n">
         <v>0</v>
@@ -6241,19 +6241,19 @@
         <v>19.46</v>
       </c>
       <c r="F183" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G183" t="n">
-        <v>55.72</v>
+        <v>59.62</v>
       </c>
       <c r="H183" t="n">
-        <v>20.02</v>
+        <v>19.66</v>
       </c>
       <c r="I183" t="n">
-        <v>3.12</v>
+        <v>4.54</v>
       </c>
       <c r="J183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
@@ -6276,13 +6276,13 @@
         <v>17</v>
       </c>
       <c r="G184" t="n">
-        <v>60.58</v>
+        <v>47.7</v>
       </c>
       <c r="H184" t="n">
-        <v>18.96</v>
+        <v>16.62</v>
       </c>
       <c r="I184" t="n">
-        <v>4.88</v>
+        <v>4.47</v>
       </c>
       <c r="J184" t="n">
         <v>0</v>
@@ -6305,16 +6305,16 @@
         <v>21.53</v>
       </c>
       <c r="F185" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G185" t="n">
-        <v>59.48</v>
+        <v>57.95</v>
       </c>
       <c r="H185" t="n">
-        <v>17.93</v>
+        <v>18.64</v>
       </c>
       <c r="I185" t="n">
-        <v>6.53</v>
+        <v>3.97</v>
       </c>
       <c r="J185" t="n">
         <v>1</v>
@@ -6337,19 +6337,19 @@
         <v>19.46</v>
       </c>
       <c r="F186" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G186" t="n">
-        <v>60.02</v>
+        <v>57.17</v>
       </c>
       <c r="H186" t="n">
-        <v>17.99</v>
+        <v>18.79</v>
       </c>
       <c r="I186" t="n">
-        <v>4.57</v>
+        <v>5.75</v>
       </c>
       <c r="J186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
@@ -6369,16 +6369,16 @@
         <v>20.72</v>
       </c>
       <c r="F187" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G187" t="n">
-        <v>55.84</v>
+        <v>51.24</v>
       </c>
       <c r="H187" t="n">
-        <v>17.88</v>
+        <v>15.86</v>
       </c>
       <c r="I187" t="n">
-        <v>4.77</v>
+        <v>4.9</v>
       </c>
       <c r="J187" t="n">
         <v>1</v>
@@ -6404,16 +6404,16 @@
         <v>12</v>
       </c>
       <c r="G188" t="n">
-        <v>55.22</v>
+        <v>49.71</v>
       </c>
       <c r="H188" t="n">
-        <v>16.7</v>
+        <v>17.77</v>
       </c>
       <c r="I188" t="n">
-        <v>2.3</v>
+        <v>5.73</v>
       </c>
       <c r="J188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -6436,13 +6436,13 @@
         <v>17</v>
       </c>
       <c r="G189" t="n">
-        <v>53.02</v>
+        <v>61.25</v>
       </c>
       <c r="H189" t="n">
-        <v>19.32</v>
+        <v>19.69</v>
       </c>
       <c r="I189" t="n">
-        <v>2.09</v>
+        <v>5.44</v>
       </c>
       <c r="J189" t="n">
         <v>1</v>
@@ -6468,13 +6468,13 @@
         <v>17</v>
       </c>
       <c r="G190" t="n">
-        <v>63.03</v>
+        <v>55.16</v>
       </c>
       <c r="H190" t="n">
-        <v>22.13</v>
+        <v>21.82</v>
       </c>
       <c r="I190" t="n">
-        <v>4.06</v>
+        <v>5.16</v>
       </c>
       <c r="J190" t="n">
         <v>1</v>
@@ -6500,16 +6500,16 @@
         <v>12</v>
       </c>
       <c r="G191" t="n">
-        <v>60.36</v>
+        <v>54.52</v>
       </c>
       <c r="H191" t="n">
-        <v>18.89</v>
+        <v>18.68</v>
       </c>
       <c r="I191" t="n">
-        <v>5.26</v>
+        <v>3.84</v>
       </c>
       <c r="J191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
@@ -6532,16 +6532,16 @@
         <v>17</v>
       </c>
       <c r="G192" t="n">
-        <v>62.71</v>
+        <v>62.09</v>
       </c>
       <c r="H192" t="n">
-        <v>18.99</v>
+        <v>21.49</v>
       </c>
       <c r="I192" t="n">
-        <v>4.38</v>
+        <v>4.26</v>
       </c>
       <c r="J192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -6561,16 +6561,16 @@
         <v>17.79</v>
       </c>
       <c r="F193" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G193" t="n">
-        <v>51.28</v>
+        <v>52.6</v>
       </c>
       <c r="H193" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I193" t="n">
-        <v>4.94</v>
+        <v>3.79</v>
       </c>
       <c r="J193" t="n">
         <v>0</v>
@@ -6593,16 +6593,16 @@
         <v>22.24</v>
       </c>
       <c r="F194" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G194" t="n">
-        <v>55.42</v>
+        <v>57.09</v>
       </c>
       <c r="H194" t="n">
-        <v>16.38</v>
+        <v>20.66</v>
       </c>
       <c r="I194" t="n">
-        <v>4.53</v>
+        <v>5.41</v>
       </c>
       <c r="J194" t="n">
         <v>1</v>
@@ -6625,16 +6625,16 @@
         <v>22.16</v>
       </c>
       <c r="F195" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G195" t="n">
-        <v>60.4</v>
+        <v>60.15</v>
       </c>
       <c r="H195" t="n">
-        <v>21.57</v>
+        <v>18.84</v>
       </c>
       <c r="I195" t="n">
-        <v>4.02</v>
+        <v>6.94</v>
       </c>
       <c r="J195" t="n">
         <v>1</v>
@@ -6657,19 +6657,19 @@
         <v>22.57</v>
       </c>
       <c r="F196" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G196" t="n">
-        <v>56.9</v>
+        <v>56.44</v>
       </c>
       <c r="H196" t="n">
-        <v>16.01</v>
+        <v>19.31</v>
       </c>
       <c r="I196" t="n">
-        <v>0.99</v>
+        <v>5.97</v>
       </c>
       <c r="J196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
@@ -6689,16 +6689,16 @@
         <v>17.77</v>
       </c>
       <c r="F197" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G197" t="n">
-        <v>58.78</v>
+        <v>55.9</v>
       </c>
       <c r="H197" t="n">
-        <v>16.79</v>
+        <v>15.88</v>
       </c>
       <c r="I197" t="n">
-        <v>3.04</v>
+        <v>6.46</v>
       </c>
       <c r="J197" t="n">
         <v>0</v>
@@ -6721,16 +6721,16 @@
         <v>20.95</v>
       </c>
       <c r="F198" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G198" t="n">
-        <v>56.78</v>
+        <v>59.23</v>
       </c>
       <c r="H198" t="n">
-        <v>16.36</v>
+        <v>19.2</v>
       </c>
       <c r="I198" t="n">
-        <v>5.1</v>
+        <v>3.87</v>
       </c>
       <c r="J198" t="n">
         <v>1</v>
@@ -6756,16 +6756,16 @@
         <v>12</v>
       </c>
       <c r="G199" t="n">
-        <v>54.83</v>
+        <v>60.17</v>
       </c>
       <c r="H199" t="n">
-        <v>17.93</v>
+        <v>17.56</v>
       </c>
       <c r="I199" t="n">
-        <v>7.14</v>
+        <v>4.95</v>
       </c>
       <c r="J199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -6785,16 +6785,16 @@
         <v>22.26</v>
       </c>
       <c r="F200" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G200" t="n">
-        <v>57.66</v>
+        <v>55.25</v>
       </c>
       <c r="H200" t="n">
-        <v>19.65</v>
+        <v>20.08</v>
       </c>
       <c r="I200" t="n">
-        <v>6.59</v>
+        <v>3.99</v>
       </c>
       <c r="J200" t="n">
         <v>1</v>
@@ -6817,16 +6817,16 @@
         <v>18.86</v>
       </c>
       <c r="F201" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G201" t="n">
-        <v>61.2</v>
+        <v>60.36</v>
       </c>
       <c r="H201" t="n">
-        <v>18.74</v>
+        <v>20.04</v>
       </c>
       <c r="I201" t="n">
-        <v>3.22</v>
+        <v>4.06</v>
       </c>
       <c r="J201" t="n">
         <v>0</v>
@@ -6852,13 +6852,13 @@
         <v>17</v>
       </c>
       <c r="G202" t="n">
-        <v>59.35</v>
+        <v>55.93</v>
       </c>
       <c r="H202" t="n">
-        <v>21.29</v>
+        <v>20.66</v>
       </c>
       <c r="I202" t="n">
-        <v>4.44</v>
+        <v>6.85</v>
       </c>
       <c r="J202" t="n">
         <v>1</v>
@@ -6881,19 +6881,19 @@
         <v>18.04</v>
       </c>
       <c r="F203" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G203" t="n">
-        <v>60.61</v>
+        <v>57.75</v>
       </c>
       <c r="H203" t="n">
-        <v>22.35</v>
+        <v>19.1</v>
       </c>
       <c r="I203" t="n">
-        <v>4.42</v>
+        <v>3.75</v>
       </c>
       <c r="J203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
@@ -6913,19 +6913,19 @@
         <v>20.03</v>
       </c>
       <c r="F204" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G204" t="n">
-        <v>59.6</v>
+        <v>58.19</v>
       </c>
       <c r="H204" t="n">
-        <v>17.59</v>
+        <v>19.76</v>
       </c>
       <c r="I204" t="n">
-        <v>5.01</v>
+        <v>4.82</v>
       </c>
       <c r="J204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
@@ -6945,16 +6945,16 @@
         <v>22.44</v>
       </c>
       <c r="F205" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G205" t="n">
-        <v>55.23</v>
+        <v>58.59</v>
       </c>
       <c r="H205" t="n">
-        <v>20.6</v>
+        <v>19.93</v>
       </c>
       <c r="I205" t="n">
-        <v>5.16</v>
+        <v>5.67</v>
       </c>
       <c r="J205" t="n">
         <v>1</v>
@@ -6980,13 +6980,13 @@
         <v>12</v>
       </c>
       <c r="G206" t="n">
-        <v>57.71</v>
+        <v>53.2</v>
       </c>
       <c r="H206" t="n">
-        <v>16.24</v>
+        <v>20.37</v>
       </c>
       <c r="I206" t="n">
-        <v>3.67</v>
+        <v>6.43</v>
       </c>
       <c r="J206" t="n">
         <v>1</v>
@@ -7012,13 +7012,13 @@
         <v>17</v>
       </c>
       <c r="G207" t="n">
-        <v>55.36</v>
+        <v>56.52</v>
       </c>
       <c r="H207" t="n">
-        <v>16.92</v>
+        <v>17.88</v>
       </c>
       <c r="I207" t="n">
-        <v>6.34</v>
+        <v>5.4</v>
       </c>
       <c r="J207" t="n">
         <v>1</v>
@@ -7041,19 +7041,19 @@
         <v>19.83</v>
       </c>
       <c r="F208" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G208" t="n">
-        <v>60.16</v>
+        <v>56.67</v>
       </c>
       <c r="H208" t="n">
-        <v>16.01</v>
+        <v>20.3</v>
       </c>
       <c r="I208" t="n">
-        <v>5.28</v>
+        <v>5.88</v>
       </c>
       <c r="J208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
@@ -7073,16 +7073,16 @@
         <v>22.18</v>
       </c>
       <c r="F209" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G209" t="n">
-        <v>64.43</v>
+        <v>60.39</v>
       </c>
       <c r="H209" t="n">
-        <v>16.12</v>
+        <v>17.36</v>
       </c>
       <c r="I209" t="n">
-        <v>3.75</v>
+        <v>3.01</v>
       </c>
       <c r="J209" t="n">
         <v>1</v>
@@ -7108,16 +7108,16 @@
         <v>12</v>
       </c>
       <c r="G210" t="n">
-        <v>58.38</v>
+        <v>59.29</v>
       </c>
       <c r="H210" t="n">
-        <v>18.62</v>
+        <v>16.35</v>
       </c>
       <c r="I210" t="n">
-        <v>2.53</v>
+        <v>4.61</v>
       </c>
       <c r="J210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
@@ -7137,16 +7137,16 @@
         <v>19.3</v>
       </c>
       <c r="F211" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G211" t="n">
-        <v>54.28</v>
+        <v>54.65</v>
       </c>
       <c r="H211" t="n">
-        <v>17.39</v>
+        <v>16.93</v>
       </c>
       <c r="I211" t="n">
-        <v>2.67</v>
+        <v>5.32</v>
       </c>
       <c r="J211" t="n">
         <v>0</v>
@@ -7169,16 +7169,16 @@
         <v>21.56</v>
       </c>
       <c r="F212" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G212" t="n">
-        <v>57.31</v>
+        <v>56.16</v>
       </c>
       <c r="H212" t="n">
-        <v>18.32</v>
+        <v>22.29</v>
       </c>
       <c r="I212" t="n">
-        <v>7.29</v>
+        <v>3.67</v>
       </c>
       <c r="J212" t="n">
         <v>1</v>
@@ -7204,13 +7204,13 @@
         <v>12</v>
       </c>
       <c r="G213" t="n">
-        <v>51.16</v>
+        <v>56.83</v>
       </c>
       <c r="H213" t="n">
-        <v>19.39</v>
+        <v>17.7</v>
       </c>
       <c r="I213" t="n">
-        <v>6.5</v>
+        <v>4.41</v>
       </c>
       <c r="J213" t="n">
         <v>0</v>
@@ -7236,13 +7236,13 @@
         <v>17</v>
       </c>
       <c r="G214" t="n">
-        <v>57.39</v>
+        <v>58.7</v>
       </c>
       <c r="H214" t="n">
-        <v>19.04</v>
+        <v>18.58</v>
       </c>
       <c r="I214" t="n">
-        <v>5.73</v>
+        <v>6.75</v>
       </c>
       <c r="J214" t="n">
         <v>1</v>
@@ -7265,16 +7265,16 @@
         <v>20.57</v>
       </c>
       <c r="F215" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G215" t="n">
-        <v>58.31</v>
+        <v>54.93</v>
       </c>
       <c r="H215" t="n">
-        <v>16.41</v>
+        <v>17.63</v>
       </c>
       <c r="I215" t="n">
-        <v>3.88</v>
+        <v>5.45</v>
       </c>
       <c r="J215" t="n">
         <v>1</v>
@@ -7300,13 +7300,13 @@
         <v>17</v>
       </c>
       <c r="G216" t="n">
-        <v>55.68</v>
+        <v>61.42</v>
       </c>
       <c r="H216" t="n">
-        <v>17.88</v>
+        <v>18.22</v>
       </c>
       <c r="I216" t="n">
-        <v>4.32</v>
+        <v>3.82</v>
       </c>
       <c r="J216" t="n">
         <v>1</v>
@@ -7329,16 +7329,16 @@
         <v>19.48</v>
       </c>
       <c r="F217" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G217" t="n">
-        <v>56.21</v>
+        <v>51.34</v>
       </c>
       <c r="H217" t="n">
-        <v>20.22</v>
+        <v>19.75</v>
       </c>
       <c r="I217" t="n">
-        <v>6</v>
+        <v>4.13</v>
       </c>
       <c r="J217" t="n">
         <v>0</v>
@@ -7361,19 +7361,19 @@
         <v>21.6</v>
       </c>
       <c r="F218" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G218" t="n">
-        <v>52.93</v>
+        <v>52.24</v>
       </c>
       <c r="H218" t="n">
-        <v>17.7</v>
+        <v>17.34</v>
       </c>
       <c r="I218" t="n">
-        <v>4.87</v>
+        <v>2.8</v>
       </c>
       <c r="J218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
@@ -7393,16 +7393,16 @@
         <v>20.67</v>
       </c>
       <c r="F219" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G219" t="n">
-        <v>55.06</v>
+        <v>56.09</v>
       </c>
       <c r="H219" t="n">
-        <v>18.75</v>
+        <v>18.09</v>
       </c>
       <c r="I219" t="n">
-        <v>3.57</v>
+        <v>5.4</v>
       </c>
       <c r="J219" t="n">
         <v>1</v>
@@ -7428,13 +7428,13 @@
         <v>12</v>
       </c>
       <c r="G220" t="n">
-        <v>59.9</v>
+        <v>58.54</v>
       </c>
       <c r="H220" t="n">
-        <v>18.2</v>
+        <v>20.88</v>
       </c>
       <c r="I220" t="n">
-        <v>5.65</v>
+        <v>4.84</v>
       </c>
       <c r="J220" t="n">
         <v>1</v>
@@ -7457,19 +7457,19 @@
         <v>21.25</v>
       </c>
       <c r="F221" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G221" t="n">
-        <v>56.76</v>
+        <v>51.75</v>
       </c>
       <c r="H221" t="n">
-        <v>19.67</v>
+        <v>19.17</v>
       </c>
       <c r="I221" t="n">
-        <v>5.64</v>
+        <v>5.12</v>
       </c>
       <c r="J221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
@@ -7489,16 +7489,16 @@
         <v>20.49</v>
       </c>
       <c r="F222" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G222" t="n">
-        <v>56.37</v>
+        <v>55.84</v>
       </c>
       <c r="H222" t="n">
-        <v>17.68</v>
+        <v>16.33</v>
       </c>
       <c r="I222" t="n">
-        <v>4.56</v>
+        <v>5.25</v>
       </c>
       <c r="J222" t="n">
         <v>1</v>
@@ -7521,16 +7521,16 @@
         <v>20.38</v>
       </c>
       <c r="F223" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G223" t="n">
-        <v>58.71</v>
+        <v>51.97</v>
       </c>
       <c r="H223" t="n">
-        <v>19.53</v>
+        <v>18.01</v>
       </c>
       <c r="I223" t="n">
-        <v>5.19</v>
+        <v>5.29</v>
       </c>
       <c r="J223" t="n">
         <v>0</v>
@@ -7553,19 +7553,19 @@
         <v>19.46</v>
       </c>
       <c r="F224" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G224" t="n">
-        <v>54.09</v>
+        <v>49.68</v>
       </c>
       <c r="H224" t="n">
-        <v>19.67</v>
+        <v>18.36</v>
       </c>
       <c r="I224" t="n">
-        <v>7.74</v>
+        <v>3.97</v>
       </c>
       <c r="J224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225">
@@ -7588,16 +7588,16 @@
         <v>17</v>
       </c>
       <c r="G225" t="n">
-        <v>61.41</v>
+        <v>55.62</v>
       </c>
       <c r="H225" t="n">
-        <v>19.42</v>
+        <v>17.72</v>
       </c>
       <c r="I225" t="n">
-        <v>3.47</v>
+        <v>6.09</v>
       </c>
       <c r="J225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226">
@@ -7617,19 +7617,19 @@
         <v>19.78</v>
       </c>
       <c r="F226" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G226" t="n">
-        <v>62.16</v>
+        <v>60.63</v>
       </c>
       <c r="H226" t="n">
-        <v>19.59</v>
+        <v>17.44</v>
       </c>
       <c r="I226" t="n">
-        <v>6.12</v>
+        <v>4.33</v>
       </c>
       <c r="J226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
@@ -7649,16 +7649,16 @@
         <v>20.23</v>
       </c>
       <c r="F227" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G227" t="n">
-        <v>59.52</v>
+        <v>58.02</v>
       </c>
       <c r="H227" t="n">
-        <v>18.38</v>
+        <v>18.01</v>
       </c>
       <c r="I227" t="n">
-        <v>6.28</v>
+        <v>4.74</v>
       </c>
       <c r="J227" t="n">
         <v>0</v>
@@ -7684,16 +7684,16 @@
         <v>12</v>
       </c>
       <c r="G228" t="n">
-        <v>58.64</v>
+        <v>59.31</v>
       </c>
       <c r="H228" t="n">
-        <v>18.81</v>
+        <v>20.79</v>
       </c>
       <c r="I228" t="n">
-        <v>6.21</v>
+        <v>6.77</v>
       </c>
       <c r="J228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
@@ -7713,19 +7713,19 @@
         <v>17.76</v>
       </c>
       <c r="F229" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G229" t="n">
-        <v>60.17</v>
+        <v>62.31</v>
       </c>
       <c r="H229" t="n">
-        <v>21.25</v>
+        <v>22.65</v>
       </c>
       <c r="I229" t="n">
-        <v>5.73</v>
+        <v>5.91</v>
       </c>
       <c r="J229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230">
@@ -7748,13 +7748,13 @@
         <v>17</v>
       </c>
       <c r="G230" t="n">
-        <v>60.87</v>
+        <v>51.78</v>
       </c>
       <c r="H230" t="n">
-        <v>17.06</v>
+        <v>20.23</v>
       </c>
       <c r="I230" t="n">
-        <v>3.18</v>
+        <v>6.83</v>
       </c>
       <c r="J230" t="n">
         <v>1</v>
@@ -7780,13 +7780,13 @@
         <v>12</v>
       </c>
       <c r="G231" t="n">
-        <v>51.96</v>
+        <v>54.84</v>
       </c>
       <c r="H231" t="n">
-        <v>20.1</v>
+        <v>18.83</v>
       </c>
       <c r="I231" t="n">
-        <v>4.35</v>
+        <v>4.6</v>
       </c>
       <c r="J231" t="n">
         <v>1</v>
@@ -7812,13 +7812,13 @@
         <v>17</v>
       </c>
       <c r="G232" t="n">
-        <v>60.82</v>
+        <v>54.69</v>
       </c>
       <c r="H232" t="n">
-        <v>19.72</v>
+        <v>19.54</v>
       </c>
       <c r="I232" t="n">
-        <v>2.89</v>
+        <v>5.18</v>
       </c>
       <c r="J232" t="n">
         <v>1</v>
@@ -7841,19 +7841,19 @@
         <v>19.77</v>
       </c>
       <c r="F233" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G233" t="n">
-        <v>56.22</v>
+        <v>51.42</v>
       </c>
       <c r="H233" t="n">
-        <v>19.42</v>
+        <v>18.34</v>
       </c>
       <c r="I233" t="n">
-        <v>7.37</v>
+        <v>3.84</v>
       </c>
       <c r="J233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
@@ -7876,13 +7876,13 @@
         <v>12</v>
       </c>
       <c r="G234" t="n">
-        <v>53.59</v>
+        <v>60.12</v>
       </c>
       <c r="H234" t="n">
-        <v>19.13</v>
+        <v>19.46</v>
       </c>
       <c r="I234" t="n">
-        <v>4.06</v>
+        <v>1.25</v>
       </c>
       <c r="J234" t="n">
         <v>1</v>
@@ -7905,16 +7905,16 @@
         <v>18.71</v>
       </c>
       <c r="F235" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G235" t="n">
-        <v>56.88</v>
+        <v>52.61</v>
       </c>
       <c r="H235" t="n">
-        <v>20.45</v>
+        <v>18.15</v>
       </c>
       <c r="I235" t="n">
-        <v>0.77</v>
+        <v>5.96</v>
       </c>
       <c r="J235" t="n">
         <v>0</v>
@@ -7940,13 +7940,13 @@
         <v>12</v>
       </c>
       <c r="G236" t="n">
-        <v>53.32</v>
+        <v>56.93</v>
       </c>
       <c r="H236" t="n">
-        <v>19.46</v>
+        <v>17.85</v>
       </c>
       <c r="I236" t="n">
-        <v>4.57</v>
+        <v>5.44</v>
       </c>
       <c r="J236" t="n">
         <v>1</v>
@@ -7969,19 +7969,19 @@
         <v>17.98</v>
       </c>
       <c r="F237" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G237" t="n">
-        <v>62.15</v>
+        <v>55.07</v>
       </c>
       <c r="H237" t="n">
-        <v>20.24</v>
+        <v>19.39</v>
       </c>
       <c r="I237" t="n">
-        <v>2.81</v>
+        <v>4.83</v>
       </c>
       <c r="J237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238">
@@ -8004,13 +8004,13 @@
         <v>17</v>
       </c>
       <c r="G238" t="n">
-        <v>52.85</v>
+        <v>56.9</v>
       </c>
       <c r="H238" t="n">
-        <v>18.11</v>
+        <v>14.99</v>
       </c>
       <c r="I238" t="n">
-        <v>6.82</v>
+        <v>6.05</v>
       </c>
       <c r="J238" t="n">
         <v>1</v>
@@ -8033,19 +8033,19 @@
         <v>20.73</v>
       </c>
       <c r="F239" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G239" t="n">
-        <v>58.32</v>
+        <v>59.74</v>
       </c>
       <c r="H239" t="n">
-        <v>19.03</v>
+        <v>18.14</v>
       </c>
       <c r="I239" t="n">
-        <v>2.99</v>
+        <v>3.26</v>
       </c>
       <c r="J239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
@@ -8068,16 +8068,16 @@
         <v>12</v>
       </c>
       <c r="G240" t="n">
-        <v>50.35</v>
+        <v>59.8</v>
       </c>
       <c r="H240" t="n">
-        <v>15.92</v>
+        <v>16.33</v>
       </c>
       <c r="I240" t="n">
-        <v>9.7</v>
+        <v>8.08</v>
       </c>
       <c r="J240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
@@ -8100,16 +8100,16 @@
         <v>17</v>
       </c>
       <c r="G241" t="n">
-        <v>47.62</v>
+        <v>56.6</v>
       </c>
       <c r="H241" t="n">
-        <v>16.59</v>
+        <v>17.75</v>
       </c>
       <c r="I241" t="n">
-        <v>2.5</v>
+        <v>4.24</v>
       </c>
       <c r="J241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
@@ -8129,19 +8129,19 @@
         <v>18.04</v>
       </c>
       <c r="F242" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G242" t="n">
-        <v>61.78</v>
+        <v>52.04</v>
       </c>
       <c r="H242" t="n">
-        <v>20.74</v>
+        <v>16.9</v>
       </c>
       <c r="I242" t="n">
-        <v>4.5</v>
+        <v>5.66</v>
       </c>
       <c r="J242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
@@ -8164,13 +8164,13 @@
         <v>12</v>
       </c>
       <c r="G243" t="n">
-        <v>53.88</v>
+        <v>59.91</v>
       </c>
       <c r="H243" t="n">
-        <v>16.91</v>
+        <v>18.94</v>
       </c>
       <c r="I243" t="n">
-        <v>5.45</v>
+        <v>5.02</v>
       </c>
       <c r="J243" t="n">
         <v>1</v>
@@ -8193,16 +8193,16 @@
         <v>18.19</v>
       </c>
       <c r="F244" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G244" t="n">
-        <v>53.77</v>
+        <v>53.33</v>
       </c>
       <c r="H244" t="n">
-        <v>19.72</v>
+        <v>18.47</v>
       </c>
       <c r="I244" t="n">
-        <v>5.91</v>
+        <v>4.52</v>
       </c>
       <c r="J244" t="n">
         <v>0</v>
@@ -8225,19 +8225,19 @@
         <v>17.4</v>
       </c>
       <c r="F245" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G245" t="n">
-        <v>61.27</v>
+        <v>60.47</v>
       </c>
       <c r="H245" t="n">
-        <v>20.33</v>
+        <v>16.26</v>
       </c>
       <c r="I245" t="n">
-        <v>2.96</v>
+        <v>8.23</v>
       </c>
       <c r="J245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246">
@@ -8257,19 +8257,19 @@
         <v>18.09</v>
       </c>
       <c r="F246" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G246" t="n">
-        <v>51.95</v>
+        <v>53.55</v>
       </c>
       <c r="H246" t="n">
-        <v>17.32</v>
+        <v>17.12</v>
       </c>
       <c r="I246" t="n">
-        <v>3.15</v>
+        <v>3.86</v>
       </c>
       <c r="J246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247">
@@ -8292,16 +8292,16 @@
         <v>12</v>
       </c>
       <c r="G247" t="n">
-        <v>56.93</v>
+        <v>57.45</v>
       </c>
       <c r="H247" t="n">
-        <v>17.65</v>
+        <v>17.79</v>
       </c>
       <c r="I247" t="n">
-        <v>4.69</v>
+        <v>4.58</v>
       </c>
       <c r="J247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248">
@@ -8324,13 +8324,13 @@
         <v>12</v>
       </c>
       <c r="G248" t="n">
-        <v>55.93</v>
+        <v>61.78</v>
       </c>
       <c r="H248" t="n">
-        <v>19.91</v>
+        <v>19.2</v>
       </c>
       <c r="I248" t="n">
-        <v>5.36</v>
+        <v>5.1</v>
       </c>
       <c r="J248" t="n">
         <v>0</v>
@@ -8353,16 +8353,16 @@
         <v>21.12</v>
       </c>
       <c r="F249" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G249" t="n">
-        <v>54.22</v>
+        <v>53.68</v>
       </c>
       <c r="H249" t="n">
-        <v>17.86</v>
+        <v>20.35</v>
       </c>
       <c r="I249" t="n">
-        <v>7.58</v>
+        <v>3.92</v>
       </c>
       <c r="J249" t="n">
         <v>1</v>
@@ -8385,16 +8385,16 @@
         <v>20.69</v>
       </c>
       <c r="F250" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G250" t="n">
-        <v>50.25</v>
+        <v>53.41</v>
       </c>
       <c r="H250" t="n">
-        <v>19.18</v>
+        <v>19.29</v>
       </c>
       <c r="I250" t="n">
-        <v>4.21</v>
+        <v>4.45</v>
       </c>
       <c r="J250" t="n">
         <v>1</v>
@@ -8420,13 +8420,13 @@
         <v>12</v>
       </c>
       <c r="G251" t="n">
-        <v>58.63</v>
+        <v>53.86</v>
       </c>
       <c r="H251" t="n">
-        <v>20.21</v>
+        <v>19.4</v>
       </c>
       <c r="I251" t="n">
-        <v>0.99</v>
+        <v>3.65</v>
       </c>
       <c r="J251" t="n">
         <v>1</v>
@@ -8449,19 +8449,19 @@
         <v>19.9</v>
       </c>
       <c r="F252" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G252" t="n">
-        <v>64.98</v>
+        <v>56.24</v>
       </c>
       <c r="H252" t="n">
-        <v>19.35</v>
+        <v>19.42</v>
       </c>
       <c r="I252" t="n">
-        <v>4.73</v>
+        <v>2.64</v>
       </c>
       <c r="J252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
@@ -8481,16 +8481,16 @@
         <v>21.76</v>
       </c>
       <c r="F253" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G253" t="n">
-        <v>59.04</v>
+        <v>57.48</v>
       </c>
       <c r="H253" t="n">
-        <v>18.01</v>
+        <v>20.25</v>
       </c>
       <c r="I253" t="n">
-        <v>4.85</v>
+        <v>3.51</v>
       </c>
       <c r="J253" t="n">
         <v>1</v>
@@ -8516,13 +8516,13 @@
         <v>17</v>
       </c>
       <c r="G254" t="n">
-        <v>48.45</v>
+        <v>58.22</v>
       </c>
       <c r="H254" t="n">
-        <v>16.1</v>
+        <v>17.51</v>
       </c>
       <c r="I254" t="n">
-        <v>3.76</v>
+        <v>6.26</v>
       </c>
       <c r="J254" t="n">
         <v>0</v>
@@ -8548,13 +8548,13 @@
         <v>12</v>
       </c>
       <c r="G255" t="n">
-        <v>61.05</v>
+        <v>60.29</v>
       </c>
       <c r="H255" t="n">
-        <v>19.53</v>
+        <v>18.1</v>
       </c>
       <c r="I255" t="n">
-        <v>5.49</v>
+        <v>4.77</v>
       </c>
       <c r="J255" t="n">
         <v>1</v>
@@ -8580,13 +8580,13 @@
         <v>17</v>
       </c>
       <c r="G256" t="n">
-        <v>57.37</v>
+        <v>63.86</v>
       </c>
       <c r="H256" t="n">
-        <v>20.02</v>
+        <v>20.99</v>
       </c>
       <c r="I256" t="n">
-        <v>7.75</v>
+        <v>5.81</v>
       </c>
       <c r="J256" t="n">
         <v>1</v>
@@ -8609,16 +8609,16 @@
         <v>20.98</v>
       </c>
       <c r="F257" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G257" t="n">
-        <v>53.29</v>
+        <v>60.46</v>
       </c>
       <c r="H257" t="n">
-        <v>20.55</v>
+        <v>19.08</v>
       </c>
       <c r="I257" t="n">
-        <v>4.18</v>
+        <v>4.19</v>
       </c>
       <c r="J257" t="n">
         <v>1</v>
@@ -8644,13 +8644,13 @@
         <v>12</v>
       </c>
       <c r="G258" t="n">
-        <v>59.82</v>
+        <v>61.76</v>
       </c>
       <c r="H258" t="n">
-        <v>19.86</v>
+        <v>19.83</v>
       </c>
       <c r="I258" t="n">
-        <v>3.65</v>
+        <v>3.36</v>
       </c>
       <c r="J258" t="n">
         <v>0</v>
@@ -8676,16 +8676,16 @@
         <v>17</v>
       </c>
       <c r="G259" t="n">
-        <v>57.45</v>
+        <v>55.87</v>
       </c>
       <c r="H259" t="n">
-        <v>17.12</v>
+        <v>18.44</v>
       </c>
       <c r="I259" t="n">
-        <v>4.93</v>
+        <v>6.25</v>
       </c>
       <c r="J259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260">
@@ -8708,16 +8708,16 @@
         <v>12</v>
       </c>
       <c r="G260" t="n">
-        <v>56.26</v>
+        <v>57.64</v>
       </c>
       <c r="H260" t="n">
-        <v>19.17</v>
+        <v>19.12</v>
       </c>
       <c r="I260" t="n">
-        <v>4.73</v>
+        <v>5.47</v>
       </c>
       <c r="J260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261">
@@ -8740,13 +8740,13 @@
         <v>12</v>
       </c>
       <c r="G261" t="n">
-        <v>55.29</v>
+        <v>58.44</v>
       </c>
       <c r="H261" t="n">
-        <v>15.27</v>
+        <v>15.91</v>
       </c>
       <c r="I261" t="n">
-        <v>6.01</v>
+        <v>4.99</v>
       </c>
       <c r="J261" t="n">
         <v>1</v>
@@ -8769,19 +8769,19 @@
         <v>20.45</v>
       </c>
       <c r="F262" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G262" t="n">
-        <v>53.85</v>
+        <v>58.17</v>
       </c>
       <c r="H262" t="n">
-        <v>16.91</v>
+        <v>17.71</v>
       </c>
       <c r="I262" t="n">
-        <v>6.5</v>
+        <v>4.71</v>
       </c>
       <c r="J262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263">
@@ -8804,13 +8804,13 @@
         <v>12</v>
       </c>
       <c r="G263" t="n">
-        <v>63.83</v>
+        <v>63.71</v>
       </c>
       <c r="H263" t="n">
-        <v>18.07</v>
+        <v>20.23</v>
       </c>
       <c r="I263" t="n">
-        <v>4.11</v>
+        <v>4.34</v>
       </c>
       <c r="J263" t="n">
         <v>0</v>
@@ -8833,16 +8833,16 @@
         <v>20.48</v>
       </c>
       <c r="F264" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G264" t="n">
-        <v>53.75</v>
+        <v>60.18</v>
       </c>
       <c r="H264" t="n">
-        <v>19.83</v>
+        <v>17.13</v>
       </c>
       <c r="I264" t="n">
-        <v>4.5</v>
+        <v>3.65</v>
       </c>
       <c r="J264" t="n">
         <v>1</v>
@@ -8865,16 +8865,16 @@
         <v>20.15</v>
       </c>
       <c r="F265" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G265" t="n">
-        <v>55.23</v>
+        <v>57.01</v>
       </c>
       <c r="H265" t="n">
-        <v>19.37</v>
+        <v>19.25</v>
       </c>
       <c r="I265" t="n">
-        <v>7.01</v>
+        <v>3.9</v>
       </c>
       <c r="J265" t="n">
         <v>1</v>
@@ -8897,16 +8897,16 @@
         <v>20.64</v>
       </c>
       <c r="F266" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G266" t="n">
-        <v>57.18</v>
+        <v>56.3</v>
       </c>
       <c r="H266" t="n">
-        <v>17.63</v>
+        <v>19.35</v>
       </c>
       <c r="I266" t="n">
-        <v>3.24</v>
+        <v>1.41</v>
       </c>
       <c r="J266" t="n">
         <v>1</v>
@@ -8932,16 +8932,16 @@
         <v>12</v>
       </c>
       <c r="G267" t="n">
-        <v>54.94</v>
+        <v>65.61</v>
       </c>
       <c r="H267" t="n">
-        <v>17.1</v>
+        <v>17.94</v>
       </c>
       <c r="I267" t="n">
-        <v>6.23</v>
+        <v>5.87</v>
       </c>
       <c r="J267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268">
@@ -8961,19 +8961,19 @@
         <v>19.55</v>
       </c>
       <c r="F268" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G268" t="n">
-        <v>46.26</v>
+        <v>53.97</v>
       </c>
       <c r="H268" t="n">
-        <v>19.98</v>
+        <v>18.33</v>
       </c>
       <c r="I268" t="n">
-        <v>3.9</v>
+        <v>4.74</v>
       </c>
       <c r="J268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269">
@@ -8993,16 +8993,16 @@
         <v>18.13</v>
       </c>
       <c r="F269" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G269" t="n">
-        <v>49.88</v>
+        <v>54.97</v>
       </c>
       <c r="H269" t="n">
-        <v>18.02</v>
+        <v>16.41</v>
       </c>
       <c r="I269" t="n">
-        <v>3.65</v>
+        <v>2.76</v>
       </c>
       <c r="J269" t="n">
         <v>0</v>
@@ -9025,19 +9025,19 @@
         <v>19.39</v>
       </c>
       <c r="F270" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G270" t="n">
-        <v>57.3</v>
+        <v>57.45</v>
       </c>
       <c r="H270" t="n">
-        <v>16.92</v>
+        <v>18.57</v>
       </c>
       <c r="I270" t="n">
-        <v>6.73</v>
+        <v>3.66</v>
       </c>
       <c r="J270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271">
@@ -9057,16 +9057,16 @@
         <v>21.28</v>
       </c>
       <c r="F271" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G271" t="n">
-        <v>55.6</v>
+        <v>60.43</v>
       </c>
       <c r="H271" t="n">
-        <v>16.25</v>
+        <v>16.83</v>
       </c>
       <c r="I271" t="n">
-        <v>3.05</v>
+        <v>4.51</v>
       </c>
       <c r="J271" t="n">
         <v>1</v>
@@ -9092,16 +9092,16 @@
         <v>12</v>
       </c>
       <c r="G272" t="n">
-        <v>55.49</v>
+        <v>57.59</v>
       </c>
       <c r="H272" t="n">
-        <v>17.54</v>
+        <v>21.07</v>
       </c>
       <c r="I272" t="n">
-        <v>4.65</v>
+        <v>4.8</v>
       </c>
       <c r="J272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273">
@@ -9124,13 +9124,13 @@
         <v>12</v>
       </c>
       <c r="G273" t="n">
-        <v>56.89</v>
+        <v>57.55</v>
       </c>
       <c r="H273" t="n">
-        <v>18.12</v>
+        <v>21.87</v>
       </c>
       <c r="I273" t="n">
-        <v>5.53</v>
+        <v>2.28</v>
       </c>
       <c r="J273" t="n">
         <v>1</v>
@@ -9156,16 +9156,16 @@
         <v>12</v>
       </c>
       <c r="G274" t="n">
-        <v>60.06</v>
+        <v>65.31</v>
       </c>
       <c r="H274" t="n">
-        <v>18.71</v>
+        <v>16.73</v>
       </c>
       <c r="I274" t="n">
-        <v>5.14</v>
+        <v>5.91</v>
       </c>
       <c r="J274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275">
@@ -9185,16 +9185,16 @@
         <v>17.44</v>
       </c>
       <c r="F275" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G275" t="n">
-        <v>53.03</v>
+        <v>57</v>
       </c>
       <c r="H275" t="n">
-        <v>18.92</v>
+        <v>17.04</v>
       </c>
       <c r="I275" t="n">
-        <v>7.1</v>
+        <v>6.22</v>
       </c>
       <c r="J275" t="n">
         <v>0</v>
@@ -9217,16 +9217,16 @@
         <v>20.4</v>
       </c>
       <c r="F276" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G276" t="n">
-        <v>61.11</v>
+        <v>60.45</v>
       </c>
       <c r="H276" t="n">
-        <v>18.83</v>
+        <v>21.8</v>
       </c>
       <c r="I276" t="n">
-        <v>4.17</v>
+        <v>6.13</v>
       </c>
       <c r="J276" t="n">
         <v>1</v>
@@ -9249,16 +9249,16 @@
         <v>20.39</v>
       </c>
       <c r="F277" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G277" t="n">
-        <v>57.7</v>
+        <v>55.81</v>
       </c>
       <c r="H277" t="n">
-        <v>20.18</v>
+        <v>18.41</v>
       </c>
       <c r="I277" t="n">
-        <v>2.71</v>
+        <v>4.86</v>
       </c>
       <c r="J277" t="n">
         <v>1</v>
@@ -9284,13 +9284,13 @@
         <v>17</v>
       </c>
       <c r="G278" t="n">
-        <v>54.64</v>
+        <v>55.59</v>
       </c>
       <c r="H278" t="n">
-        <v>20.59</v>
+        <v>21.49</v>
       </c>
       <c r="I278" t="n">
-        <v>5.73</v>
+        <v>3.24</v>
       </c>
       <c r="J278" t="n">
         <v>1</v>
@@ -9313,19 +9313,19 @@
         <v>19.83</v>
       </c>
       <c r="F279" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G279" t="n">
-        <v>60.16</v>
+        <v>56.17</v>
       </c>
       <c r="H279" t="n">
-        <v>17.99</v>
+        <v>19.13</v>
       </c>
       <c r="I279" t="n">
-        <v>3.98</v>
+        <v>3.29</v>
       </c>
       <c r="J279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
@@ -9345,19 +9345,19 @@
         <v>20.71</v>
       </c>
       <c r="F280" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G280" t="n">
-        <v>49.34</v>
+        <v>56.42</v>
       </c>
       <c r="H280" t="n">
-        <v>16.32</v>
+        <v>17.07</v>
       </c>
       <c r="I280" t="n">
-        <v>6.11</v>
+        <v>5.65</v>
       </c>
       <c r="J280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281">
@@ -9377,19 +9377,19 @@
         <v>19.61</v>
       </c>
       <c r="F281" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G281" t="n">
-        <v>60.58</v>
+        <v>57.26</v>
       </c>
       <c r="H281" t="n">
-        <v>21.09</v>
+        <v>19.54</v>
       </c>
       <c r="I281" t="n">
-        <v>4.54</v>
+        <v>4.47</v>
       </c>
       <c r="J281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282">
@@ -9409,19 +9409,19 @@
         <v>17.06</v>
       </c>
       <c r="F282" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G282" t="n">
-        <v>56.86</v>
+        <v>58.12</v>
       </c>
       <c r="H282" t="n">
-        <v>19.96</v>
+        <v>18.4</v>
       </c>
       <c r="I282" t="n">
-        <v>7.22</v>
+        <v>4.31</v>
       </c>
       <c r="J282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283">
@@ -9441,16 +9441,16 @@
         <v>19.12</v>
       </c>
       <c r="F283" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G283" t="n">
-        <v>59.92</v>
+        <v>56.81</v>
       </c>
       <c r="H283" t="n">
-        <v>21.17</v>
+        <v>21.13</v>
       </c>
       <c r="I283" t="n">
-        <v>2.55</v>
+        <v>4.25</v>
       </c>
       <c r="J283" t="n">
         <v>0</v>
@@ -9473,16 +9473,16 @@
         <v>17.75</v>
       </c>
       <c r="F284" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G284" t="n">
-        <v>55.82</v>
+        <v>55.88</v>
       </c>
       <c r="H284" t="n">
-        <v>19.12</v>
+        <v>18.43</v>
       </c>
       <c r="I284" t="n">
-        <v>6.15</v>
+        <v>5.62</v>
       </c>
       <c r="J284" t="n">
         <v>0</v>
@@ -9505,16 +9505,16 @@
         <v>21.88</v>
       </c>
       <c r="F285" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G285" t="n">
-        <v>49.81</v>
+        <v>57.67</v>
       </c>
       <c r="H285" t="n">
-        <v>19.36</v>
+        <v>19.51</v>
       </c>
       <c r="I285" t="n">
-        <v>2.75</v>
+        <v>3.35</v>
       </c>
       <c r="J285" t="n">
         <v>1</v>
@@ -9537,19 +9537,19 @@
         <v>19.68</v>
       </c>
       <c r="F286" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G286" t="n">
-        <v>55.32</v>
+        <v>53.89</v>
       </c>
       <c r="H286" t="n">
-        <v>19.13</v>
+        <v>17.1</v>
       </c>
       <c r="I286" t="n">
-        <v>5.77</v>
+        <v>4.5</v>
       </c>
       <c r="J286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287">
@@ -9572,13 +9572,13 @@
         <v>12</v>
       </c>
       <c r="G287" t="n">
-        <v>56.26</v>
+        <v>54.84</v>
       </c>
       <c r="H287" t="n">
-        <v>19.45</v>
+        <v>19.18</v>
       </c>
       <c r="I287" t="n">
-        <v>3.89</v>
+        <v>4.72</v>
       </c>
       <c r="J287" t="n">
         <v>0</v>
@@ -9604,13 +9604,13 @@
         <v>12</v>
       </c>
       <c r="G288" t="n">
-        <v>55.22</v>
+        <v>57.77</v>
       </c>
       <c r="H288" t="n">
-        <v>18.39</v>
+        <v>17.15</v>
       </c>
       <c r="I288" t="n">
-        <v>4.57</v>
+        <v>5.98</v>
       </c>
       <c r="J288" t="n">
         <v>1</v>
@@ -9633,16 +9633,16 @@
         <v>19.71</v>
       </c>
       <c r="F289" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G289" t="n">
-        <v>55.59</v>
+        <v>54.34</v>
       </c>
       <c r="H289" t="n">
-        <v>20.13</v>
+        <v>15.55</v>
       </c>
       <c r="I289" t="n">
-        <v>4.42</v>
+        <v>4.52</v>
       </c>
       <c r="J289" t="n">
         <v>1</v>
@@ -9668,13 +9668,13 @@
         <v>12</v>
       </c>
       <c r="G290" t="n">
-        <v>60.93</v>
+        <v>59.93</v>
       </c>
       <c r="H290" t="n">
-        <v>17.23</v>
+        <v>16.44</v>
       </c>
       <c r="I290" t="n">
-        <v>3.95</v>
+        <v>5.35</v>
       </c>
       <c r="J290" t="n">
         <v>1</v>
@@ -9697,16 +9697,16 @@
         <v>20.03</v>
       </c>
       <c r="F291" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G291" t="n">
-        <v>58.02</v>
+        <v>56.38</v>
       </c>
       <c r="H291" t="n">
-        <v>18.52</v>
+        <v>19.14</v>
       </c>
       <c r="I291" t="n">
-        <v>5.83</v>
+        <v>3.63</v>
       </c>
       <c r="J291" t="n">
         <v>1</v>
@@ -9732,13 +9732,13 @@
         <v>12</v>
       </c>
       <c r="G292" t="n">
-        <v>56.67</v>
+        <v>57.34</v>
       </c>
       <c r="H292" t="n">
-        <v>20.58</v>
+        <v>17.63</v>
       </c>
       <c r="I292" t="n">
-        <v>6.4</v>
+        <v>4.08</v>
       </c>
       <c r="J292" t="n">
         <v>1</v>
@@ -9764,13 +9764,13 @@
         <v>17</v>
       </c>
       <c r="G293" t="n">
-        <v>54.96</v>
+        <v>55.9</v>
       </c>
       <c r="H293" t="n">
-        <v>18.15</v>
+        <v>16.74</v>
       </c>
       <c r="I293" t="n">
-        <v>4.64</v>
+        <v>4.73</v>
       </c>
       <c r="J293" t="n">
         <v>1</v>
@@ -9796,13 +9796,13 @@
         <v>12</v>
       </c>
       <c r="G294" t="n">
-        <v>66.14</v>
+        <v>61.46</v>
       </c>
       <c r="H294" t="n">
-        <v>18.17</v>
+        <v>19.44</v>
       </c>
       <c r="I294" t="n">
-        <v>5.01</v>
+        <v>2.85</v>
       </c>
       <c r="J294" t="n">
         <v>1</v>
@@ -9825,16 +9825,16 @@
         <v>20.84</v>
       </c>
       <c r="F295" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G295" t="n">
-        <v>53.71</v>
+        <v>57.51</v>
       </c>
       <c r="H295" t="n">
-        <v>17.09</v>
+        <v>19.5</v>
       </c>
       <c r="I295" t="n">
-        <v>3.84</v>
+        <v>6.07</v>
       </c>
       <c r="J295" t="n">
         <v>1</v>
@@ -9857,19 +9857,19 @@
         <v>19.4</v>
       </c>
       <c r="F296" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G296" t="n">
-        <v>58.6</v>
+        <v>64.12</v>
       </c>
       <c r="H296" t="n">
-        <v>17.67</v>
+        <v>16.84</v>
       </c>
       <c r="I296" t="n">
-        <v>4.97</v>
+        <v>6.82</v>
       </c>
       <c r="J296" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297">
@@ -9889,16 +9889,16 @@
         <v>21.33</v>
       </c>
       <c r="F297" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G297" t="n">
-        <v>64.86</v>
+        <v>60.84</v>
       </c>
       <c r="H297" t="n">
-        <v>17.38</v>
+        <v>18.68</v>
       </c>
       <c r="I297" t="n">
-        <v>6.99</v>
+        <v>4.94</v>
       </c>
       <c r="J297" t="n">
         <v>1</v>
@@ -9921,16 +9921,16 @@
         <v>18.66</v>
       </c>
       <c r="F298" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G298" t="n">
-        <v>60.19</v>
+        <v>55.31</v>
       </c>
       <c r="H298" t="n">
-        <v>19.29</v>
+        <v>18.41</v>
       </c>
       <c r="I298" t="n">
-        <v>6.48</v>
+        <v>5.14</v>
       </c>
       <c r="J298" t="n">
         <v>0</v>
@@ -9953,16 +9953,16 @@
         <v>19.11</v>
       </c>
       <c r="F299" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G299" t="n">
-        <v>49.74</v>
+        <v>56.59</v>
       </c>
       <c r="H299" t="n">
-        <v>18.17</v>
+        <v>17.42</v>
       </c>
       <c r="I299" t="n">
-        <v>4.03</v>
+        <v>3.96</v>
       </c>
       <c r="J299" t="n">
         <v>0</v>
@@ -9985,19 +9985,19 @@
         <v>20.24</v>
       </c>
       <c r="F300" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G300" t="n">
-        <v>54.4</v>
+        <v>58.04</v>
       </c>
       <c r="H300" t="n">
-        <v>17.42</v>
+        <v>17.09</v>
       </c>
       <c r="I300" t="n">
-        <v>4.41</v>
+        <v>5.68</v>
       </c>
       <c r="J300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301">
@@ -10020,16 +10020,16 @@
         <v>12</v>
       </c>
       <c r="G301" t="n">
-        <v>55.91</v>
+        <v>57.35</v>
       </c>
       <c r="H301" t="n">
-        <v>20.19</v>
+        <v>20.97</v>
       </c>
       <c r="I301" t="n">
-        <v>5.83</v>
+        <v>6.32</v>
       </c>
       <c r="J301" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302">
@@ -10052,13 +10052,13 @@
         <v>12</v>
       </c>
       <c r="G302" t="n">
-        <v>57.28</v>
+        <v>63.63</v>
       </c>
       <c r="H302" t="n">
-        <v>20.04</v>
+        <v>16.93</v>
       </c>
       <c r="I302" t="n">
-        <v>5.6</v>
+        <v>4.64</v>
       </c>
       <c r="J302" t="n">
         <v>1</v>
@@ -10084,16 +10084,16 @@
         <v>12</v>
       </c>
       <c r="G303" t="n">
-        <v>51.54</v>
+        <v>51.86</v>
       </c>
       <c r="H303" t="n">
-        <v>19.01</v>
+        <v>17.56</v>
       </c>
       <c r="I303" t="n">
-        <v>7.79</v>
+        <v>5.1</v>
       </c>
       <c r="J303" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304">
@@ -10113,16 +10113,16 @@
         <v>20.54</v>
       </c>
       <c r="F304" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G304" t="n">
-        <v>56.49</v>
+        <v>53.19</v>
       </c>
       <c r="H304" t="n">
-        <v>13.96</v>
+        <v>15.42</v>
       </c>
       <c r="I304" t="n">
-        <v>4.14</v>
+        <v>1.89</v>
       </c>
       <c r="J304" t="n">
         <v>1</v>
@@ -10148,16 +10148,16 @@
         <v>17</v>
       </c>
       <c r="G305" t="n">
-        <v>55.27</v>
+        <v>57.66</v>
       </c>
       <c r="H305" t="n">
-        <v>17.5</v>
+        <v>20.16</v>
       </c>
       <c r="I305" t="n">
-        <v>4.38</v>
+        <v>4.4</v>
       </c>
       <c r="J305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306">
@@ -10177,16 +10177,16 @@
         <v>21.04</v>
       </c>
       <c r="F306" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G306" t="n">
-        <v>53.86</v>
+        <v>66.87</v>
       </c>
       <c r="H306" t="n">
-        <v>18.58</v>
+        <v>18.96</v>
       </c>
       <c r="I306" t="n">
-        <v>4.06</v>
+        <v>5.37</v>
       </c>
       <c r="J306" t="n">
         <v>1</v>
@@ -10209,16 +10209,16 @@
         <v>20.76</v>
       </c>
       <c r="F307" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G307" t="n">
-        <v>61.27</v>
+        <v>56.09</v>
       </c>
       <c r="H307" t="n">
-        <v>17.29</v>
+        <v>21.05</v>
       </c>
       <c r="I307" t="n">
-        <v>5.45</v>
+        <v>4.25</v>
       </c>
       <c r="J307" t="n">
         <v>1</v>
@@ -10241,16 +10241,16 @@
         <v>21.84</v>
       </c>
       <c r="F308" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G308" t="n">
-        <v>56.06</v>
+        <v>59.87</v>
       </c>
       <c r="H308" t="n">
-        <v>18.14</v>
+        <v>20.31</v>
       </c>
       <c r="I308" t="n">
-        <v>4.5</v>
+        <v>3.45</v>
       </c>
       <c r="J308" t="n">
         <v>1</v>
@@ -10276,13 +10276,13 @@
         <v>12</v>
       </c>
       <c r="G309" t="n">
-        <v>58.76</v>
+        <v>58.04</v>
       </c>
       <c r="H309" t="n">
-        <v>20.17</v>
+        <v>20.82</v>
       </c>
       <c r="I309" t="n">
-        <v>4.68</v>
+        <v>4.07</v>
       </c>
       <c r="J309" t="n">
         <v>1</v>
@@ -10305,16 +10305,16 @@
         <v>18.39</v>
       </c>
       <c r="F310" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G310" t="n">
-        <v>54.33</v>
+        <v>57.03</v>
       </c>
       <c r="H310" t="n">
-        <v>16.78</v>
+        <v>16.91</v>
       </c>
       <c r="I310" t="n">
-        <v>3.98</v>
+        <v>6.58</v>
       </c>
       <c r="J310" t="n">
         <v>1</v>
@@ -10337,16 +10337,16 @@
         <v>20.35</v>
       </c>
       <c r="F311" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G311" t="n">
-        <v>59.53</v>
+        <v>51.28</v>
       </c>
       <c r="H311" t="n">
-        <v>20.09</v>
+        <v>17.12</v>
       </c>
       <c r="I311" t="n">
-        <v>6.17</v>
+        <v>4.47</v>
       </c>
       <c r="J311" t="n">
         <v>1</v>
@@ -10372,16 +10372,16 @@
         <v>12</v>
       </c>
       <c r="G312" t="n">
-        <v>57.41</v>
+        <v>59.91</v>
       </c>
       <c r="H312" t="n">
-        <v>16.36</v>
+        <v>15.75</v>
       </c>
       <c r="I312" t="n">
-        <v>5.67</v>
+        <v>4.75</v>
       </c>
       <c r="J312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313">
@@ -10404,16 +10404,16 @@
         <v>12</v>
       </c>
       <c r="G313" t="n">
-        <v>57.5</v>
+        <v>59.3</v>
       </c>
       <c r="H313" t="n">
-        <v>17.5</v>
+        <v>16.17</v>
       </c>
       <c r="I313" t="n">
-        <v>6.97</v>
+        <v>6.09</v>
       </c>
       <c r="J313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314">
@@ -10436,16 +10436,16 @@
         <v>12</v>
       </c>
       <c r="G314" t="n">
-        <v>57.76</v>
+        <v>55.24</v>
       </c>
       <c r="H314" t="n">
-        <v>17.89</v>
+        <v>15.47</v>
       </c>
       <c r="I314" t="n">
-        <v>4.11</v>
+        <v>4.96</v>
       </c>
       <c r="J314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315">
@@ -10468,13 +10468,13 @@
         <v>12</v>
       </c>
       <c r="G315" t="n">
-        <v>57.87</v>
+        <v>60.27</v>
       </c>
       <c r="H315" t="n">
-        <v>16.33</v>
+        <v>15.86</v>
       </c>
       <c r="I315" t="n">
-        <v>3.78</v>
+        <v>7.43</v>
       </c>
       <c r="J315" t="n">
         <v>1</v>
@@ -10497,16 +10497,16 @@
         <v>20.4</v>
       </c>
       <c r="F316" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G316" t="n">
-        <v>55.99</v>
+        <v>54.06</v>
       </c>
       <c r="H316" t="n">
-        <v>19.91</v>
+        <v>17.77</v>
       </c>
       <c r="I316" t="n">
-        <v>6.27</v>
+        <v>5.11</v>
       </c>
       <c r="J316" t="n">
         <v>1</v>
@@ -10529,16 +10529,16 @@
         <v>20</v>
       </c>
       <c r="F317" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G317" t="n">
-        <v>59.22</v>
+        <v>54.45</v>
       </c>
       <c r="H317" t="n">
-        <v>16.73</v>
+        <v>16.81</v>
       </c>
       <c r="I317" t="n">
-        <v>1.68</v>
+        <v>4.79</v>
       </c>
       <c r="J317" t="n">
         <v>0</v>
@@ -10564,16 +10564,16 @@
         <v>12</v>
       </c>
       <c r="G318" t="n">
-        <v>66.08</v>
+        <v>58.58</v>
       </c>
       <c r="H318" t="n">
-        <v>17.92</v>
+        <v>19.14</v>
       </c>
       <c r="I318" t="n">
-        <v>5.21</v>
+        <v>3.86</v>
       </c>
       <c r="J318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319">
@@ -10593,16 +10593,16 @@
         <v>22.05</v>
       </c>
       <c r="F319" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G319" t="n">
-        <v>55</v>
+        <v>55.35</v>
       </c>
       <c r="H319" t="n">
-        <v>19.29</v>
+        <v>20.42</v>
       </c>
       <c r="I319" t="n">
-        <v>5.26</v>
+        <v>3.26</v>
       </c>
       <c r="J319" t="n">
         <v>1</v>
@@ -10625,16 +10625,16 @@
         <v>20.99</v>
       </c>
       <c r="F320" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G320" t="n">
-        <v>57.83</v>
+        <v>56.47</v>
       </c>
       <c r="H320" t="n">
-        <v>18.26</v>
+        <v>15.08</v>
       </c>
       <c r="I320" t="n">
-        <v>5.31</v>
+        <v>3.57</v>
       </c>
       <c r="J320" t="n">
         <v>1</v>
@@ -10660,13 +10660,13 @@
         <v>12</v>
       </c>
       <c r="G321" t="n">
-        <v>58.91</v>
+        <v>50.3</v>
       </c>
       <c r="H321" t="n">
-        <v>16.63</v>
+        <v>18.91</v>
       </c>
       <c r="I321" t="n">
-        <v>4.72</v>
+        <v>2.14</v>
       </c>
       <c r="J321" t="n">
         <v>0</v>
@@ -10689,16 +10689,16 @@
         <v>22.18</v>
       </c>
       <c r="F322" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G322" t="n">
-        <v>56.96</v>
+        <v>61.22</v>
       </c>
       <c r="H322" t="n">
-        <v>20.45</v>
+        <v>20.99</v>
       </c>
       <c r="I322" t="n">
-        <v>4.38</v>
+        <v>4.44</v>
       </c>
       <c r="J322" t="n">
         <v>1</v>
@@ -10724,13 +10724,13 @@
         <v>17</v>
       </c>
       <c r="G323" t="n">
-        <v>55.01</v>
+        <v>51.07</v>
       </c>
       <c r="H323" t="n">
-        <v>20.61</v>
+        <v>20.22</v>
       </c>
       <c r="I323" t="n">
-        <v>3.99</v>
+        <v>5.83</v>
       </c>
       <c r="J323" t="n">
         <v>1</v>
@@ -10753,16 +10753,16 @@
         <v>19.32</v>
       </c>
       <c r="F324" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G324" t="n">
-        <v>62.94</v>
+        <v>57.82</v>
       </c>
       <c r="H324" t="n">
-        <v>19.31</v>
+        <v>17.35</v>
       </c>
       <c r="I324" t="n">
-        <v>5.8</v>
+        <v>5.15</v>
       </c>
       <c r="J324" t="n">
         <v>1</v>
@@ -10785,19 +10785,19 @@
         <v>21.21</v>
       </c>
       <c r="F325" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G325" t="n">
-        <v>54.4</v>
+        <v>54.98</v>
       </c>
       <c r="H325" t="n">
-        <v>17.09</v>
+        <v>18.45</v>
       </c>
       <c r="I325" t="n">
-        <v>1.51</v>
+        <v>4.61</v>
       </c>
       <c r="J325" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326">
@@ -10820,16 +10820,16 @@
         <v>12</v>
       </c>
       <c r="G326" t="n">
-        <v>60.76</v>
+        <v>52.39</v>
       </c>
       <c r="H326" t="n">
-        <v>18.99</v>
+        <v>17.13</v>
       </c>
       <c r="I326" t="n">
-        <v>3.02</v>
+        <v>4.45</v>
       </c>
       <c r="J326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327">
@@ -10849,16 +10849,16 @@
         <v>17.57</v>
       </c>
       <c r="F327" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G327" t="n">
-        <v>58.86</v>
+        <v>51.18</v>
       </c>
       <c r="H327" t="n">
-        <v>15.04</v>
+        <v>17.87</v>
       </c>
       <c r="I327" t="n">
-        <v>3.42</v>
+        <v>3.28</v>
       </c>
       <c r="J327" t="n">
         <v>0</v>
@@ -10884,13 +10884,13 @@
         <v>17</v>
       </c>
       <c r="G328" t="n">
-        <v>64.13</v>
+        <v>63.5</v>
       </c>
       <c r="H328" t="n">
-        <v>20</v>
+        <v>20.36</v>
       </c>
       <c r="I328" t="n">
-        <v>6.12</v>
+        <v>6.23</v>
       </c>
       <c r="J328" t="n">
         <v>1</v>
@@ -10916,13 +10916,13 @@
         <v>18</v>
       </c>
       <c r="G329" t="n">
-        <v>56.83</v>
+        <v>58.08</v>
       </c>
       <c r="H329" t="n">
-        <v>20.7</v>
+        <v>18.43</v>
       </c>
       <c r="I329" t="n">
-        <v>7.55</v>
+        <v>6.36</v>
       </c>
       <c r="J329" t="n">
         <v>1</v>
@@ -10945,16 +10945,16 @@
         <v>16</v>
       </c>
       <c r="F330" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G330" t="n">
-        <v>57.13</v>
+        <v>54.1</v>
       </c>
       <c r="H330" t="n">
-        <v>18.82</v>
+        <v>20.96</v>
       </c>
       <c r="I330" t="n">
-        <v>5.36</v>
+        <v>8.33</v>
       </c>
       <c r="J330" t="n">
         <v>0</v>
@@ -10980,13 +10980,13 @@
         <v>12</v>
       </c>
       <c r="G331" t="n">
-        <v>55.78</v>
+        <v>53.53</v>
       </c>
       <c r="H331" t="n">
-        <v>19.08</v>
+        <v>17.18</v>
       </c>
       <c r="I331" t="n">
-        <v>3.97</v>
+        <v>7.15</v>
       </c>
       <c r="J331" t="n">
         <v>1</v>
@@ -11012,13 +11012,13 @@
         <v>12</v>
       </c>
       <c r="G332" t="n">
-        <v>59.21</v>
+        <v>53.99</v>
       </c>
       <c r="H332" t="n">
-        <v>17.36</v>
+        <v>17</v>
       </c>
       <c r="I332" t="n">
-        <v>5.86</v>
+        <v>3.88</v>
       </c>
       <c r="J332" t="n">
         <v>1</v>
@@ -11041,19 +11041,19 @@
         <v>20.12</v>
       </c>
       <c r="F333" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G333" t="n">
-        <v>57.9</v>
+        <v>56.76</v>
       </c>
       <c r="H333" t="n">
-        <v>18.32</v>
+        <v>19.18</v>
       </c>
       <c r="I333" t="n">
-        <v>2.27</v>
+        <v>7</v>
       </c>
       <c r="J333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334">
@@ -11073,16 +11073,16 @@
         <v>20.36</v>
       </c>
       <c r="F334" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G334" t="n">
-        <v>51.57</v>
+        <v>56.97</v>
       </c>
       <c r="H334" t="n">
-        <v>18.31</v>
+        <v>18.89</v>
       </c>
       <c r="I334" t="n">
-        <v>4.73</v>
+        <v>7.63</v>
       </c>
       <c r="J334" t="n">
         <v>1</v>
@@ -11105,19 +11105,19 @@
         <v>19.98</v>
       </c>
       <c r="F335" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G335" t="n">
-        <v>54.34</v>
+        <v>61.85</v>
       </c>
       <c r="H335" t="n">
-        <v>18.51</v>
+        <v>19.73</v>
       </c>
       <c r="I335" t="n">
-        <v>6.45</v>
+        <v>4.85</v>
       </c>
       <c r="J335" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336">
@@ -11140,13 +11140,13 @@
         <v>12</v>
       </c>
       <c r="G336" t="n">
-        <v>57.14</v>
+        <v>55.08</v>
       </c>
       <c r="H336" t="n">
-        <v>15.11</v>
+        <v>21.04</v>
       </c>
       <c r="I336" t="n">
-        <v>5.09</v>
+        <v>7.6</v>
       </c>
       <c r="J336" t="n">
         <v>1</v>
@@ -11172,16 +11172,16 @@
         <v>17</v>
       </c>
       <c r="G337" t="n">
-        <v>61.25</v>
+        <v>53.29</v>
       </c>
       <c r="H337" t="n">
-        <v>17.05</v>
+        <v>17.14</v>
       </c>
       <c r="I337" t="n">
-        <v>5.52</v>
+        <v>5.63</v>
       </c>
       <c r="J337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338">
@@ -11201,16 +11201,16 @@
         <v>20.72</v>
       </c>
       <c r="F338" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G338" t="n">
-        <v>56.73</v>
+        <v>53.38</v>
       </c>
       <c r="H338" t="n">
-        <v>18.96</v>
+        <v>15.38</v>
       </c>
       <c r="I338" t="n">
-        <v>4.78</v>
+        <v>4.65</v>
       </c>
       <c r="J338" t="n">
         <v>1</v>
@@ -11233,19 +11233,19 @@
         <v>21.79</v>
       </c>
       <c r="F339" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G339" t="n">
-        <v>58.7</v>
+        <v>59.59</v>
       </c>
       <c r="H339" t="n">
-        <v>18.65</v>
+        <v>18.51</v>
       </c>
       <c r="I339" t="n">
-        <v>5.52</v>
+        <v>4.36</v>
       </c>
       <c r="J339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340">
@@ -11265,16 +11265,16 @@
         <v>21.18</v>
       </c>
       <c r="F340" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G340" t="n">
-        <v>60.25</v>
+        <v>57.4</v>
       </c>
       <c r="H340" t="n">
-        <v>16.35</v>
+        <v>17.67</v>
       </c>
       <c r="I340" t="n">
-        <v>6.3</v>
+        <v>4.23</v>
       </c>
       <c r="J340" t="n">
         <v>1</v>
@@ -11297,16 +11297,16 @@
         <v>20.59</v>
       </c>
       <c r="F341" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G341" t="n">
-        <v>57.78</v>
+        <v>57.08</v>
       </c>
       <c r="H341" t="n">
-        <v>18.24</v>
+        <v>16.96</v>
       </c>
       <c r="I341" t="n">
-        <v>5.94</v>
+        <v>5.13</v>
       </c>
       <c r="J341" t="n">
         <v>1</v>
@@ -11332,13 +11332,13 @@
         <v>12</v>
       </c>
       <c r="G342" t="n">
-        <v>56.96</v>
+        <v>52.34</v>
       </c>
       <c r="H342" t="n">
-        <v>18.28</v>
+        <v>17.89</v>
       </c>
       <c r="I342" t="n">
-        <v>3.86</v>
+        <v>5.69</v>
       </c>
       <c r="J342" t="n">
         <v>1</v>
@@ -11364,13 +11364,13 @@
         <v>18</v>
       </c>
       <c r="G343" t="n">
-        <v>60.28</v>
+        <v>58.97</v>
       </c>
       <c r="H343" t="n">
-        <v>19.1</v>
+        <v>16.76</v>
       </c>
       <c r="I343" t="n">
-        <v>4.19</v>
+        <v>4.73</v>
       </c>
       <c r="J343" t="n">
         <v>1</v>
@@ -11396,13 +11396,13 @@
         <v>12</v>
       </c>
       <c r="G344" t="n">
-        <v>62.7</v>
+        <v>63.31</v>
       </c>
       <c r="H344" t="n">
-        <v>17.52</v>
+        <v>18.76</v>
       </c>
       <c r="I344" t="n">
-        <v>5.59</v>
+        <v>4.91</v>
       </c>
       <c r="J344" t="n">
         <v>1</v>
@@ -11425,16 +11425,16 @@
         <v>20.95</v>
       </c>
       <c r="F345" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G345" t="n">
-        <v>59.55</v>
+        <v>56.02</v>
       </c>
       <c r="H345" t="n">
-        <v>16.54</v>
+        <v>17.43</v>
       </c>
       <c r="I345" t="n">
-        <v>4.47</v>
+        <v>6.37</v>
       </c>
       <c r="J345" t="n">
         <v>1</v>
@@ -11460,13 +11460,13 @@
         <v>12</v>
       </c>
       <c r="G346" t="n">
-        <v>52.98</v>
+        <v>57.16</v>
       </c>
       <c r="H346" t="n">
-        <v>18.32</v>
+        <v>18.19</v>
       </c>
       <c r="I346" t="n">
-        <v>5.31</v>
+        <v>5.82</v>
       </c>
       <c r="J346" t="n">
         <v>1</v>
@@ -11492,13 +11492,13 @@
         <v>12</v>
       </c>
       <c r="G347" t="n">
-        <v>59.96</v>
+        <v>57.55</v>
       </c>
       <c r="H347" t="n">
-        <v>19.46</v>
+        <v>18.6</v>
       </c>
       <c r="I347" t="n">
-        <v>3.38</v>
+        <v>6.85</v>
       </c>
       <c r="J347" t="n">
         <v>1</v>
@@ -11524,16 +11524,16 @@
         <v>12</v>
       </c>
       <c r="G348" t="n">
-        <v>57.88</v>
+        <v>54.13</v>
       </c>
       <c r="H348" t="n">
-        <v>19.24</v>
+        <v>18.83</v>
       </c>
       <c r="I348" t="n">
-        <v>5.3</v>
+        <v>5.42</v>
       </c>
       <c r="J348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349">
@@ -11553,16 +11553,16 @@
         <v>23.74</v>
       </c>
       <c r="F349" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G349" t="n">
-        <v>57.74</v>
+        <v>54.08</v>
       </c>
       <c r="H349" t="n">
-        <v>16.07</v>
+        <v>18.63</v>
       </c>
       <c r="I349" t="n">
-        <v>6.98</v>
+        <v>3.85</v>
       </c>
       <c r="J349" t="n">
         <v>1</v>
@@ -11585,19 +11585,19 @@
         <v>18.43</v>
       </c>
       <c r="F350" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G350" t="n">
-        <v>51.8</v>
+        <v>55.6</v>
       </c>
       <c r="H350" t="n">
-        <v>19.07</v>
+        <v>16.85</v>
       </c>
       <c r="I350" t="n">
-        <v>2.39</v>
+        <v>5.29</v>
       </c>
       <c r="J350" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351">
@@ -11617,19 +11617,19 @@
         <v>19.09</v>
       </c>
       <c r="F351" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G351" t="n">
-        <v>58.5</v>
+        <v>53.67</v>
       </c>
       <c r="H351" t="n">
-        <v>17.34</v>
+        <v>18.6</v>
       </c>
       <c r="I351" t="n">
-        <v>6.04</v>
+        <v>5.16</v>
       </c>
       <c r="J351" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352">
@@ -11649,16 +11649,16 @@
         <v>20.38</v>
       </c>
       <c r="F352" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G352" t="n">
-        <v>57.35</v>
+        <v>56.4</v>
       </c>
       <c r="H352" t="n">
-        <v>16.76</v>
+        <v>20.51</v>
       </c>
       <c r="I352" t="n">
-        <v>6.71</v>
+        <v>2.81</v>
       </c>
       <c r="J352" t="n">
         <v>1</v>
@@ -11681,19 +11681,19 @@
         <v>19.84</v>
       </c>
       <c r="F353" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G353" t="n">
-        <v>53.26</v>
+        <v>57.12</v>
       </c>
       <c r="H353" t="n">
-        <v>17.91</v>
+        <v>20.43</v>
       </c>
       <c r="I353" t="n">
-        <v>6.92</v>
+        <v>7.63</v>
       </c>
       <c r="J353" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354">
@@ -11713,19 +11713,19 @@
         <v>18.84</v>
       </c>
       <c r="F354" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G354" t="n">
-        <v>49.97</v>
+        <v>58.29</v>
       </c>
       <c r="H354" t="n">
-        <v>19.49</v>
+        <v>19.44</v>
       </c>
       <c r="I354" t="n">
-        <v>5.6</v>
+        <v>3.42</v>
       </c>
       <c r="J354" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355">
@@ -11748,16 +11748,16 @@
         <v>12</v>
       </c>
       <c r="G355" t="n">
-        <v>59.78</v>
+        <v>54.21</v>
       </c>
       <c r="H355" t="n">
-        <v>19.03</v>
+        <v>17.75</v>
       </c>
       <c r="I355" t="n">
-        <v>4.35</v>
+        <v>5</v>
       </c>
       <c r="J355" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356">
@@ -11780,13 +11780,13 @@
         <v>12</v>
       </c>
       <c r="G356" t="n">
-        <v>60.39</v>
+        <v>57.01</v>
       </c>
       <c r="H356" t="n">
-        <v>19.59</v>
+        <v>18.89</v>
       </c>
       <c r="I356" t="n">
-        <v>5.05</v>
+        <v>6.93</v>
       </c>
       <c r="J356" t="n">
         <v>1</v>
@@ -11809,16 +11809,16 @@
         <v>18.58</v>
       </c>
       <c r="F357" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G357" t="n">
-        <v>54.73</v>
+        <v>53.6</v>
       </c>
       <c r="H357" t="n">
-        <v>19.04</v>
+        <v>15.92</v>
       </c>
       <c r="I357" t="n">
-        <v>5.08</v>
+        <v>4.01</v>
       </c>
       <c r="J357" t="n">
         <v>1</v>
@@ -11844,13 +11844,13 @@
         <v>17</v>
       </c>
       <c r="G358" t="n">
-        <v>57.67</v>
+        <v>54.88</v>
       </c>
       <c r="H358" t="n">
-        <v>18.57</v>
+        <v>17.69</v>
       </c>
       <c r="I358" t="n">
-        <v>5.67</v>
+        <v>4.5</v>
       </c>
       <c r="J358" t="n">
         <v>0</v>
@@ -11876,16 +11876,16 @@
         <v>17</v>
       </c>
       <c r="G359" t="n">
-        <v>58.62</v>
+        <v>52.9</v>
       </c>
       <c r="H359" t="n">
-        <v>16.99</v>
+        <v>17.93</v>
       </c>
       <c r="I359" t="n">
-        <v>5.31</v>
+        <v>4.95</v>
       </c>
       <c r="J359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360">
@@ -11905,16 +11905,16 @@
         <v>21.62</v>
       </c>
       <c r="F360" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G360" t="n">
-        <v>57.84</v>
+        <v>57.96</v>
       </c>
       <c r="H360" t="n">
-        <v>16.91</v>
+        <v>18.69</v>
       </c>
       <c r="I360" t="n">
-        <v>4.97</v>
+        <v>5.24</v>
       </c>
       <c r="J360" t="n">
         <v>1</v>
@@ -11940,13 +11940,13 @@
         <v>12</v>
       </c>
       <c r="G361" t="n">
-        <v>64.06</v>
+        <v>47.41</v>
       </c>
       <c r="H361" t="n">
-        <v>17.37</v>
+        <v>19.93</v>
       </c>
       <c r="I361" t="n">
-        <v>3.78</v>
+        <v>3.05</v>
       </c>
       <c r="J361" t="n">
         <v>0</v>
@@ -11969,19 +11969,19 @@
         <v>19.46</v>
       </c>
       <c r="F362" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G362" t="n">
-        <v>54.24</v>
+        <v>59.72</v>
       </c>
       <c r="H362" t="n">
-        <v>19.29</v>
+        <v>18.1</v>
       </c>
       <c r="I362" t="n">
-        <v>5.07</v>
+        <v>3.68</v>
       </c>
       <c r="J362" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363">
@@ -12001,19 +12001,19 @@
         <v>20.43</v>
       </c>
       <c r="F363" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G363" t="n">
-        <v>57.43</v>
+        <v>53.67</v>
       </c>
       <c r="H363" t="n">
-        <v>18.72</v>
+        <v>19.42</v>
       </c>
       <c r="I363" t="n">
-        <v>6.11</v>
+        <v>3.22</v>
       </c>
       <c r="J363" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364">
@@ -12033,16 +12033,16 @@
         <v>21.82</v>
       </c>
       <c r="F364" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G364" t="n">
-        <v>61.42</v>
+        <v>56.01</v>
       </c>
       <c r="H364" t="n">
-        <v>18.11</v>
+        <v>17.59</v>
       </c>
       <c r="I364" t="n">
-        <v>5.88</v>
+        <v>7.05</v>
       </c>
       <c r="J364" t="n">
         <v>1</v>
@@ -12065,16 +12065,16 @@
         <v>21.79</v>
       </c>
       <c r="F365" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G365" t="n">
-        <v>55.87</v>
+        <v>55.74</v>
       </c>
       <c r="H365" t="n">
-        <v>19.96</v>
+        <v>14.78</v>
       </c>
       <c r="I365" t="n">
-        <v>3.2</v>
+        <v>2.02</v>
       </c>
       <c r="J365" t="n">
         <v>1</v>
@@ -12100,13 +12100,13 @@
         <v>12</v>
       </c>
       <c r="G366" t="n">
-        <v>55.23</v>
+        <v>58.08</v>
       </c>
       <c r="H366" t="n">
-        <v>20.02</v>
+        <v>19.62</v>
       </c>
       <c r="I366" t="n">
-        <v>5.89</v>
+        <v>6.07</v>
       </c>
       <c r="J366" t="n">
         <v>0</v>
@@ -12132,13 +12132,13 @@
         <v>12</v>
       </c>
       <c r="G367" t="n">
-        <v>59.29</v>
+        <v>57.82</v>
       </c>
       <c r="H367" t="n">
-        <v>20.11</v>
+        <v>19.61</v>
       </c>
       <c r="I367" t="n">
-        <v>6.03</v>
+        <v>6.37</v>
       </c>
       <c r="J367" t="n">
         <v>1</v>
@@ -12164,16 +12164,16 @@
         <v>12</v>
       </c>
       <c r="G368" t="n">
-        <v>55.89</v>
+        <v>55.22</v>
       </c>
       <c r="H368" t="n">
-        <v>17.2</v>
+        <v>16.69</v>
       </c>
       <c r="I368" t="n">
-        <v>4.5</v>
+        <v>2.26</v>
       </c>
       <c r="J368" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369">
@@ -12193,19 +12193,19 @@
         <v>21.86</v>
       </c>
       <c r="F369" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G369" t="n">
-        <v>60.99</v>
+        <v>61.67</v>
       </c>
       <c r="H369" t="n">
-        <v>19.3</v>
+        <v>17.72</v>
       </c>
       <c r="I369" t="n">
-        <v>4.67</v>
+        <v>3.58</v>
       </c>
       <c r="J369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370">
@@ -12228,16 +12228,16 @@
         <v>12</v>
       </c>
       <c r="G370" t="n">
-        <v>58.94</v>
+        <v>49.14</v>
       </c>
       <c r="H370" t="n">
-        <v>17.74</v>
+        <v>17.53</v>
       </c>
       <c r="I370" t="n">
-        <v>5.91</v>
+        <v>5.38</v>
       </c>
       <c r="J370" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371">
@@ -12257,16 +12257,16 @@
         <v>20.53</v>
       </c>
       <c r="F371" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G371" t="n">
-        <v>60.65</v>
+        <v>58.96</v>
       </c>
       <c r="H371" t="n">
-        <v>20.22</v>
+        <v>18.59</v>
       </c>
       <c r="I371" t="n">
-        <v>7.79</v>
+        <v>5.81</v>
       </c>
       <c r="J371" t="n">
         <v>1</v>
@@ -12292,13 +12292,13 @@
         <v>17</v>
       </c>
       <c r="G372" t="n">
-        <v>55.43</v>
+        <v>60.59</v>
       </c>
       <c r="H372" t="n">
-        <v>20.48</v>
+        <v>17.82</v>
       </c>
       <c r="I372" t="n">
-        <v>4.25</v>
+        <v>3.51</v>
       </c>
       <c r="J372" t="n">
         <v>0</v>
@@ -12324,16 +12324,16 @@
         <v>12</v>
       </c>
       <c r="G373" t="n">
-        <v>58.68</v>
+        <v>63.21</v>
       </c>
       <c r="H373" t="n">
-        <v>21.21</v>
+        <v>19.35</v>
       </c>
       <c r="I373" t="n">
-        <v>4.6</v>
+        <v>5.4</v>
       </c>
       <c r="J373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374">
@@ -12356,13 +12356,13 @@
         <v>17</v>
       </c>
       <c r="G374" t="n">
-        <v>58.2</v>
+        <v>52.75</v>
       </c>
       <c r="H374" t="n">
-        <v>16.21</v>
+        <v>17.38</v>
       </c>
       <c r="I374" t="n">
-        <v>5.06</v>
+        <v>5.27</v>
       </c>
       <c r="J374" t="n">
         <v>0</v>
@@ -12388,13 +12388,13 @@
         <v>12</v>
       </c>
       <c r="G375" t="n">
-        <v>62.6</v>
+        <v>56.75</v>
       </c>
       <c r="H375" t="n">
-        <v>19.84</v>
+        <v>17.68</v>
       </c>
       <c r="I375" t="n">
-        <v>6.62</v>
+        <v>6.64</v>
       </c>
       <c r="J375" t="n">
         <v>1</v>
@@ -12417,16 +12417,16 @@
         <v>20.6</v>
       </c>
       <c r="F376" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G376" t="n">
-        <v>64.4</v>
+        <v>65.44</v>
       </c>
       <c r="H376" t="n">
-        <v>20.31</v>
+        <v>19.03</v>
       </c>
       <c r="I376" t="n">
-        <v>5.41</v>
+        <v>2.67</v>
       </c>
       <c r="J376" t="n">
         <v>1</v>
@@ -12452,13 +12452,13 @@
         <v>17</v>
       </c>
       <c r="G377" t="n">
-        <v>59.85</v>
+        <v>55.8</v>
       </c>
       <c r="H377" t="n">
-        <v>19.26</v>
+        <v>20.49</v>
       </c>
       <c r="I377" t="n">
-        <v>5.45</v>
+        <v>4.06</v>
       </c>
       <c r="J377" t="n">
         <v>0</v>
@@ -12481,19 +12481,19 @@
         <v>20.32</v>
       </c>
       <c r="F378" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G378" t="n">
-        <v>52.84</v>
+        <v>49.05</v>
       </c>
       <c r="H378" t="n">
-        <v>16.56</v>
+        <v>18.05</v>
       </c>
       <c r="I378" t="n">
-        <v>4.38</v>
+        <v>4.53</v>
       </c>
       <c r="J378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379">
@@ -12513,19 +12513,19 @@
         <v>19.96</v>
       </c>
       <c r="F379" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G379" t="n">
-        <v>52.04</v>
+        <v>58.64</v>
       </c>
       <c r="H379" t="n">
-        <v>19.41</v>
+        <v>19.5</v>
       </c>
       <c r="I379" t="n">
-        <v>6.22</v>
+        <v>3.21</v>
       </c>
       <c r="J379" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380">
@@ -12545,16 +12545,16 @@
         <v>21.59</v>
       </c>
       <c r="F380" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G380" t="n">
-        <v>56.13</v>
+        <v>62.19</v>
       </c>
       <c r="H380" t="n">
-        <v>19.89</v>
+        <v>18.86</v>
       </c>
       <c r="I380" t="n">
-        <v>4.23</v>
+        <v>4.64</v>
       </c>
       <c r="J380" t="n">
         <v>1</v>
@@ -12580,16 +12580,16 @@
         <v>18</v>
       </c>
       <c r="G381" t="n">
-        <v>53.84</v>
+        <v>58.58</v>
       </c>
       <c r="H381" t="n">
-        <v>17.38</v>
+        <v>17.52</v>
       </c>
       <c r="I381" t="n">
-        <v>2.9</v>
+        <v>4.12</v>
       </c>
       <c r="J381" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382">
@@ -12609,16 +12609,16 @@
         <v>21.08</v>
       </c>
       <c r="F382" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G382" t="n">
-        <v>61.07</v>
+        <v>54.77</v>
       </c>
       <c r="H382" t="n">
-        <v>19.48</v>
+        <v>22.12</v>
       </c>
       <c r="I382" t="n">
-        <v>6.5</v>
+        <v>3.78</v>
       </c>
       <c r="J382" t="n">
         <v>1</v>
@@ -12641,19 +12641,19 @@
         <v>20.82</v>
       </c>
       <c r="F383" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G383" t="n">
-        <v>50.09</v>
+        <v>61.37</v>
       </c>
       <c r="H383" t="n">
-        <v>15.85</v>
+        <v>19.46</v>
       </c>
       <c r="I383" t="n">
-        <v>1.93</v>
+        <v>4.58</v>
       </c>
       <c r="J383" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384">
@@ -12676,13 +12676,13 @@
         <v>12</v>
       </c>
       <c r="G384" t="n">
-        <v>55.28</v>
+        <v>59.25</v>
       </c>
       <c r="H384" t="n">
-        <v>19.05</v>
+        <v>17.37</v>
       </c>
       <c r="I384" t="n">
-        <v>6.53</v>
+        <v>5.43</v>
       </c>
       <c r="J384" t="n">
         <v>0</v>
@@ -12708,13 +12708,13 @@
         <v>12</v>
       </c>
       <c r="G385" t="n">
-        <v>57.51</v>
+        <v>51.13</v>
       </c>
       <c r="H385" t="n">
-        <v>18.81</v>
+        <v>16.95</v>
       </c>
       <c r="I385" t="n">
-        <v>7.17</v>
+        <v>5.91</v>
       </c>
       <c r="J385" t="n">
         <v>1</v>
@@ -12740,13 +12740,13 @@
         <v>12</v>
       </c>
       <c r="G386" t="n">
-        <v>55.1</v>
+        <v>60.46</v>
       </c>
       <c r="H386" t="n">
-        <v>17.35</v>
+        <v>17.43</v>
       </c>
       <c r="I386" t="n">
-        <v>5.64</v>
+        <v>3.88</v>
       </c>
       <c r="J386" t="n">
         <v>1</v>
@@ -12769,16 +12769,16 @@
         <v>19.13</v>
       </c>
       <c r="F387" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G387" t="n">
-        <v>53.76</v>
+        <v>51.65</v>
       </c>
       <c r="H387" t="n">
-        <v>17.39</v>
+        <v>15.98</v>
       </c>
       <c r="I387" t="n">
-        <v>3.76</v>
+        <v>7.53</v>
       </c>
       <c r="J387" t="n">
         <v>0</v>
@@ -12804,16 +12804,16 @@
         <v>17</v>
       </c>
       <c r="G388" t="n">
-        <v>58.73</v>
+        <v>57.07</v>
       </c>
       <c r="H388" t="n">
-        <v>21.66</v>
+        <v>17.51</v>
       </c>
       <c r="I388" t="n">
-        <v>6.89</v>
+        <v>4.32</v>
       </c>
       <c r="J388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389">
@@ -12836,13 +12836,13 @@
         <v>12</v>
       </c>
       <c r="G389" t="n">
-        <v>56.53</v>
+        <v>52.18</v>
       </c>
       <c r="H389" t="n">
-        <v>16.97</v>
+        <v>18.7</v>
       </c>
       <c r="I389" t="n">
-        <v>5.12</v>
+        <v>3.91</v>
       </c>
       <c r="J389" t="n">
         <v>1</v>
@@ -12868,16 +12868,16 @@
         <v>17</v>
       </c>
       <c r="G390" t="n">
-        <v>59.28</v>
+        <v>54.85</v>
       </c>
       <c r="H390" t="n">
-        <v>15.7</v>
+        <v>18.6</v>
       </c>
       <c r="I390" t="n">
-        <v>1.91</v>
+        <v>3.28</v>
       </c>
       <c r="J390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391">
@@ -12897,16 +12897,16 @@
         <v>21.6</v>
       </c>
       <c r="F391" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G391" t="n">
-        <v>51.62</v>
+        <v>54.63</v>
       </c>
       <c r="H391" t="n">
-        <v>18.18</v>
+        <v>15.95</v>
       </c>
       <c r="I391" t="n">
-        <v>4.58</v>
+        <v>2.03</v>
       </c>
       <c r="J391" t="n">
         <v>1</v>
@@ -12929,19 +12929,19 @@
         <v>18.01</v>
       </c>
       <c r="F392" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G392" t="n">
-        <v>62.38</v>
+        <v>61.34</v>
       </c>
       <c r="H392" t="n">
-        <v>20.86</v>
+        <v>18.78</v>
       </c>
       <c r="I392" t="n">
-        <v>6.15</v>
+        <v>5.62</v>
       </c>
       <c r="J392" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393">
@@ -12961,16 +12961,16 @@
         <v>19.83</v>
       </c>
       <c r="F393" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G393" t="n">
-        <v>58.4</v>
+        <v>58.84</v>
       </c>
       <c r="H393" t="n">
-        <v>19.26</v>
+        <v>20.37</v>
       </c>
       <c r="I393" t="n">
-        <v>6.15</v>
+        <v>5.9</v>
       </c>
       <c r="J393" t="n">
         <v>0</v>
@@ -12993,16 +12993,16 @@
         <v>21.03</v>
       </c>
       <c r="F394" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G394" t="n">
-        <v>55.16</v>
+        <v>56.34</v>
       </c>
       <c r="H394" t="n">
-        <v>16.2</v>
+        <v>17.05</v>
       </c>
       <c r="I394" t="n">
-        <v>5.97</v>
+        <v>3.14</v>
       </c>
       <c r="J394" t="n">
         <v>1</v>
@@ -13025,19 +13025,19 @@
         <v>19.46</v>
       </c>
       <c r="F395" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G395" t="n">
-        <v>56.08</v>
+        <v>61.68</v>
       </c>
       <c r="H395" t="n">
-        <v>18.36</v>
+        <v>19.62</v>
       </c>
       <c r="I395" t="n">
-        <v>5.33</v>
+        <v>4.99</v>
       </c>
       <c r="J395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396">
@@ -13057,16 +13057,16 @@
         <v>20.04</v>
       </c>
       <c r="F396" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G396" t="n">
-        <v>48.78</v>
+        <v>58.81</v>
       </c>
       <c r="H396" t="n">
-        <v>17.41</v>
+        <v>19.56</v>
       </c>
       <c r="I396" t="n">
-        <v>3.63</v>
+        <v>6.05</v>
       </c>
       <c r="J396" t="n">
         <v>1</v>
@@ -13092,13 +13092,13 @@
         <v>12</v>
       </c>
       <c r="G397" t="n">
-        <v>59.87</v>
+        <v>61.19</v>
       </c>
       <c r="H397" t="n">
-        <v>19.64</v>
+        <v>19.48</v>
       </c>
       <c r="I397" t="n">
-        <v>6.35</v>
+        <v>5.53</v>
       </c>
       <c r="J397" t="n">
         <v>1</v>
@@ -13124,13 +13124,13 @@
         <v>17</v>
       </c>
       <c r="G398" t="n">
-        <v>58.03</v>
+        <v>62.95</v>
       </c>
       <c r="H398" t="n">
-        <v>21.54</v>
+        <v>18.02</v>
       </c>
       <c r="I398" t="n">
-        <v>4.73</v>
+        <v>5.44</v>
       </c>
       <c r="J398" t="n">
         <v>0</v>
@@ -13153,19 +13153,19 @@
         <v>19.93</v>
       </c>
       <c r="F399" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G399" t="n">
-        <v>54.19</v>
+        <v>54.55</v>
       </c>
       <c r="H399" t="n">
-        <v>19.08</v>
+        <v>20.59</v>
       </c>
       <c r="I399" t="n">
-        <v>3.95</v>
+        <v>4.99</v>
       </c>
       <c r="J399" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400">
@@ -13188,13 +13188,13 @@
         <v>17</v>
       </c>
       <c r="G400" t="n">
-        <v>57.7</v>
+        <v>57.92</v>
       </c>
       <c r="H400" t="n">
-        <v>20.95</v>
+        <v>20.23</v>
       </c>
       <c r="I400" t="n">
-        <v>4.14</v>
+        <v>4.17</v>
       </c>
       <c r="J400" t="n">
         <v>1</v>
@@ -13220,13 +13220,13 @@
         <v>12</v>
       </c>
       <c r="G401" t="n">
-        <v>51.42</v>
+        <v>52.19</v>
       </c>
       <c r="H401" t="n">
-        <v>20.14</v>
+        <v>21</v>
       </c>
       <c r="I401" t="n">
-        <v>2.93</v>
+        <v>6.01</v>
       </c>
       <c r="J401" t="n">
         <v>1</v>
@@ -13252,13 +13252,13 @@
         <v>17</v>
       </c>
       <c r="G402" t="n">
-        <v>56.4</v>
+        <v>51.78</v>
       </c>
       <c r="H402" t="n">
-        <v>21.39</v>
+        <v>16.76</v>
       </c>
       <c r="I402" t="n">
-        <v>4.71</v>
+        <v>1.46</v>
       </c>
       <c r="J402" t="n">
         <v>1</v>
@@ -13281,16 +13281,16 @@
         <v>21.54</v>
       </c>
       <c r="F403" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G403" t="n">
-        <v>56.68</v>
+        <v>56.73</v>
       </c>
       <c r="H403" t="n">
-        <v>19.68</v>
+        <v>18.53</v>
       </c>
       <c r="I403" t="n">
-        <v>5.58</v>
+        <v>6.95</v>
       </c>
       <c r="J403" t="n">
         <v>1</v>
@@ -13316,13 +13316,13 @@
         <v>12</v>
       </c>
       <c r="G404" t="n">
-        <v>60.72</v>
+        <v>58.46</v>
       </c>
       <c r="H404" t="n">
-        <v>19.17</v>
+        <v>19.08</v>
       </c>
       <c r="I404" t="n">
-        <v>6.75</v>
+        <v>3.59</v>
       </c>
       <c r="J404" t="n">
         <v>0</v>
@@ -13345,19 +13345,19 @@
         <v>18.31</v>
       </c>
       <c r="F405" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G405" t="n">
-        <v>56</v>
+        <v>62.93</v>
       </c>
       <c r="H405" t="n">
-        <v>15.7</v>
+        <v>19.43</v>
       </c>
       <c r="I405" t="n">
-        <v>7.28</v>
+        <v>5.57</v>
       </c>
       <c r="J405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406">
@@ -13380,13 +13380,13 @@
         <v>12</v>
       </c>
       <c r="G406" t="n">
-        <v>57.36</v>
+        <v>55.95</v>
       </c>
       <c r="H406" t="n">
-        <v>17.98</v>
+        <v>17.3</v>
       </c>
       <c r="I406" t="n">
-        <v>4</v>
+        <v>8.44</v>
       </c>
       <c r="J406" t="n">
         <v>1</v>
@@ -13409,19 +13409,19 @@
         <v>19.05</v>
       </c>
       <c r="F407" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G407" t="n">
-        <v>60.05</v>
+        <v>59.24</v>
       </c>
       <c r="H407" t="n">
-        <v>20.48</v>
+        <v>16.99</v>
       </c>
       <c r="I407" t="n">
-        <v>4.71</v>
+        <v>7.09</v>
       </c>
       <c r="J407" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408">
@@ -13441,16 +13441,16 @@
         <v>21.5</v>
       </c>
       <c r="F408" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G408" t="n">
-        <v>55.32</v>
+        <v>57.05</v>
       </c>
       <c r="H408" t="n">
-        <v>19.75</v>
+        <v>17.95</v>
       </c>
       <c r="I408" t="n">
-        <v>3.92</v>
+        <v>6.16</v>
       </c>
       <c r="J408" t="n">
         <v>1</v>
@@ -13473,19 +13473,19 @@
         <v>20.8</v>
       </c>
       <c r="F409" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G409" t="n">
-        <v>58.37</v>
+        <v>50.84</v>
       </c>
       <c r="H409" t="n">
-        <v>17.28</v>
+        <v>18.02</v>
       </c>
       <c r="I409" t="n">
-        <v>7.44</v>
+        <v>6.52</v>
       </c>
       <c r="J409" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410">
@@ -13505,16 +13505,16 @@
         <v>21.95</v>
       </c>
       <c r="F410" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G410" t="n">
-        <v>56.66</v>
+        <v>55.51</v>
       </c>
       <c r="H410" t="n">
-        <v>16.86</v>
+        <v>17.73</v>
       </c>
       <c r="I410" t="n">
-        <v>2.44</v>
+        <v>3.94</v>
       </c>
       <c r="J410" t="n">
         <v>1</v>
@@ -13540,13 +13540,13 @@
         <v>12</v>
       </c>
       <c r="G411" t="n">
-        <v>57.18</v>
+        <v>58.5</v>
       </c>
       <c r="H411" t="n">
-        <v>15.55</v>
+        <v>18.23</v>
       </c>
       <c r="I411" t="n">
-        <v>3.08</v>
+        <v>2.73</v>
       </c>
       <c r="J411" t="n">
         <v>1</v>
@@ -13569,19 +13569,19 @@
         <v>20.23</v>
       </c>
       <c r="F412" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G412" t="n">
-        <v>56.64</v>
+        <v>57.33</v>
       </c>
       <c r="H412" t="n">
-        <v>18.6</v>
+        <v>17.21</v>
       </c>
       <c r="I412" t="n">
-        <v>3.41</v>
+        <v>5.42</v>
       </c>
       <c r="J412" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413">
@@ -13604,13 +13604,13 @@
         <v>12</v>
       </c>
       <c r="G413" t="n">
-        <v>57.46</v>
+        <v>55.85</v>
       </c>
       <c r="H413" t="n">
-        <v>18.6</v>
+        <v>17.76</v>
       </c>
       <c r="I413" t="n">
-        <v>4.2</v>
+        <v>6.18</v>
       </c>
       <c r="J413" t="n">
         <v>1</v>
